--- a/derived/science_geo/prep_wos_exports/output/wos_natsub_queries.xlsx
+++ b/derived/science_geo/prep_wos_exports/output/wos_natsub_queries.xlsx
@@ -13,18 +13,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>PMID=(1284549 OR 1284639 OR 1284640 OR 1284642 OR 1284644 OR 1285365 OR 1301992 OR 1301993 OR 1301994 OR 1301998 OR 1302003 OR 1302004 OR 1302005 OR 1302006 OR 1302007 OR 1302009 OR 1302021 OR 1302022 OR 1302023 OR 1302025 OR 1302026 OR 1302034 OR 1303228 OR 1303229 OR 1303230 OR 1303231 OR 1303232 OR 1303233 OR 1303234 OR 1303236 OR 1303240 OR 1303241 OR 1303245 OR 1303246 OR 1303247 OR 1303248 OR 1303250 OR 1303251 OR 1303252 OR 1303253 OR 1303258 OR 1303259 OR 1303261 OR 1303265 OR 1303266 OR 1303271 OR 1303276 OR 1303277 OR 1303278 OR 1303279 OR 1303280 OR 1303282 OR 1303283 OR 1303284 OR 1303286 OR 1303287 OR 1303288 OR 1303289 OR 1303290 OR 1303291 OR 1338766 OR 1338767 OR 1338771 OR 1338772 OR 1338908 OR 1338910 OR 1345164 OR 1345165 OR 1345166 OR 1345167 OR 1345168 OR 1345169 OR 1345170 OR 1345171 OR 1345172 OR 1345173 OR 1345175 OR 1363808 OR 1363813 OR 1363815 OR 1363816 OR 1363881 OR 7489354 OR 7489355 OR 7489356 OR 7489357 OR 7489358 OR 7489359 OR 7489360 OR 7489361 OR 7489362 OR 7489363 OR 7489364 OR 7489365 OR 7489366 OR 7489368 OR 7489380 OR 7489381 OR 7489395 OR 7489397 OR 7489398 OR 7489399 OR 7489403 OR 7489404 OR 7489405 OR 7489406 OR 7489407 OR 7489408 OR 7489409 OR 7489410 OR 7489411 OR 7489412 OR 7489413 OR 7489414 OR 7489415 OR 7489416 OR 7489417 OR 7493015 OR 7493016 OR 7493017 OR 7493018 OR 7493019 OR 7493020 OR 7493021 OR 7493022 OR 7493023 OR 7493024 OR 7493025 OR 7493026 OR 7493027 OR 7493028 OR 7493029 OR 7493030 OR 7493031 OR 7493032 OR 7493033 OR 7493034 OR 7493035 OR 7493036 OR 7503811 OR 7504552 OR 7504553 OR 7506095 OR 7506096 OR 7506097 OR 7511021 OR 7511023 OR 7512861 OR 7512862 OR 7522742 OR 7526932 OR 7531056 OR 7533029 OR 7539672 OR 7539673 OR 7540910 OR 7545056 OR 7545492 OR 7545494 OR 7545495 OR 7545953 OR 7550308 OR 7550309 OR 7550311 OR 7550312 OR 7550313 OR 7550316 OR 7550317 OR 7550318 OR 7550319 OR 7550321 OR 7550323 OR 7550324 OR 7550325 OR 7550326 OR 7550342 OR 7550343 OR 7550347 OR 7550348 OR 7550349 OR 7550351 OR 7550353 OR 7581446 OR 7581447 OR 7581448 OR 7581450 OR 7581452 OR 7581453 OR 7581454 OR 7581455 OR 7581456 OR 7581457 OR 7581458 OR 7581459 OR 7581460 OR 7581461 OR 7581462 OR 7581463 OR 7581464 OR 7581465 OR 7584948 OR 7584952 OR 7584953 OR 7584954 OR 7584955 OR 7584956 OR 7584958 OR 7584959 OR 7584960 OR 7584974 OR 7584976 OR 7584977 OR 7584980 OR 7584985 OR 7584988 OR 7584989 OR 7584990 OR 7584991 OR 7584992 OR 7584993 OR 7584994 OR 7584995 OR 7584996 OR 7584997 OR 7585006 OR 7585007 OR 7585008 OR 7585009 OR 7585010 OR 7585011 OR 7585012 OR 7585013 OR 7585014 OR 7585015 OR 7585037 OR 7585038 OR 7585039 OR 7585040 OR 7585041 OR 7585042 OR 7585043 OR 7585044 OR 7585045 OR 7585053 OR 7585054 OR 7585055 OR 7585059 OR 7585061 OR 7585062 OR 7585064 OR 7585065 OR 7585066 OR 7585067 OR 7585068 OR 7585069 OR 7585070 OR 7585081 OR 7585083 OR 7585084 OR 7585085 OR 7585088 OR 7585089 OR 7585090 OR 7585091 OR 7585092 OR 7585093 OR 7585094 OR 7585095 OR 7585096 OR 7585097 OR 7585098 OR 7585113 OR 7585115 OR 7585116 OR 7585118 OR 7585119 OR 7585120 OR 7585121 OR 7585122 OR 7585123 OR 7585133 OR 7585142 OR 7585144 OR 7585145 OR 7585147 OR 7585149 OR 7585150 OR 7585151 OR 7585153 OR 7585154 OR 7585155 OR 7585156 OR 7585157 OR 7585169 OR 7585171 OR 7585172 OR 7585177 OR 7585181 OR 7585182 OR 7585183 OR 7585184 OR 7585185 OR 7585187 OR 7585188 OR 7585189 OR 7585210 OR 7585213 OR 7585214 OR 7585217 OR 7585218 OR 7585219 OR 7585220 OR 7585221 OR 7585222 OR 7585223 OR 7585224 OR 7585225 OR 7626145 OR 7632217 OR 7647777 OR 7647783 OR 7647784 OR 7647785 OR 7647787 OR 7647789 OR 7647790 OR 7647791 OR 7647793 OR 7647795 OR 7647798 OR 7647799 OR 7647801 OR 7647802 OR 7663509 OR 7663512 OR 7663513 OR 7663514 OR 7663515 OR 7663516 OR 7663517 OR 7663518 OR 7663520 OR 7663521 OR 7663522 OR 7663523 OR 7663524 OR 7663525 OR 7670463 OR 7670465 OR 7670466 OR 7670467 OR 7670470 OR 7670471 OR 7670472 OR 7670475 OR 7670476 OR 7670477 OR 7670478 OR 7670487 OR 7670488 OR 7670489 OR 7670490 OR 7670491 OR 7670492 OR 7670493 OR 7670494 OR 7670495 OR 7670496 OR 7670497 OR 7670498 OR 7670499 OR 7670501 OR 7684646 OR 7684647 OR 7685651 OR 7685652 OR 7689389 OR 7693128 OR 7693129 OR 7693130 OR 7704017 OR 7704018 OR 7704020 OR 7704021 OR 7704023 OR 7704024 OR 7704025 OR 7704027 OR 7704028 OR 7704029 OR 7719337 OR 7719338 OR 7719340 OR 7719341 OR 7719343 OR 7719344 OR 7719346 OR 7719347 OR 7719348 OR 7719349 OR 7719350 OR 7726912 OR 7773285 OR 7773286 OR 7773287 OR 7773291 OR 7773292 OR 7773293 OR 7773294 OR 7773295 OR 7773296 OR 7773297 OR 7795642 OR 7795643 OR 7795644 OR 7795645 OR 7795646 OR 7795647 OR 7795649 OR 7795650 OR 7795651 OR 7795652 OR 7795653 OR 7842010 OR 7842012 OR 7842013 OR 7842015 OR 7842016 OR 7842017 OR 7842018 OR 7874163 OR 7874166 OR 7874167 OR 7874169 OR 7874172 OR 7874174 OR 7894480 OR 7894481 OR 7894482 OR 7894483 OR 7894484 OR 7894485 OR 7894486 OR 7894487 OR 7894488 OR 7894489 OR 7894490 OR 7894491 OR 7894492 OR 7894493 OR 7894494 OR 7903889 OR 7907913 OR 7915601 OR 7920628 OR 7920630 OR 7920632 OR 7920633 OR 7920634 OR 7920635 OR 7920636 OR 7920637 OR 7920638 OR 7920639 OR 7920640 OR 7920641 OR 7920642 OR 7920643 OR 7920646 OR 7920654 OR 7920655 OR 7920657 OR 7920659 OR 7920660 OR 7920662 OR 7920663 OR 7920664 OR 7920665 OR 7920666 OR 7951315 OR 7951316 OR 7951317 OR 7951319 OR 7951320 OR 7951321 OR 7951322 OR 7951323 OR 7951324 OR 7951325 OR 7951326 OR 7951328 OR 7981749 OR 7981751 OR 7981754 OR 7981755 OR 7981757 OR 7981759 OR 7987387 OR 7987388 OR 7987390 OR 7987392 OR 7987393 OR 7987394 OR 7987396 OR 7987397 OR 7987398 OR 7987399 OR 7987400 OR 8012384 OR 8012386 OR 8012387 OR 8012388 OR 8012389 OR 8012390 OR 8012391 OR 8012392 OR 8012393 OR 8012394 OR 8012395 OR 8012396 OR 8012397 OR 8012398 OR 8054973 OR 8054974 OR 8054975 OR 8054978 OR 8054979 OR 8054980 OR 8054982 OR 8054983 OR 8054985 OR 8075631 OR 8075632 OR 8075633 OR 8075634 OR 8075635 OR 8075637 OR 8075638 OR 8075642 OR 8075646 OR 8075647 OR 8075648 OR 8075649 OR 8098250 OR 8098985 OR 8099842 OR 8102296 OR 8102297 OR 8106079 OR 8136826 OR 8136827 OR 8136828 OR 8136829 OR 8136831 OR 8136833 OR 8136834 OR 8136836 OR 8136839 OR 8136840 OR 8136841 OR 8136842 OR 8162067 OR 8162068 OR 8162069 OR 8162070 OR 8162071 OR 8162072 OR 8162073 OR 8162074 OR 8162075 OR 8162076 OR 8162077 OR 8220418 OR 8220422 OR 8220423 OR 8220424 OR 8220427 OR 8220433 OR 8220434 OR 8252036 OR 8252037 OR 8252038 OR 8252039 OR 8252040 OR 8252041 OR 8252042 OR 8252043 OR 8252044 OR 8252045 OR 8252046 OR 8252047 OR 8252048 OR 8275084 OR 8275085 OR 8275086 OR 8275087 OR 8275088 OR 8275089 OR 8275090 OR 8275091 OR 8275092 OR 8275093 OR 8275094 OR 8275095 OR 8275096 OR 8298639 OR 8298641 OR 8298642 OR 8298645 OR 8298646 OR 8298647 OR 8298648 OR 8298649 OR 8298650 OR 8298651 OR 8298652 OR 8298653 OR 8348148 OR 8348150 OR 8348151 OR 8348152 OR 8348154 OR 8348157 OR 8348158 OR 8358429 OR 8358430 OR 8358433 OR 8358434 OR 8358435 OR 8358436 OR 8358438 OR 8358439 OR 8358440 OR 8358441 OR 8358442 OR 8387378 OR 8387379 OR 8394174 OR 8395283 OR 8401578 OR 8401579 OR 8401580 OR 8401581 OR 8401586 OR 8401588 OR 8401589 OR 8401590 OR 8401591 OR 8485577 OR 8485578 OR 8485579 OR 8485580 OR 8490646 OR 8490647 OR 8490648 OR 8490651 OR 8490653 OR 8490654 OR 8490655 OR 8490657 OR 8490658 OR 8490659 OR 8490661 OR 8490662 OR 8499944 OR 8499946 OR 8499947 OR 8499948 OR 8499949 OR 8499950 OR 8499951 OR 8499952 OR 8513319 OR 8513321 OR 8513323 OR 8513332 OR 8528239 OR 8528241 OR 8528245 OR 8528247 OR 8528248 OR 8528250 OR 8528252 OR 8528254 OR 8528255 OR 8528256 OR 8528258 OR 8528259 OR 8528260 OR 8528261 OR 8528262 OR 8528263 OR 8563750 OR 8563751 OR 8563752 OR 8563753 OR 8563754 OR 8563755 OR 8563756 OR 8563757 OR 8563758 OR 8563759 OR 8563760 OR 8563761 OR 8563762 OR 8563764 OR 8563765 OR 8564822 OR 8564835 OR 8564838 OR 8564843 OR 8564845 OR 8564846 OR 8564847 OR 8564848 OR 8564850 OR 8564851 OR 8574955 OR 8574956 OR 8574957 OR 8574961 OR 8574962 OR 8574963 OR 8574964 OR 8574965 OR 8574966 OR 8574967 OR 8574969 OR 8574970 OR 8574971 OR 8574972 OR 8574973 OR 8589713 OR 8589714 OR 8589715 OR 8589716 OR 8589717 OR 8589718 OR 8589719 OR 8589720 OR 8589721 OR 8589722 OR 8589723 OR 8589724 OR 8589725 OR 8589726 OR 8589727 OR 8589728 OR 8589729 OR 8589730 OR 8597950 OR 8597951 OR 8597952 OR 8597953 OR 8597954 OR 8597955 OR 8597956 OR 8597957 OR 8597958 OR 8597959 OR 8597960 OR 8597961 OR 8597962 OR 8612209 OR 8612218 OR 8612220 OR 8612222 OR 8612224 OR 8612226 OR 8612227 OR 8612228 OR 8612229 OR 8612231 OR 8612233 OR 8612235 OR 8612236 OR 8612237 OR 8612239 OR 8616706 OR 8616707 OR 8616709 OR 8616710 OR 8616711 OR 8616712 OR 8616714 OR 8616715 OR 8616716 OR 8616717 OR 8616718 OR 8616719 OR 8616720 OR 8616721 OR 8630480 OR 8630489 OR 8630490 OR 8630491 OR 8630493 OR 8630497 OR 8630498 OR 8630500 OR 8630501 OR 8630504 OR 8630506 OR 8640219 OR 8640220 OR 8640221 OR 8640223 OR 8640224 OR 8640225 OR 8640226 OR 8640227 OR 8640228 OR 8640229 OR 8640230 OR 8640231 OR 8640232 OR 8640233 OR 8640234 OR 8640235 OR 8640236 OR 8640237 OR 8640238 OR 8640544 OR 8640546 OR 8640547 OR 8640552 OR 8640554 OR 8640556 OR 8640557 OR 8640558 OR 8640559 OR 8640560 OR 8640561 OR 8640562 OR 8640563 OR 8673088 OR 8673089 OR 8673090 OR 8673091 OR 8673092 OR 8673104 OR 8673110 OR 8673112 OR 8673113 OR 8673114 OR 8673125 OR 8673126 OR 8673128 OR 8673129 OR 8673130 OR 8673131 OR 8673132 OR 8673133 OR 8673134 OR 8673135 OR 8673136 OR 8673137 OR 8673138 OR 8673140 OR 8673141 OR 8673911 OR 8673913 OR 8673914 OR 8673915 OR 8673916 OR 8673917 OR 8673918 OR 8673919 OR 8673920 OR 8673921 OR 8673922 OR 8673923 OR 8673924 OR 8673925 OR 8673926 OR 8673927 OR 8673928 OR 8673929 OR 8673930 OR 8673931 OR 8673932 OR 8696334 OR 8696336 OR 8696337 OR 8696338 OR 8696339 OR 8696341 OR 8696342 OR 8696349 OR 8696350 OR 8705844 OR 8705847 OR 8705851 OR 8705854 OR 8705855 OR 8705856 OR 8705857 OR 8705858 OR 8705859 OR 8705860 OR 8705861 OR 8705862 OR 8705863 OR 8705864 OR 8705865 OR 8705866 OR 8782446 OR 8782447 OR 8782448 OR 8782452 OR 8782456 OR 8782457 OR 8782458 OR 8782459 OR 8782460 OR 8782461 OR 8782462 OR 8782463 OR 8782464 OR 8782465 OR 8782815 OR 8782816 OR 8782817 OR 8782818 OR 8782819 OR 8782820 OR 8782821 OR 8782822 OR 8782823 OR 8782824 OR 8782825 OR 8782826 OR 8782827 OR 8782828 OR 8782829 OR 8782830 OR 8782831 OR 8782832 OR 8837600 OR 8837601 OR 8837605 OR 8837607 OR 8837610 OR 8837611 OR 8837612 OR 8837613 OR 8837614 OR 8837615 OR 8837616 OR 8837617 OR 8841182 OR 8841183 OR 8841184 OR 8841185 OR 8841186 OR 8841187 OR 8841189 OR 8841190 OR 8841191 OR 8841192 OR 8841194 OR 8841195 OR 8841196 OR 8841197 OR 8841198 OR 8841199 OR 8841200 OR 8841201 OR 8841202 OR 8841203 OR 8896554 OR 8896555 OR 8896556 OR 8896557 OR 8896558 OR 8896559 OR 8896560 OR 8896561 OR 8896562 OR 8896563 OR 8896564 OR 8896566 OR 8896568 OR 8896569 OR 8896570 OR 8896572 OR 8896573 OR 8898745 OR 8898746 OR 8898747 OR 8898748 OR 8898749 OR 8898750 OR 8898751 OR 8898752 OR 8898753 OR 8898754 OR 8898755 OR 8898756 OR 8898757 OR 8898758 OR 8898759 OR 8944018 OR 8944019 OR 8944020 OR 8944021 OR 8944022 OR 8944023 OR 8944024 OR 8944025 OR 8944026 OR 8944027 OR 8944028 OR 8944029 OR 8944030 OR 8944031 OR 8944032 OR 8944033 OR 8946829 OR 8946830 OR 8946831 OR 8946832 OR 8946833 OR 8946834 OR 8946835 OR 8946836 OR 8946837 OR 8946838 OR 8946839 OR 8946840 OR 8946841 OR 8946842 OR 8986727 OR 8986737 OR 8986738 OR 8986739 OR 8986740 OR 8986741 OR 8986742 OR 8986744 OR 8986746 OR 8986747 OR 8986748 OR 8988164 OR 8988165 OR 8988166 OR 8988167 OR 8988169 OR 8988170 OR 8988171 OR 8988172 OR 8988173 OR 8988174 OR 8988175 OR 8988176 OR 8988177 OR 8988178 OR 8988179 OR 9018234 OR 9018235 OR 9018236 OR 9018237 OR 9018238 OR 9018239 OR 9018240 OR 9018241 OR 9018242 OR 9018243 OR 9018244 OR 9018245 OR 9018246 OR 9018247 OR 9018248 OR 9020839 OR 9020841 OR 9020843 OR 9020844 OR 9020845 OR 9020846 OR 9020847 OR 9020848 OR 9020849 OR 9020851 OR 9020852 OR 9020853 OR 9020854 OR 9035091 OR 9035103 OR 9035104 OR 9035105 OR 9035106 OR 9035107 OR 9035111 OR 9035114 OR 9035118 OR 9035119 OR 9035135 OR 9035138 OR 9035139 OR 9035140 OR 9035141 OR 9035142 OR 9035143 OR 9035144 OR 9035145 OR 9035146 OR 9054935 OR 9054936 OR 9054937 OR 9054938 OR 9054940 OR 9054941 OR 9054942 OR 9054943 OR 9054944 OR 9054945 OR 9054946 OR 9054947 OR 9054949 OR 9054950 OR 9055854 OR 9055855 OR 9055856 OR 9055857 OR 9055858 OR 9055859 OR 9055860 OR 9055861 OR 9055862 OR 9055863 OR 9055864 OR 9055865 OR 9055866 OR 9055868 OR 9055869 OR 9062922 OR 9062923 OR 9062924 OR 9062925 OR 9062926 OR 9062927 OR 9062928 OR 9062929 OR 9062930 OR 9062932 OR 9090377 OR 9090378 OR 9090379 OR 9090381 OR 9090382 OR 9090383 OR 9090384 OR 9090386 OR 9090387 OR 9094106 OR 9094108 OR 9094133 OR 9094134 OR 9094135 OR 9094136 OR 9094137 OR 9094138 OR 9094139 OR 9094140 OR 9094141 OR 9094142 OR 9095163 OR 9095173 OR 9095174 OR 9095175 OR 9095177 OR 9095180 OR 9095181 OR 9095182 OR 9095183 OR 9131621 OR 9131622 OR 9131623 OR 9131624 OR 9131625 OR 9131626 OR 9131628 OR 9131631 OR 9140391 OR 9140392 OR 9140393 OR 9140394 OR 9140396 OR 9140397 OR 9140401 OR 9140402 OR 9140403 OR 9140404 OR 9142107 OR 9142108 OR 9142118 OR 9142119 OR 9142120 OR 9142121 OR 9142122 OR 9142123 OR 9142124 OR 9142125 OR 9142126 OR 9142127 OR 9142128 OR 9142129 OR 9142130 OR 9142131 OR 9142132 OR 9171824 OR 9171825 OR 9171826 OR 9171827 OR 9171828 OR 9171829 OR 9171830 OR 9171831 OR 9171832 OR 9171833 OR 9171834 OR 9171835 OR 9171836 OR 9176478 OR 9176487 OR 9176488 OR 9176489 OR 9176490 OR 9176491 OR 9176492 OR 9176493 OR 9176494 OR 9176495 OR 9176496 OR 9176498 OR 9176499 OR 9176500 OR 9181554 OR 9181556 OR 9181575 OR 9181576 OR 9181577 OR 9181578 OR 9181579 OR 9181580 OR 9181581 OR 9181583 OR 9181584 OR 9207786 OR 9207787 OR 9207788 OR 9207789 OR 9207790 OR 9207791 OR 9207792 OR 9207793 OR 9207794 OR 9207795 OR 9207796 OR 9207797 OR 9207798 OR 9207799 OR 9207800 OR 9207801 OR 9212089 OR 9212090 OR 9212098 OR 9212099 OR 9212100 OR 9212101 OR 9212102 OR 9212103 OR 9212104 OR 9212105 OR 9212106 OR 9212107 OR 9212108 OR 9212109 OR 9212110 OR 9212111 OR 9212112 OR 9212113 OR 9219263 OR 9219264 OR 9219265 OR 9219266 OR 9219267 OR 9219269 OR 9219270 OR 9219271 OR 9219272 OR 9219274 OR 9241269 OR 9241270 OR 9241271 OR 9241272 OR 9241273 OR 9241274 OR 9241275 OR 9241276 OR 9241277 OR 9241278 OR 9241279 OR 9241280 OR 9241281 OR 9241282 OR 9241283 OR 9255789 OR 9255790 OR 9255791 OR 9255792 OR 9255793 OR 9255794 OR 9255795 OR 9255796 OR 9255797 OR 9255799 OR 9255800 OR 9255801 OR 9256264 OR 9256273 OR 9256274 OR 9256275 OR 9256276 OR 9256277 OR 9256278 OR 9256279 OR 9256280 OR 9256281 OR 9256282 OR 9256283 OR 9256284 OR 9256285 OR 9256286 OR 9256287 OR 9256288 OR 9256289 OR 9288095 OR 9288096 OR 9288097 OR 9288099 OR 9288100 OR 9288101 OR 9288103 OR 9288104 OR 9288107 OR 9288110 OR 9288111 OR 9288723 OR 9288724 OR 9288725 OR 9288726 OR 9288727 OR 9288729 OR 9288730 OR 9288731 OR 9288732 OR 9288733 OR 9288734 OR 9288735 OR 9306400 OR 9306401 OR 9306402 OR 9306403 OR 9306404 OR 9306405 OR 9306406 OR 9306407 OR 9306408 OR 9306409 OR 9306410 OR 9326933 OR 9326934 OR 9326935 OR 9326936 OR 9326937 OR 9326941 OR 9326942 OR 9326944 OR 9326945 OR 9326946 OR 9326947 OR 9326948 OR 9326949 OR 9326950 OR 9326951 OR 9334706 OR 9334708 OR 9334719 OR 9334720 OR 9334721 OR 9334722 OR 9334723 OR 9334724 OR 9334725 OR 9334726 OR 9334727 OR 9334728 OR 9334729 OR 9334730 OR 9334731 OR 9334732 OR 9334733 OR 9335033 OR 9335046 OR 9335047 OR 9335048 OR 9335052 OR 9335053 OR 9335054 OR 9335055 OR 9354791 OR 9354792 OR 9354793 OR 9354794 OR 9354795 OR 9354796 OR 9354797 OR 9354798 OR 9354799 OR 9354802 OR 9354803 OR 9354804 OR 9354805 OR 9354806 OR 9354807 OR 9359092 OR 9359093 OR 9359095 OR 9359107 OR 9359108 OR 9359109 OR 9359110 OR 9359111 OR 9359112 OR 9359113 OR 9359114 OR 9359115 OR 9359116 OR 9359117 OR 9359694 OR 9359695 OR 9359696 OR 9359697 OR 9359698 OR 9359699 OR 9359700 OR 9359702 OR 9359703 OR 9359704 OR 9359705 OR 9359706 OR 9359707 OR 9396603 OR 9396604 OR 9396607 OR 9396608 OR 9396609 OR 9396610 OR 9396611 OR 9396612 OR 9396613 OR 9396614 OR 9398839 OR 9398840 OR 9398841 OR 9398842 OR 9398843 OR 9398845 OR 9398846 OR 9398847 OR 9398848 OR 9398849 OR 9398850 OR 9398851 OR 9398853 OR 9398854 OR 9398855 OR 9398856 OR 9398857 OR 9398858 OR 9398859 OR 9398860 OR 9415887 OR 9415888 OR 9415889 OR 9415890 OR 9415891 OR 9415892 OR 9415893 OR 9415894 OR 9415896 OR 9425895 OR 9425896 OR 9425897 OR 9425898 OR 9425899 OR 9425900 OR 9425901 OR 9425902 OR 9425903 OR 9425904 OR 9425905 OR 9425906 OR 9425907 OR 9425908 OR 9427593 OR 9427603 OR 9427604 OR 9427605 OR 9427606 OR 9427607 OR 9427608 OR 9427609 OR 9427610 OR 9427611 OR 9427612 OR 9427613 OR 9427615 OR 9447576 OR 9447594 OR 9447595 OR 9447598 OR 9447599 OR 9447600 OR 9461188 OR 9461189 OR 9461190 OR 9461191 OR 9461193 OR 9461194 OR 9461195 OR 9461196 OR 9461197 OR 9461198 OR 9461199 OR 9461200 OR 9461201 OR 9462738 OR 9462739 OR 9462740 OR 9462741 OR 9462742 OR 9462743 OR 9462744 OR 9462746 OR 9462747 OR 9462748 OR 9462749 OR 9462750 OR 9462751 OR 9462752 OR 9462753 OR 9462754 OR 9462755 OR 9487497 OR 9487522 OR 9487523 OR 9487524 OR 9487525 OR 9487526 OR 9487527 OR 9487528 OR 9487529 OR 9487530 OR 9487532 OR 9500542 OR 9500544 OR 9500545 OR 9500546 OR 9500547 OR 9500548 OR 9500549 OR 9500550 OR 9500551 OR 9500552 OR 9500553 OR 9500554 OR 9500555 OR 9500556 OR 9500590 OR 9500600 OR 9500601 OR 9500602 OR 9500603 OR 9500604 OR 9500608 OR 9500609 OR 9500610 OR 9500611 OR 9500612 OR 9500613 OR 9500614 OR 9500615 OR 9527990 OR 9527991 OR 9528002 OR 9528004 OR 9528005 OR 9528006 OR 9528007 OR 9528008 OR 9528009 OR 9528010 OR 9528011 OR 9528012 OR 9528013 OR 9528015 OR 9537412 OR 9537413 OR 9537414 OR 9537415 OR 9537416 OR 9537417 OR 9537418 OR 9537419 OR 9537420 OR 9537421 OR 9537422 OR 9537423 OR 9537424 OR 9537425 OR 9546783 OR 9546784 OR 9546785 OR 9546786 OR 9546787 OR 9546789 OR 9546790 OR 9546791 OR 9546793 OR 9546794 OR 9546795 OR 9555711 OR 9555712 OR 9555724 OR 9555725 OR 9555726 OR 9555727 OR 9555728 OR 9555729 OR 9555730 OR 9555731 OR 9555734 OR 9585190 OR 9585191 OR 9585193 OR 9585194 OR 9585218 OR 9585230 OR 9585231 OR 9585232 OR 9585233 OR 9585234 OR 9585238 OR 9585239 OR 9585240 OR 9585241 OR 9585242 OR 9590284 OR 9590285 OR 9590286 OR 9590287 OR 9590288 OR 9590289 OR 9590290 OR 9590291 OR 9590292 OR 9590293 OR 9590294 OR 9590295 OR 9590296 OR 9590297 OR 9590298 OR 9590300 OR 9591269 OR 9592390 OR 9592391 OR 9592392 OR 9592393 OR 9592394 OR 9592396 OR 9592397 OR 9592398 OR 9620767 OR 9620768 OR 9620769 OR 9620770 OR 9620771 OR 9620772 OR 9620773 OR 9620774 OR 9620775 OR 9620776 OR 9620777 OR 9620778 OR 9620779 OR 9620780 OR 9620781 OR 9620782 OR 9620783 OR 9623975 OR 9623976 OR 9623977 OR 9623978 OR 9623979 OR 9623980 OR 9623981 OR 9623982 OR 9623983 OR 9623984 OR 9623985 OR 9623986 OR 9624684 OR 9624685 OR 9624686 OR 9624687 OR 9624689 OR 9624690 OR 9624691 OR 9624692 OR 9630886 OR 9630890 OR 9630891 OR 9630893 OR 9630894 OR 9630896 OR 9630897 OR 9630898 OR 9630899 OR 9630902 OR 9630920 OR 9630921 OR 9630922 OR 9630923 OR 9630924 OR 9630925 OR 9630926 OR 9630929 OR 9630935 OR 9630947 OR 9630948 OR 9630950 OR 9630951 OR 9630952 OR 9630953 OR 9630954 OR 9630955 OR 9630956 OR 9630957 OR 9630958 OR 9630959 OR 9630961 OR 9630965 OR 9630967 OR 9630976 OR 9630978 OR 9630979 OR 9630980 OR 9630981 OR 9630982 OR 9630983 OR 9630984 OR 9630985 OR 9630986 OR 9630987 OR 9630991 OR 9630992 OR 9631007 OR 9631008 OR 9631009 OR 9631010 OR 9631011 OR 9631012 OR 9631013 OR 9631014 OR 9631015 OR 9631016 OR 9631018 OR 9631022 OR 9631025 OR 9631035 OR 9631036 OR 9631037 OR 9631038 OR 9631039 OR 9631040 OR 9631041 OR 9631042 OR 9631043 OR 9631044 OR 9631048 OR 9631061 OR 9631062 OR 9631063 OR 9631065 OR 9631066 OR 9631067 OR 9631068 OR 9631069 OR 9631070 OR 9631071 OR 9631087 OR 9631088 OR 9631089 OR 9631090 OR 9631091 OR 9631093 OR 9631094 OR 9631095 OR 9634820 OR 9634821 OR 9634822 OR 9634824 OR 9634825 OR 9634826 OR 9634827 OR 9634828 OR 9634829 OR 9634830 OR 9634850 OR 9634851 OR 9634853 OR 9634856 OR 9634857 OR 9661193 OR 9661196 OR 9661197 OR 9661198 OR 9661199 OR 9661201 OR 9661203 OR 9661204 OR 9661205 OR 9662367 OR 9662368 OR 9662369 OR 9662370 OR 9662371 OR 9662372 OR 9662373 OR 9662374 OR 9662375 OR 9662376 OR 9662377 OR 9662378 OR 9662379 OR 9662380 OR 9662381 OR 9662394 OR 9662395 OR 9662396 OR 9662397 OR 9662398 OR 9662399 OR 9662400 OR 9662401 OR 9662402 OR 9662403 OR 9662404 OR 9662405 OR 9662406 OR 9662407 OR 9662408 OR 9662409 OR 9662410 OR 9697692 OR 9697693 OR 9697694 OR 9697695 OR 9697696 OR 9697697 OR 9697698 OR 9697699 OR 9697700 OR 9697701 OR 9697702 OR 9697703 OR 9697704 OR 9697705 OR 9697706 OR 9701229 OR 9701242 OR 9701243 OR 9701244 OR 9701245 OR 9701246 OR 9701247 OR 9701248 OR 9701249 OR 9701250 OR 9701251 OR 9701252 OR 9701253 OR 9701254 OR 9702751 OR 9702753 OR 9702754 OR 9702768 OR 9702769 OR 9702771 OR 9702772 OR 9702773 OR 9702774 OR 9702775 OR 9702776 OR 9702777 OR 9702778 OR 9702779 OR 9702781 OR 9731524 OR 9731525 OR 9731526 OR 9731527 OR 9731528 OR 9731529 OR 9731530 OR 9731531 OR 9731532 OR 9731534 OR 9731535 OR 9731536 OR 9731537 OR 9731538 OR 9731539 OR 9731540 OR 9731541 OR 9734393 OR 9734394 OR 9734395 OR 9734397 OR 9734398 OR 9734399 OR 9734400 OR 9734401 OR 9734402 OR 9734403 OR 9734404 OR 9734405 OR 9743092 OR 9743113 OR 9743114 OR 9743116 OR 9743117 OR 9743118 OR 9743120 OR 9743121 OR 9743122 OR 9743123 OR 9743124 OR 9743126 OR 9771703 OR 9771704 OR 9771705 OR 9771706 OR 9771707 OR 9771708 OR 9771709 OR 9771710 OR 9771711 OR 9771712 OR 9771713 OR 9771714 OR 9771715 OR 9771716 OR 9771717 OR 9771719 OR 9771732 OR 9771734 OR 9771745 OR 9771746 OR 9771747 OR 9771748 OR 9771750 OR 9771751 OR 9771753 OR 9771754 OR 9771755 OR 9771756 OR 9771757 OR 9788325 OR 9788326 OR 9788347 OR 9788348 OR 9788349 OR 9788350 OR 9788351 OR 9788352 OR 9788353 OR 9788354 OR 9788355 OR 9788357 OR 9806540 OR 9806541 OR 9806543 OR 9806544 OR 9806545 OR 9806546 OR 9806548 OR 9806549 OR 9806551 OR 9806552 OR 9806553 OR 9806554 OR 9806555 OR 9809534 OR 9809535 OR 9809547 OR 9809548 OR 9809549 OR 9809550 OR 9809551 OR 9809552 OR 9809553 OR 9809554 OR 9809556 OR 9809557 OR 9809558 OR 9809559 OR 9809560 OR 9809561 OR 9831012 OR 9831029 OR 9831031 OR 9831032 OR 9831033 OR 9831034 OR 9831035 OR 9831036 OR 9831037 OR 9831038 OR 9831039 OR 9831040 OR 9831041 OR 9843204 OR 9843205 OR 9843206 OR 9843207 OR 9843208 OR 9843209 OR 9843210 OR 9843211 OR 9843212 OR 9843213 OR 9843214 OR 9843215 OR 9843216 OR 9843217 OR 9843218 OR 9846573 OR 9846574 OR 9846575 OR 9846576 OR 9846577 OR 9846578 OR 9846579 OR 9846580 OR 9846581 OR 9846582 OR 9846583 OR 9846585 OR 9846586 OR 9846587 OR 9853591 OR 9853592 OR 9853610 OR 9853613 OR 9853614 OR 9853615 OR 9853616 OR 9853617 OR 9853618 OR 9853619 OR 9853620 OR 9853621 OR 9853622 OR 9853623 OR 9883836 OR 9883837 OR 9883838 OR 9883839 OR 9883840 OR 9883841 OR 9883842 OR 9883843 OR 9883844 OR 9883845 OR 9883846 OR 9883847 OR 9883848 OR 9883849 OR 9883850 OR 9915492 OR 9916794 OR 9916795 OR 9916796 OR 9916797 OR 9916798 OR 9916799 OR 9916800 OR 9916801 OR 9916802 OR 9916803 OR 9916804 OR 9916805 OR 9916806 OR 9916807 OR 9916808 OR 9916809 OR 9920264 OR 9920266 OR 9920268 OR 9920269 OR 9920270 OR 9920271 OR 9920272 OR 9920273 OR 9920274 OR 9920276 OR 9930862 OR 9930863 OR 9930864 OR 9930865 OR 9930866 OR 9930867 OR 9930868 OR 9930869 OR 9930870 OR 9930871 OR 9930872 OR 9930873 OR 9930874 OR 9930875 OR 9930876 OR 9988267 OR 9988268 OR 9988269 OR 9988270 OR 9988271 OR 9988272 OR 9988273 OR 9988274 OR 9988275 OR 9988276 OR 9988277 OR 9988278 OR 9988279 OR 9988280 OR 9988281 OR 10052318 OR 10052332 OR 10052348 OR 10052350 OR 10052351 OR 10052352 OR 10052353 OR 10052354 OR 10052355 OR 10052356 OR 10052357 OR 10052358 OR 10052359 OR 10080178 OR 10080179 OR 10080181 OR 10080182 OR 10080183 OR 10080184 OR 10080186 OR 10080187 OR 10080189 OR 10080190 OR 10080192 OR 10086381 OR 10086382 OR 10086383 OR 10086384 OR 10086385 OR 10086386 OR 10086387 OR 10086388 OR 10086389 OR 10086390 OR 10086391 OR 10086392 OR 10086393 OR 10086394 OR 10086395 OR 10096270 OR 10096271 OR 10096288 OR 10096295 OR 10192385 OR 10192386 OR 10192387 OR 10192389 OR 10192391 OR 10192392 OR 10192393 OR 10192394 OR 10192395 OR 10192396 OR 10192397 OR 10192399 OR 10192400 OR 10202926 OR 10202927 OR 10202928 OR 10202929 OR 10202930 OR 10202931 OR 10202932 OR 10202933 OR 10202934 OR 10202935 OR 10202936 OR 10202938 OR 10202939 OR 10202940 OR 10207858 OR 10207880 OR 10207881 OR 10207882 OR 10207883 OR 10207884 OR 10207885 OR 10207886 OR 10207887 OR 10207888 OR 10207889 OR 10207890 OR 10207891 OR 10207892 OR 10207893 OR 10229226 OR 10229227 OR 10229228 OR 10229230 OR 10229232 OR 10229233 OR 10229234 OR 10229235 OR 10229236 OR 10229237 OR 10229239 OR 10319857 OR 10319859 OR 10319860 OR 10319861 OR 10319862 OR 10319863 OR 10319864 OR 10319865 OR 10319866 OR 10319867 OR 10319868 OR 10319869 OR 10319870 OR 10319871 OR 10319872 OR 10319873 OR 10319874 OR 10331803 OR 10331804 OR 10331805 OR 10331806 OR 10331807 OR 10331808 OR 10331809 OR 10331810 OR 10331811 OR 10331812 OR 10369254 OR 10369255 OR 10369256 OR 10369257 OR 10369258 OR 10369260 OR 10369261 OR 10369262 OR 10369263 OR 10369264 OR 10369265 OR 10369267 OR 10369268 OR 10371488 OR 10371499 OR 10371501 OR 10371502 OR 10371504 OR 10371505 OR 10371506 OR 10371507 OR 10371508 OR 10371509 OR 10371510 OR 10371511 OR 10371512 OR 10385297 OR 10385316 OR 10385318 OR 10385319 OR 10385320 OR 10385321 OR 10385322 OR 10385323 OR 10385324 OR 10385325 OR 10385326 OR 10385327 OR 10385329 OR 10385330 OR 10391209 OR 10391211 OR 10391212 OR 10391213 OR 10391214 OR 10391215 OR 10391216 OR 10391218 OR 10391219 OR 10391220 OR 10391223 OR 10395319 OR 10395320 OR 10395321 OR 10395322 OR 10395323 OR 10395324 OR 10395325 OR 10395326 OR 10395327 OR 10395328 OR 10395329 OR 10395330 OR 10395331 OR 10395332 OR 10395333 OR 10395334 OR 10404156 OR 10404157 OR 10404158 OR 10404159 OR 10404160 OR 10404161 OR 10404162 OR 10404163 OR 10404164 OR 10404165 OR 10404166 OR 10404167 OR 10409335 OR 10409355 OR 10409357 OR 10409361 OR 10426310 OR 10426311 OR 10426312 OR 10426313 OR 10426314 OR 10426315 OR 10426316 OR 10426317 OR 10426318 OR 10426319 OR 10426320 OR 10426321 OR 10426322 OR 10426323 OR 10426324 OR 10429217 OR 10429238 OR 10429239 OR 10429240 OR 10429241 OR 10429242 OR 10429243 OR 10429244 OR 10429245 OR 10429246 OR 10429247 OR 10429248 OR 10429249 OR 10429250 OR 10429254 OR 10431235 OR 10431236 OR 10431237 OR 10431238 OR 10431239 OR 10431240 OR 10431241 OR 10431242 OR 10431243 OR 10431244 OR 10431245 OR 10431246 OR 10431247 OR 10431248 OR 10431249 OR 10470075 OR 10470076 OR 10470077 OR 10470079 OR 10470080 OR 10470081 OR 10470082 OR 10470083 OR 10470084 OR 10470085 OR 10470086 OR 10470088 OR 10470089 OR 10471491 OR 10471492 OR 10471494 OR 10471495 OR 10471497 OR 10471498 OR 10471499 OR 10471500 OR 10471501 OR 10471502 OR 10471504 OR 10471505 OR 10471506 OR 10471507 OR 10471508 OR 10471509 OR 10471510 OR 10471511 OR 10471512 OR 10471904 OR 10471906 OR 10471926 OR 10471927 OR 10471928 OR 10471929 OR 10471930 OR 10471931 OR 10471933 OR 10471934 OR 10471935 OR 10471936 OR 10471937 OR 10471943 OR 10502799 OR 10502800 OR 10502801 OR 10502802 OR 10502816 OR 10502817 OR 10502818 OR 10502819 OR 10502820 OR 10502822 OR 10502823 OR 10502825 OR 10502827 OR 10502828 OR 10504677 OR 10504695 OR 10504696 OR 10504697 OR 10504698 OR 10504699 OR 10504700 OR 10504701 OR 10504702 OR 10504703 OR 10504704 OR 10504705 OR 10504706 OR 10504710 OR 10504711 OR 10504714 OR 10508511 OR 10508512 OR 10508513 OR 10508514 OR 10508515 OR 10508516 OR 10508517 OR 10508518 OR 10508519 OR 10508520 OR 10508521 OR 10508522 OR 10508523 OR 10508524 OR 10508525 OR 10508526 OR 10508527 OR 10545866 OR 10545867 OR 10545911 OR 10545913 OR 10545914 OR 10545915 OR 10545916 OR 10545917 OR 10545918 OR 10545920 OR 10545921 OR 10545922 OR 10545923 OR 10545926 OR 10545930 OR 10545949 OR 10545950 OR 10545951 OR 10545953 OR 10545954 OR 10545955 OR 10545956 OR 10545976 OR 10545990 OR 10545991 OR 10545992 OR 10545993 OR 10545994 OR 10545995 OR 10545996 OR 10545997 OR 10545998 OR 10545999 OR 10546000 OR 10546001 OR 10546002 OR 10559856 OR 10559857 OR 10559858 OR 10559859 OR 10559860 OR 10559861 OR 10559862 OR 10559863 OR 10559864 OR 10559865 OR 10559866 OR 10559867 OR 10559868 OR 10559877 OR 10559878 OR 10559879 OR 10559880 OR 10559881 OR 10559883 OR 10559884 OR 10559885 OR 10559886 OR 10559898 OR 10559899 OR 10559900 OR 10559901 OR 10559902 OR 10559903 OR 10559904 OR 10559905 OR 10559906 OR 10559907 OR 10559916 OR 10559917 OR 10559918 OR 10559919 OR 10559920 OR 10559921 OR 10559922 OR 10559923 OR 10559924 OR 10559936 OR 10559937 OR 10559938 OR 10559939 OR 10559940 OR 10559941 OR 10559942 OR 10559943 OR 10559944 OR 10559945 OR 10559946 OR 10559957 OR 10559958 OR 10559959 OR 10559960 OR 10559961 OR 10559962 OR 10559963 OR 10559964 OR 10559965 OR 10559966 OR 10559967 OR 10559968 OR 10559969 OR 10559981 OR 10559982 OR 10559983 OR 10559984 OR 10559985 OR 10559986 OR 10559987 OR 10559988 OR 10559989 OR 10559990 OR 10559991 OR 10559992 OR 10581025 OR 10581026 OR 10581027 OR 10581028 OR 10581030 OR 10581031 OR 10581032 OR 10581033 OR 10581034 OR 10581035 OR 10581036 OR 10581037 OR 10581038 OR 10581039 OR 10581063 OR 10581078 OR 10581081 OR 10581082 OR 10581083 OR 10581084 OR 10581085 OR 10581086 OR 10581087 OR 10585674 OR 10585711 OR 10585713 OR 10585714 OR 10585715 OR 10585716 OR 10585717 OR 10585718 OR 10585719 OR 10585721 OR 10585722 OR 10585723 OR 10585727 OR 10585728 OR 10587640 OR 10587641 OR 10587642 OR 10587643 OR 10587644 OR 10587645 OR 10587646 OR 10587647 OR 10587648 OR 10587649 OR 10610177 OR 10610178 OR 10610180 OR 10610181 OR 10610182 OR 10610183 OR 10613820 OR 10613821 OR 10613822 OR 10613823 OR 10613824 OR 10613825 OR 10613826 OR 10613827 OR 10613829 OR 10613830 OR 10613831 OR 10613832 OR 10613833 OR 10613834 OR 10613835 OR 10615117 OR 10615118 OR 10615119 OR 10615120 OR 10615122 OR 10615123 OR 10615124 OR 10615125 OR 10615126 OR 10615127 OR 10615128 OR 10615129 OR 10615130 OR 10615131 OR 10615132 OR 10615133 OR 10615134 OR 10615135 OR 10615136 OR 10620799 OR 10620800 OR 10620801 OR 10620802 OR 10620803 OR 10620804 OR 10620805 OR 10620806 OR 10620807 OR 10620808 OR 10625373 OR 10625376 OR 10625377 OR 10625379 OR 10625386 OR 10625388 OR 10625389 OR 10625390 OR 10625391 OR 10625392 OR 10625393 OR 10625394 OR 10625395 OR 10625396 OR 10625397 OR 10625398 OR 10625399 OR 10655051 OR 10655052 OR 10655054 OR 10655055 OR 10655056 OR 10655057 OR 10655058 OR 10655059 OR 10655060 OR 10655061 OR 10655064 OR 10655065 OR 10655066 OR 10655067 OR 10655069 OR 10655070 OR 10655088 OR 10655101 OR 10655102 OR 10655103 OR 10655104 OR 10655105 OR 10655106 OR 10655107 OR 10655108 OR 10655109 OR 10655110 OR 10655111 OR 10655112 OR 10655113 OR 10655114 OR 10655115 OR 10655583 OR 10655584 OR 10655585 OR 10655586 OR 10655587 OR 10655588 OR 10655589 OR 10655590 OR 10655591 OR 10655592 OR 10655593 OR 10655594 OR 10657070 OR 10657119 OR 10657121 OR 10657122 OR 10657123 OR 10657124 OR 10657126 OR 10657128 OR 10657129 OR 10657130 OR 10657131 OR 10657132 OR 10657133 OR 10657134 OR 10657137 OR 10700090 OR 10700091 OR 10700140 OR 10700143 OR 10700144 OR 10700145 OR 10700146 OR 10700147 OR 10700148 OR 10700149 OR 10700150 OR 10700151 OR 10700152 OR 10700153 OR 10700154 OR 10700155 OR 10700170 OR 10700176 OR 10700179 OR 10700181 OR 10700182 OR 10700183 OR 10700185 OR 10700186 OR 10700187 OR 10700188 OR 10700189 OR 10700190 OR 10700191 OR 10700192 OR 10700227 OR 10700228 OR 10700229 OR 10700230 OR 10700231 OR 10700232 OR 10700233 OR 10700234 OR 10700235 OR 10700236 OR 10700238 OR 10700239 OR 10700240 OR 10700241 OR 10707082 OR 10707083 OR 10707084 OR 10707085 OR 10707086 OR 10707087 OR 10707088 OR 10707090 OR 10707091 OR 10742093 OR 10742094 OR 10742096 OR 10742097 OR 10742098 OR 10742099 OR 10742100 OR 10742101 OR 10742102 OR 10742103 OR 10742104 OR 10742105 OR 10742106 OR 10742107 OR 10742108 OR 10742109 OR 10742110 OR 10742111 OR 10742112 OR 10742113 OR 10742114 OR 10742128 OR 10742146 OR 10742147 OR 10742148 OR 10742149 OR 10742150 OR 10742151 OR 10742152 OR 10742153 OR 10742154 OR 10742155 OR 10742156 OR 10742157 OR 10742159 OR 10748519 OR 10748520 OR 10748521 OR 10748522 OR 10748523 OR 10748524 OR 10748525 OR 10748526 OR 10748527 OR 10748528 OR 10748529 OR 10748530 OR 10748531 OR 10748532 OR 10748537 OR 10783235 OR 10783236 OR 10783237 OR 10783238 OR 10783239 OR 10783240 OR 10783241 OR 10783242 OR 10783243 OR 10783244 OR 10783245 OR 10802617 OR 10802618 OR 10802619 OR 10802620 OR 10802621 OR 10802622 OR 10802623 OR 10802624 OR 10802625 OR 10802626 OR 10802632 OR 10802633 OR 10802645 OR 10802646 OR 10802647 OR 10802648 OR 10</t>
-  </si>
-  <si>
-    <t>PMID=(14502277 OR 14502278 OR 14502279 OR 14502280 OR 14502281 OR 14502282 OR 14502283 OR 14502284 OR 14502293 OR 14502294 OR 14502295 OR 14515130 OR 14517540 OR 14517541 OR 14517542 OR 14517543 OR 14517553 OR 14517554 OR 14517555 OR 14520401 OR 14523392 OR 14523401 OR 14523402 OR 14528297 OR 14528298 OR 14528299 OR 14528300 OR 14528301 OR 14528305 OR 14528306 OR 14528307 OR 14528311 OR 14528312 OR 14528313 OR 14528314 OR 14528315 OR 14555957 OR 14555959 OR 14556002 OR 14556003 OR 14556007 OR 14556008 OR 14557818 OR 14557819 OR 14562057 OR 14562058 OR 14566333 OR 14566334 OR 14566335 OR 14566338 OR 14566339 OR 14578881 OR 14578882 OR 14578885 OR 14578886 OR 14578891 OR 14578892 OR 14578893 OR 14578894 OR 14578895 OR 14578896 OR 14578897 OR 14578898 OR 14578899 OR 14578900 OR 14578901 OR 14578902 OR 14578903 OR 14578904 OR 14578905 OR 14578908 OR 14578909 OR 14578910 OR 14593407 OR 14593420 OR 14593421 OR 14595335 OR 14595336 OR 14595351 OR 14595352 OR 14595407 OR 14595408 OR 14595431 OR 14595440 OR 14595441 OR 14608358 OR 14608362 OR 14608363 OR 14608364 OR 14608367 OR 14608378 OR 14608379 OR 14625542 OR 14625543 OR 14625544 OR 14625545 OR 14625546 OR 14625550 OR 14625551 OR 14625552 OR 14625559 OR 14625560 OR 14625562 OR 14634645 OR 14634647 OR 14634649 OR 14634662 OR 14634663 OR 14634664 OR 14634665 OR 14634666 OR 14634667 OR 14634668 OR 14647275 OR 14647276 OR 14647292 OR 14647293 OR 14647305 OR 14647306 OR 14647324 OR 14647496 OR 14647497 OR 14647513 OR 14661018 OR 14661021 OR 14661025 OR 14661026 OR 14661027 OR 14661028 OR 14688790 OR 14688791 OR 14688792 OR 14688793 OR 14688794 OR 14702038 OR 14702040 OR 14702041 OR 14702042 OR 14702043 OR 14702044 OR 14702045 OR 14702046 OR 14702631 OR 14702632 OR 14702633 OR 14702634 OR 14702635 OR 14702636 OR 14702637 OR 14702638 OR 14702639 OR 14704667 OR 14704668 OR 14704669 OR 14704683 OR 14704699 OR 14704704 OR 14704706 OR 14704707 OR 14704708 OR 14704709 OR 14704710 OR 14704789 OR 14704790 OR 14704791 OR 14716305 OR 14716306 OR 14716307 OR 14716308 OR 14716314 OR 14716315 OR 14716317 OR 14730301 OR 14730302 OR 14730303 OR 14730304 OR 14730312 OR 14730313 OR 14730314 OR 14730358 OR 14730359 OR 14743216 OR 14743217 OR 14743218 OR 14743219 OR 14743220 OR 14743221 OR 14745442 OR 14745443 OR 14745447 OR 14745448 OR 14745449 OR 14745450 OR 14755272 OR 14755273 OR 14755282 OR 14755292 OR 14755293 OR 14758355 OR 14758356 OR 14758360 OR 14758362 OR 14758363 OR 14767479 OR 14767480 OR 14767481 OR 14770175 OR 14770176 OR 14770177 OR 14770178 OR 14770181 OR 14770182 OR 14770183 OR 14770184 OR 14966518 OR 14966519 OR 14966520 OR 14981511 OR 14981512 OR 14981513 OR 14981514 OR 14981515 OR 14981517 OR 14981518 OR 14981519 OR 14981520 OR 14981521 OR 14990951 OR 14990954 OR 14991035 OR 14991036 OR 14991049 OR 14991050 OR 14991053 OR 14991054 OR 14991055 OR 14991056 OR 15004554 OR 15004558 OR 15004559 OR 15004560 OR 15004566 OR 15024388 OR 15034566 OR 15034567 OR 15034568 OR 15034569 OR 15034570 OR 15034571 OR 15034572 OR 15034573 OR 15034574 OR 15034578 OR 15034579 OR 15034580 OR 15034581 OR 15034582 OR 15039774 OR 15039775 OR 15039776 OR 15039777 OR 15039778 OR 15039779 OR 15039780 OR 15048110 OR 15048123 OR 15048124 OR 15048125 OR 15048126 OR 15048127 OR 15048128 OR 15048129 OR 15048131 OR 15052268 OR 15052269 OR 15052271 OR 15054488 OR 15057220 OR 15057230 OR 15060547 OR 15064762 OR 15064764 OR 15064768 OR 15072075 OR 15077107 OR 15077108 OR 15077113 OR 15077114 OR 15077115 OR 15077116 OR 15077117 OR 15077118 OR 15077119 OR 15085804 OR 15097996 OR 15097997 OR 15098027 OR 15098028 OR 15098029 OR 15098033 OR 15098035 OR 15104092 OR 15107841 OR 15107843 OR 15107844 OR 15107845 OR 15107848 OR 15107849 OR 15107851 OR 15107853 OR 15107854 OR 15107855 OR 15107856 OR 15107860 OR 15107861 OR 15107862 OR 15107863 OR 15122251 OR 15122253 OR 15122254 OR 15122256 OR 15122268 OR 15122269 OR 15122293 OR 15122300 OR 15122302 OR 15133469 OR 15133470 OR 15133471 OR 15133506 OR 15133510 OR 15133511 OR 15133512 OR 15133513 OR 15146177 OR 15146178 OR 15146179 OR 15146183 OR 15146184 OR 15146192 OR 15146193 OR 15146194 OR 15146195 OR 15146196 OR 15146197 OR 15146198 OR 15146199 OR 15152612 OR 15156141 OR 15156142 OR 15156143 OR 15156144 OR 15156151 OR 15156152 OR 15156153 OR 15156154 OR 15156201 OR 15156202 OR 15156203 OR 15156204 OR 15170210 OR 15170213 OR 15170214 OR 15170215 OR 15175673 OR 15175679 OR 15175689 OR 15175691 OR 15175700 OR 15181449 OR 15181450 OR 15184894 OR 15184897 OR 15184898 OR 15184899 OR 15184900 OR 15184904 OR 15184905 OR 15184906 OR 15195085 OR 15195086 OR 15195087 OR 15195088 OR 15195089 OR 15195100 OR 15195101 OR 15195102 OR 15195103 OR 15195104 OR 15208625 OR 15208626 OR 15208627 OR 15208628 OR 15208629 OR 15208636 OR 15208637 OR 15208638 OR 15208639 OR 15208640 OR 15208705 OR 15208706 OR 15220914 OR 15220917 OR 15220918 OR 15220919 OR 15220920 OR 15220921 OR 15220930 OR 15220931 OR 15220932 OR 15229554 OR 15229555 OR 15232593 OR 15235602 OR 15235603 OR 15235604 OR 15235609 OR 15235610 OR 15247913 OR 15247916 OR 15247917 OR 15247918 OR 15247921 OR 15247922 OR 15247923 OR 15247924 OR 15258580 OR 15258581 OR 15258582 OR 15258583 OR 15258588 OR 15258589 OR 15258590 OR 15258591 OR 15258592 OR 15258595 OR 15273685 OR 15273686 OR 15273687 OR 15273688 OR 15273689 OR 15273693 OR 15286643 OR 15286768 OR 15286786 OR 15286787 OR 15286788 OR 15286789 OR 15300250 OR 15300251 OR 15300252 OR 15300255 OR 15300260 OR 15303100 OR 15311282 OR 15311283 OR 15311284 OR 15311285 OR 15314640 OR 15314641 OR 15314642 OR 15322542 OR 15322543 OR 15322544 OR 15322545 OR 15322546 OR 15322553 OR 15322554 OR 15322555 OR 15322556 OR 15322557 OR 15338008 OR 15340404 OR 15340423 OR 15340424 OR 15340449 OR 15340450 OR 15340473 OR 15340480 OR 15340481 OR 15361870 OR 15361871 OR 15361872 OR 15361873 OR 15361874 OR 15361875 OR 15378053 OR 15378055 OR 15378056 OR 15378060 OR 15378062 OR 15378063 OR 15448685 OR 15448686 OR 15448691 OR 15448692 OR 15448693 OR 15448695 OR 15448697 OR 15448698 OR 15448699 OR 15448700 OR 15448701 OR 15448702 OR 15448703 OR 15459706 OR 15459721 OR 15459722 OR 15467718 OR 15467720 OR 15467721 OR 15470454 OR 15470455 OR 15470456 OR 15470466 OR 15475946 OR 15475954 OR 15475955 OR 15475956 OR 15489852 OR 15489853 OR 15502816 OR 15502819 OR 15502820 OR 15502821 OR 15502822 OR 15502823 OR 15502824 OR 15502825 OR 15502827 OR 15502829 OR 15502840 OR 15502841 OR 15502844 OR 15507997 OR 15507998 OR 15508000 OR 15508002 OR 15508004 OR 15508005 OR 15510100 OR 15514660 OR 15516922 OR 15516930 OR 15517001 OR 15517002 OR 15517003 OR 15529154 OR 15529155 OR 15529157 OR 15529163 OR 15531880 OR 15543133 OR 15543134 OR 15543135 OR 15543136 OR 15543137 OR 15543138 OR 15543146 OR 15558031 OR 15558032 OR 15558033 OR 15558034 OR 15558048 OR 15568019 OR 15568023 OR 15568024 OR 15568033 OR 15573098 OR 15577931 OR 15577932 OR 15577934 OR 15577935 OR 15580262 OR 15580263 OR 15580264 OR 15580265 OR 15580266 OR 15580267 OR 15580268 OR 15580272 OR 15583654 OR 15583670 OR 15583675 OR 15583680 OR 15592455 OR 15592456 OR 15592457 OR 15592458 OR 15592459 OR 15592460 OR 15592461 OR 15592468 OR 15592469 OR 15592470 OR 15592471 OR 15592573 OR 15608637 OR 15608638 OR 15608639 OR 15608640 OR 15608650 OR 15619618 OR 15619619 OR 15619620 OR 15619621 OR 15619622 OR 15619623 OR 15619625 OR 15619626 OR 15619627 OR 15619628 OR 15619629 OR 15619630 OR 15619631 OR 15619632 OR 15619633 OR 15619634 OR 15637611 OR 15637614 OR 15637622 OR 15637632 OR 15637633 OR 15640798 OR 15640799 OR 15640800 OR 15654325 OR 15654326 OR 15654327 OR 15654330 OR 15654331 OR 15654332 OR 15654333 OR 15654334 OR 15654335 OR 15654336 OR 15654337 OR 15654338 OR 15654339 OR 15665824 OR 15665825 OR 15665826 OR 15665827 OR 15665829 OR 15665830 OR 15665831 OR 15665832 OR 15665833 OR 15665834 OR 15665853 OR 15665854 OR 15665855 OR 15665856 OR 15685168 OR 15685169 OR 15685170 OR 15685171 OR 15685172 OR 15685173 OR 15692577 OR 15696150 OR 15696156 OR 15696159 OR 15696165 OR 15696166 OR 15696167 OR 15702498 OR 15711538 OR 15711544 OR 15711545 OR 15711546 OR 15711547 OR 15711557 OR 15711558 OR 15711559 OR 15711560 OR 15711561 OR 15711562 OR 15723049 OR 15723050 OR 15723051 OR 15723052 OR 15723053 OR 15723054 OR 15723055 OR 15723056 OR 15723057 OR 15723064 OR 15723065 OR 15723066 OR 15723071 OR 15723072 OR 15723073 OR 15723074 OR 15723075 OR 15731757 OR 15731758 OR 15731759 OR 15731760 OR 15735645 OR 15735646 OR 15735647 OR 15735651 OR 15735652 OR 15735653 OR 15738974 OR 15738976 OR 15750586 OR 15750587 OR 15750592 OR 15750593 OR 15750600 OR 15750601 OR 15765074 OR 15765078 OR 15765079 OR 15765081 OR 15765090 OR 15765093 OR 15765097 OR 15765105 OR 15768028 OR 15768029 OR 15768030 OR 15778705 OR 15778706 OR 15778707 OR 15778708 OR 15778720 OR 15778721 OR 15778722 OR 15793564 OR 15793565 OR 15793566 OR 15793567 OR 15793568 OR 15793569 OR 15793570 OR 15793574 OR 15793580 OR 15793581 OR 15793582 OR 15793583 OR 15793586 OR 15793588 OR 15793589 OR 15803127 OR 15803134 OR 15806100 OR 15806101 OR 15806102 OR 15806103 OR 15806104 OR 15812482 OR 15812483 OR 15812485 OR 15812519 OR 15815649 OR 15815657 OR 15815661 OR 15815669 OR 15815671 OR 15815677 OR 15821731 OR 15821732 OR 15821733 OR 15821734 OR 15821735 OR 15821736 OR 15834403 OR 15834405 OR 15834406 OR 15834407 OR 15834408 OR 15838506 OR 15838507 OR 15838508 OR 15838509 OR 15852002 OR 15852003 OR 15852004 OR 15852005 OR 15852006 OR 15864305 OR 15864306 OR 15864307 OR 15864308 OR 15864313 OR 15867911 OR 15877064 OR 15877066 OR 15877067 OR 15877074 OR 15880102 OR 15880103 OR 15880104 OR 15880117 OR 15880118 OR 15880119 OR 15883585 OR 15892196 OR 15895072 OR 15895073 OR 15895074 OR 15895075 OR 15895076 OR 15895077 OR 15895078 OR 15895079 OR 15895080 OR 15895081 OR 15895082 OR 15895083 OR 15908939 OR 15908941 OR 15908942 OR 15908943 OR 15908944 OR 15908945 OR 15908946 OR 15908950 OR 15908951 OR 15908952 OR 15908953 OR 15908955 OR 15908956 OR 15908957 OR 15920518 OR 15920519 OR 15924134 OR 15924139 OR 15924140 OR 15924141 OR 15924142 OR 15924146 OR 15924147 OR 15937477 OR 15937478 OR 15937479 OR 15937480 OR 15937495 OR 15940227 OR 15940241 OR 15951748 OR 15951803 OR 15951805 OR 15951806 OR 15951807 OR 15951820 OR 15951821 OR 15951822 OR 15951823 OR 15951824 OR 15965465 OR 15965466 OR 15965467 OR 15965468 OR 15965469 OR 15965474 OR 15965475 OR 15965476 OR 15965477 OR 15965483 OR 15968270 OR 15976807 OR 15980861 OR 15980862 OR 15980864 OR 15980865 OR 15980866 OR 15995705 OR 15995706 OR 16003357 OR 16003358 OR 16003361 OR 16003372 OR 16003375 OR 16007078 OR 16007079 OR 16007086 OR 16007087 OR 16007088 OR 16007089 OR 16025104 OR 16025105 OR 16025112 OR 16025113 OR 16025114 OR 16025115 OR 16025116 OR 16041363 OR 16041367 OR 16041368 OR 16041371 OR 16041372 OR 16041373 OR 16041374 OR 16056225 OR 16056226 OR 16056263 OR 16056264 OR 16082356 OR 16082357 OR 16082367 OR 16086013 OR 16086014 OR 16086015 OR 16086016 OR 16086023 OR 16086024 OR 16094730 OR 16100512 OR 16100513 OR 16113676 OR 16113677 OR 16113678 OR 16113679 OR 16116418 OR 16116419 OR 16116420 OR 16116422 OR 16116423 OR 16116424 OR 16116425 OR 16116427 OR 16116428 OR 16116430 OR 16116431 OR 16116432 OR 16116433 OR 16127434 OR 16127436 OR 16127437 OR 16127450 OR 16127451 OR 16127452 OR 16136186 OR 16136187 OR 16136188 OR 16142231 OR 16142232 OR 16142233 OR 16142234 OR 16142235 OR 16142236 OR 16142243 OR 16151388 OR 16151390 OR 16151391 OR 16151393 OR 16151394 OR 16151395 OR 16151396 OR 16155566 OR 16155567 OR 16155568 OR 16155569 OR 16155570 OR 16155576 OR 16155577 OR 16155578 OR 16155579 OR 16170312 OR 16170314 OR 16170315 OR 16170316 OR 16170317 OR 16170321 OR 16170322 OR 16170323 OR 16184168 OR 16186810 OR 16186811 OR 16186812 OR 16186813 OR 16186814 OR 16186815 OR 16186816 OR 16186817 OR 16186818 OR 16200062 OR 16200064 OR 16200065 OR 16200066 OR 16200071 OR 16200072 OR 16205738 OR 16211059 OR 16211067 OR 16211068 OR 16227967 OR 16227968 OR 16227987 OR 16227989 OR 16227991 OR 16227995 OR 16227996 OR 16227997 OR 16227998 OR 16228000 OR 16228010 OR 16228011 OR 16228012 OR 16228013 OR 16228014 OR 16244652 OR 16244653 OR 16244654 OR 16244656 OR 16244657 OR 16244658 OR 16244659 OR 16244666 OR 16244667 OR 16244668 OR 16244669 OR 16244670 OR 16254560 OR 16258519 OR 16258538 OR 16258540 OR 16258541 OR 16258543 OR 16258544 OR 16258545 OR 16258546 OR 16273061 OR 16273063 OR 16273071 OR 16273072 OR 16273094 OR 16273095 OR 16273096 OR 16273106 OR 16273107 OR 16273108 OR 16273109 OR 16273110 OR 16282974 OR 16282975 OR 16282976 OR 16282977 OR 16282978 OR 16284622 OR 16284623 OR 16284624 OR 16284625 OR 16286925 OR 16299496 OR 16299497 OR 16299498 OR 16299499 OR 16299519 OR 16311586 OR 16311587 OR 16311592 OR 16311594 OR 16311595 OR 16311596 OR 16311597 OR 16311598 OR 16311606 OR 16327780 OR 16327781 OR 16327800 OR 16327801 OR 16327802 OR 16327803 OR 16327808 OR 16327809 OR 16327810 OR 16341205 OR 16341206 OR 16341207 OR 16341208 OR 16341221 OR 16341222 OR 16341223 OR 16341224 OR 16341241 OR 16341242 OR 16341243 OR 16362051 OR 16362052 OR 16362053 OR 16369530 OR 16369531 OR 16369532 OR 16369533 OR 16369534 OR 16369538 OR 16369539 OR 16369540 OR 16369541 OR 16369542 OR 16369543 OR 16370372 OR 16370373 OR 16372404 OR 16378095 OR 16378098 OR 16378099 OR 16378100 OR 16380711 OR 16380712 OR 16380713 OR 16380714 OR 16380715 OR 16380716 OR 16380717 OR 16388305 OR 16397549 OR 16397571 OR 16397572 OR 16397573 OR 16397574 OR 16397575 OR 16404390 OR 16404392 OR 16404397 OR 16404398 OR 16404400 OR 16407988 OR 16407989 OR 16407990 OR 16407991 OR 16407992 OR 16407993 OR 16407994 OR 16408005 OR 16408006 OR 16408007 OR 16408008 OR 16408017 OR 16408018 OR 16408019 OR 16408020 OR 16408021 OR 16408022 OR 16408035 OR 16408036 OR 16408037 OR 16408038 OR 16408039 OR 16408054 OR 16408055 OR 16408056 OR 16408057 OR 16408058 OR 16408059 OR 16408070 OR 16408071 OR 16408072 OR 16408073 OR 16408074 OR 16408080 OR 16408081 OR 16408083 OR 16408084 OR 16408085 OR 16408089 OR 16408091 OR 16408092 OR 16415854 OR 16415855 OR 16415856 OR 16415857 OR 16415858 OR 16415859 OR 16415860 OR 16415861 OR 16415862 OR 16415863 OR 16415877 OR 16415878 OR 16415884 OR 16415885 OR 16415886 OR 16415887 OR 16415888 OR 16415889 OR 16429127 OR 16429128 OR 16429129 OR 16429130 OR 16429131 OR 16429144 OR 16429145 OR 16429146 OR 16429147 OR 16429148 OR 16429149 OR 16429157 OR 16429158 OR 16429159 OR 16429160 OR 16429161 OR 16429162 OR 16432513 OR 16434960 OR 16444255 OR 16444264 OR 16444265 OR 16444266 OR 16444267 OR 16444268 OR 16444269 OR 16444271 OR 16444272 OR 16444274 OR 16446709 OR 16462733 OR 16462742 OR 16462743 OR 16462744 OR 16462745 OR 16462751 OR 16462800 OR 16462801 OR 16462802 OR 16462803 OR 16465155 OR 16465163 OR 16468121 OR 16468122 OR 16474381 OR 16474383 OR 16474384 OR 16474385 OR 16474386 OR 16474387 OR 16474398 OR 16474399 OR 16474401 OR 16474404 OR 16474405 OR 16474406 OR 16474407 OR 16489341 OR 16489342 OR 16489343 OR 16489344 OR 16489345 OR 16491083 OR 16491084 OR 16491085 OR 16491086 OR 16491087 OR 16493421 OR 16493422 OR 16493423 OR 16501565 OR 16501570 OR 16501571 OR 16501573 OR 16501574 OR 16501575 OR 16501576 OR 16505807 OR 16518390 OR 16518391 OR 16518392 OR 16518401 OR 16518402 OR 16518403 OR 16520733 OR 16520776 OR 16520777 OR 16525374 OR 16525381 OR 16531991 OR 16531992 OR 16531993 OR 16531994 OR 16531995 OR 16531996 OR 16532003 OR 16532010 OR 16532011 OR 16532012 OR 16532013 OR 16547473 OR 16547522 OR 16550169 OR 16550170 OR 16550171 OR 16550172 OR 16550173 OR 16550174 OR 16550175 OR 16550187 OR 16550190 OR 16565707 OR 16565708 OR 16565709 OR 16565714 OR 16565715 OR 16565716 OR 16565718 OR 16565723 OR 16565727 OR 16565728 OR 16570078 OR 16582907 OR 16582908 OR 16582909 OR 16582910 OR 16601717 OR 16601720 OR 16601721 OR 16601727 OR 16604060 OR 16604061 OR 16604062 OR 16604063 OR 16604064 OR 16604065 OR 16604066 OR 16604071 OR 16604072 OR 16604073 OR 16604074 OR 16604085 OR 16604086 OR 16604087 OR 16604088 OR 16604089 OR 16617336 OR 16617349 OR 16619016 OR 16622416 OR 16622417 OR 16622418 OR 16622419 OR 16622420 OR 16622421 OR 16628213 OR 16633347 OR 16633348 OR 16633349 OR 16633350 OR 16633351 OR 16642016 OR 16642017 OR 16642018 OR 16642019 OR 16642020 OR 16642021 OR 16642023 OR 16642024 OR 16645617 OR 16648841 OR 16648842 OR 16648843 OR 16648844 OR 16648845 OR 16648846 OR 16648851 OR 16648858 OR 16648859 OR 16680137 OR 16680138 OR 16680148 OR 16680149 OR 16680150 OR 16680158 OR 16680159 OR 16680160 OR 16682969 OR 16682970 OR 16682971 OR 16682972 OR 16682973 OR 16699499 OR 16699500 OR 16699501 OR 16699502 OR 16699503 OR 16699504 OR 16699516 OR 16699517 OR 16699518 OR 16699519 OR 16699520 OR 16715074 OR 16715075 OR 16715076 OR 16715077 OR 16715078 OR 16715087 OR 16715088 OR 16715089 OR 16715090 OR 16715091 OR 16715092 OR 16715096 OR 16715097 OR 16715098 OR 16715099 OR 16715549 OR 16732270 OR 16732271 OR 16732272 OR 16732278 OR 16732279 OR 16732281 OR 16732282 OR 16732287 OR 16732288 OR 16732289 OR 16732294 OR 16732295 OR 16733527 OR 16738703 OR 16751762 OR 16751767 OR 16751768 OR 16751769 OR 16751770 OR 16751771 OR 16751773 OR 16763585 OR 16763592 OR 16767078 OR 16767079 OR 16767080 OR 16767081 OR 16767082 OR 16767083 OR 16767084 OR 16767086 OR 16767097 OR 16767098 OR 16767099 OR 16767100 OR 16767101 OR 16767104 OR 16783341 OR 16783362 OR 16783363 OR 16783364 OR 16783371 OR 16783372 OR 16783378 OR 16783379 OR 16783380 OR 16799550 OR 16799551 OR 16799552 OR 16799553 OR 16799554 OR 16799555 OR 16799556 OR 16799557 OR 16804532 OR 16804541 OR 16804542 OR 16804543 OR 16804544 OR 16816845 OR 16819549 OR 16819550 OR 16819551 OR 16819552 OR 16823369 OR 16823370 OR 16823371 OR 16823372 OR 16823373 OR 16823375 OR 16823377 OR 16823379 OR 16823380 OR 16829943 OR 16829944 OR 16829945 OR 16829946 OR 16829947 OR 16829951 OR 16829952 OR 16829954 OR 16832354 OR 16832355 OR 16832356 OR 16832357 OR 16841053 OR 16841054 OR 16841056 OR 16841058 OR 16841068 OR 16841069 OR 16845377 OR 16845378 OR 16845379 OR 16845380 OR 16845381 OR 16845382 OR 16845383 OR 16845397 OR 16845398 OR 16862141 OR 16862142 OR 16862143 OR 16862144 OR 16862145 OR 16862147 OR 16862148 OR 16862159 OR 16862160 OR 16878126 OR 16878127 OR 16878128 OR 16892025 OR 16892036 OR 16892050 OR 16892051 OR 16892052 OR 16892053 OR 16892054 OR 16892055 OR 16892059 OR 16892061 OR 16892062 OR 16892063 OR 16900130 OR 16900145 OR 16906143 OR 16906144 OR 16906145 OR 16906146 OR 16906147 OR 16906148 OR 16906149 OR 16906150 OR 16906151 OR 16906154 OR 16906155 OR 16906156 OR 16906157 OR 16917489 OR 16921363 OR 16921364 OR 16921365 OR 16921366 OR 16921367 OR 16921374 OR 16921377 OR 16936719 OR 16936725 OR 16936734 OR 16951679 OR 16951680 OR 16951681 OR 16951682 OR 16951683 OR 16951684 OR 16951685 OR 16964211 OR 16964212 OR 16964215 OR 16964242 OR 16964244 OR 16964245 OR 16964246 OR 16964247 OR 16964248 OR 16964257 OR 16964263 OR 16964264 OR 16964265 OR 16964266 OR 16969372 OR 16969373 OR 16980957 OR 16980960 OR 16980968 OR 16980969 OR 16980970 OR 16980974 OR 16980975 OR 16980976 OR 16980977 OR 16980978 OR 16980979 OR 16983380 OR 16998472 OR 16998473 OR 16998474 OR 16998475 OR 16998476 OR 16998477 OR 16998478 OR 16998479 OR 16998480 OR 16998483 OR 16998484 OR 16998485 OR 16998489 OR 16998490 OR 16998491 OR 17013374 OR 17013376 OR 17013377 OR 17013378 OR 17013383 OR 17013384 OR 17013385 OR 17013392 OR 17013393 OR 17013394 OR 17013395 OR 17013396 OR 17024207 OR 17024208 OR 17028578 OR 17028579 OR 17028580 OR 17033622 OR 17033623 OR 17033624 OR 17033625 OR 17033656 OR 17033664 OR 17041586 OR 17041587 OR 17041588 OR 17041589 OR 17041596 OR 17041600 OR 17041601 OR 17041602 OR 17041603 OR 17053790 OR 17057702 OR 17057703 OR 17057704 OR 17057709 OR 17057711 OR 17057712 OR 17057718 OR 17057719 OR 17060905 OR 17060906 OR 17060907 OR 17063141 OR 17072302 OR 17072303 OR 17072309 OR 17072310 OR 17072311 OR 17072312 OR 17072316 OR 17086172 OR 17086173 OR 17086174 OR 17086175 OR 17086176 OR 17086182 OR 17086183 OR 17086185 OR 17086189 OR 17086190 OR 17093478 OR 17093488 OR 17099709 OR 17099711 OR 17099712 OR 17099713 OR 17099714 OR 17108984 OR 17108985 OR 17108986 OR 17115026 OR 17115027 OR 17115028 OR 17115029 OR 17115030 OR 17115031 OR 17115032 OR 17115033 OR 17115034 OR 17115046 OR 17115048 OR 17115054 OR 17115055 OR 17115056 OR 17115059 OR 17128262 OR 17128263 OR 17128264 OR 17128265 OR 17128269 OR 17128273 OR 17128274 OR 17128275 OR 17139278 OR 17143267 OR 17143268 OR 17143269 OR 17143270 OR 17143276 OR 17143278 OR 17143284 OR 17143285 OR 17143286 OR 17159980 OR 17159981 OR 17159985 OR 17159986 OR 17159987 OR 17159988 OR 17159996 OR 17159997 OR 17159998 OR 17159999 OR 17160050 OR 17160051 OR 17160052 OR 17160053 OR 17160056 OR 17160057 OR 17160058 OR 17173035 OR 17173036 OR 17173037 OR 17173038 OR 17173039 OR 17173040 OR 17173041 OR 17173042 OR 17173048 OR 17173049 OR 17173050 OR 17173051 OR 17187058 OR 17187059 OR 17187060 OR 17187061 OR 17187062 OR 17187063 OR 17187067 OR 17187068 OR 17187072 OR 17187074 OR 17187079 OR 17195838 OR 17195839 OR 17195840 OR 17195841 OR 17195849 OR 17199124 OR 17200668 OR 17200669 OR 17200670 OR 17200671 OR 17200672 OR 17200673 OR 17206138 OR 17206139 OR 17206141 OR 17206143 OR 17206144 OR 17211395 OR 17211397 OR 17211405 OR 17220877 OR 17220878 OR 17220879 OR 17220880 OR 17220881 OR 17220888 OR 17220889 OR 17220890 OR 17220891 OR 17220900 OR 17220901 OR 17237769 OR 17237770 OR 17237771 OR 17237772 OR 17237773 OR 17237781 OR 17237782 OR 17237783 OR 17237784 OR 17237798 OR 17259976 OR 17259978 OR 17259979 OR 17259983 OR 17259984 OR 17259985 OR 17259986 OR 17259996 OR 17268472 OR 17277770 OR 17277771 OR 17277772 OR 17277777 OR 17277778 OR 17277785 OR 17287747 OR 17287758 OR 17293853 OR 17293854 OR 17293855 OR 17293856 OR 17293863 OR 17293864 OR 17293865 OR 17293866 OR 17293875 OR 17310239 OR 17310240 OR 17310241 OR 17310242 OR 17310243 OR 17322870 OR 17322871 OR 17322872 OR 17322873 OR 17322877 OR 17322878 OR 17322879 OR 17322882 OR 17322883 OR 17322884 OR 17322894 OR 17322895 OR 17322896 OR 17322897 OR 17322898 OR 17330329 OR 17334358 OR 17334359 OR 17334363 OR 17334364 OR 17334365 OR 17334366 OR 17334371 OR 17334372 OR 17334373 OR 17334376 OR 17334377 OR 17342145 OR 17342146 OR 17344870 OR 17344878 OR 17344885 OR 17351616 OR 17351617 OR 17351623 OR 17351628 OR 17351639 OR 17351640 OR 17351641 OR 17351642 OR 17353894 OR 17353896 OR 17353897 OR 17369815 OR 17369816 OR 17369817 OR 17369818 OR 17369819 OR 17369820 OR 17369821 OR 17369828 OR 17369829 OR 17369830 OR 17384586 OR 17384638 OR 17384639 OR 17384640 OR 17384649 OR 17401360 OR 17401361 OR 17401362 OR 17401363 OR 17401364 OR 17401366 OR 17401374 OR 17401378 OR 17401379 OR 17417625 OR 17417626 OR 17417627 OR 17417628 OR 17417629 OR 17417630 OR 17417631 OR 17417636 OR 17417637 OR 17417648 OR 17417649 OR 17417650 OR 17417651 OR 17417652 OR 17420745 OR 17435746 OR 17435747 OR 17435749 OR 17435750 OR 17435751 OR 17435759 OR 17435769 OR 17435770 OR 17435771 OR 17435772 OR 17438551 OR 17450129 OR 17450130 OR 17450131 OR 17450132 OR 17450133 OR 17450134 OR 17450142 OR 17450149 OR 17450150 OR 17460691 OR 17468755 OR 17468756 OR 17468766 OR 17468767 OR 17468768 OR 17479102 OR 17483835 OR 17486044 OR 17486045 OR 17486083 OR 17486088 OR 17486089 OR 17486094 OR 17486095 OR 17486112 OR 17486113 OR 17486114 OR 17486115 OR 17486116 OR 17486117 OR 17486118 OR 17486119 OR 17496887 OR 17496888 OR 17496889 OR 17496892 OR 17496893 OR 17496901 OR 17515894 OR 17515895 OR 17515896 OR 17515897 OR 17515908 OR 17515909 OR 17515910 OR 17515930 OR 17515931 OR 17515932 OR 17529971 OR 17529972 OR 17529973 OR 17529975 OR 17529976 OR 17529978 OR 17529981 OR 17546028 OR 17546029 OR 17546030 OR 17546031 OR 17546039 OR 17546040 OR 17554261 OR 17557097 OR 17558392 OR 17558393 OR 17558394 OR 17558395 OR 17558396 OR 17558397 OR 17558398 OR 17558406 OR 17558407 OR 17558408 OR 17558409 OR 17558415 OR 17572666 OR 17572667 OR 17572668 OR 17572669 OR 17572670 OR 17572674 OR 17572676 OR 17572686 OR 17572687 OR 17576410 OR 17576415 OR 17576416 OR 17576418 OR 17589498 OR 17589499 OR 17589508 OR 17589509 OR 17589519 OR 17589520 OR 17589521 OR 17589522 OR 17592474 OR 17592475 OR 17592476 OR 17603475 OR 17603476 OR 17603482 OR 17603483 OR 17603484 OR 17603485 OR 17603492 OR 17603493 OR 17603494 OR 17603495 OR 17603496 OR 17603504 OR 17603539 OR 17603540 OR 17618272 OR 17618273 OR 17618274 OR 17618275 OR 17618282 OR 17618283 OR 17618284 OR 17618285 OR 17618286 OR 17618294 OR 17618314 OR 17621277 OR 17621279 OR 17621280 OR 17621292 OR 17621296 OR 17621303 OR 17632505 OR 17632509 OR 17632510 OR 17632511 OR 17632512 OR 17632513 OR 17632514 OR 17632515 OR 17632524 OR 17632525 OR 17632526 OR 17632527 OR 17632528 OR 17637780 OR 17643101 OR 17643102 OR 17643110 OR 17643111 OR 17643112 OR 17643113 OR 17643114 OR 17643115 OR 17643116 OR 17643117 OR 17643118 OR 17660811 OR 17660816 OR 17660817 OR 17660818 OR 17660819 OR 17660820 OR 17660827 OR 17660828 OR 17660829 OR 17660835 OR 17664939 OR 17664940 OR 17671451 OR 17676037 OR 17676038 OR 17676039 OR 17676040 OR 17676041 OR 17676042 OR 17676050 OR 17676051 OR 17676052 OR 17687359 OR 17694049 OR 17694054 OR 17694055 OR 17694056 OR 17694057 OR 17694058 OR 17694066 OR 17694067 OR 17694068 OR 17704765 OR 17704767 OR 17704768 OR 17704769 OR 17704770 OR 17704771 OR 17704772 OR 17704773 OR 17704776 OR 17704778 OR 17704784 OR 17704785 OR 17704786 OR 17717538 OR 17721510 OR 17721511 OR 17721512 OR 17721513 OR 17721514 OR 17721515 OR 17721534 OR 17721535 OR 17721544 OR 17721545 OR 17721546 OR 17721547 OR 17724450 OR 17728769 OR 17762888 OR 17762889 OR 17762890 OR 17762891 OR 17762892 OR 17767154 OR 17767155 OR 17767156 OR 17767157 OR 17767158 OR 17767159 OR 17767165 OR 17767167 OR 17828247 OR 17828248 OR 17828249 OR 17828250 OR 17828251 OR 17828263 OR 17828264 OR 17828265 OR 17828266 OR 17828272 OR 17828274 OR 17846624 OR 17846626 OR 17846631 OR 17873865 OR 17873866 OR 17873867 OR 17873868 OR 17873875 OR 17873876 OR 17873877 OR 17873880 OR 17873882 OR 17876310 OR 17876311 OR 17891134 OR 17891135 OR 17891136 OR 17891137 OR 17891138 OR 17891139 OR 17891140 OR 17891141 OR 17891145 OR 17891146 OR 17891147 OR 17891152 OR 17891153 OR 17893677 OR 17893678 OR 17898773 OR 17906618 OR 17906623 OR 17906624 OR 17906625 OR 17906626 OR 17906634 OR 17906635 OR 17906636 OR 17906637 OR 17906641 OR 17917664 OR 17921991 OR 17921997 OR 17921999 OR 17922003 OR 17922004 OR 17922005 OR 17922009 OR 17922010 OR 17934451 OR 17934452 OR 17934453 OR 17934454 OR 17934460 OR 17934462 OR 17934470 OR 17934471 OR 17934472 OR 17934475 OR 17948010 OR 17952057 OR 17952058 OR 17952059 OR 17952060 OR 17952061 OR 17952063 OR 17952065 OR 17952066 OR 17952071 OR 17952075 OR 17952090 OR 17952091 OR 17965706 OR 17965707 OR 17965708 OR 17965709 OR 17965713 OR 17965714 OR 17965720 OR 17965721 OR 17965722 OR 17982443 OR 17982444 OR 17982445 OR 17982446 OR 17982447 OR 17982448 OR 17982454 OR 17982455 OR 17982456 OR 17982457 OR 17982462 OR 17982463 OR 17982464 OR 17987029 OR 17989688 OR 17994009 OR 17994010 OR 17994011 OR 17994012 OR 17994017 OR 17994018 OR 17994019 OR 17994020 OR 17994021 OR 17994101 OR 17994102 OR 18007642 OR 18026085 OR 18026090 OR 18026091 OR 18026092 OR 18026093 OR 18026094 OR 18026095 OR 18026100 OR 18026101 OR 18026102 OR 18026103 OR 18026104 OR 18026113 OR 18026114 OR 18026115 OR 18037878 OR 18037879 OR 18037880 OR 18037881 OR 18037882 OR 18037885 OR 18037886 OR 18037895 OR 18037896 OR 18059259 OR 18059260 OR 18059261 OR 18059262 OR 18059263 OR 18059266 OR 18059267 OR 18059268 OR 18059269 OR 18059279 OR 18059280 OR 18059281 OR 18059282 OR 18059283 OR 18064037 OR 18066015 OR 18066034 OR 18066037 OR 18066050 OR 18066051 OR 18066052 OR 18066053 OR 18066054 OR 18066055 OR 18066062 OR 18066063 OR 18066064 OR 18066065 OR 18066074 OR 18066075 OR 18066076 OR 18084270 OR 18084271 OR 18084279 OR 18084280 OR 18084281 OR 18084282 OR 18084283 OR 18084284 OR 18084285 OR 18084290 OR 18084291 OR 18084292 OR 18084293 OR 18084301 OR 18084302 OR 18157117 OR 18157118 OR 18157119 OR 18157120 OR 18157121 OR 18157122 OR 18157123 OR 18157124 OR 18157127 OR 18157128 OR 18157129 OR 18157130 OR 18157138 OR 18157139 OR 18157140 OR 18157141 OR 18157142 OR 18157143 OR 18163131 OR 18176555 OR 18176556 OR 18176557 OR 18176558 OR 18176562 OR 18176563 OR 18176565 OR 18183015 OR 18183017 OR 18183018 OR 18183020 OR 18183023 OR 18183025 OR 18193032 OR 18193033 OR 18193034 OR 18193035 OR 18193036 OR 18193037 OR 18193038 OR 18193047 OR 18193048 OR 18193057 OR 18193058 OR 18193059 OR 18204439 OR 18204440 OR 18204446 OR 18204449 OR 18204460 OR 18204461 OR 18204462 OR 18223641 OR 18223642 OR 18223643 OR 18223644 OR 18223645 OR 18223646 OR 18223650 OR 18223651 OR 18223654 OR 18223655 OR 18223656 OR 18227874 OR 18246061 OR 18246062 OR 18246063 OR 18246066 OR 18246067 OR 18246068 OR 18246077 OR 18246078 OR 18246079 OR 18246080 OR 18259169 OR 18259177 OR 18259178 OR 18264089 OR 18264090 OR 18264091 OR 18264092 OR 18264093 OR 18264096 OR 18264097 OR 18264099 OR 18264100 OR 18264108 OR 18264109 OR 18264110 OR 18277968 OR 18277969 OR 18277970 OR 18278033 OR 18278034 OR 18278035 OR 18278036 OR 18278037 OR 18278038 OR 18278045 OR 18278052 OR 18278053 OR 18278054 OR 18288110 OR 18297056 OR 18297058 OR 18297059 OR 18297060 OR 18297061 OR 18297062 OR 18297063 OR 18297064 OR 18297071 OR 18297083 OR 18297084 OR 18297085 OR 18311130 OR 18311131 OR 18311132 OR 18311137 OR 18311138 OR 18311139 OR 18311140 OR 18311141 OR 18311147 OR 18311148 OR 18311149 OR 18311150 OR 18327226 OR 18327249 OR 18327251 OR 18327252 OR 18327255 OR 18327258 OR 18327267 OR 18344984 OR 18344985 OR 18344986 OR 18344987 OR 18344988 OR 18344989 OR 18344999 OR 18345000 OR 18345009 OR 18345010 OR 18345011 OR 18345012 OR 18345013 OR 18347585 OR 18362881 OR 18362883 OR 18362884 OR 18362885 OR 18364697 OR 18364698 OR 18364699 OR 18364700 OR 18364701 OR 18364702 OR 18368128 OR 18372901 OR 18372902 OR 18372905 OR 18376396 OR 18376398 OR 18376399 OR 18376404 OR 18376405 OR 18376406 OR 18376407 OR 18376408 OR 18376409 OR 18379596 OR 18379599 OR 18385676 OR 18391929 OR 18391940 OR 18391941 OR 18391947 OR 18391948 OR 18391949 OR 18391951 OR 18391952 OR 18391953 OR 18391961 OR 18391962 OR 18391963 OR 18392026 OR 18392027 OR 18408713 OR 18408714 OR 18408718 OR 18408719 OR 18408720 OR 18408721 OR 18408733 OR 18408734 OR 18425112 OR 18425113 OR 18425114 OR 18425115 OR 18425116 OR 18425117 OR 18425118 OR 18425119 OR 18425120 OR 18425125 OR 18425126 OR 18425127 OR 18425128 OR 18425129 OR 18437154 OR 18438400 OR 18438401 OR 18438403 OR 18438404 OR 18438408 OR 18443585 OR 18443589 OR 18443590 OR 18443592 OR 18443593 OR 18443594 OR 18454138 OR 18454139 OR 18454140 OR 18454141 OR 18454142 OR 18454143 OR 18454147 OR 18454149 OR 18464786 OR 18469805 OR 18469806 OR 18469807 OR 18469808 OR 18469809 OR 18469815 OR 18469825 OR 18469826 OR 18488004 OR 18488014 OR 18488018 OR 18488019 OR 18488020 OR 18488021 OR 18488026 OR 18488027 OR 18488028 OR 18488029 OR 18488036 OR 18488037 OR 18488038 OR 18500334 OR 18500335 OR 18500336 OR 18500337 OR 18500339 OR 18500340 OR 18500350 OR 18511946 OR 18511947 OR 18511948 OR 18516048 OR 18516049 OR 18516050 OR 18516051 OR 18516052 OR 18516053 OR 18516054 OR 18516090 OR 18516091 OR 18535579 OR 18536680 OR 18536681 OR 18536688 OR 18536689 OR 18536713 OR 18536714 OR 18536715 OR 18536716 OR 18536717 OR 18542049 OR 18542050 OR 18542051 OR 18542052 OR 18552832 OR 18552833 OR 18552834 OR 18552835 OR 18552836 OR 18552846 OR 18552847 OR 18552856 OR 18552857 OR 18560432 OR 18568017 OR 18568018 OR 18568019 OR 18568033 OR 18568034 OR 18568035 OR 18587384 OR 18587385 OR 18587386 OR 18587387 OR 18587388 OR 18587395 OR 18587396 OR 18587397 OR 18587406 OR 18587407 OR 18587408 OR 18591969 OR 18594521 OR 18604195 OR 18604196 OR 18604197 OR 18604198 OR 18604199 OR 18604200 OR 18604201 OR 18604202 OR 18604206 OR 18604207 OR 18604208 OR 18607349 OR 18607371 OR 18607372 OR 18612301 OR 18612302 OR 18622388 OR 18622389 OR 18622393 OR 18622394 OR 18622395 OR 18622403 OR 18641617 OR 18641626 OR 18641634 OR 18641635 OR 18641636 OR 18641637 OR 18641638 OR 18641639 OR 18641640 OR 18641641 OR 18641651 OR 18641652 OR 18641659 OR 18660804 OR 18660805 OR 18660809 OR 18660810 OR 18660815 OR 18660816 OR 18660818 OR 18677305 OR 18677313 OR 18685595 OR 18688245 OR 18688246 OR 18690216 OR 18690217 OR 18690244 OR 18711339 OR 18711340 OR 18711341 OR 18711365 OR 18711366 OR 18711367 OR 18711368 OR 18711374 OR 18724363 OR 18724364 OR 18724368 OR 18758441 OR 18758446 OR 18758448 OR 18758449 OR 18758450 OR 18758451 OR 18758452 OR 18758461 OR 18758462 OR 18758463 OR 18758491 OR 18776883 OR 18776884 OR 18776889 OR 18776891 OR 18776898 OR 18776899 OR 18776900 OR 18776908 OR 18776910 OR 18776911 OR 18779806 OR 18779808 OR 18794846 OR 18794847 OR 18794855 OR 18794864 OR 18800042 OR 18806782 OR 1</t>
-  </si>
-  <si>
-    <t>PMID=(22231557 OR 22231558 OR 22237151 OR 22245779 OR 22245780 OR 22245781 OR 22245782 OR 22246346 OR 22246400 OR 22246401 OR 22246502 OR 22246503 OR 22246504 OR 22246505 OR 22246506 OR 22246507 OR 22246508 OR 22252507 OR 22252508 OR 22252509 OR 22267009 OR 22267010 OR 22267011 OR 22267085 OR 22267086 OR 22267118 OR 22267119 OR 22267120 OR 22267198 OR 22267199 OR 22267200 OR 22270721 OR 22270722 OR 22270723 OR 22270724 OR 22281773 OR 22281806 OR 22286099 OR 22286100 OR 22286128 OR 22286129 OR 22286130 OR 22286214 OR 22286215 OR 22286216 OR 22286217 OR 22286218 OR 22286305 OR 22286306 OR 22286307 OR 22286308 OR 22298037 OR 22298038 OR 22306579 OR 22306580 OR 22306651 OR 22306652 OR 22306653 OR 22306654 OR 22306732 OR 22306733 OR 22307330 OR 22310686 OR 22310688 OR 22310693 OR 22327324 OR 22327364 OR 22327365 OR 22327366 OR 22327401 OR 22327402 OR 22327403 OR 22327514 OR 22327515 OR 22327622 OR 22327623 OR 22327624 OR 22343925 OR 22344029 OR 22344030 OR 22344032 OR 22344033 OR 22344035 OR 22344175 OR 22344176 OR 22344177 OR 22344220 OR 22344221 OR 22344222 OR 22344294 OR 22344295 OR 22344296 OR 22344297 OR 22344298 OR 22344299 OR 22366686 OR 22366687 OR 22366688 OR 22366720 OR 22366721 OR 22366722 OR 22366723 OR 22366783 OR 22366785 OR 22366786 OR 22366787 OR 22366948 OR 22366949 OR 22366950 OR 22366951 OR 22366952 OR 22371081 OR 22371082 OR 22371083 OR 22371084 OR 22373868 OR 22387996 OR 22387997 OR 22387999 OR 22388000 OR 22388088 OR 22388089 OR 22388090 OR 22388091 OR 22388888 OR 22388889 OR 22388890 OR 22388891 OR 22388892 OR 22388927 OR 22395701 OR 22398607 OR 22398608 OR 22398616 OR 22398617 OR 22406518 OR 22406519 OR 22406640 OR 22406641 OR 22406642 OR 22406643 OR 22406644 OR 22406745 OR 22406746 OR 22406747 OR 22407351 OR 22407364 OR 22407365 OR 22407366 OR 22426030 OR 22426077 OR 22426112 OR 22426113 OR 22426114 OR 22426308 OR 22426309 OR 22426310 OR 22426419 OR 22426420 OR 22426422 OR 22446692 OR 22446693 OR 22446695 OR 22446736 OR 22446737 OR 22446738 OR 22446835 OR 22446836 OR 22446837 OR 22446838 OR 22446960 OR 22446964 OR 22447074 OR 22447076 OR 22466366 OR 22466420 OR 22466421 OR 22466610 OR 22466611 OR 22466612 OR 22466613 OR 22466703 OR 22466704 OR 22466705 OR 22469825 OR 22481410 OR 22481411 OR 22484455 OR 22484485 OR 22484486 OR 22484487 OR 22484541 OR 22484626 OR 22484808 OR 22484809 OR 22491279 OR 22504274 OR 22504275 OR 22504299 OR 22504300 OR 22504417 OR 22504419 OR 22504421 OR 22504483 OR 22504484 OR 22504485 OR 22522171 OR 22522172 OR 22522173 OR 22522319 OR 22522320 OR 22522420 OR 22522421 OR 22522561 OR 22522562 OR 22522563 OR 22543263 OR 22544021 OR 22544022 OR 22544065 OR 22544066 OR 22544264 OR 22544364 OR 22544365 OR 22561345 OR 22561346 OR 22561347 OR 22561348 OR 22561410 OR 22561515 OR 22561516 OR 22561517 OR 22561519 OR 22561520 OR 22561685 OR 22561686 OR 22561687 OR 22561688 OR 22561818 OR 22561823 OR 22561824 OR 22565954 OR 22565972 OR 22580950 OR 22580951 OR 22581054 OR 22581055 OR 22581121 OR 22581229 OR 22581230 OR 22581231 OR 22581285 OR 22581286 OR 22581287 OR 22596190 OR 22609971 OR 22609986 OR 22610035 OR 22610116 OR 22610118 OR 22610119 OR 22610277 OR 22610278 OR 22610279 OR 22610280 OR 22634563 OR 22634564 OR 22634595 OR 22634634 OR 22634635 OR 22634636 OR 22634637 OR 22634751 OR 22634752 OR 22634753 OR 22634754 OR 22634756 OR 22635005 OR 22635006 OR 22635007 OR 22641210 OR 22641211 OR 22643873 OR 22653117 OR 22660413 OR 22660414 OR 22660415 OR 22660438 OR 22660439 OR 22660545 OR 22660546 OR 22660547 OR 22660548 OR 22660634 OR 22660635 OR 22660636 OR 22673996 OR 22673997 OR 22673998 OR 22678384 OR 22683610 OR 22683611 OR 22683710 OR 22683711 OR 22683712 OR 22683713 OR 22683778 OR 22683779 OR 22683780 OR 22684254 OR 22684255 OR 22684256 OR 22706160 OR 22706199 OR 22706200 OR 22706312 OR 22706313 OR 22706385 OR 22706386 OR 22710296 OR 22710308 OR 22729030 OR 22729031 OR 22729083 OR 22729084 OR 22729085 OR 22729086 OR 22729148 OR 22729149 OR 22729222 OR 22729223 OR 22729224 OR 22729225 OR 22729283 OR 22729284 OR 22729285 OR 22729286 OR 22750882 OR 22750883 OR 22750884 OR 22750943 OR 22750944 OR 22750945 OR 22750946 OR 22751096 OR 22751098 OR 22751100 OR 22772081 OR 22772152 OR 22772153 OR 22772154 OR 22772155 OR 22772368 OR 22772369 OR 22772370 OR 22772371 OR 22772463 OR 22772464 OR 22772533 OR 22772546 OR 22772554 OR 22772555 OR 22772556 OR 22772566 OR 22781677 OR 22781678 OR 22781679 OR 22781680 OR 22781681 OR 22781691 OR 22781692 OR 22797597 OR 22797665 OR 22797666 OR 22797725 OR 22797726 OR 22797809 OR 22797810 OR 22797811 OR 22810761 OR 22810762 OR 22820316 OR 22820317 OR 22820318 OR 22820375 OR 22820376 OR 22820377 OR 22820378 OR 22820418 OR 22820419 OR 22820420 OR 22820512 OR 22820642 OR 22820643 OR 22820644 OR 22820645 OR 22836096 OR 22842228 OR 22842229 OR 22842230 OR 22842475 OR 22842476 OR 22842477 OR 22842922 OR 22842973 OR 22854809 OR 22863731 OR 22863732 OR 22863735 OR 22863785 OR 22863786 OR 22863787 OR 22864477 OR 22864544 OR 22869183 OR 22869188 OR 22869189 OR 22885723 OR 22885770 OR 22885771 OR 22885787 OR 22885923 OR 22885925 OR 22885997 OR 22902532 OR 22902598 OR 22902614 OR 22902615 OR 22902786 OR 22902787 OR 22902875 OR 22902876 OR 22907080 OR 22907081 OR 22907082 OR 22907083 OR 22907084 OR 22907085 OR 22907086 OR 22907087 OR 22907088 OR 22907089 OR 22907090 OR 22922409 OR 22922410 OR 22922411 OR 22922412 OR 22922672 OR 22922673 OR 22922674 OR 22922712 OR 22922713 OR 22922757 OR 22922758 OR 22922871 OR 22922872 OR 22922873 OR 22922874 OR 22922876 OR 22940906 OR 22940907 OR 22941045 OR 22941046 OR 22941047 OR 22941188 OR 22941189 OR 22941191 OR 22941275 OR 22941276 OR 22941277 OR 22960999 OR 22961000 OR 22961001 OR 22961002 OR 22961106 OR 22961107 OR 22961108 OR 22961109 OR 22961163 OR 22961164 OR 22961165 OR 22965046 OR 22965050 OR 22965061 OR 22972397 OR 22983089 OR 22983090 OR 22983091 OR 22983114 OR 22983115 OR 22983156 OR 22983157 OR 22983302 OR 22983395 OR 22983396 OR 22983397 OR 23000932 OR 23000933 OR 23000962 OR 23000963 OR 23000964 OR 23000965 OR 23000966 OR 23001032 OR 23001033 OR 23001122 OR 23001123 OR 23001124 OR 23001125 OR 23001126 OR 23001181 OR 23001182 OR 23001183 OR 23023224 OR 23023225 OR 23023260 OR 23023261 OR 23023262 OR 23023329 OR 23023330 OR 23023331 OR 23023332 OR 23023333 OR 23023498 OR 23023499 OR 23023500 OR 23034349 OR 23041974 OR 23042035 OR 23042036 OR 23042113 OR 23042114 OR 23042115 OR 23042116 OR 23042117 OR 23042236 OR 23042237 OR 23042348 OR 23042349 OR 23042350 OR 23064238 OR 23064263 OR 23064264 OR 23064265 OR 23064266 OR 23064317 OR 23064318 OR 23064413 OR 23064414 OR 23064415 OR 23064416 OR 23064463 OR 23064464 OR 23086202 OR 23086203 OR 23086237 OR 23086238 OR 23086239 OR 23086297 OR 23086298 OR 23086396 OR 23086397 OR 23086475 OR 23086476 OR 23086477 OR 23086478 OR 23103910 OR 23103911 OR 23103912 OR 23103939 OR 23103940 OR 23103942 OR 23103943 OR 23103944 OR 23104005 OR 23104007 OR 23104008 OR 23104009 OR 23104131 OR 23104132 OR 23131919 OR 23131920 OR 23135514 OR 23135515 OR 23135516 OR 23135524 OR 23138224 OR 23138225 OR 23138297 OR 23138306 OR 23138307 OR 23142818 OR 23142819 OR 23142820 OR 23142821 OR 23142822 OR 23143395 OR 23143396 OR 23143397 OR 23143398 OR 23143399 OR 23143413 OR 23143414 OR 23143415 OR 23143416 OR 23143595 OR 23143596 OR 23143597 OR 23143598 OR 23143599 OR 23143600 OR 23143601 OR 23143602 OR 23143603 OR 23159879 OR 23159880 OR 23159881 OR 23159882 OR 23159929 OR 23160002 OR 23160098 OR 23160099 OR 23160236 OR 23160237 OR 23160238 OR 23160239 OR 23178246 OR 23178247 OR 23178880 OR 23178881 OR 23178882 OR 23178883 OR 23178934 OR 23178935 OR 23179022 OR 23179023 OR 23192178 OR 23192179 OR 23196840 OR 23201782 OR 23201899 OR 23202124 OR 23202125 OR 23202126 OR 23202127 OR 23202128 OR 23202129 OR 23202293 OR 23202294 OR 23202295 OR 23202296 OR 23222703 OR 23222780 OR 23222781 OR 23222782 OR 23222783 OR 23222784 OR 23222840 OR 23222841 OR 23222885 OR 23222886 OR 23222956 OR 23222958 OR 23222959 OR 23222960 OR 23223004 OR 23223005 OR 23223062 OR 23223063 OR 23223064 OR 23238671 OR 23242161 OR 23242162 OR 23242163 OR 23242164 OR 23242214 OR 23242215 OR 23242216 OR 23242217 OR 23242255 OR 23242256 OR 23242367 OR 23242368 OR 23242369 OR 23242472 OR 23242473 OR 23263233 OR 23263278 OR 23263279 OR 23263281 OR 23263282 OR 23263283 OR 23263488 OR 23263489 OR 23263490 OR 23263491 OR 23263626 OR 23291585 OR 23291588 OR 23291629 OR 23291630 OR 23291631 OR 23292608 OR 23292609 OR 23292650 OR 23292651 OR 23292652 OR 23292653 OR 23296005 OR 23296014 OR 23296015 OR 23302933 OR 23313952 OR 23313953 OR 23313954 OR 23313955 OR 23313956 OR 23314056 OR 23314057 OR 23314058 OR 23314863 OR 23314913 OR 23314914 OR 23334449 OR 23334450 OR 23334451 OR 23334497 OR 23334498 OR 23334499 OR 23334666 OR 23334667 OR 23334668 OR 23334669 OR 23334847 OR 23340338 OR 23340339 OR 23353556 OR 23354102 OR 23354103 OR 23354166 OR 23354167 OR 23354168 OR 23354287 OR 23354436 OR 23354437 OR 23354438 OR 23354439 OR 23360964 OR 23360965 OR 23360966 OR 23376966 OR 23376973 OR 23376974 OR 23377025 OR 23377039 OR 23377040 OR 23377180 OR 23377181 OR 23377182 OR 23377183 OR 23377280 OR 23377281 OR 23380860 OR 23389607 OR 23389608 OR 23389609 OR 23389615 OR 23392506 OR 23396013 OR 23396014 OR 23396077 OR 23396078 OR 23396133 OR 23396135 OR 23396136 OR 23396137 OR 23396207 OR 23396208 OR 23396209 OR 23396210 OR 23396211 OR 23416331 OR 23416332 OR 23416519 OR 23416702 OR 23416703 OR 23417094 OR 23417095 OR 23417121 OR 23417122 OR 23434823 OR 23434824 OR 23434825 OR 23434852 OR 23434853 OR 23435085 OR 23435086 OR 23435087 OR 23435088 OR 23435089 OR 23435170 OR 23435171 OR 23438595 OR 23455438 OR 23455439 OR 23455478 OR 23455479 OR 23455543 OR 23455544 OR 23455636 OR 23455637 OR 23455638 OR 23455711 OR 23455712 OR 23455713 OR 23455714 OR 23467236 OR 23467237 OR 23467238 OR 23467247 OR 23471071 OR 23475072 OR 23475073 OR 23475201 OR 23475202 OR 23475203 OR 23502314 OR 23502315 OR 23502316 OR 23502424 OR 23502425 OR 23502780 OR 23502782 OR 23502960 OR 23502961 OR 23502962 OR 23503679 OR 23503680 OR 23508172 OR 23508173 OR 23508174 OR 23508175 OR 23508188 OR 23524342 OR 23524343 OR 23524344 OR 23524951 OR 23524952 OR 23524953 OR 23524983 OR 23524984 OR 23525074 OR 23525075 OR 23525076 OR 23525077 OR 23535729 OR 23535730 OR 23535731 OR 23535732 OR 23535733 OR 23535734 OR 23542643 OR 23542644 OR 23542698 OR 23542699 OR 23542700 OR 23542701 OR 23542786 OR 23542787 OR 23542788 OR 23548925 OR 23548926 OR 23558628 OR 23558629 OR 23558630 OR 23563318 OR 23563424 OR 23563425 OR 23563490 OR 23563491 OR 23563525 OR 23563526 OR 23563606 OR 23563608 OR 23563705 OR 23563706 OR 23583977 OR 23583981 OR 23584088 OR 23584089 OR 23584090 OR 23584091 OR 23584610 OR 23584611 OR 23584676 OR 23584677 OR 23594772 OR 23603658 OR 23603659 OR 23603761 OR 23603762 OR 23603813 OR 23603814 OR 23603816 OR 23604282 OR 23604283 OR 23604284 OR 23604316 OR 23604317 OR 23604318 OR 23604319 OR 23604320 OR 23604321 OR 23609047 OR 23624402 OR 23624403 OR 23624404 OR 23624405 OR 23624406 OR 23624438 OR 23624439 OR 23624525 OR 23624526 OR 23624527 OR 23624599 OR 23624600 OR 23629142 OR 23644466 OR 23644467 OR 23644468 OR 23644469 OR 23644470 OR 23644478 OR 23644479 OR 23644491 OR 23644492 OR 23644493 OR 23644514 OR 23644515 OR 23644516 OR 23652098 OR 23652106 OR 23657389 OR 23657395 OR 23657396 OR 23666011 OR 23666012 OR 23666084 OR 23666085 OR 23666116 OR 23666117 OR 23685480 OR 23685481 OR 23685627 OR 23685628 OR 23685671 OR 23685672 OR 23685747 OR 23685748 OR 23685749 OR 23685839 OR 23685840 OR 23685841 OR 23685842 OR 23685843 OR 23707974 OR 23708000 OR 23708001 OR 23708002 OR 23708003 OR 23708076 OR 23708187 OR 23708188 OR 23708189 OR 23708191 OR 23708290 OR 23708291 OR 23708292 OR 23727860 OR 23727861 OR 23727862 OR 23727931 OR 23727932 OR 23728362 OR 23728423 OR 23728424 OR 23728425 OR 23728494 OR 23728495 OR 23744149 OR 23748502 OR 23748611 OR 23748672 OR 23748673 OR 23749186 OR 23749187 OR 23749189 OR 23749190 OR 23749191 OR 23749230 OR 23749231 OR 23749232 OR 23752422 OR 23770606 OR 23770607 OR 23770609 OR 23770639 OR 23770676 OR 23770677 OR 23770678 OR 23770679 OR 23770691 OR 23770692 OR 23770708 OR 23792628 OR 23792629 OR 23792630 OR 23792689 OR 23792690 OR 23792691 OR 23792734 OR 23793026 OR 23793027 OR 23793028 OR 23793029 OR 23793030 OR 23793098 OR 23793099 OR 23797736 OR 23811600 OR 23811685 OR 23811686 OR 23811687 OR 23811688 OR 23817021 OR 23817022 OR 23817023 OR 23817568 OR 23817570 OR 23817572 OR 23831709 OR 23831726 OR 23831727 OR 23831757 OR 23831758 OR 23831759 OR 23831760 OR 23832011 OR 23832012 OR 23832089 OR 23832090 OR 23836223 OR 23839143 OR 23851447 OR 23851448 OR 23851486 OR 23851487 OR 23851488 OR 23851489 OR 23851573 OR 23851574 OR 23852167 OR 23852168 OR 23852169 OR 23852170 OR 23852171 OR 23852339 OR 23852340 OR 23852341 OR 23872634 OR 23872635 OR 23872636 OR 23872715 OR 23873081 OR 23873082 OR 23873083 OR 23873084 OR 23873085 OR 23873086 OR 23873148 OR 23873149 OR 23873150 OR 23873212 OR 23873214 OR 23892605 OR 23892606 OR 23892607 OR 23892608 OR 23892893 OR 23892894 OR 23907171 OR 23907197 OR 23912125 OR 23912165 OR 23912167 OR 23913001 OR 23913002 OR 23913003 OR 23913004 OR 23913123 OR 23913124 OR 23913125 OR 23917401 OR 23921736 OR 23921743 OR 23921744 OR 23921745 OR 23929344 OR 23933818 OR 23933819 OR 23933820 OR 23933821 OR 23933981 OR 23933982 OR 23933983 OR 23933984 OR 23934176 OR 23934177 OR 23934178 OR 23934214 OR 23934215 OR 23934216 OR 23934245 OR 23934246 OR 23955274 OR 23955275 OR 23955301 OR 23955302 OR 23955303 OR 23955365 OR 23955366 OR 23955596 OR 23955598 OR 23955599 OR 23955711 OR 23955712 OR 23955714 OR 23959130 OR 23974038 OR 23974039 OR 23974040 OR 23974041 OR 23974115 OR 23974116 OR 23974117 OR 23974869 OR 23974870 OR 23974871 OR 23974872 OR 23975025 OR 23975026 OR 23975157 OR 23995134 OR 23995135 OR 23995136 OR 23995137 OR 23995138 OR 23995282 OR 23995283 OR 23995731 OR 23995732 OR 23995768 OR 23995769 OR 24013197 OR 24013198 OR 24013217 OR 24013278 OR 24013279 OR 24013638 OR 24013639 OR 24013640 OR 24013700 OR 24013701 OR 24013747 OR 24013748 OR 24013749 OR 24013756 OR 24022153 OR 24036476 OR 24036477 OR 24036508 OR 24036509 OR 24036510 OR 24036948 OR 24036949 OR 24036950 OR 24036951 OR 24036952 OR 24037091 OR 24037092 OR 24037093 OR 24037094 OR 24037425 OR 24045798 OR 24056301 OR 24056302 OR 24056303 OR 24056399 OR 24056400 OR 24056715 OR 24056716 OR 24056717 OR 24056718 OR 24056770 OR 24056771 OR 24056772 OR 24056773 OR 24056948 OR 24071849 OR 24071850 OR 24071851 OR 24071852 OR 24076600 OR 24076601 OR 24076602 OR 24076603 OR 24076604 OR 24076664 OR 24076665 OR 24077178 OR 24077179 OR 24077180 OR 24084859 OR 24096242 OR 24096243 OR 24096302 OR 24096303 OR 24096304 OR 24097064 OR 24097065 OR 24097066 OR 24097067 OR 24097068 OR 24097188 OR 24097189 OR 24097413 OR 24100981 OR 24100982 OR 24100983 OR 24100992 OR 24100993 OR 24100994 OR 24104751 OR 24108091 OR 24108092 OR 24121526 OR 24121552 OR 24121553 OR 24121554 OR 24121789 OR 24121790 OR 24121791 OR 24121792 OR 24141192 OR 24141193 OR 24141362 OR 24141363 OR 24141364 OR 24141421 OR 24141422 OR 24141423 OR 24142049 OR 24142050 OR 24142103 OR 24142104 OR 24161929 OR 24161930 OR 24161931 OR 24161932 OR 24161933 OR 24161934 OR 24161946 OR 24162736 OR 24162738 OR 24162739 OR 24162740 OR 24162813 OR 24162814 OR 24162815 OR 24185094 OR 24185095 OR 24185096 OR 24185178 OR 24185215 OR 24185509 OR 24185510 OR 24185511 OR 24185512 OR 24185513 OR 24185692 OR 24185693 OR 24202379 OR 24212090 OR 24212091 OR 24212092 OR 24212093 OR 24212134 OR 24212135 OR 24212136 OR 24212882 OR 24212883 OR 24212884 OR 24213699 OR 24216752 OR 24216753 OR 24231606 OR 24231619 OR 24240184 OR 24240185 OR 24240475 OR 24240476 OR 24240477 OR 24240506 OR 24240507 OR 24240508 OR 24241535 OR 24241536 OR 24241537 OR 24270358 OR 24270359 OR 24270360 OR 24270544 OR 24270545 OR 24270546 OR 24270849 OR 24270850 OR 24270888 OR 24270889 OR 24270890 OR 24270891 OR 24291815 OR 24292013 OR 24292014 OR 24292068 OR 24292069 OR 24292070 OR 24292071 OR 24292273 OR 24292392 OR 24309656 OR 24309657 OR 24316580 OR 24316644 OR 24316671 OR 24316672 OR 24316673 OR 24316715 OR 24316735 OR 24316736 OR 24316737 OR 24316738 OR 24316739 OR 24316979 OR 24316980 OR 24316981 OR 24316982 OR 24317117 OR 24317118 OR 24317119 OR 24335649 OR 24335650 OR 24335651 OR 24336167 OR 24336168 OR 24336169 OR 24336247 OR 24336248 OR 24336249 OR 24336317 OR 24336318 OR 24362628 OR 24362629 OR 24362703 OR 24362704 OR 24362705 OR 24362816 OR 24362817 OR 24362818 OR 24362933 OR 24362934 OR 24362935 OR 24390282 OR 24390283 OR 24390308 OR 24390427 OR 24390428 OR 24394384 OR 24398953 OR 24398961 OR 24398962 OR 24406925 OR 24406926 OR 24406927 OR 24412922 OR 24412923 OR 24412924 OR 24412925 OR 24412926 OR 24413433 OR 24413434 OR 24413461 OR 24413462 OR 24413732 OR 24413733 OR 24413734 OR 24413735 OR 24413736 OR 24413737 OR 24441470 OR 24441471 OR 24441527 OR 24441586 OR 24441587 OR 24441736 OR 24441737 OR 24441827 OR 24441828 OR 24441829 OR 24463572 OR 24463573 OR 24463574 OR 24463605 OR 24463606 OR 24463698 OR 24464101 OR 24464186 OR 24464187 OR 24487275 OR 24487276 OR 24487277 OR 24487278 OR 24487433 OR 24487434 OR 24487692 OR 24487693 OR 24487694 OR 24504399 OR 24509481 OR 24509526 OR 24509527 OR 24509748 OR 24509793 OR 24509820 OR 24509821 OR 24531061 OR 24531327 OR 24531328 OR 24531329 OR 24531377 OR 24531378 OR 24531379 OR 24531797 OR 24531798 OR 24531841 OR 24531842 OR 24535568 OR 24561554 OR 24561555 OR 24561618 OR 24561619 OR 24561620 OR 24561621 OR 24561622 OR 24561623 OR 24561661 OR 24561662 OR 24562187 OR 24562381 OR 24562383 OR 24584070 OR 24584071 OR 24584072 OR 24584101 OR 24584102 OR 24584117 OR 24584118 OR 24584119 OR 24603796 OR 24603797 OR 24609268 OR 24609269 OR 24609358 OR 24609359 OR 24609361 OR 24614070 OR 24614071 OR 24614072 OR 24633157 OR 24633158 OR 24633159 OR 24633240 OR 24633241 OR 24633242 OR 24633243 OR 24633304 OR 24633305 OR 24633326 OR 24633327 OR 24633353 OR 24633354 OR 24657929 OR 24657930 OR 24658000 OR 24658001 OR 24658002 OR 24658003 OR 24658004 OR 24658075 OR 24658076 OR 24658077 OR 24658078 OR 24658644 OR 24658645 OR 24658685 OR 24658686 OR 24658687 OR 24681508 OR 24681535 OR 24681536 OR 24681537 OR 24681597 OR 24681598 OR 24686846 OR 24686847 OR 24686848 OR 24686849 OR 24686850 OR 24705250 OR 24705251 OR 24705252 OR 24705253 OR 24705254 OR 24705333 OR 24705334 OR 24705551 OR 24705552 OR 24705553 OR 24705590 OR 24705591 OR 24705592 OR 24710370 OR 24710372 OR 24710373 OR 24710374 OR 24710375 OR 24710376 OR 24710377 OR 24710378 OR 24714478 OR 24714479 OR 24714483 OR 24727714 OR 24727715 OR 24727899 OR 24727900 OR 24727901 OR 24728294 OR 24728410 OR 24728411 OR 24743256 OR 24743257 OR 24743305 OR 24747438 OR 24747439 OR 24747440 OR 24747441 OR 24747528 OR 24747639 OR 24747640 OR 24747641 OR 24747642 OR 24747643 OR 24747744 OR 24747745 OR 24747746 OR 24747747 OR 24752077 OR 24752078 OR 24752079 OR 24752080 OR 24752081 OR 24770324 OR 24770325 OR 24776885 OR 24776928 OR 24776929 OR 24776930 OR 24777449 OR 24777450 OR 24777451 OR 24777452 OR 24784230 OR 24784231 OR 24784232 OR 24792952 OR 24793134 OR 24793135 OR 24793136 OR 24793237 OR 24793238 OR 24793239 OR 24804756 OR 24804757 OR 24811513 OR 24811519 OR 24811520 OR 24813249 OR 24813250 OR 24813251 OR 24813252 OR 24814514 OR 24814672 OR 24814673 OR 24816253 OR 24816254 OR 24816255 OR 24836287 OR 24836575 OR 24836576 OR 24836577 OR 24837660 OR 24837661 OR 24837662 OR 24837663 OR 24838010 OR 24838012 OR 24845231 OR 24859004 OR 24859006 OR 24859116 OR 24859337 OR 24859338 OR 24859340 OR 24859528 OR 24859529 OR 24859530 OR 24859531 OR 24880339 OR 24880340 OR 24880341 OR 24880342 OR 24880487 OR 24880488 OR 24880614 OR 24880615 OR 24880616 OR 24880617 OR 24880666 OR 24880667 OR 24880859 OR 24880860 OR 24901562 OR 24901567 OR 24901568 OR 24907900 OR 24907901 OR 24908249 OR 24908250 OR 24908251 OR 24908277 OR 24908571 OR 24911488 OR 24911489 OR 24929359 OR 24929360 OR 24929361 OR 24929528 OR 24929529 OR 24929828 OR 24929829 OR 24929830 OR 24929950 OR 24929951 OR 24929976 OR 24937068 OR 24952462 OR 24952463 OR 24952464 OR 24952596 OR 24952597 OR 24952646 OR 24952647 OR 24952648 OR 24952744 OR 24952746 OR 24952747 OR 24952901 OR 24952902 OR 24952903 OR 24964173 OR 24965726 OR 24973918 OR 24973919 OR 24973920 OR 24974229 OR 24974230 OR 24974231 OR 24974848 OR 24974849 OR 24976383 OR 24976384 OR 24997520 OR 24997521 OR 24997602 OR 24997604 OR 24997605 OR 24997606 OR 24997607 OR 24997608 OR 24997609 OR 24997786 OR 24997788 OR 24997986 OR 24997987 OR 24997988 OR 24999941 OR 24999942 OR 25004226 OR 25016959 OR 25017102 OR 25017103 OR 25017104 OR 25017105 OR 25038750 OR 25038751 OR 25038752 OR 25038753 OR 25038754 OR 25038773 OR 25038785 OR 25038786 OR 25038787 OR 25038788 OR 25038790 OR 25038791 OR 25038826 OR 25038827 OR 25038828 OR 25064006 OR 25064008 OR 25064126 OR 25064127 OR 25064128 OR 25064736 OR 25064737 OR 25064832 OR 25064833 OR 25086507 OR 25086508 OR 25086509 OR 25086649 OR 25086664 OR 25086666 OR 25086746 OR 25086747 OR 25086906 OR 25093878 OR 25093880 OR 25093881 OR 25093882 OR 25093884 OR 25093888 OR 25093890 OR 25101720 OR 25101721 OR 25101725 OR 25101726 OR 25101728 OR 25101729 OR 25101745 OR 25101747 OR 25108383 OR 25108384 OR 25108385 OR 25108386 OR 25108525 OR 25108526 OR 25108527 OR 25108820 OR 25108821 OR 25129028 OR 25129029 OR 25129030 OR 25129143 OR 25129144 OR 25129145 OR 25129146 OR 25129147 OR 25129479 OR 25129480 OR 25129481 OR 25129690 OR 25150496 OR 25150497 OR 25150498 OR 25150835 OR 25150839 OR 25150978 OR 25150979 OR 25150980 OR 25150981 OR 25151135 OR 25151136 OR 25151354 OR 25151355 OR 25151356 OR 25151357 OR 25151358 OR 25173104 OR 25173106 OR 25173107 OR 25173427 OR 25173428 OR 25173975 OR 25173976 OR 25173977 OR 25173978 OR 25173999 OR 25174000 OR 25184501 OR 25194279 OR 25194280 OR 25194568 OR 25194569 OR 25194570 OR 25194571 OR 25194572 OR 25194818 OR 25194926 OR 25195011 OR 25195012 OR 25198041 OR 25203040 OR 25211370 OR 25216635 OR 25216636 OR 25216637 OR 25216638 OR 25216639 OR 25217958 OR 25218519 OR 25218520 OR 25218637 OR 25218638 OR 25218639 OR 25218740 OR 25218742 OR 25218743 OR 25229448 OR 25240281 OR 25240282 OR 25240283 OR 25240927 OR 25240928 OR 25241035 OR 25241036 OR 25241037 OR 25242415 OR 25242550 OR 25242551 OR 25242552 OR 25242553 OR 25261935 OR 25261994 OR 25261995 OR 25262299 OR 25262415 OR 25262416 OR 25266422 OR 25266423 OR 25271345 OR 25282101 OR 25282102 OR 25282355 OR 25282357 OR 25282358 OR 25282359 OR 25282504 OR 25282505 OR 25283993 OR 25283994 OR 25295940 OR 25299917 OR 25299921 OR 25305755 OR 25306233 OR 25306244 OR 25306246 OR 25306441 OR 25306442 OR 25306443 OR 25325686 OR 25325698 OR 25325699 OR 25326665 OR 25326666 OR 25326701 OR 25326702 OR 25326703 OR 25326798 OR 25326799 OR 25326800 OR 25326801 OR 25326802 OR 25326803 OR 25326804 OR 25326897 OR 25327288 OR 25329329 OR 25344690 OR 25344691 OR 25344692 OR 25344728 OR 25344739 OR 25344740 OR 25344753 OR 25344754 OR 25344755 OR 25344756 OR 25344811 OR 25344812 OR 25344813 OR 25344815 OR 25352098 OR 25357182 OR 25362243 OR 25362244 OR 25362245 OR 25362254 OR 25362351 OR 25362352 OR 25362358 OR 25362359 OR 25362360 OR 25362482 OR 25362483 OR 25362484 OR 25362485 OR 25362486 OR 25380442 OR 25380446 OR 25380447 OR 25383599 OR 25383660 OR 25383757 OR 25383758 OR 25383759 OR 25383968 OR 25383969 OR 25383970 OR 25383972 OR 25384085 OR 25384086 OR 25384087 OR 25401299 OR 25401300 OR 25401691 OR 25401692 OR 25401693 OR 25402613 OR 25402614 OR 25402615 OR 25402616 OR 25402682 OR 25402683 OR 25402684 OR 25402766 OR 25402767 OR 25402768 OR 25402769 OR 25402770 OR 25402771 OR 25402772 OR 25419705 OR 25419707 OR 25419708 OR 25419709 OR 25419739 OR 25419740 OR 25419741 OR 25419847 OR 25419848 OR 25419849 OR 25419850 OR 25419851 OR 25436518 OR 25436519 OR 25438054 OR 25438055 OR 25473919 OR 25485616 OR 25485617 OR 25485618 OR 25485619 OR 25485686 OR 25485687 OR 25485836 OR 25485837 OR 25485908 OR 25485909 OR 25485910 OR 25485911 OR 25485912 OR 25487280 OR 25489830 OR 25489834 OR 25489838 OR 25501392 OR 25501393 OR 25501905 OR 25501906 OR 25501907 OR 25501908 OR 25503382 OR 25503383 OR 25503384 OR 25503564 OR 25503565 OR 25503927 OR 25503928 OR 25513782 OR 25531751 OR 25531777 OR 25531778 OR 25531779 OR 25531890 OR 25531891 OR 25531942 OR 25547603 OR 25558867 OR 25558972 OR 25558973 OR 25559195 OR 25559196 OR 25559343 OR 25559344 OR 25569540 OR 25569542 OR 25569543 OR 25569544 OR 25569545 OR 25569546 OR 25574633 OR 25574634 OR 25580597 OR 25580598 OR 25580734 OR 25580853 OR 25580854 OR 25581428 OR 25581429 OR 25581430 OR 25581432 OR 25581517 OR 25581518 OR 25581519 OR 25599132 OR 25599133 OR 25599175 OR 25599176 OR 25599177 OR 25599178 OR 25599179 OR 25599390 OR 25599400 OR 25599402 OR 25599532 OR 25599533 OR 25621458 OR 25621459 OR 25621460 OR 25621949 OR 25621950 OR 25621951 OR 25621952 OR 25621953 OR 25622090 OR 25622091 OR 25642630 OR 25642631 OR 25642632 OR 25642633 OR 25642938 OR 25643054 OR 25643055 OR 25643171 OR 25643172 OR 25643173 OR 25654601 OR 25654602 OR 25658256 OR 25658260 OR 25658265 OR 25658267 OR 25658280 OR 25664528 OR 25664616 OR 25664691 OR 25664692 OR 25665005 OR 25665006 OR 25665007 OR 25665008 OR 25665179 OR 25665180 OR 25679028 OR 25685889 OR 25685890 OR 25685891 OR 25686104 OR 25686105 OR 25686106 OR 25686248 OR 25686249 OR 25686250 OR 25686251 OR 25686372 OR 25686373 OR 25689334 OR 25689335 OR 25690850 OR 25690852 OR 25690853 OR 25690854 OR 25706233 OR 25706234 OR 25706235 OR 25706236 OR 25706237 OR 25706338 OR 25706339 OR 25706625 OR 25706626 OR 25706627 OR 25706628 OR 25706873 OR 25706874 OR 25706875 OR 25720963 OR 25720964 OR 25730264 OR 25730471 OR 25730472 OR 25730548 OR 25730549 OR 25730763 OR 25730764 OR 25730765 OR 25730766 OR 25742454 OR 25742456 OR 25742457 OR 25748907 OR 25748918 OR 25751057 OR 25751058 OR 25751138 OR 25751139 OR 25751140 OR 25751141 OR 25751279 OR 25751624 OR 25751625 OR 25751626 OR 25751815 OR 25751816 OR 25751817 OR 25774636 OR 25774637 OR 25774713 OR 25774714 OR 25774831 OR 25774833 OR 25774834 OR 25774835 OR 25774848 OR 25774849 OR 25774850 OR 25774941 OR 25798935 OR 25798937 OR 25798938 OR 25798939 OR 25799059 OR 25799060 OR 25799062 OR 25799144 OR 25799226 OR 25799227 OR 25799228 OR 25803306 OR 25807280 OR 25807282 OR 25807284 OR 25807285 OR 25807286 OR 25812520 OR 25812521 OR 25812522 OR 25814306 OR 25822087 OR 25822088 OR 25822089 OR 25822366 OR 25822367 OR 25822590 OR 25822913 OR 25822914 OR 25822915 OR 25848748 OR 25848749 OR 25848750 OR 25848751 OR 25848752 OR 25848753 OR 25848754 OR 25848930 OR 25848931 OR 25849130 OR 25849131 OR 25849132 OR 25849133 OR 25849134 OR 25849135 OR 25849900 OR 25850048 OR 25866923 OR 25867044 OR 25867045 OR 25867922 OR 25867923 OR 25893780 OR 25893781 OR 25893782 OR 25893917 OR 25894083 OR 25894085 OR 25894500 OR 25894501 OR 25894502 OR 25894825 OR 25894826 OR 25894827 OR 25894828 OR 25894829 OR 25915123 OR 25915124 OR 25915125 OR 25915126 OR 25915128 OR 25915199 OR 25915200 OR 25915596 OR 25915597 OR 25915598 OR 25915599 OR 25915600 OR 25915831 OR 25915832 OR 25938814 OR 25938815 OR 25938942 OR 25938943 OR 25938944 OR 25938945 OR 25938946 OR 25939061 OR 25939062 OR 25939063 OR 25939064 OR 25951523 OR 25951530 OR 25961408 OR 25961409 OR 25961502 OR 25961503 OR 25961504 OR 25961505 OR 25961671 OR 25961939 OR 25961940 OR 25961941 OR 25961942 OR 25961943 OR 25962120 OR 25962121 OR 25962122 OR 25962123 OR 25965752 OR 25965754 OR 25965755 OR 25965757 OR 25965758 OR 25978986 OR 25978996 OR 25984720 OR 25985138 OR 25985139 OR 25985140 OR 25985263 OR 25985364 OR 25985365 OR 25985393 OR 25985394 OR 26005834 OR 26005835 OR 26005854 OR 26005855 OR 26005865 OR 26005866 OR 26005867 OR 26005868 OR 26005869 OR 26006006 OR 26006007 OR 26006009 OR 26006010 OR 26006011 OR 26006012 OR 26018892 OR 26018893 OR 26018894 OR 26029868 OR 26029869 OR 26029870 OR 26029871 OR 26029872 OR 26030178 OR 26030179 OR 26030728 OR 26030729 OR 26030730 OR 26046571 OR 26053220 OR 26053221 OR 26053297 OR 26053298 OR 26053494 OR 26053495 OR 26053496 OR 26053497 OR 26053498 OR 26053624 OR 26053625 OR 26057975 OR 26057977 OR 26057978 OR 26057979 OR 26075355 OR 26075356 OR 26075357 OR 26075521 OR 26075522 OR 26075523 OR 26075790 OR 26075791 OR 26075792 OR 26076035 OR 26076036 OR 26076037 OR 26076038 OR 26076429 OR 26076430 OR 26076431 OR 26083060 OR 26083061 OR 26083070 OR 26098447 OR 26098448 OR 26098449 OR 26098450 OR 26098451 OR 26098572 OR 26098573 OR 26098574 OR 26098575 OR 26098576 OR 26098679 OR 26098680 OR 26098866 OR 26098867 OR 26098868 OR 26098870 OR 26099045 OR 26099046 OR 26099047 OR 26107252 OR 26111510 OR 26120796 OR 26121085 OR 26121086 OR 26121087 OR 26121088 OR 26121414 OR 26121415 OR 26147250 OR 26147354 OR 26147356 OR 26147619 OR 26147620 OR 26147760 OR 26147761 OR 26151324 OR 26167629 OR 26167630 OR 26167768 OR 26167872 OR 26167873 OR 26168012 OR 26168013 OR 26168014 OR 26168291 OR 26168292 OR 26168293 OR 26168294 OR 26168295 OR 26192317 OR 26192318 OR 26192319 OR 26192320 OR 26192437 OR 26192438 OR 26192439 OR 26192440 OR 26192599 OR 26192600 OR 26192915 OR 26192916 OR 26192918 OR 26193341 OR 26193342 OR 26193344 OR 26196764 OR 26196765 OR 26196773 OR 26213851 OR 26214132 OR 26214133 OR 26214255 OR 26214256 OR 26214589 OR 26214590 OR 26214592 OR 26214836 OR 26214837 OR 26220132 OR 26236936 OR 26236937 OR 26236989 OR 26236990 OR 26236991 OR 26236992 OR 26237429 OR 26237430 OR 26237515 OR 26237516 OR 26237517 OR 26237645 OR 26237646 OR 26237647 OR 26248267 OR 26252117 OR 26252118 OR 26252119 OR 26252120 OR 26252121 OR 26252122 OR 26252124 OR 26252125 OR 26252133 OR 26252137 OR 26252140 OR 26252142 OR 26258538 OR 26258631 OR 26258632 OR 26258633 OR 26258762 OR 26258763 OR 26258845 OR 26258846 OR 26258847 OR 26258849 OR 26259032 OR 26259033 OR 26280119 OR 26280120 OR 26280121 OR 26280122 OR 26280411 OR 26280412 OR 26280413 OR 26280535 OR 26280536 OR 26280537 OR 26280538 OR 26280656 OR 26280900 OR 26280901 OR 26284660 OR 26284661 OR 26284668 OR 26284671 OR 26284672 OR 26301494 OR 26301495 OR 26301496 OR 26301497 OR 26301689 OR 26301690 OR 26301691 OR 26302406 OR 26302407 OR 26302408 OR 26302479 OR 26302480 OR 26322579 OR 26322580 OR 26322678 OR 26322679 OR 26322680 OR 26322824 OR 26322825 OR 26322826 OR 26323058 OR 26323059 OR 26323060 OR 26343384 OR 26343385 OR 26343386 OR 26343388 OR 26343800 OR 26343801 OR 26344404 OR 26344566 OR 26344567 OR 26344695 OR 26344696 OR 26348940 OR 26348942 OR 26348945 OR 26348946 OR 26348949 OR 26348950 OR 26348951 OR 26348953 OR 26348954 OR 26348961 OR 26348965 OR 26352647 OR 26366551 OR 26366552 OR 26366553 OR 26366554 OR 26366712 OR 26368048 OR 26368049 OR 26368050 OR 26368311 OR 26368589 OR 26368590 OR 26372948 OR 26379012 OR 26379013 OR 26389575 OR 26389576 OR 26389662 OR 26389663 OR 26389664 OR 26389665 OR 26389736 OR 26389737 OR 26390057 OR 26390058 OR 26390241 OR 26390242 OR 26390243 OR 26390244 OR 26398868 OR 26413780 OR 26413781 OR 26414350 OR 26414351 OR 26414402 OR 26414403 OR 26414404 OR 26414444 OR 26414446 OR 26414676 OR 26414677 OR 26414678 OR 26436575 OR 26436690 OR 26436839 OR 26436840 OR 26437028 OR 26437030 OR 26437031 OR 26437032 OR 26437033 OR 26437365 OR 26437366 OR 26444624 OR 26448084 OR 26448088 OR 26457372 OR 26457646 OR 26457647 OR 26457648 OR 26457756 OR 26457757 OR 26457758 OR 26457759 OR 26458175 OR 26458176 OR 26458246 OR 26458247 OR 26473199 OR 26479191 OR 26479317 OR 26479319 OR 26479320 OR 26479438 OR 26479439 OR 26479441 OR 26479442 OR 26479921 OR 26479922 OR 26479923 OR 26479924 OR 26479925 OR 26482878 OR 26482879 OR 26482881 OR 26485069 OR 26485070 OR 26501191 OR 26501192 OR 26501951 OR 26501952 OR 26501954 OR 26501955 OR 26502054 OR 26502055 OR 26502056 OR 26502057 OR 26502155 OR 26502156 OR 26502337 OR 26502339 OR 26506900 OR 26523364 OR 26523365 OR 26523774 OR 26523775 OR 26523776 OR 26523777 OR 26523969 OR 26523970 OR 26523971 OR 26523972 OR 26540383 OR 26540384 OR 26540385 OR 26540386 OR 26544135 OR 26544141 OR 26551273 OR 26551274 OR 26551395 OR 26551396 OR 26551669 OR 26551671 OR 26552008 OR 26552009 OR 26565989 OR 26569123 OR 26569124 OR 26569125 OR 26569126 OR 26569380 OR 26569381 OR 26569382 OR 26571101 OR 26571211 OR 26571212 OR 26571351 OR 26571352 OR 26575226 OR 26575227 OR 26575238 OR 26575239 OR 26594843 OR 26594844 OR 26595381 OR 26595382 OR 26595383 OR 26595384 OR 26595461 OR 26595462 OR 26595768 OR 26595769 OR 26595770 OR 26618343 OR 26618344 OR 26618722 OR 26618723 OR 26619011 OR 26619012 OR 26619147 OR 26619148 OR 26619149 OR 26619249 OR 26619250 OR 26620112 OR 26641531 OR 26641532 OR 26641715 OR 26641717 OR 26641718 OR 26641932 OR 26641933 OR 26641934 OR 26642240 OR 26642241 OR 26642242 OR 26642437 OR 26642438 OR 26655495 OR 26655496 OR 2</t>
-  </si>
-  <si>
-    <t>PMID=(30804557 OR 30804558 OR 30804559 OR 30804561 OR 30804562 OR 30804563 OR 30804566 OR 30833658 OR 30833748 OR 30833749 OR 30833750 OR 30833751 OR 30833752 OR 30833762 OR 30833775 OR 30833776 OR 30833778 OR 30833795 OR 30833796 OR 30842675 OR 30842678 OR 30858580 OR 30858581 OR 30858596 OR 30858613 OR 30858614 OR 30858616 OR 30858617 OR 30886344 OR 30886345 OR 30886346 OR 30886409 OR 30886424 OR 30886426 OR 30886433 OR 30886434 OR 30886436 OR 30886437 OR 30886438 OR 30899105 OR 30911133 OR 30911134 OR 30911135 OR 30911136 OR 30911161 OR 30911177 OR 30911178 OR 30911179 OR 30926969 OR 30926970 OR 30926971 OR 30926972 OR 30936472 OR 30936473 OR 30936474 OR 30936475 OR 30936500 OR 30936501 OR 30936502 OR 30936544 OR 30936545 OR 30936548 OR 30936549 OR 30936559 OR 30936560 OR 30936561 OR 30936562 OR 30936563 OR 30936564 OR 30936566 OR 30936567 OR 30940940 OR 30962542 OR 30962574 OR 30962575 OR 30962619 OR 30962626 OR 30962627 OR 30988422 OR 30988423 OR 30988424 OR 30988504 OR 30988505 OR 30988512 OR 30988513 OR 30988514 OR 30992561 OR 30992562 OR 30992567 OR 30992568 OR 31011167 OR 31011178 OR 31011202 OR 31011203 OR 31011204 OR 31011212 OR 31011214 OR 31036922 OR 31036923 OR 31036929 OR 31036930 OR 31036937 OR 31036938 OR 31036939 OR 31036963 OR 31036964 OR 31040401 OR 31043753 OR 31043755 OR 31043757 OR 31043759 OR 31043760 OR 31048767 OR 31061465 OR 31061466 OR 31061481 OR 31061482 OR 31061483 OR 31061498 OR 31061538 OR 31061540 OR 31068703 OR 31068711 OR 31086261 OR 31086327 OR 31086329 OR 31086330 OR 31086331 OR 31086348 OR 31086351 OR 31101915 OR 31101916 OR 31101917 OR 31101918 OR 31101919 OR 31110287 OR 31110288 OR 31110305 OR 31110306 OR 31110348 OR 31110349 OR 31110351 OR 31110352 OR 31110355 OR 31133692 OR 31133694 OR 31133742 OR 31133745 OR 31133746 OR 31133748 OR 31133749 OR 31133750 OR 31133756 OR 31142849 OR 31142850 OR 31152161 OR 31152164 OR 31160708 OR 31160709 OR 31160710 OR 31160711 OR 31160712 OR 31160815 OR 31160820 OR 31164740 OR 31171880 OR 31178587 OR 31182809 OR 31182810 OR 31197230 OR 31209294 OR 31209295 OR 31209334 OR 31209335 OR 31209336 OR 31209347 OR 31209348 OR 31209349 OR 31209351 OR 31209353 OR 31209373 OR 31209392 OR 31209393 OR 31209394 OR 31209395 OR 31209396 OR 31222192 OR 31235917 OR 31235919 OR 31235920 OR 31235934 OR 31235935 OR 31235936 OR 31235962 OR 31235963 OR 31235964 OR 31253976 OR 31253977 OR 31253978 OR 31253979 OR 31253980 OR 31253982 OR 31263264 OR 31263265 OR 31263268 OR 31263269 OR 31263281 OR 31263282 OR 31263285 OR 31263286 OR 31263287 OR 31267097 OR 31267104 OR 31267105 OR 31267113 OR 31270502 OR 31270503 OR 31270504 OR 31273328 OR 31273329 OR 31285594 OR 31285595 OR 31285596 OR 31285597 OR 31285631 OR 31285632 OR 31285633 OR 31308506 OR 31308507 OR 31308531 OR 31308532 OR 31308533 OR 31308540 OR 31308545 OR 31308546 OR 31320752 OR 31320757 OR 31320758 OR 31332308 OR 31332324 OR 31332325 OR 31332326 OR 31332347 OR 31332348 OR 31332380 OR 31332381 OR 31332389 OR 31332390 OR 31332391 OR 31332392 OR 31332393 OR 31332394 OR 31358965 OR 31358968 OR 31358969 OR 31358971 OR 31358993 OR 31358994 OR 31358995 OR 31359000 OR 31359001 OR 31359002 OR 31359004 OR 31359005 OR 31359006 OR 31359007 OR 31367015 OR 31367016 OR 31371821 OR 31371824 OR 31371825 OR 31371827 OR 31371828 OR 31375793 OR 31375799 OR 31375807 OR 31375808 OR 31375809 OR 31375810 OR 31375811 OR 31375812 OR 31375813 OR 31383972 OR 31383973 OR 31383974 OR 31383975 OR 31384041 OR 31388180 OR 31406327 OR 31406346 OR 31406347 OR 31406348 OR 31406350 OR 31406351 OR 31406370 OR 31406371 OR 31406373 OR 31406374 OR 31406375 OR 31406376 OR 31427789 OR 31427791 OR 31427792 OR 31427815 OR 31427816 OR 31427817 OR 31427818 OR 31427819 OR 31427820 OR 31431731 OR 31451733 OR 31451759 OR 31451760 OR 31451761 OR 31451762 OR 31451768 OR 31451770 OR 31451782 OR 31451783 OR 31477907 OR 31477916 OR 31477922 OR 31477923 OR 31477924 OR 31477927 OR 31477929 OR 31477930 OR 31477931 OR 31477933 OR 31477934 OR 31481789 OR 31481790 OR 31481791 OR 31481792 OR 31481795 OR 31481796 OR 31481798 OR 31485047 OR 31501517 OR 31501557 OR 31501558 OR 31501559 OR 31501560 OR 31501561 OR 31501562 OR 31501589 OR 31501590 OR 31501600 OR 31501601 OR 31501607 OR 31501608 OR 31501609 OR 31501610 OR 31501611 OR 31501613 OR 31501614 OR 31527836 OR 31527837 OR 31541226 OR 31548606 OR 31548607 OR 31548608 OR 31548609 OR 31548610 OR 31548691 OR 31548692 OR 31548693 OR 31548716 OR 31548717 OR 31548720 OR 31548722 OR 31548727 OR 31548728 OR 31548729 OR 31551578 OR 31570822 OR 31570833 OR 31570834 OR 31570835 OR 31570888 OR 31570889 OR 31570891 OR 31570892 OR 31570894 OR 31570895 OR 31570896 OR 31570897 OR 31570898 OR 31570899 OR 31570900 OR 31576057 OR 31576058 OR 31576059 OR 31576060 OR 31578504 OR 31578511 OR 31578528 OR 31591551 OR 31591562 OR 31591563 OR 31591564 OR 31591565 OR 31591566 OR 31591588 OR 31591589 OR 31591592 OR 31591594 OR 31591595 OR 31591596 OR 31591597 OR 31591598 OR 31591600 OR 31591602 OR 31591603 OR 31591604 OR 31591606 OR 31611695 OR 31611696 OR 31611697 OR 31611703 OR 31611704 OR 31636429 OR 31636430 OR 31636431 OR 31636432 OR 31636434 OR 31636435 OR 31636437 OR 31636452 OR 31636453 OR 31636454 OR 31659274 OR 31659275 OR 31659317 OR 31659318 OR 31659323 OR 31659324 OR 31659325 OR 31659337 OR 31659338 OR 31676859 OR 31676860 OR 31676863 OR 31676864 OR 31676865 OR 31676866 OR 31676867 OR 31676868 OR 31685958 OR 31685959 OR 31685984 OR 31685986 OR 31685987 OR 31685988 OR 31685990 OR 31685991 OR 31685992 OR 31685994 OR 31685995 OR 31685996 OR 31685997 OR 31686030 OR 31686031 OR 31686032 OR 31686033 OR 31686035 OR 31686037 OR 31690884 OR 31700170 OR 31700171 OR 31700172 OR 31700174 OR 31700175 OR 31700181 OR 31700183 OR 31700184 OR 31700186 OR 31700187 OR 31700188 OR 31700189 OR 31700190 OR 31712773 OR 31712774 OR 31740807 OR 31740824 OR 31740825 OR 31740826 OR 31740831 OR 31740832 OR 31740833 OR 31740835 OR 31740836 OR 31740837 OR 31740838 OR 31740839 OR 31740840 OR 31768032 OR 31768033 OR 31768034 OR 31768035 OR 31768044 OR 31768046 OR 31768047 OR 31768048 OR 31768049 OR 31768064 OR 31768065 OR 31768068 OR 31768070 OR 31768071 OR 31768072 OR 31784727 OR 31784728 OR 31784729 OR 31784732 OR 31792378 OR 31792379 OR 31792380 OR 31792381 OR 31792382 OR 31792383 OR 31792407 OR 31792408 OR 31792410 OR 31792411 OR 31792442 OR 31792443 OR 31792444 OR 31792445 OR 31792454 OR 31792455 OR 31792456 OR 31792457 OR 31792458 OR 31792459 OR 31792460 OR 31792461 OR 31792462 OR 31806903 OR 31806904 OR 31806906 OR 31819258 OR 31819259 OR 31819260 OR 31819261 OR 31819269 OR 31819270 OR 31819272 OR 31819273 OR 31819274 OR 31819276 OR 31844290 OR 31844291 OR 31844292 OR 31844293 OR 31844294 OR 31844301 OR 31844302 OR 31844304 OR 31844321 OR 31844322 OR 31844323 OR 31844324 OR 31853050 OR 31871317 OR 31871319 OR 31871320 OR 31871321 OR 31873213 OR 31873215 OR 31873216 OR 31873217 OR 31873221 OR 31873223 OR 31873224 OR 31873296 OR 31873297 OR 31873298 OR 31873299 OR 31873309 OR 31873310 OR 31873312 OR 31907373 OR 31907374 OR 31907405 OR 31907410 OR 31907411 OR 31907413 OR 31907414 OR 31907458 OR 31907459 OR 31907460 OR 31907488 OR 31907489 OR 31911676 OR 31911677 OR 31913353 OR 31915373 OR 31915374 OR 31919445 OR 31925403 OR 31932695 OR 31932696 OR 31932717 OR 31932718 OR 31932719 OR 31932720 OR 31932721 OR 31932723 OR 31932726 OR 31932727 OR 31932728 OR 31932729 OR 31932730 OR 31932738 OR 31932739 OR 31932779 OR 31932785 OR 31932788 OR 31932796 OR 31932797 OR 31932798 OR 31932800 OR 31932801 OR 31932802 OR 31932804 OR 31932806 OR 31932807 OR 31959954 OR 31959955 OR 31959964 OR 31959965 OR 31959966 OR 31959988 OR 31959993 OR 31959994 OR 31988382 OR 31988461 OR 31988462 OR 31988464 OR 31992876 OR 32015434 OR 32015435 OR 32015436 OR 32015438 OR 32015439 OR 32015521 OR 32015526 OR 32015527 OR 32015548 OR 32015549 OR 32015559 OR 32024987 OR 32024997 OR 32024998 OR 32024999 OR 32025000 OR 32025001 OR 32025003 OR 32029894 OR 32029896 OR 32029897 OR 32034383 OR 32042165 OR 32042166 OR 32042167 OR 32042168 OR 32042169 OR 32042170 OR 32042179 OR 32042191 OR 32042192 OR 32042193 OR 32042194 OR 32042195 OR 32042196 OR 32042197 OR 32042198 OR 32042199 OR 32042200 OR 32047317 OR 32060489 OR 32066905 OR 32066906 OR 32066907 OR 32066938 OR 32066956 OR 32066966 OR 32066967 OR 32066968 OR 32066969 OR 32066974 OR 32066975 OR 32066977 OR 32080622 OR 32080624 OR 32080625 OR 32080630 OR 32094658 OR 32094659 OR 32094691 OR 32094692 OR 32094910 OR 32094911 OR 32094912 OR 32094922 OR 32094923 OR 32094924 OR 32094926 OR 32094927 OR 32108160 OR 32123335 OR 32123336 OR 32123383 OR 32123385 OR 32123386 OR 32123387 OR 32139906 OR 32139907 OR 32144411 OR 32152538 OR 32152539 OR 32152540 OR 32152541 OR 32152542 OR 32152543 OR 32152544 OR 32152546 OR 32152581 OR 32152582 OR 32152583 OR 32152585 OR 32152597 OR 32152598 OR 32161403 OR 32161411 OR 32161412 OR 32161413 OR 32198492 OR 32198493 OR 32203411 OR 32203412 OR 32203413 OR 32203414 OR 32203415 OR 32203416 OR 32203417 OR 32203418 OR 32203420 OR 32203421 OR 32203462 OR 32203463 OR 32203464 OR 32203465 OR 32203466 OR 32203468 OR 32203469 OR 32203470 OR 32231276 OR 32231277 OR 32231305 OR 32231306 OR 32231307 OR 32231309 OR 32231310 OR 32231311 OR 32231334 OR 32231335 OR 32231336 OR 32231341 OR 32231343 OR 32249828 OR 32251373 OR 32251398 OR 32251399 OR 32251405 OR 32251406 OR 32251407 OR 32251409 OR 32251410 OR 32251411 OR 32265561 OR 32265562 OR 32269357 OR 32273606 OR 32273607 OR 32273609 OR 32273610 OR 32284542 OR 32284578 OR 32284579 OR 32284585 OR 32284586 OR 32284588 OR 32284589 OR 32284590 OR 32284601 OR 32284602 OR 32284603 OR 32284611 OR 32284617 OR 32284618 OR 32284619 OR 32296168 OR 32300245 OR 32313104 OR 32313247 OR 32313248 OR 32313249 OR 32317764 OR 32322102 OR 32327757 OR 32341502 OR 32341503 OR 32341525 OR 32341526 OR 32341547 OR 32341548 OR 32341549 OR 32341550 OR 32341562 OR 32341563 OR 32341564 OR 32341565 OR 32341579 OR 32341581 OR 32350461 OR 32350462 OR 32361713 OR 32367017 OR 32367018 OR 32367019 OR 32367046 OR 32367047 OR 32367048 OR 32367049 OR 32367060 OR 32371934 OR 32382151 OR 32382154 OR 32393799 OR 32393800 OR 32393803 OR 32393804 OR 32393821 OR 32393822 OR 32393859 OR 32393884 OR 32393886 OR 32393887 OR 32393888 OR 32393889 OR 32393898 OR 32393899 OR 32393900 OR 32393901 OR 32393904 OR 32393905 OR 32398875 OR 32405028 OR 32405055 OR 32405057 OR 32405062 OR 32405063 OR 32424211 OR 32424212 OR 32424275 OR 32424303 OR 32424304 OR 32424305 OR 32424349 OR 32424350 OR 32424351 OR 32424352 OR 32424355 OR 32427924 OR 32433547 OR 32440005 OR 32451439 OR 32451440 OR 32451441 OR 32451458 OR 32451459 OR 32451496 OR 32451497 OR 32451498 OR 32451499 OR 32451505 OR 32451506 OR 32451507 OR 32451508 OR 32451509 OR 32457443 OR 32457444 OR 32457445 OR 32461697 OR 32461698 OR 32472114 OR 32483290 OR 32483291 OR 32483358 OR 32483360 OR 32483361 OR 32483363 OR 32483364 OR 32483365 OR 32483376 OR 32483377 OR 32483378 OR 32483379 OR 32483380 OR 32483386 OR 32483387 OR 32483388 OR 32488218 OR 32504052 OR 32514071 OR 32514122 OR 32514123 OR 32514124 OR 32514125 OR 32514169 OR 32514171 OR 32514172 OR 32514174 OR 32514183 OR 32514184 OR 32518401 OR 32518404 OR 32528151 OR 32528153 OR 32528154 OR 32528155 OR 32541877 OR 32541878 OR 32541879 OR 32541924 OR 32541955 OR 32541956 OR 32541957 OR 32541958 OR 32541965 OR 32541966 OR 32546823 OR 32546824 OR 32555424 OR 32555514 OR 32572169 OR 32572210 OR 32572264 OR 32572265 OR 32572266 OR 32572267 OR 32572268 OR 32572275 OR 32572277 OR 32572278 OR 32581323 OR 32591762 OR 32601335 OR 32601336 OR 32601338 OR 32601371 OR 32601372 OR 32601373 OR 32601430 OR 32601431 OR 32601432 OR 32601433 OR 32601434 OR 32601472 OR 32601473 OR 32601477 OR 32601478 OR 32601484 OR 32601485 OR 32601486 OR 32606475 OR 32632193 OR 32632194 OR 32632293 OR 32632294 OR 32632300 OR 32632301 OR 32632302 OR 32632303 OR 32632335 OR 32632336 OR 32641783 OR 32641843 OR 32641851 OR 32647358 OR 32651581 OR 32661339 OR 32661378 OR 32661379 OR 32661390 OR 32661391 OR 32661393 OR 32661401 OR 32661438 OR 32661439 OR 32661440 OR 32665655 OR 32665660 OR 32678356 OR 32686750 OR 32690888 OR 32690941 OR 32690942 OR 32690943 OR 32690944 OR 32690945 OR 32690947 OR 32690948 OR 32690970 OR 32690971 OR 32690972 OR 32690973 OR 32704169 OR 32719478 OR 32719479 OR 32719484 OR 32719486 OR 32719489 OR 32719515 OR 32719516 OR 32719517 OR 32719551 OR 32719553 OR 32719554 OR 32719555 OR 32719556 OR 32719557 OR 32719558 OR 32733074 OR 32733075 OR 32733106 OR 32747759 OR 32747809 OR 32747811 OR 32747812 OR 32747822 OR 32747824 OR 32747825 OR 32747826 OR 32747827 OR 32747828 OR 32747829 OR 32753669 OR 32753671 OR 32753672 OR 32760020 OR 32770166 OR 32770167 OR 32770169 OR 32778823 OR 32778825 OR 32778826 OR 32778828 OR 32778840 OR 32778841 OR 32778842 OR 32778843 OR 32778844 OR 32778845 OR 32778846 OR 32788668 OR 32807901 OR 32807902 OR 32807903 OR 32807930 OR 32807933 OR 32807934 OR 32807937 OR 32807964 OR 32807965 OR 32807966 OR 32807967 OR 32807968 OR 32807969 OR 32807987 OR 32807988 OR 32812012 OR 32839548 OR 32839549 OR 32839551 OR 32839564 OR 32839604 OR 32839605 OR 32839606 OR 32839619 OR 32839620 OR 32839623 OR 32839624 OR 32868878 OR 32868895 OR 32868900 OR 32868902 OR 32868903 OR 32868907 OR 32868908 OR 32868913 OR 32868914 OR 32879467 OR 32879509 OR 32884147 OR 32884153 OR 32895492 OR 32895497 OR 32895498 OR 32895548 OR 32895550 OR 32895551 OR 32895570 OR 32895572 OR 32908256 OR 32908257 OR 32908258 OR 32908273 OR 32908274 OR 32908275 OR 32908280 OR 32929201 OR 32929202 OR 32929263 OR 32929264 OR 32929266 OR 32929268 OR 32929277 OR 32929278 OR 32929279 OR 32929285 OR 32929287 OR 32929288 OR 32934372 OR 32943787 OR 32948856 OR 32958856 OR 32958857 OR 32958950 OR 32958952 OR 32958953 OR 32958957 OR 32958958 OR 32989246 OR 32989247 OR 32989249 OR 32989250 OR 32989251 OR 32989297 OR 32989298 OR 32989299 OR 32989300 OR 32989301 OR 32989314 OR 32989320 OR 32989321 OR 32989322 OR 32989324 OR 32989325 OR 32989326 OR 33005030 OR 33020597 OR 33020604 OR 33020626 OR 33020633 OR 33020650 OR 33020651 OR 33020664 OR 33020665 OR 33020667 OR 33046851 OR 33046855 OR 33046875 OR 33046882 OR 33046884 OR 33057181 OR 33077910 OR 33077911 OR 33077913 OR 33077915 OR 33077916 OR 33077954 OR 33077955 OR 33077960 OR 33077961 OR 33077962 OR 33077978 OR 33082574 OR 33082575 OR 33093683 OR 33093684 OR 33097835 OR 33106631 OR 33106633 OR 33106634 OR 33106660 OR 33106661 OR 33106662 OR 33106663 OR 33106664 OR 33106666 OR 33106681 OR 33106685 OR 33122860 OR 33128048 OR 33139939 OR 33139948 OR 33139949 OR 33139950 OR 33139952 OR 33139953 OR 33144720 OR 33168978 OR 33169016 OR 33169017 OR 33169020 OR 33169034 OR 33169035 OR 33169036 OR 33184509 OR 33188278 OR 33199844 OR 33199845 OR 33199875 OR 33199876 OR 33199912 OR 33199913 OR 33199914 OR 33199915 OR 33199916 OR 33199917 OR 33230292 OR 33230293 OR 33230297 OR 33230298 OR 33230299 OR 33230302 OR 33230303 OR 33257806 OR 33257808 OR 33257861 OR 33257862 OR 33257863 OR 33257864 OR 33257873 OR 33257893 OR 33257898 OR 33273733 OR 33273741 OR 33288888 OR 33288904 OR 33288905 OR 33288906 OR 33288918 OR 33288938 OR 33288941 OR 33288943 OR 33288946 OR 33288957 OR 33311702 OR 33318652 OR 33318687 OR 33328655 OR 33340033 OR 33349699 OR 33349701 OR 33349707 OR 33361824 OR 33398151 OR 33398152 OR 33398153 OR 33398154 OR 33398159 OR 33398160 OR 33398161 OR 33398162 OR 33398163 OR 33398167 OR 33398168 OR 33398170 OR 33398177 OR 33398178 OR 33398196 OR 33398197 OR 33414545 OR 33414548 OR 33414552 OR 33414553 OR 33420488 OR 33420489 OR 33420490 OR 33420491 OR 33420492 OR 33432170 OR 33432171 OR 33432172 OR 33432173 OR 33432184 OR 33432197 OR 33432198 OR 33432199 OR 33432215 OR 33432236 OR 33432237 OR 33432238 OR 33442007 OR 33442014 OR 33442016 OR 33462394 OR 33462395 OR 33462444 OR 33462447 OR 33462448 OR 33462482 OR 33462483 OR 33462484 OR 33462485 OR 33462493 OR 33462494 OR 33462496 OR 33462497 OR 33462507 OR 33462508 OR 33462509 OR 33479500 OR 33479501 OR 33495597 OR 33495598 OR 33495603 OR 33495604 OR 33495632 OR 33495633 OR 33495646 OR 33495647 OR 33495648 OR 33510451 OR 33510452 OR 33510477 OR 33526892 OR 33526893 OR 33526902 OR 33526923 OR 33526924 OR 33526925 OR 33526928 OR 33531709 OR 33536629 OR 33542532 OR 33542533 OR 33542534 OR 33558697 OR 33558698 OR 33558722 OR 33558724 OR 33558728 OR 33558729 OR 33558757 OR 33558758 OR 33558760 OR 33574608 OR 33574609 OR 33574610 OR 33574615 OR 33589825 OR 33603203 OR 33603233 OR 33603234 OR 33603240 OR 33603247 OR 33619369 OR 33619371 OR 33619384 OR 33619394 OR 33623157 OR 33633365 OR 33633378 OR 33633408 OR 33649477 OR 33649496 OR 33649568 OR 33649592 OR 33649593 OR 33649594 OR 33649598 OR 33649601 OR 33654292 OR 33664492 OR 33664494 OR 33664495 OR 33664496 OR 33664506 OR 33664507 OR 33664520 OR 33664521 OR 33686253 OR 33686261 OR 33686287 OR 33686288 OR 33686291 OR 33686292 OR 33686294 OR 33692505 OR 33692530 OR 33692568 OR 33707772 OR 33707773 OR 33707775 OR 33707777 OR 33707782 OR 33707784 OR 33723431 OR 33723432 OR 33723455 OR 33731941 OR 33737749 OR 33737750 OR 33737751 OR 33737754 OR 33737755 OR 33737758 OR 33753926 OR 33753927 OR 33753928 OR 33753930 OR 33767387 OR 33767388 OR 33767395 OR 33767397 OR 33767405 OR 33767450 OR 33772244 OR 33782603 OR 33782605 OR 33782610 OR 33782612 OR 33782619 OR 33795864 OR 33795866 OR 33795867 OR 33795870 OR 33795871 OR 33795873 OR 33795874 OR 33795875 OR 33795886 OR 33820972 OR 33820973 OR 33820990 OR 33820993 OR 33820994 OR 33820995 OR 33820998 OR 33821002 OR 33821003 OR 33821005 OR 33821006 OR 33833428 OR 33833429 OR 33833453 OR 33833454 OR 33833456 OR 33837285 OR 33837287 OR 33837289 OR 33837377 OR 33846610 OR 33846619 OR 33846634 OR 33846635 OR 33846636 OR 33846645 OR 33846646 OR 33846649 OR 33859400 OR 33859401 OR 33859402 OR 33859403 OR 33859413 OR 33859415 OR 33859416 OR 33859417 OR 33859435 OR 33864052 OR 33875864 OR 33875866 OR 33875889 OR 33875890 OR 33879890 OR 33888907 OR 33888908 OR 33903769 OR 33927397 OR 33927398 OR 33927399 OR 33927411 OR 33927414 OR 33927415 OR 33927416 OR 33927418 OR 33941892 OR 33941922 OR 33941924 OR 33941928 OR 33941932 OR 33941934 OR 33953384 OR 33958758 OR 33958760 OR 33958779 OR 33958780 OR 33958783 OR 33958785 OR 33958791 OR 33958792 OR 33958793 OR 33958794 OR 33958797 OR 33972728 OR 33972729 OR 33972730 OR 33972731 OR 33972733 OR 33972734 OR 33972779 OR 33972780 OR 33972781 OR 33972793 OR 33972794 OR 33972797 OR 33972799 OR 33981074 OR 33986536 OR 33986537 OR 33986538 OR 33986546 OR 33990806 OR 34002089 OR 34002094 OR 34002095 OR 34002098 OR 34007071 OR 34012094 OR 34017132 OR 34017133 OR 34017135 OR 34017136 OR 34017141 OR 34031602 OR 34031604 OR 34031605 OR 34035521 OR 34035522 OR 34035535 OR 34040262 OR 34045736 OR 34045745 OR 34045764 OR 34059824 OR 34059833 OR 34083785 OR 34083788 OR 34083789 OR 34083791 OR 34083793 OR 34083810 OR 34083811 OR 34083812 OR 34089038 OR 34099916 OR 34099924 OR 34099928 OR 34108656 OR 34108657 OR 34108659 OR 34108662 OR 34108663 OR 34108714 OR 34108716 OR 34113015 OR 34127854 OR 34127860 OR 34140680 OR 34140681 OR 34140682 OR 34140684 OR 34140685 OR 34140702 OR 34140703 OR 34140705 OR 34155378 OR 34155402 OR 34155404 OR 34155407 OR 34155414 OR 34163090 OR 34168334 OR 34168346 OR 34168367 OR 34168368 OR 34183834 OR 34183835 OR 34183837 OR 34183853 OR 34183860 OR 34183861 OR 34188222 OR 34188224 OR 34211162 OR 34211177 OR 34211178 OR 34211179 OR 34211183 OR 34226698 OR 34226706 OR 34226710 OR 34226734 OR 34226736 OR 34239060 OR 34239062 OR 34239063 OR 34239064 OR 34239087 OR 34239088 OR 34239127 OR 34239132 OR 34239134 OR 34239136 OR 34239137 OR 34244681 OR 34244682 OR 34253896 OR 34253897 OR 34253898 OR 34253909 OR 34253910 OR 34253920 OR 34257406 OR 34257454 OR 34262158 OR 34267370 OR 34267371 OR 34267373 OR 34272499 OR 34282324 OR 34282336 OR 34282338 OR 34294896 OR 34294911 OR 34294912 OR 34294917 OR 34312500 OR 34312540 OR 34312563 OR 34326481 OR 34326538 OR 34326544 OR 34326545 OR 34326547 OR 34326548 OR 34326549 OR 34326550 OR 34326551 OR 34341532 OR 34341533 OR 34341557 OR 34341563 OR 34341587 OR 34341589 OR 34354233 OR 34354236 OR 34354237 OR 34354262 OR 34373642 OR 34373653 OR 34376839 OR 34385683 OR 34385691 OR 34385710 OR 34385711 OR 34413516 OR 34413517 OR 34413525 OR 34426703 OR 34426704 OR 34426706 OR 34446931 OR 34462587 OR 34462588 OR 34462589 OR 34462590 OR 34462605 OR 34475532 OR 34475533 OR 34475534 OR 34475560 OR 34475564 OR 34475565 OR 34475573 OR 34480125 OR 34489571 OR 34489572 OR 34489573 OR 34489574 OR 34489600 OR 34489601 OR 34489607 OR 34489608 OR 34493866 OR 34493867 OR 34493868 OR 34493869 OR 34493870 OR 34493871 OR 34493872 OR 34497368 OR 34497372 OR 34497373 OR 34504322 OR 34504346 OR 34504347 OR 34518678 OR 34518685 OR 34522051 OR 34526699 OR 34531539 OR 34556857 OR 34556858 OR 34556859 OR 34556860 OR 34556862 OR 34556863 OR 34588689 OR 34594037 OR 34594038 OR 34594039 OR 34594040 OR 34594041 OR 34594042 OR 34608293 OR 34608325 OR 34608326 OR 34608327 OR 34608330 OR 34608331 OR 34611362 OR 34611363 OR 34611364 OR 34616019 OR 34616022 OR 34616024 OR 34616026 OR 34621053 OR 34635836 OR 34635838 OR 34635842 OR 34635846 OR 34635852 OR 34642488 OR 34642490 OR 34650237 OR 34650248 OR 34650268 OR 34650269 OR 34650270 OR 34663920 OR 34663921 OR 34663923 OR 34663924 OR 34663942 OR 34663986 OR 34663988 OR 34675383 OR 34675390 OR 34675413 OR 34675414 OR 34675415 OR 34675420 OR 34675423 OR 34675424 OR 34697476 OR 34697502 OR 34707318 OR 34711974 OR 34711980 OR 34711981 OR 34711982 OR 34711989 OR 34711990 OR 34725502 OR 34725503 OR 34725509 OR 34725510 OR 34725511 OR 34728830 OR 34728831 OR 34737425 OR 34737426 OR 34737427 OR 34737428 OR 34737442 OR 34737445 OR 34741162 OR 34741163 OR 34750581 OR 34754101 OR 34764473 OR 34764489 OR 34764491 OR 34764492 OR 34782739 OR 34782740 OR 34782741 OR 34782742 OR 34782743 OR 34782763 OR 34782764 OR 34782790 OR 34795433 OR 34799735 OR 34811483 OR 34811516 OR 34824459 OR 34837083 OR 34845373 OR 34845389 OR 34857912 OR 34857927 OR 34857952 OR 34857953 OR 34857954 OR 34857958 OR 34873283 OR 34873326 OR 34873345 OR 34876684 OR 34876685 OR 34876687 OR 34876692 OR 34887515 OR 34887556 OR 34887573 OR 34887575 OR 34887578 OR 34887587 OR 34893771 OR 34893775 OR 34893776 OR 34903851 OR 34903892 OR 34907383 OR 34907389 OR 34907391 OR 34907393 OR 34916619 OR 34916620 OR 34921308 OR 34931062 OR 34931064 OR 34931065 OR 34931066 OR 34931067 OR 34931076 OR 34934187 OR 34934192 OR 34937906 OR 34937907 OR 34937909 OR 34937911 OR 34937912 OR 34937913 OR 34949778 OR 34949835 OR 34949836 OR 34949837 OR 34949838 OR 34949839 OR 34961794 OR 34969962 OR 34969970 OR 34969972 OR 34969973 OR 34980910 OR 34980911 OR 34980912 OR 34980913 OR 34980915 OR 34980917 OR 34980919 OR 34992245 OR 34992246 OR 34992247 OR 34992267 OR 35013556 OR 35013558 OR 35013600 OR 35013613 OR 35022575 OR 35022603 OR 35027729 OR 35027730 OR 35027731 OR 35027733 OR 35027734 OR 35027735 OR 35027740 OR 35027744 OR 35027753 OR 35027754 OR 35027755 OR 35027756 OR 35027757 OR 35027758 OR 35031790 OR 35039640 OR 35039641 OR 35039656 OR 35039657 OR 35039677 OR 35042228 OR 35043019 OR 35045566 OR 35046572 OR 35046573 OR 35046611 OR 35051989 OR 35051990 OR 35058622 OR 35058645 OR 35075232 OR 35075289 OR 35075293 OR 35090165 OR 35102292 OR 35102336 OR 35102337 OR 35115686 OR 35115689 OR 35115690 OR 35115705 OR 35115707 OR 35115708 OR 35130561 OR 35132260 OR 35132263 OR 35132265 OR 35140406 OR 35145221 OR 35145222 OR 35145224 OR 35145225 OR 35145274 OR 35145300 OR 35145301 OR 35145304 OR 35145305 OR 35145312 OR 35145313 OR 35165384 OR 35165413 OR 35165416 OR 35165418 OR 35165443 OR 35165445 OR 35165453 OR 35169305 OR 35177821 OR 35177822 OR 35177836 OR 35177837 OR 35177839 OR 35177841 OR 35177855 OR 35177857 OR 35177858 OR 35177859 OR 35177860 OR 35177862 OR 35189624 OR 35190685 OR 35190686 OR 35190688 OR 35190689 OR 35190690 OR 35190725 OR 35190726 OR 35190730 OR 35194207 OR 35210567 OR 35210568 OR 35210596 OR 35210597 OR 35210612 OR 35210618 OR 35210619 OR 35210620 OR 35228706 OR 35228707 OR 35228751 OR 35241824 OR 35241825 OR 35241826 OR 35241836 OR 35241837 OR 35241838 OR 35241839 OR 35241840 OR 35241842 OR 35241843 OR 35246667 OR 35256774 OR 35256775 OR 35256776 OR 35256804 OR 35256805 OR 35256806 OR 35256815 OR 35256816 OR 35260848 OR 35273398 OR 35273399 OR 35288656 OR 35288668 OR 35288694 OR 35288696 OR 35288697 OR 35288709 OR 35288711 OR 35288712 OR 35289327 OR 35289328 OR 35292781 OR 35292783 OR 35292784 OR 35296820 OR 35301437 OR 35301479 OR 35301481 OR 35301482 OR 35301496 OR 35314812 OR 35314813 OR 35314814 OR 35314816 OR 35314822 OR 35314841 OR 35314845 OR 35322239 OR 35332263 OR 35332264 OR 35332318 OR 35332331 OR 35332332 OR 35332338 OR 35332339 OR 35332340 OR 35332341 OR 35347280 OR 35347282 OR 35347305 OR 35347329 OR 35361970 OR 35361990 OR 35361996 OR 35379961 OR 35379962 OR 35379963 OR 35379992 OR 35379993 OR 35383308 OR 35383313 OR 35393535 OR 35393539 OR 35393561 OR 35393574 OR 35393575 OR 35393594 OR 35393595 OR 35393596 OR 35393597 OR 35395151 OR 35410377 OR 35410378 OR 35410381 OR 35410383 OR 35410384 OR 35411075 OR 35411077 OR 35411078 OR 35411079 OR 35411081 OR 35411083 OR 35411085 OR 35411086 OR 35411088 OR 35411116 OR 35414015 OR 35414019 OR 35414020 OR 35418624 OR 35418641 OR 35422459 OR 35437329 OR 35437332 OR 35440715 OR 35440718 OR 35440725 OR 35449414 OR 35449415 OR 35449456 OR 35468276 OR 35468950 OR 35468954 OR 35468955 OR 35468964 OR 35469017 OR 35469018 OR 35469069 OR 35484246 OR 35484247 OR 35484249 OR 35484250 OR 35484257 OR 35484262 OR 35484264 OR 35484265 OR 35484301 OR 35484405 OR 35484434 OR 35484435 OR 35501370 OR 35501392 OR 35501419 OR 35501486 OR 35513511 OR 35513512 OR 35513526 OR 35513709 OR 35513710 OR 35513711 OR 35513721 OR 35513723 OR 35513724 OR 35513725 OR 35513726 OR 35534559 OR 35534561 OR 35534562 OR 35534563 OR 35534565 OR 35534572 OR 35534577 OR 35537471 OR 35538258 OR 35538260 OR 35550611 OR 35550612 OR 35550614 OR 35550615 OR 35551261 OR 35551305 OR 35551306 OR 35551308 OR 35551309 OR 35551310 OR 35562483 OR 35562484 OR 35562485 OR 35577941 OR 35578032 OR 35585331 OR 35590003 OR 35590073 OR 35590074 OR 35590106 OR 35590109 OR 35605637 OR 35606422 OR 35606490 OR 35606552 OR 35606556 OR 35606558 OR 35614233 OR 35618746 OR 35618837 OR 35618838 OR 35618845 OR 35618846 OR 35618847 OR 35618928 OR 35618932 OR 35637336 OR 35637337 OR 35637349 OR 35637350 OR 35637351 OR 35637384 OR 35637385 OR 35637408 OR 35637409 OR 35637418 OR 35637419 OR 35641827 OR 35654839 OR 35654840 OR 35654841 OR 35654845 OR 35654846 OR 35654847 OR 35654906 OR 35654907 OR 35654973 OR 35654975 OR 35654976 OR 35654977 OR 35654978 OR 35654979 OR 35668135 OR 35668177 OR 35668191 OR 35668298 OR 35668300 OR 35668323 OR 35668324 OR 35668325 OR 35675841 OR 35676500 OR 35676539 OR 35681008 OR 35681009 OR 35681011 OR 35681029 OR 35681030 OR 35681052 OR 35681053 OR 35681054 OR 35681055 OR 35681059 OR 35697781 OR 35697783 OR 35697785 OR 35697798 OR 35697804 OR 35697806 OR 35697807 OR 35697808 OR 35697842 OR 35697843 OR 35697866 OR 35697867 OR 35705705 OR 35705707 OR 35710616 OR 35710617 OR 35710619 OR 35710981 OR 35710987 OR 35710995 OR 35711061 OR 35715589 OR 35725768 OR 35725769 OR 35725921 OR 35725941 OR 35726067 OR 35726091 OR 35739268 OR 35739270 OR 35739317 OR 35739318 OR 35739319 OR 35739357 OR 35739388 OR 35750157 OR 35760080 OR 35760859 OR 35760861 OR 35760913 OR 35760916 OR 35761075 OR 35761077 OR 35761078 OR 35773407 OR 35773432 OR 35773542 OR 35787683 OR 35787684 OR 35788175 OR 35788180 OR 35788181 OR 35788567 OR 35789323 OR 35798842 OR 35798843 OR 35798900 OR 35799063 OR 35799064 OR 35804153 OR 35817959 OR 35817960 OR 35817961 OR 35817967 OR 35817968 OR 35817971 OR 35817972 OR 35817974 OR 35817975 OR 35817976 OR 35817977 OR 35817979 OR 35817981 OR 35817982 OR 35817983 OR 35817985 OR 35817986 OR 35821080 OR 35831517 OR 35831656 OR 35831660 OR 35835912 OR 35835913 OR 35835915 OR 35836017 OR 35836018 OR 35836020 OR 35851189 OR 35851190 OR 35851191 OR 35851616 OR 35851877 OR 35864190 OR 35864192 OR 35864193 OR 35864251 OR 35864252 OR 35864256 OR 35864257 OR 35864314 OR 35864332 OR 35864333 OR 35864335 OR 35869308 OR 35879362 OR 35879412 OR 35879414 OR 35879545 OR 35879546 OR 35879547 OR 35879551 OR 35879615 OR 35879616 OR 35902743 OR 35902744 OR 35902769 OR 35915156 OR 35915159 OR 35915259 OR 35927450 OR 35927451 OR 35927489 OR 35927581 OR 35927585 OR 35931863 OR 35931864 OR 35941187 OR 35941237 OR 35941365 OR 35941367 OR 35941368 OR 35941369 OR 35941376 OR 35945440 OR 35945445 OR 35945446 OR 35945447 OR 35948628 OR 35953547 OR 35953549 OR 35953550 OR 35953586 OR 35953587 OR 35953717 OR 35953718 OR 35953722 OR 35961373 OR 35962207 OR 35970919 OR 35970921 OR 35970996 OR 35970997 OR 35982161 OR 35982226 OR 35982227 OR 35982307 OR 35995863 OR 35995947 OR 35995948 OR 35995954 OR 35995955 OR 35996000 OR 35996001 OR 35996002 OR 35996003 OR 36008487 OR 36008711 OR 36008723 OR 36038628 OR 36038629 OR 36038634 OR 36042293 OR 36050469 OR 36050470 OR 36050493 OR 36050548 OR 36050549 OR 36064600 OR 36064796 OR 36064797 OR 36064968 OR 36065018 OR 36068437 OR 36071171 OR 36071173 OR 36075972 OR 36075974 OR 36075975 OR 36075976 OR 36076082 OR 36076085 OR 36076086 OR 36085501 OR 36085503 OR 36085510 OR 36085511 OR 36085512 OR 36097071 OR 36097072 OR 36097217 OR 36097219 OR 36097220 OR 36097221 OR 36097223 OR 36097295 OR 36097297 OR 36100738 OR 36104595 OR 36109636 OR 36109638 OR 36109639 OR 36109643 OR 36109649 OR 36109670 OR 36109671 OR 36123406 OR 36127419 OR 36131148 OR 36131151 OR 36138139 OR 36138150 OR 36138151 OR 36138152 OR 36138153 OR 36138154 OR 36138229 OR 36138232 OR 36151323 OR 36163278 OR 36163279 OR 36163280 OR 36163297 OR 36163298 OR 36163383 OR 36163386 OR 36175678 OR 36175679 OR 36175680 OR 36192556 OR 36192632 OR 36192636 OR 36195755 OR 36195757 OR 36195758 OR 36202971 OR 36202972 OR 36202973 OR 36202974 OR 36202975 OR 36202976 OR 36203000 OR 36203002 OR 36207523 OR 36207587 OR 36216931 OR 36216932 OR 36216934 OR 36216935 OR 36216936 OR 36216942 OR 36229666 OR 36229673 OR 36229681 OR 36229685 OR 36241719 OR 36253535 OR 36253572 OR 36266359 OR 36266487 OR 36266488 OR 36266489 OR 36266505 OR 36266506 OR 36266507 OR 36280732 OR 36280733 OR 36302894 OR 36302967 OR 36302968 OR 36302969 OR 36302970 OR 36302971 OR 36302972 OR 36303074 OR 36307580 OR 36319855 OR 36323860 OR 36333402 OR 36333500 OR 36333502 OR 36333503 OR 36333504 OR 36333505 OR 36333506 OR 36333509 OR 36344775 OR 36344776 OR 36347944 OR 36347945 OR 36347984 OR 36347987 OR 36347988 OR 36347989 OR 36347990 OR 36347991 OR 36352264 OR 36357675 OR 36357676 OR 36357677 OR 36357678 OR 36357679 OR 36357680 OR 36376475 OR 36396954 OR 36396955 OR 36400993 OR 36400997 OR 36400998)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>PMID=(1284549 OR 1284639 OR 1284640 OR 1284642 OR 1284644 OR 1285365 OR 1301992 OR 1301993 OR 1301994 OR 1301998 OR 1302003 OR 1302004 OR 1302005 OR 1302006 OR 1302007 OR 1302009 OR 1302021 OR 1302022 OR 1302023 OR 1302025 OR 1302026 OR 1302034 OR 1303228 OR 1303229 OR 1303230 OR 1303231 OR 1303232 OR 1303233 OR 1303234 OR 1303236 OR 1303240 OR 1303241 OR 1303245 OR 1303246 OR 1303247 OR 1303248 OR 1303250 OR 1303251 OR 1303252 OR 1303253 OR 1303258 OR 1303259 OR 1303261 OR 1303265 OR 1303266 OR 1303271 OR 1303276 OR 1303277 OR 1303278 OR 1303279 OR 1303280 OR 1303282 OR 1303283 OR 1303284 OR 1303286 OR 1303287 OR 1303288 OR 1303289 OR 1303290 OR 1303291 OR 1338766 OR 1338767 OR 1338771 OR 1338772 OR 1338908 OR 1338910 OR 1345164 OR 1345165 OR 1345166 OR 1345167 OR 1345168 OR 1345169 OR 1345170 OR 1345171 OR 1345172 OR 1345173 OR 1345175 OR 1363808 OR 1363813 OR 1363815 OR 1363816 OR 1363881 OR 7489354 OR 7489355 OR 7489356 OR 7489357 OR 7489358 OR 7489359 OR 7489360 OR 7489361 OR 7489362 OR 7489363 OR 7489364 OR 7489365 OR 7489366 OR 7489368 OR 7489380 OR 7489381 OR 7489395 OR 7489397 OR 7489398 OR 7489399 OR 7489403 OR 7489404 OR 7489405 OR 7489406 OR 7489407 OR 7489408 OR 7489409 OR 7489410 OR 7489411 OR 7489412 OR 7489413 OR 7489414 OR 7489415 OR 7489416 OR 7489417 OR 7493015 OR 7493016 OR 7493017 OR 7493018 OR 7493019 OR 7493020 OR 7493021 OR 7493022 OR 7493023 OR 7493024 OR 7493025 OR 7493026 OR 7493027 OR 7493028 OR 7493029 OR 7493030 OR 7493031 OR 7493032 OR 7493033 OR 7493034 OR 7493035 OR 7493036 OR 7503811 OR 7504552 OR 7504553 OR 7506095 OR 7506096 OR 7506097 OR 7511021 OR 7511023 OR 7512861 OR 7512862 OR 7522742 OR 7526932 OR 7531056 OR 7533029 OR 7539672 OR 7539673 OR 7540910 OR 7545056 OR 7545492 OR 7545494 OR 7545495 OR 7545953 OR 7550308 OR 7550309 OR 7550311 OR 7550312 OR 7550313 OR 7550316 OR 7550317 OR 7550318 OR 7550319 OR 7550321 OR 7550323 OR 7550324 OR 7550325 OR 7550326 OR 7550342 OR 7550343 OR 7550347 OR 7550348 OR 7550349 OR 7550351 OR 7550353 OR 7581446 OR 7581447 OR 7581448 OR 7581450 OR 7581452 OR 7581453 OR 7581454 OR 7581455 OR 7581456 OR 7581457 OR 7581458 OR 7581459 OR 7581460 OR 7581461 OR 7581462 OR 7581463 OR 7581464 OR 7581465 OR 7584948 OR 7584952 OR 7584953 OR 7584954 OR 7584955 OR 7584956 OR 7584958 OR 7584959 OR 7584960 OR 7584974 OR 7584976 OR 7584977 OR 7584980 OR 7584985 OR 7584988 OR 7584989 OR 7584990 OR 7584991 OR 7584992 OR 7584993 OR 7584994 OR 7584995 OR 7584996 OR 7584997 OR 7585006 OR 7585007 OR 7585008 OR 7585009 OR 7585010 OR 7585011 OR 7585012 OR 7585013 OR 7585014 OR 7585015 OR 7585037 OR 7585038 OR 7585039 OR 7585040 OR 7585041 OR 7585042 OR 7585043 OR 7585044 OR 7585045 OR 7585053 OR 7585054 OR 7585055 OR 7585059 OR 7585061 OR 7585062 OR 7585064 OR 7585065 OR 7585066 OR 7585067 OR 7585068 OR 7585069 OR 7585070 OR 7585081 OR 7585083 OR 7585084 OR 7585085 OR 7585088 OR 7585089 OR 7585090 OR 7585091 OR 7585092 OR 7585093 OR 7585094 OR 7585095 OR 7585096 OR 7585097 OR 7585098 OR 7585113 OR 7585115 OR 7585116 OR 7585118 OR 7585119 OR 7585120 OR 7585121 OR 7585122 OR 7585123 OR 7585133 OR 7585142 OR 7585144 OR 7585145 OR 7585147 OR 7585149 OR 7585150 OR 7585151 OR 7585153 OR 7585154 OR 7585155 OR 7585156 OR 7585157 OR 7585169 OR 7585171 OR 7585172 OR 7585177 OR 7585181 OR 7585182 OR 7585183 OR 7585184 OR 7585185 OR 7585187 OR 7585188 OR 7585189 OR 7585210 OR 7585213 OR 7585214 OR 7585217 OR 7585218 OR 7585219 OR 7585220 OR 7585221 OR 7585222 OR 7585223 OR 7585224 OR 7585225 OR 7626145 OR 7632217 OR 7647777 OR 7647783 OR 7647784 OR 7647785 OR 7647787 OR 7647789 OR 7647790 OR 7647791 OR 7647793 OR 7647795 OR 7647798 OR 7647799 OR 7647801 OR 7647802 OR 7663509 OR 7663512 OR 7663513 OR 7663514 OR 7663515 OR 7663516 OR 7663517 OR 7663518 OR 7663520 OR 7663521 OR 7663522 OR 7663523 OR 7663524 OR 7663525 OR 7670463 OR 7670465 OR 7670466 OR 7670467 OR 7670470 OR 7670471 OR 7670472 OR 7670475 OR 7670476 OR 7670477 OR 7670478 OR 7670487 OR 7670488 OR 7670489 OR 7670490 OR 7670491 OR 7670492 OR 7670493 OR 7670494 OR 7670495 OR 7670496 OR 7670497 OR 7670498 OR 7670499 OR 7670501 OR 7684646 OR 7684647 OR 7685651 OR 7685652 OR 7689389 OR 7693128 OR 7693129 OR 7693130 OR 7704017 OR 7704018 OR 7704020 OR 7704021 OR 7704023 OR 7704024 OR 7704025 OR 7704027 OR 7704028 OR 7704029 OR 7719337 OR 7719338 OR 7719340 OR 7719341 OR 7719343 OR 7719344 OR 7719346 OR 7719347 OR 7719348 OR 7719349 OR 7719350 OR 7726912 OR 7773285 OR 7773286 OR 7773287 OR 7773291 OR 7773292 OR 7773293 OR 7773294 OR 7773295 OR 7773296 OR 7773297 OR 7795642 OR 7795643 OR 7795644 OR 7795645 OR 7795646 OR 7795647 OR 7795649 OR 7795650 OR 7795651 OR 7795652 OR 7795653 OR 7842010 OR 7842012 OR 7842013 OR 7842015 OR 7842016 OR 7842017 OR 7842018 OR 7874163 OR 7874166 OR 7874167 OR 7874169 OR 7874172 OR 7874174 OR 7894480 OR 7894481 OR 7894482 OR 7894483 OR 7894484 OR 7894485 OR 7894486 OR 7894487 OR 7894488 OR 7894489 OR 7894490 OR 7894491 OR 7894492 OR 7894493)</t>
+  </si>
+  <si>
+    <t>PMID=(7894494 OR 7903889 OR 7907913 OR 7915601 OR 7920628 OR 7920630 OR 7920632 OR 7920633 OR 7920634 OR 7920635 OR 7920636 OR 7920637 OR 7920638 OR 7920639 OR 7920640 OR 7920641 OR 7920642 OR 7920643 OR 7920646 OR 7920654 OR 7920655 OR 7920657 OR 7920659 OR 7920660 OR 7920662 OR 7920663 OR 7920664 OR 7920665 OR 7920666 OR 7951315 OR 7951316 OR 7951317 OR 7951319 OR 7951320 OR 7951321 OR 7951322 OR 7951323 OR 7951324 OR 7951325 OR 7951326 OR 7951328 OR 7981749 OR 7981751 OR 7981754 OR 7981755 OR 7981757 OR 7981759 OR 7987387 OR 7987388 OR 7987390 OR 7987392 OR 7987393 OR 7987394 OR 7987396 OR 7987397 OR 7987398 OR 7987399 OR 7987400 OR 8012384 OR 8012386 OR 8012387 OR 8012388 OR 8012389 OR 8012390 OR 8012391 OR 8012392 OR 8012393 OR 8012394 OR 8012395 OR 8012396 OR 8012397 OR 8012398 OR 8054973 OR 8054974 OR 8054975 OR 8054978 OR 8054979 OR 8054980 OR 8054982 OR 8054983 OR 8054985 OR 8075631 OR 8075632 OR 8075633 OR 8075634 OR 8075635 OR 8075637 OR 8075638 OR 8075642 OR 8075646 OR 8075647 OR 8075648 OR 8075649 OR 8098250 OR 8098985 OR 8099842 OR 8102296 OR 8102297 OR 8106079 OR 8136826 OR 8136827 OR 8136828 OR 8136829 OR 8136831 OR 8136833 OR 8136834 OR 8136836 OR 8136839 OR 8136840 OR 8136841 OR 8136842 OR 8162067 OR 8162068 OR 8162069 OR 8162070 OR 8162071 OR 8162072 OR 8162073 OR 8162074 OR 8162075 OR 8162076 OR 8162077 OR 8220418 OR 8220422 OR 8220423 OR 8220424 OR 8220427 OR 8220433 OR 8220434 OR 8252036 OR 8252037 OR 8252038 OR 8252039 OR 8252040 OR 8252041 OR 8252042 OR 8252043 OR 8252044 OR 8252045 OR 8252046 OR 8252047 OR 8252048 OR 8275084 OR 8275085 OR 8275086 OR 8275087 OR 8275088 OR 8275089 OR 8275090 OR 8275091 OR 8275092 OR 8275093 OR 8275094 OR 8275095 OR 8275096 OR 8298639 OR 8298641 OR 8298642 OR 8298645 OR 8298646 OR 8298647 OR 8298648 OR 8298649 OR 8298650 OR 8298651 OR 8298652 OR 8298653 OR 8348148 OR 8348150 OR 8348151 OR 8348152 OR 8348154 OR 8348157 OR 8348158 OR 8358429 OR 8358430 OR 8358433 OR 8358434 OR 8358435 OR 8358436 OR 8358438 OR 8358439 OR 8358440 OR 8358441 OR 8358442 OR 8387378 OR 8387379 OR 8394174 OR 8395283 OR 8401578 OR 8401579 OR 8401580 OR 8401581 OR 8401586 OR 8401588 OR 8401589 OR 8401590 OR 8401591 OR 8485577 OR 8485578 OR 8485579 OR 8485580 OR 8490646 OR 8490647 OR 8490648 OR 8490651 OR 8490653 OR 8490654 OR 8490655 OR 8490657 OR 8490658 OR 8490659 OR 8490661 OR 8490662 OR 8499944 OR 8499946 OR 8499947 OR 8499948 OR 8499949 OR 8499950 OR 8499951 OR 8499952 OR 8513319 OR 8513321 OR 8513323 OR 8513332 OR 8528239 OR 8528241 OR 8528245 OR 8528247 OR 8528248 OR 8528250 OR 8528252 OR 8528254 OR 8528255 OR 8528256 OR 8528258 OR 8528259 OR 8528260 OR 8528261 OR 8528262 OR 8528263 OR 8563750 OR 8563751 OR 8563752 OR 8563753 OR 8563754 OR 8563755 OR 8563756 OR 8563757 OR 8563758 OR 8563759 OR 8563760 OR 8563761 OR 8563762 OR 8563764 OR 8563765 OR 8564822 OR 8564835 OR 8564838 OR 8564843 OR 8564845 OR 8564846 OR 8564847 OR 8564848 OR 8564850 OR 8564851 OR 8574955 OR 8574956 OR 8574957 OR 8574961 OR 8574962 OR 8574963 OR 8574964 OR 8574965 OR 8574966 OR 8574967 OR 8574969 OR 8574970 OR 8574971 OR 8574972 OR 8574973 OR 8589713 OR 8589714 OR 8589715 OR 8589716 OR 8589717 OR 8589718 OR 8589719 OR 8589720 OR 8589721 OR 8589722 OR 8589723 OR 8589724 OR 8589725 OR 8589726 OR 8589727 OR 8589728 OR 8589729 OR 8589730 OR 8597950 OR 8597951 OR 8597952 OR 8597953 OR 8597954 OR 8597955 OR 8597956 OR 8597957 OR 8597958 OR 8597959 OR 8597960 OR 8597961 OR 8597962 OR 8612209 OR 8612218 OR 8612220 OR 8612222 OR 8612224 OR 8612226 OR 8612227 OR 8612228 OR 8612229 OR 8612231 OR 8612233 OR 8612235 OR 8612236 OR 8612237 OR 8612239 OR 8616706 OR 8616707 OR 8616709 OR 8616710 OR 8616711 OR 8616712 OR 8616714 OR 8616715 OR 8616716 OR 8616717 OR 8616718 OR 8616719 OR 8616720 OR 8616721 OR 8630480 OR 8630489 OR 8630490 OR 8630491 OR 8630493 OR 8630497 OR 8630498 OR 8630500 OR 8630501 OR 8630504 OR 8630506 OR 8640219 OR 8640220 OR 8640221 OR 8640223 OR 8640224 OR 8640225 OR 8640226 OR 8640227 OR 8640228 OR 8640229 OR 8640230 OR 8640231 OR 8640232 OR 8640233 OR 8640234 OR 8640235 OR 8640236 OR 8640237 OR 8640238 OR 8640544 OR 8640546 OR 8640547 OR 8640552 OR 8640554 OR 8640556 OR 8640557 OR 8640558 OR 8640559 OR 8640560 OR 8640561 OR 8640562 OR 8640563 OR 8673088 OR 8673089 OR 8673090 OR 8673091 OR 8673092 OR 8673104 OR 8673110 OR 8673112 OR 8673113 OR 8673114 OR 8673125 OR 8673126 OR 8673128 OR 8673129 OR 8673130 OR 8673131 OR 8673132 OR 8673133 OR 8673134 OR 8673135 OR 8673136 OR 8673137 OR 8673138 OR 8673140 OR 8673141 OR 8673911 OR 8673913 OR 8673914 OR 8673915 OR 8673916 OR 8673917 OR 8673918 OR 8673919 OR 8673920 OR 8673921 OR 8673922 OR 8673923 OR 8673924 OR 8673925 OR 8673926 OR 8673927 OR 8673928 OR 8673929 OR 8673930 OR 8673931 OR 8673932 OR 8696334 OR 8696336 OR 8696337 OR 8696338 OR 8696339 OR 8696341 OR 8696342 OR 8696349 OR 8696350 OR 8705844 OR 8705847 OR 8705851 OR 8705854 OR 8705855 OR 8705856 OR 8705857 OR 8705858 OR 8705859 OR 8705860)</t>
+  </si>
+  <si>
+    <t>PMID=(8705861 OR 8705862 OR 8705863 OR 8705864 OR 8705865 OR 8705866 OR 8782446 OR 8782447 OR 8782448 OR 8782452 OR 8782456 OR 8782457 OR 8782458 OR 8782459 OR 8782460 OR 8782461 OR 8782462 OR 8782463 OR 8782464 OR 8782465 OR 8782815 OR 8782816 OR 8782817 OR 8782818 OR 8782819 OR 8782820 OR 8782821 OR 8782822 OR 8782823 OR 8782824 OR 8782825 OR 8782826 OR 8782827 OR 8782828 OR 8782829 OR 8782830 OR 8782831 OR 8782832 OR 8837600 OR 8837601 OR 8837605 OR 8837607 OR 8837610 OR 8837611 OR 8837612 OR 8837613 OR 8837614 OR 8837615 OR 8837616 OR 8837617 OR 8841182 OR 8841183 OR 8841184 OR 8841185 OR 8841186 OR 8841187 OR 8841189 OR 8841190 OR 8841191 OR 8841192 OR 8841194 OR 8841195 OR 8841196 OR 8841197 OR 8841198 OR 8841199 OR 8841200 OR 8841201 OR 8841202 OR 8841203 OR 8896554 OR 8896555 OR 8896556 OR 8896557 OR 8896558 OR 8896559 OR 8896560 OR 8896561 OR 8896562 OR 8896563 OR 8896564 OR 8896566 OR 8896568 OR 8896569 OR 8896570 OR 8896572 OR 8896573 OR 8898745 OR 8898746 OR 8898747 OR 8898748 OR 8898749 OR 8898750 OR 8898751 OR 8898752 OR 8898753 OR 8898754 OR 8898755 OR 8898756 OR 8898757 OR 8898758 OR 8898759 OR 8944018 OR 8944019 OR 8944020 OR 8944021 OR 8944022 OR 8944023 OR 8944024 OR 8944025 OR 8944026 OR 8944027 OR 8944028 OR 8944029 OR 8944030 OR 8944031 OR 8944032 OR 8944033 OR 8946829 OR 8946830 OR 8946831 OR 8946832 OR 8946833 OR 8946834 OR 8946835 OR 8946836 OR 8946837 OR 8946838 OR 8946839 OR 8946840 OR 8946841 OR 8946842 OR 8986727 OR 8986737 OR 8986738 OR 8986739 OR 8986740 OR 8986741 OR 8986742 OR 8986744 OR 8986746 OR 8986747 OR 8986748 OR 8988164 OR 8988165 OR 8988166 OR 8988167 OR 8988169 OR 8988170 OR 8988171 OR 8988172 OR 8988173 OR 8988174 OR 8988175 OR 8988176 OR 8988177 OR 8988178 OR 8988179 OR 9018234 OR 9018235 OR 9018236 OR 9018237 OR 9018238 OR 9018239 OR 9018240 OR 9018241 OR 9018242 OR 9018243 OR 9018244 OR 9018245 OR 9018246 OR 9018247 OR 9018248 OR 9020839 OR 9020841 OR 9020843 OR 9020844 OR 9020845 OR 9020846 OR 9020847 OR 9020848 OR 9020849 OR 9020851 OR 9020852 OR 9020853 OR 9020854 OR 9035091 OR 9035103 OR 9035104 OR 9035105 OR 9035106 OR 9035107 OR 9035111 OR 9035114 OR 9035118 OR 9035119 OR 9035135 OR 9035138 OR 9035139 OR 9035140 OR 9035141 OR 9035142 OR 9035143 OR 9035144 OR 9035145 OR 9035146 OR 9054935 OR 9054936 OR 9054937 OR 9054938 OR 9054940 OR 9054941 OR 9054942 OR 9054943 OR 9054944 OR 9054945 OR 9054946 OR 9054947 OR 9054949 OR 9054950 OR 9055854 OR 9055855 OR 9055856 OR 9055857 OR 9055858 OR 9055859 OR 9055860 OR 9055861 OR 9055862 OR 9055863 OR 9055864 OR 9055865 OR 9055866 OR 9055868 OR 9055869 OR 9062922 OR 9062923 OR 9062924 OR 9062925 OR 9062926 OR 9062927 OR 9062928 OR 9062929 OR 9062930 OR 9062932 OR 9090377 OR 9090378 OR 9090379 OR 9090381 OR 9090382 OR 9090383 OR 9090384 OR 9090386 OR 9090387 OR 9094106 OR 9094108 OR 9094133 OR 9094134 OR 9094135 OR 9094136 OR 9094137 OR 9094138 OR 9094139 OR 9094140 OR 9094141 OR 9094142 OR 9095163 OR 9095173 OR 9095174 OR 9095175 OR 9095177 OR 9095180 OR 9095181 OR 9095182 OR 9095183 OR 9131621 OR 9131622 OR 9131623 OR 9131624 OR 9131625 OR 9131626 OR 9131628 OR 9131631 OR 9140391 OR 9140392 OR 9140393 OR 9140394 OR 9140396 OR 9140397 OR 9140401 OR 9140402 OR 9140403 OR 9140404 OR 9142107 OR 9142108 OR 9142118 OR 9142119 OR 9142120 OR 9142121 OR 9142122 OR 9142123 OR 9142124 OR 9142125 OR 9142126 OR 9142127 OR 9142128 OR 9142129 OR 9142130 OR 9142131 OR 9142132 OR 9171824 OR 9171825 OR 9171826 OR 9171827 OR 9171828 OR 9171829 OR 9171830 OR 9171831 OR 9171832 OR 9171833 OR 9171834 OR 9171835 OR 9171836 OR 9176478 OR 9176487 OR 9176488 OR 9176489 OR 9176490 OR 9176491 OR 9176492 OR 9176493 OR 9176494 OR 9176495 OR 9176496 OR 9176498 OR 9176499 OR 9176500 OR 9181554 OR 9181556 OR 9181575 OR 9181576 OR 9181577 OR 9181578 OR 9181579 OR 9181580 OR 9181581 OR 9181583 OR 9181584 OR 9207786 OR 9207787 OR 9207788 OR 9207789 OR 9207790 OR 9207791 OR 9207792 OR 9207793 OR 9207794 OR 9207795 OR 9207796 OR 9207797 OR 9207798 OR 9207799 OR 9207800 OR 9207801 OR 9212089 OR 9212090 OR 9212098 OR 9212099 OR 9212100 OR 9212101 OR 9212102 OR 9212103 OR 9212104 OR 9212105 OR 9212106 OR 9212107 OR 9212108 OR 9212109 OR 9212110 OR 9212111 OR 9212112 OR 9212113 OR 9219263 OR 9219264 OR 9219265 OR 9219266 OR 9219267 OR 9219269 OR 9219270 OR 9219271 OR 9219272 OR 9219274 OR 9241269 OR 9241270 OR 9241271 OR 9241272 OR 9241273 OR 9241274 OR 9241275 OR 9241276 OR 9241277 OR 9241278 OR 9241279 OR 9241280 OR 9241281 OR 9241282 OR 9241283 OR 9255789 OR 9255790 OR 9255791 OR 9255792 OR 9255793 OR 9255794 OR 9255795 OR 9255796 OR 9255797 OR 9255799 OR 9255800 OR 9255801 OR 9256264 OR 9256273 OR 9256274 OR 9256275 OR 9256276 OR 9256277 OR 9256278 OR 9256279 OR 9256280 OR 9256281 OR 9256282 OR 9256283 OR 9256284 OR 9256285 OR 9256286 OR 9256287 OR 9256288 OR 9256289 OR 9288095 OR 9288096 OR 9288097 OR 9288099 OR 9288100 OR 9288101 OR 9288103 OR 9288104 OR 9288107 OR 9288110 OR 9288111 OR 9288723 OR 9288724)</t>
+  </si>
+  <si>
+    <t>PMID=(9288725 OR 9288726 OR 9288727 OR 9288729 OR 9288730 OR 9288731 OR 9288732 OR 9288733 OR 9288734 OR 9288735 OR 9306400 OR 9306401 OR 9306402 OR 9306403 OR 9306404 OR 9306405 OR 9306406 OR 9306407 OR 9306408 OR 9306409 OR 9306410 OR 9326933 OR 9326934 OR 9326935 OR 9326936 OR 9326937 OR 9326941 OR 9326942 OR 9326944 OR 9326945 OR 9326946 OR 9326947 OR 9326948 OR 9326949 OR 9326950 OR 9326951 OR 9334706 OR 9334708 OR 9334719 OR 9334720 OR 9334721 OR 9334722 OR 9334723 OR 9334724 OR 9334725 OR 9334726 OR 9334727 OR 9334728 OR 9334729 OR 9334730 OR 9334731 OR 9334732 OR 9334733 OR 9335033 OR 9335046 OR 9335047 OR 9335048 OR 9335052 OR 9335053 OR 9335054 OR 9335055 OR 9354791 OR 9354792 OR 9354793 OR 9354794 OR 9354795 OR 9354796 OR 9354797 OR 9354798 OR 9354799 OR 9354802 OR 9354803 OR 9354804 OR 9354805 OR 9354806 OR 9354807 OR 9359092 OR 9359093 OR 9359095 OR 9359107 OR 9359108 OR 9359109 OR 9359110 OR 9359111 OR 9359112 OR 9359113 OR 9359114 OR 9359115 OR 9359116 OR 9359117 OR 9359694 OR 9359695 OR 9359696 OR 9359697 OR 9359698 OR 9359699 OR 9359700 OR 9359702 OR 9359703 OR 9359704 OR 9359705 OR 9359706 OR 9359707 OR 9396603 OR 9396604 OR 9396607 OR 9396608 OR 9396609 OR 9396610 OR 9396611 OR 9396612 OR 9396613 OR 9396614 OR 9398839 OR 9398840 OR 9398841 OR 9398842 OR 9398843 OR 9398845 OR 9398846 OR 9398847 OR 9398848 OR 9398849 OR 9398850 OR 9398851 OR 9398853 OR 9398854 OR 9398855 OR 9398856 OR 9398857 OR 9398858 OR 9398859 OR 9398860 OR 9415887 OR 9415888 OR 9415889 OR 9415890 OR 9415891 OR 9415892 OR 9415893 OR 9415894 OR 9415896 OR 9425895 OR 9425896 OR 9425897 OR 9425898 OR 9425899 OR 9425900 OR 9425901 OR 9425902 OR 9425903 OR 9425904 OR 9425905 OR 9425906 OR 9425907 OR 9425908 OR 9427593 OR 9427603 OR 9427604 OR 9427605 OR 9427606 OR 9427607 OR 9427608 OR 9427609 OR 9427610 OR 9427611 OR 9427612 OR 9427613 OR 9427615 OR 9447576 OR 9447594 OR 9447595 OR 9447598 OR 9447599 OR 9447600 OR 9461188 OR 9461189 OR 9461190 OR 9461191 OR 9461193 OR 9461194 OR 9461195 OR 9461196 OR 9461197 OR 9461198 OR 9461199 OR 9461200 OR 9461201 OR 9462738 OR 9462739 OR 9462740 OR 9462741 OR 9462742 OR 9462743 OR 9462744 OR 9462746 OR 9462747 OR 9462748 OR 9462749 OR 9462750 OR 9462751 OR 9462752 OR 9462753 OR 9462754 OR 9462755 OR 9487497 OR 9487522 OR 9487523 OR 9487524 OR 9487525 OR 9487526 OR 9487527 OR 9487528 OR 9487529 OR 9487530 OR 9487532 OR 9500542 OR 9500544 OR 9500545 OR 9500546 OR 9500547 OR 9500548 OR 9500549 OR 9500550 OR 9500551 OR 9500552 OR 9500553 OR 9500554 OR 9500555 OR 9500556 OR 9500590 OR 9500600 OR 9500601 OR 9500602 OR 9500603 OR 9500604 OR 9500608 OR 9500609 OR 9500610 OR 9500611 OR 9500612 OR 9500613 OR 9500614 OR 9500615 OR 9527990 OR 9527991 OR 9528002 OR 9528004 OR 9528005 OR 9528006 OR 9528007 OR 9528008 OR 9528009 OR 9528010 OR 9528011 OR 9528012 OR 9528013 OR 9528015 OR 9537412 OR 9537413 OR 9537414 OR 9537415 OR 9537416 OR 9537417 OR 9537418 OR 9537419 OR 9537420 OR 9537421 OR 9537422 OR 9537423 OR 9537424 OR 9537425 OR 9546783 OR 9546784 OR 9546785 OR 9546786 OR 9546787 OR 9546789 OR 9546790 OR 9546791 OR 9546793 OR 9546794 OR 9546795 OR 9555711 OR 9555712 OR 9555724 OR 9555725 OR 9555726 OR 9555727 OR 9555728 OR 9555729 OR 9555730 OR 9555731 OR 9555734 OR 9585190 OR 9585191 OR 9585193 OR 9585194 OR 9585218 OR 9585230 OR 9585231 OR 9585232 OR 9585233 OR 9585234 OR 9585238 OR 9585239 OR 9585240 OR 9585241 OR 9585242 OR 9590284 OR 9590285 OR 9590286 OR 9590287 OR 9590288 OR 9590289 OR 9590290 OR 9590291 OR 9590292 OR 9590293 OR 9590294 OR 9590295 OR 9590296 OR 9590297 OR 9590298 OR 9590300 OR 9591269 OR 9592390 OR 9592391 OR 9592392 OR 9592393 OR 9592394 OR 9592396 OR 9592397 OR 9592398 OR 9620767 OR 9620768 OR 9620769 OR 9620770 OR 9620771 OR 9620772 OR 9620773 OR 9620774 OR 9620775 OR 9620776 OR 9620777 OR 9620778 OR 9620779 OR 9620780 OR 9620781 OR 9620782 OR 9620783 OR 9623975 OR 9623976 OR 9623977 OR 9623978 OR 9623979 OR 9623980 OR 9623981 OR 9623982 OR 9623983 OR 9623984 OR 9623985 OR 9623986 OR 9624684 OR 9624685 OR 9624686 OR 9624687 OR 9624689 OR 9624690 OR 9624691 OR 9624692 OR 9630886 OR 9630890 OR 9630891 OR 9630893 OR 9630894 OR 9630896 OR 9630897 OR 9630898 OR 9630899 OR 9630902 OR 9630920 OR 9630921 OR 9630922 OR 9630923 OR 9630924 OR 9630925 OR 9630926 OR 9630929 OR 9630935 OR 9630947 OR 9630948 OR 9630950 OR 9630951 OR 9630952 OR 9630953 OR 9630954 OR 9630955 OR 9630956 OR 9630957 OR 9630958 OR 9630959 OR 9630961 OR 9630965 OR 9630967 OR 9630976 OR 9630978 OR 9630979 OR 9630980 OR 9630981 OR 9630982 OR 9630983 OR 9630984 OR 9630985 OR 9630986 OR 9630987 OR 9630991 OR 9630992 OR 9631007 OR 9631008 OR 9631009 OR 9631010 OR 9631011 OR 9631012 OR 9631013 OR 9631014 OR 9631015 OR 9631016 OR 9631018 OR 9631022 OR 9631025 OR 9631035 OR 9631036 OR 9631037 OR 9631038 OR 9631039 OR 9631040 OR 9631041 OR 9631042 OR 9631043 OR 9631044 OR 9631048 OR 9631061 OR 9631062 OR 9631063 OR 9631065 OR 9631066 OR 9631067 OR 9631068 OR 9631069)</t>
+  </si>
+  <si>
+    <t>PMID=(9631070 OR 9631071 OR 9631087 OR 9631088 OR 9631089 OR 9631090 OR 9631091 OR 9631093 OR 9631094 OR 9631095 OR 9634820 OR 9634821 OR 9634822 OR 9634824 OR 9634825 OR 9634826 OR 9634827 OR 9634828 OR 9634829 OR 9634830 OR 9634850 OR 9634851 OR 9634853 OR 9634856 OR 9634857 OR 9661193 OR 9661196 OR 9661197 OR 9661198 OR 9661199 OR 9661201 OR 9661203 OR 9661204 OR 9661205 OR 9662367 OR 9662368 OR 9662369 OR 9662370 OR 9662371 OR 9662372 OR 9662373 OR 9662374 OR 9662375 OR 9662376 OR 9662377 OR 9662378 OR 9662379 OR 9662380 OR 9662381 OR 9662394 OR 9662395 OR 9662396 OR 9662397 OR 9662398 OR 9662399 OR 9662400 OR 9662401 OR 9662402 OR 9662403 OR 9662404 OR 9662405 OR 9662406 OR 9662407 OR 9662408 OR 9662409 OR 9662410 OR 9697692 OR 9697693 OR 9697694 OR 9697695 OR 9697696 OR 9697697 OR 9697698 OR 9697699 OR 9697700 OR 9697701 OR 9697702 OR 9697703 OR 9697704 OR 9697705 OR 9697706 OR 9701229 OR 9701242 OR 9701243 OR 9701244 OR 9701245 OR 9701246 OR 9701247 OR 9701248 OR 9701249 OR 9701250 OR 9701251 OR 9701252 OR 9701253 OR 9701254 OR 9702751 OR 9702753 OR 9702754 OR 9702768 OR 9702769 OR 9702771 OR 9702772 OR 9702773 OR 9702774 OR 9702775 OR 9702776 OR 9702777 OR 9702778 OR 9702779 OR 9702781 OR 9731524 OR 9731525 OR 9731526 OR 9731527 OR 9731528 OR 9731529 OR 9731530 OR 9731531 OR 9731532 OR 9731534 OR 9731535 OR 9731536 OR 9731537 OR 9731538 OR 9731539 OR 9731540 OR 9731541 OR 9734393 OR 9734394 OR 9734395 OR 9734397 OR 9734398 OR 9734399 OR 9734400 OR 9734401 OR 9734402 OR 9734403 OR 9734404 OR 9734405 OR 9743092 OR 9743113 OR 9743114 OR 9743116 OR 9743117 OR 9743118 OR 9743120 OR 9743121 OR 9743122 OR 9743123 OR 9743124 OR 9743126 OR 9771703 OR 9771704 OR 9771705 OR 9771706 OR 9771707 OR 9771708 OR 9771709 OR 9771710 OR 9771711 OR 9771712 OR 9771713 OR 9771714 OR 9771715 OR 9771716 OR 9771717 OR 9771719 OR 9771732 OR 9771734 OR 9771745 OR 9771746 OR 9771747 OR 9771748 OR 9771750 OR 9771751 OR 9771753 OR 9771754 OR 9771755 OR 9771756 OR 9771757 OR 9788325 OR 9788326 OR 9788347 OR 9788348 OR 9788349 OR 9788350 OR 9788351 OR 9788352 OR 9788353 OR 9788354 OR 9788355 OR 9788357 OR 9806540 OR 9806541 OR 9806543 OR 9806544 OR 9806545 OR 9806546 OR 9806548 OR 9806549 OR 9806551 OR 9806552 OR 9806553 OR 9806554 OR 9806555 OR 9809534 OR 9809535 OR 9809547 OR 9809548 OR 9809549 OR 9809550 OR 9809551 OR 9809552 OR 9809553 OR 9809554 OR 9809556 OR 9809557 OR 9809558 OR 9809559 OR 9809560 OR 9809561 OR 9831012 OR 9831029 OR 9831031 OR 9831032 OR 9831033 OR 9831034 OR 9831035 OR 9831036 OR 9831037 OR 9831038 OR 9831039 OR 9831040 OR 9831041 OR 9843204 OR 9843205 OR 9843206 OR 9843207 OR 9843208 OR 9843209 OR 9843210 OR 9843211 OR 9843212 OR 9843213 OR 9843214 OR 9843215 OR 9843216 OR 9843217 OR 9843218 OR 9846573 OR 9846574 OR 9846575 OR 9846576 OR 9846577 OR 9846578 OR 9846579 OR 9846580 OR 9846581 OR 9846582 OR 9846583 OR 9846585 OR 9846586 OR 9846587 OR 9853591 OR 9853592 OR 9853610 OR 9853613 OR 9853614 OR 9853615 OR 9853616 OR 9853617 OR 9853618 OR 9853619 OR 9853620 OR 9853621 OR 9853622 OR 9853623 OR 9883836 OR 9883837 OR 9883838 OR 9883839 OR 9883840 OR 9883841 OR 9883842 OR 9883843 OR 9883844 OR 9883845 OR 9883846 OR 9883847 OR 9883848 OR 9883849 OR 9883850 OR 9915492 OR 9916794 OR 9916795 OR 9916796 OR 9916797 OR 9916798 OR 9916799 OR 9916800 OR 9916801 OR 9916802 OR 9916803 OR 9916804 OR 9916805 OR 9916806 OR 9916807 OR 9916808 OR 9916809 OR 9920264 OR 9920266 OR 9920268 OR 9920269 OR 9920270 OR 9920271 OR 9920272 OR 9920273 OR 9920274 OR 9920276 OR 9930862 OR 9930863 OR 9930864 OR 9930865 OR 9930866 OR 9930867 OR 9930868 OR 9930869 OR 9930870 OR 9930871 OR 9930872 OR 9930873 OR 9930874 OR 9930875 OR 9930876 OR 9988267 OR 9988268 OR 9988269 OR 9988270 OR 9988271 OR 9988272 OR 9988273 OR 9988274 OR 9988275 OR 9988276 OR 9988277 OR 9988278 OR 9988279 OR 9988280 OR 9988281 OR 10052318 OR 10052332 OR 10052348 OR 10052350 OR 10052351 OR 10052352 OR 10052353 OR 10052354 OR 10052355 OR 10052356 OR 10052357 OR 10052358 OR 10052359 OR 10080178 OR 10080179 OR 10080181 OR 10080182 OR 10080183 OR 10080184 OR 10080186 OR 10080187 OR 10080189 OR 10080190 OR 10080192 OR 10086381 OR 10086382 OR 10086383 OR 10086384 OR 10086385 OR 10086386 OR 10086387 OR 10086388 OR 10086389 OR 10086390 OR 10086391 OR 10086392 OR 10086393 OR 10086394 OR 10086395 OR 10096270 OR 10096271 OR 10096288 OR 10096295 OR 10192385 OR 10192386 OR 10192387 OR 10192389 OR 10192391 OR 10192392 OR 10192393 OR 10192394 OR 10192395 OR 10192396 OR 10192397 OR 10192399 OR 10192400 OR 10202926 OR 10202927 OR 10202928 OR 10202929 OR 10202930 OR 10202931 OR 10202932 OR 10202933 OR 10202934 OR 10202935 OR 10202936 OR 10202938 OR 10202939 OR 10202940 OR 10207858 OR 10207880 OR 10207881 OR 10207882 OR 10207883 OR 10207884 OR 10207885 OR 10207886 OR 10207887 OR 10207888 OR 10207889 OR 10207890 OR 10207891 OR 10207892 OR 10207893 OR 10229226 OR 10229227 OR 10229228 OR 10229230 OR 10229232 OR 10229233 OR 10229234 OR 10229235 OR 10229236 OR 10229237 OR 10229239 OR 10319857 OR 10319859 OR 10319860 OR 10319861 OR 10319862)</t>
+  </si>
+  <si>
+    <t>PMID=(10319863 OR 10319864 OR 10319865 OR 10319866 OR 10319867 OR 10319868 OR 10319869 OR 10319870 OR 10319871 OR 10319872 OR 10319873 OR 10319874 OR 10331803 OR 10331804 OR 10331805 OR 10331806 OR 10331807 OR 10331808 OR 10331809 OR 10331810 OR 10331811 OR 10331812 OR 10369254 OR 10369255 OR 10369256 OR 10369257 OR 10369258 OR 10369260 OR 10369261 OR 10369262 OR 10369263 OR 10369264 OR 10369265 OR 10369267 OR 10369268 OR 10371488 OR 10371499 OR 10371501 OR 10371502 OR 10371504 OR 10371505 OR 10371506 OR 10371507 OR 10371508 OR 10371509 OR 10371510 OR 10371511 OR 10371512 OR 10385297 OR 10385316 OR 10385318 OR 10385319 OR 10385320 OR 10385321 OR 10385322 OR 10385323 OR 10385324 OR 10385325 OR 10385326 OR 10385327 OR 10385329 OR 10385330 OR 10391209 OR 10391211 OR 10391212 OR 10391213 OR 10391214 OR 10391215 OR 10391216 OR 10391218 OR 10391219 OR 10391220 OR 10391223 OR 10395319 OR 10395320 OR 10395321 OR 10395322 OR 10395323 OR 10395324 OR 10395325 OR 10395326 OR 10395327 OR 10395328 OR 10395329 OR 10395330 OR 10395331 OR 10395332 OR 10395333 OR 10395334 OR 10404156 OR 10404157 OR 10404158 OR 10404159 OR 10404160 OR 10404161 OR 10404162 OR 10404163 OR 10404164 OR 10404165 OR 10404166 OR 10404167 OR 10409335 OR 10409355 OR 10409357 OR 10409361 OR 10426310 OR 10426311 OR 10426312 OR 10426313 OR 10426314 OR 10426315 OR 10426316 OR 10426317 OR 10426318 OR 10426319 OR 10426320 OR 10426321 OR 10426322 OR 10426323 OR 10426324 OR 10429217 OR 10429238 OR 10429239 OR 10429240 OR 10429241 OR 10429242 OR 10429243 OR 10429244 OR 10429245 OR 10429246 OR 10429247 OR 10429248 OR 10429249 OR 10429250 OR 10429254 OR 10431235 OR 10431236 OR 10431237 OR 10431238 OR 10431239 OR 10431240 OR 10431241 OR 10431242 OR 10431243 OR 10431244 OR 10431245 OR 10431246 OR 10431247 OR 10431248 OR 10431249 OR 10470075 OR 10470076 OR 10470077 OR 10470079 OR 10470080 OR 10470081 OR 10470082 OR 10470083 OR 10470084 OR 10470085 OR 10470086 OR 10470088 OR 10470089 OR 10471491 OR 10471492 OR 10471494 OR 10471495 OR 10471497 OR 10471498 OR 10471499 OR 10471500 OR 10471501 OR 10471502 OR 10471504 OR 10471505 OR 10471506 OR 10471507 OR 10471508 OR 10471509 OR 10471510 OR 10471511 OR 10471512 OR 10471904 OR 10471906 OR 10471926 OR 10471927 OR 10471928 OR 10471929 OR 10471930 OR 10471931 OR 10471933 OR 10471934 OR 10471935 OR 10471936 OR 10471937 OR 10471943 OR 10502799 OR 10502800 OR 10502801 OR 10502802 OR 10502816 OR 10502817 OR 10502818 OR 10502819 OR 10502820 OR 10502822 OR 10502823 OR 10502825 OR 10502827 OR 10502828 OR 10504677 OR 10504695 OR 10504696 OR 10504697 OR 10504698 OR 10504699 OR 10504700 OR 10504701 OR 10504702 OR 10504703 OR 10504704 OR 10504705 OR 10504706 OR 10504710 OR 10504711 OR 10504714 OR 10508511 OR 10508512 OR 10508513 OR 10508514 OR 10508515 OR 10508516 OR 10508517 OR 10508518 OR 10508519 OR 10508520 OR 10508521 OR 10508522 OR 10508523 OR 10508524 OR 10508525 OR 10508526 OR 10508527 OR 10545866 OR 10545867 OR 10545911 OR 10545913 OR 10545914 OR 10545915 OR 10545916 OR 10545917 OR 10545918 OR 10545920 OR 10545921 OR 10545922 OR 10545923 OR 10545926 OR 10545930 OR 10545949 OR 10545950 OR 10545951 OR 10545953 OR 10545954 OR 10545955 OR 10545956 OR 10545976 OR 10545990 OR 10545991 OR 10545992 OR 10545993 OR 10545994 OR 10545995 OR 10545996 OR 10545997 OR 10545998 OR 10545999 OR 10546000 OR 10546001 OR 10546002 OR 10559856 OR 10559857 OR 10559858 OR 10559859 OR 10559860 OR 10559861 OR 10559862 OR 10559863 OR 10559864 OR 10559865 OR 10559866 OR 10559867 OR 10559868 OR 10559877 OR 10559878 OR 10559879 OR 10559880 OR 10559881 OR 10559883 OR 10559884 OR 10559885 OR 10559886 OR 10559898 OR 10559899 OR 10559900 OR 10559901 OR 10559902 OR 10559903 OR 10559904 OR 10559905 OR 10559906 OR 10559907 OR 10559916 OR 10559917 OR 10559918 OR 10559919 OR 10559920 OR 10559921 OR 10559922 OR 10559923 OR 10559924 OR 10559936 OR 10559937 OR 10559938 OR 10559939 OR 10559940 OR 10559941 OR 10559942 OR 10559943 OR 10559944 OR 10559945 OR 10559946 OR 10559957 OR 10559958 OR 10559959 OR 10559960 OR 10559961 OR 10559962 OR 10559963 OR 10559964 OR 10559965 OR 10559966 OR 10559967 OR 10559968 OR 10559969 OR 10559981 OR 10559982 OR 10559983 OR 10559984 OR 10559985 OR 10559986 OR 10559987 OR 10559988 OR 10559989 OR 10559990 OR 10559991 OR 10559992 OR 10581025 OR 10581026 OR 10581027 OR 10581028 OR 10581030 OR 10581031 OR 10581032 OR 10581033 OR 10581034 OR 10581035 OR 10581036 OR 10581037 OR 10581038 OR 10581039 OR 10581063 OR 10581078 OR 10581081 OR 10581082 OR 10581083 OR 10581084 OR 10581085 OR 10581086 OR 10581087 OR 10585674 OR 10585711 OR 10585713 OR 10585714 OR 10585715 OR 10585716 OR 10585717 OR 10585718 OR 10585719 OR 10585721 OR 10585722 OR 10585723 OR 10585727 OR 10585728 OR 10587640 OR 10587641 OR 10587642 OR 10587643 OR 10587644 OR 10587645 OR 10587646 OR 10587647 OR 10587648 OR 10587649 OR 10610177 OR 10610178 OR 10610180 OR 10610181 OR 10610182 OR 10610183 OR 10613820 OR 10613821 OR 10613822 OR 10613823 OR 10613824 OR 10613825 OR 10613826 OR 10613827 OR 10613829 OR 10613830 OR 10613831 OR 10613832 OR 10613833 OR 10613834 OR 10613835 OR 10615117 OR 10615118 OR 10615119 OR 10615120 OR 10615122 OR 10615123 OR 10615124 OR 10615125 OR 10615126 OR 10615127 OR 10615128 OR 10615129 OR 10615130 OR 10615131 OR 10615132 OR 10615133 OR 10615134 OR 10615135 OR 10615136 OR 10620799 OR 10620800 OR 10620801 OR 10620802 OR 10620803 OR 10620804 OR 10620805)</t>
+  </si>
+  <si>
+    <t>PMID=(10620806 OR 10620807 OR 10620808 OR 10625373 OR 10625376 OR 10625377 OR 10625379 OR 10625386 OR 10625388 OR 10625389 OR 10625390 OR 10625391 OR 10625392 OR 10625393 OR 10625394 OR 10625395 OR 10625396 OR 10625397 OR 10625398 OR 10625399 OR 10655051 OR 10655052 OR 10655054 OR 10655055 OR 10655056 OR 10655057 OR 10655058 OR 10655059 OR 10655060 OR 10655061 OR 10655064 OR 10655065 OR 10655066 OR 10655067 OR 10655069 OR 10655070 OR 10655088 OR 10655101 OR 10655102 OR 10655103 OR 10655104 OR 10655105 OR 10655106 OR 10655107 OR 10655108 OR 10655109 OR 10655110 OR 10655111 OR 10655112 OR 10655113 OR 10655114 OR 10655115 OR 10655583 OR 10655584 OR 10655585 OR 10655586 OR 10655587 OR 10655588 OR 10655589 OR 10655590 OR 10655591 OR 10655592 OR 10655593 OR 10655594 OR 10657070 OR 10657119 OR 10657121 OR 10657122 OR 10657123 OR 10657124 OR 10657126 OR 10657128 OR 10657129 OR 10657130 OR 10657131 OR 10657132 OR 10657133 OR 10657134 OR 10657137 OR 10700090 OR 10700091 OR 10700140 OR 10700143 OR 10700144 OR 10700145 OR 10700146 OR 10700147 OR 10700148 OR 10700149 OR 10700150 OR 10700151 OR 10700152 OR 10700153 OR 10700154 OR 10700155 OR 10700170 OR 10700176 OR 10700179 OR 10700181 OR 10700182 OR 10700183 OR 10700185 OR 10700186 OR 10700187 OR 10700188 OR 10700189 OR 10700190 OR 10700191 OR 10700192 OR 10700227 OR 10700228 OR 10700229 OR 10700230 OR 10700231 OR 10700232 OR 10700233 OR 10700234 OR 10700235 OR 10700236 OR 10700238 OR 10700239 OR 10700240 OR 10700241 OR 10707082 OR 10707083 OR 10707084 OR 10707085 OR 10707086 OR 10707087 OR 10707088 OR 10707090 OR 10707091 OR 10742093 OR 10742094 OR 10742096 OR 10742097 OR 10742098 OR 10742099 OR 10742100 OR 10742101 OR 10742102 OR 10742103 OR 10742104 OR 10742105 OR 10742106 OR 10742107 OR 10742108 OR 10742109 OR 10742110 OR 10742111 OR 10742112 OR 10742113 OR 10742114 OR 10742128 OR 10742146 OR 10742147 OR 10742148 OR 10742149 OR 10742150 OR 10742151 OR 10742152 OR 10742153 OR 10742154 OR 10742155 OR 10742156 OR 10742157 OR 10742159 OR 10748519 OR 10748520 OR 10748521 OR 10748522 OR 10748523 OR 10748524 OR 10748525 OR 10748526 OR 10748527 OR 10748528 OR 10748529 OR 10748530 OR 10748531 OR 10748532 OR 10748537 OR 10783235 OR 10783236 OR 10783237 OR 10783238 OR 10783239 OR 10783240 OR 10783241 OR 10783242 OR 10783243 OR 10783244 OR 10783245 OR 10802617 OR 10802618 OR 10802619 OR 10802620 OR 10802621 OR 10802622 OR 10802623 OR 10802624 OR 10802625 OR 10802626 OR 10802632 OR 10802633 OR 10802645 OR 10802646 OR 10802647 OR 10802648 OR 10802651 OR 10802653 OR 10802654 OR 10802655 OR 10802656 OR 10802657 OR 10802658 OR 10802659 OR 10802660 OR 10802661 OR 10802662 OR 10802663 OR 10802664 OR 10802665 OR 10802666 OR 10802667 OR 10802668 OR 10802669 OR 10802670 OR 10802692 OR 10802707 OR 10802708 OR 10802709 OR 10802710 OR 10802711 OR 10802712 OR 10802714 OR 10802715 OR 10802716 OR 10802717 OR 10802718 OR 10802719 OR 10802720 OR 10806474 OR 10806475 OR 10806477 OR 10806478 OR 10806479 OR 10806480 OR 10806481 OR 10806482 OR 10806483 OR 10835548 OR 10835590 OR 10835591 OR 10835597 OR 10835598 OR 10835599 OR 10835600 OR 10835601 OR 10835602 OR 10835603 OR 10835604 OR 10835605 OR 10835606 OR 10835607 OR 10835608 OR 10835609 OR 10835610 OR 10835611 OR 10835624 OR 10835625 OR 10835627 OR 10835628 OR 10835629 OR 10835630 OR 10835631 OR 10835632 OR 10835633 OR 10835634 OR 10835635 OR 10835636 OR 10835637 OR 10835638 OR 10835639 OR 10835640 OR 10835641 OR 10835642 OR 10835643 OR 10835646 OR 10835680 OR 10835682 OR 10835683 OR 10835684 OR 10835685 OR 10835686 OR 10835687 OR 10835688 OR 10835689 OR 10835690 OR 10835691 OR 10835692 OR 10854320 OR 10854321 OR 10854322 OR 10854323 OR 10854324 OR 10854325 OR 10854326 OR 10854327 OR 10854328 OR 10854329 OR 10854330 OR 10878801 OR 10878802 OR 10878803 OR 10878804 OR 10878805 OR 10878806 OR 10878807 OR 10878808 OR 10878809 OR 10878810 OR 10878811 OR 10878812 OR 10878813 OR 10878814 OR 10878815 OR 10878819 OR 10888839 OR 10888840 OR 10888841 OR 10888842 OR 10888843 OR 10888844 OR 10888845 OR 10888846 OR 10888847 OR 10888848 OR 10888849 OR 10888850 OR 10888851 OR 10888852 OR 10888866 OR 10888867 OR 10888868 OR 10888869 OR 10888871 OR 10888872 OR 10888873 OR 10888874 OR 10888875 OR 10888876 OR 10888877 OR 10888878 OR 10888879 OR 10888880 OR 10888881 OR 10888882 OR 10888883 OR 10888884 OR 10888885 OR 10888886 OR 10888887 OR 10888888 OR 10888889 OR 10888890 OR 10888909 OR 10888923 OR 10888925 OR 10888927 OR 10888928 OR 10888929 OR 10888930 OR 10888931 OR 10888932 OR 10888934 OR 10888935 OR 10888936 OR 10932127 OR 10932152 OR 10932153 OR 10932154 OR 10932155 OR 10932156 OR 10932157 OR 10932158 OR 10932159 OR 10932160 OR 10932161 OR 10932162 OR 10932163 OR 10932175 OR 10932176 OR 10932178 OR 10932179 OR 10932180 OR 10932182 OR 10932183 OR 10932184 OR 10932185 OR 10932186 OR 10932187 OR 10932188 OR 10932189 OR 10932190 OR 10932191 OR 10932192 OR 10932193 OR 10932194 OR 10932195 OR 10932196 OR 10932223 OR 10932225 OR 10932226 OR 10932227 OR 10932228 OR 10932229 OR 10932230 OR 10932231 OR 10932232 OR 10932233 OR 10932234 OR 10934466 OR 10934467 OR 10934468 OR 10934469 OR 10934470 OR 10934471 OR 10934472 OR 10934473 OR 10934474 OR 10934475 OR 10934476 OR 10934477 OR 10934478 OR 10934479 OR 10973169 OR 10973214 OR 10973215 OR 10973216 OR 10973217 OR 10973219 OR 10973220 OR 10973221 OR 10973222 OR 10973223 OR 10973225 OR 10973226 OR 10973238 OR 10973239)</t>
+  </si>
+  <si>
+    <t>PMID=(10973240 OR 10973241 OR 10973244 OR 10973245 OR 10973246 OR 10973247 OR 10973248 OR 10973249 OR 10973250 OR 10973251 OR 10973252 OR 10973254 OR 10973255 OR 10973256 OR 10973257 OR 10973258 OR 10973259 OR 10973260 OR 10973261 OR 10973262 OR 10973263 OR 10973264 OR 10973301 OR 10973302 OR 10973303 OR 10973316 OR 10973317 OR 10973319 OR 10973320 OR 10973321 OR 10973322 OR 10973323 OR 10973324 OR 10973325 OR 10973326 OR 10973327 OR 10973328 OR 10973329 OR 10980695 OR 10980696 OR 10980697 OR 10980698 OR 10980699 OR 10980700 OR 10980701 OR 10980702 OR 10980703 OR 10980704 OR 10980705 OR 10980706 OR 10980707 OR 10980708 OR 10980709 OR 10980710 OR 10980711 OR 11016992 OR 11017040 OR 11017042 OR 11017043 OR 11017044 OR 11017045 OR 11017046 OR 11017047 OR 11017048 OR 11017049 OR 11017050 OR 11017052 OR 11017053 OR 11017064 OR 11017065 OR 11017066 OR 11017067 OR 11017071 OR 11017072 OR 11017073 OR 11017074 OR 11017076 OR 11017077 OR 11017078 OR 11017079 OR 11017080 OR 11017081 OR 11017082 OR 11017084 OR 11017085 OR 11017086 OR 11017087 OR 11017141 OR 11017142 OR 11017143 OR 11017144 OR 11017146 OR 11017147 OR 11017148 OR 11017149 OR 11017152 OR 11025657 OR 11025658 OR 11025661 OR 11025662 OR 11025663 OR 11025664 OR 11025665 OR 11025666 OR 11025667 OR 11025668 OR 11025669 OR 11025670 OR 11056531 OR 11056532 OR 11056533 OR 11056534 OR 11056535 OR 11056536 OR 11056537 OR 11056538 OR 11056539 OR 11056540 OR 11056541 OR 11056542 OR 11056543 OR 11056544 OR 11062388 OR 11062433 OR 11062434 OR 11062435 OR 11062436 OR 11062437 OR 11062438 OR 11062439 OR 11062440 OR 11062441 OR 11062442 OR 11062444 OR 11062446 OR 11062459 OR 11062460 OR 11062462 OR 11062463 OR 11062467 OR 11062468 OR 11062469 OR 11062473 OR 11062475 OR 11062478 OR 11062479 OR 11062485 OR 11062533 OR 11062534 OR 11062535 OR 11062536 OR 11062537 OR 11062538 OR 11062539 OR 11062540 OR 11062541 OR 11062542 OR 11062543 OR 11062544 OR 11062545 OR 11100117 OR 11100118 OR 11100119 OR 11100120 OR 11100121 OR 11100122 OR 11100123 OR 11100124 OR 11100125 OR 11100126 OR 11100127 OR 11100129 OR 11101803 OR 11101804 OR 11101805 OR 11101806 OR 11101807 OR 11101808 OR 11101809 OR 11101810 OR 11101812 OR 11101813 OR 11101814 OR 11101815 OR 11101818 OR 11101819 OR 11101832 OR 11101833 OR 11101835 OR 11101836 OR 11101838 OR 11101839 OR 11101840 OR 11101841 OR 11101842 OR 11101843 OR 11101844 OR 11101845 OR 11101846 OR 11101847 OR 11101848 OR 11101849 OR 11101852 OR 11101853 OR 11135511 OR 11135547 OR 11135548 OR 11135549 OR 11135550 OR 11135551 OR 11135552 OR 11135553 OR 11135554 OR 11135555 OR 11135556 OR 11135557 OR 11135558 OR 11135560 OR 11135599 OR 11135600 OR 11135604 OR 11135606 OR 11135610 OR 11135611 OR 11135614 OR 11135615 OR 11135616 OR 11135617 OR 11135618 OR 11135619 OR 11135620 OR 11135622 OR 11135623 OR 11135624 OR 11135625 OR 11135626 OR 11135627 OR 11137991 OR 11137992 OR 11137993 OR 11137994 OR 11137995 OR 11137996 OR 11137997 OR 11137998 OR 11137999 OR 11138000 OR 11138001 OR 11138002 OR 11138003 OR 11138004 OR 11138005 OR 11138006 OR 11138007 OR 11138008 OR 11138009 OR 11138010 OR 11138011 OR 11138012 OR 11146619 OR 11146620 OR 11146621 OR 11146622 OR 11146623 OR 11146624 OR 11146625 OR 11146626 OR 11146627 OR 11146628 OR 11146629 OR 11146630 OR 11146631 OR 11146632 OR 11146633 OR 11146634 OR 11146649 OR 11146650 OR 11146651 OR 11146652 OR 11146653 OR 11146654 OR 11146655 OR 11146656 OR 11146657 OR 11146658 OR 11146659 OR 11146660 OR 11146661 OR 11146663 OR 11175723 OR 11175724 OR 11175725 OR 11175726 OR 11175727 OR 11175728 OR 11175729 OR 11175730 OR 11175731 OR 11175732 OR 11175733 OR 11175734 OR 11175741 OR 11175742 OR 11175743 OR 11175744 OR 11175745 OR 11175746 OR 11175747 OR 11175748 OR 11175749 OR 11175750 OR 11175751 OR 11175752 OR 11175753 OR 11175754 OR 11175755 OR 11175756 OR 11175779 OR 11175780 OR 11175782 OR 11175783 OR 11175784 OR 11175786 OR 11175787 OR 11175788 OR 11175789 OR 11175790 OR 11175791 OR 11175792 OR 11175793 OR 11175794 OR 11175795 OR 11175828 OR 11175832 OR 11175846 OR 11175847 OR 11175848 OR 11175849 OR 11175850 OR 11175851 OR 11175852 OR 11175853 OR 11175854 OR 11175855 OR 11175856 OR 11175857 OR 11175858 OR 11175859 OR 11231538 OR 11231539 OR 11231542 OR 11231553 OR 11231554 OR 11231555 OR 11231556 OR 11231557 OR 11231558 OR 11231559 OR 11231560 OR 11231561 OR 11231562 OR 11231563 OR 11231566 OR 11231570 OR 11231571 OR 11231572 OR 11231573 OR 11231574 OR 11231575 OR 11231576 OR 11231577 OR 11231578 OR 11231579 OR 11231580 OR 11231581 OR 11231582 OR 11231583 OR 11231584 OR 11231585 OR 11231586 OR 11231595 OR 11231613 OR 11231627 OR 11231628 OR 11231629 OR 11231630 OR 11231631 OR 11231632 OR 11231633 OR 11231634 OR 11231635 OR 11231636 OR 11231637 OR 11231638 OR 11231639 OR 11231640 OR 11231641 OR 11242104 OR 11242105 OR 11242106 OR 11242107 OR 11242108 OR 11242110 OR 11242111 OR 11242113 OR 11242114 OR 11242115 OR 11242116 OR 11242117 OR 11242118 OR 11242120 OR 11242121 OR 11279513 OR 11279514 OR 11279515 OR 11279516 OR 11279517 OR 11279518 OR 11279519 OR 11279520 OR 11279521 OR 11279522 OR 11279523 OR 11279524 OR 11279525 OR 11279526 OR 11279529 OR 11283574 OR 11283578 OR 11283589 OR 11283590 OR 11283591 OR 11283592 OR 11283593 OR 11283594 OR 11283595 OR 11283596 OR 11283597 OR 11283598 OR 11283599 OR 11283601 OR 11283605 OR 11283606 OR 11283607 OR 11283608 OR 11283609 OR 11283610 OR 11283611 OR 11283612 OR 11283613)</t>
+  </si>
+  <si>
+    <t>PMID=(11283614 OR 11283615 OR 11283616 OR 11283617 OR 11283618 OR 11283619 OR 11283620 OR 11283652 OR 11283668 OR 11283669 OR 11283670 OR 11283671 OR 11283672 OR 11283673 OR 11283674 OR 11283675 OR 11283676 OR 11283677 OR 11283678 OR 11283679 OR 11326269 OR 11326271 OR 11326272 OR 11326273 OR 11326274 OR 11326275 OR 11326276 OR 11326277 OR 11326278 OR 11326279 OR 11326280 OR 11326281 OR 11326282 OR 11326283 OR 11326284 OR 11328996 OR 11329011 OR 11329012 OR 11329013 OR 11329014 OR 11329015 OR 11329016 OR 11329018 OR 11329019 OR 11329020 OR 11329021 OR 11329056 OR 11329057 OR 11329058 OR 11329059 OR 11329060 OR 11329061 OR 11329062 OR 11329063 OR 11329064 OR 11329065 OR 11329066 OR 11329067 OR 11331870 OR 11331871 OR 11331872 OR 11331873 OR 11331874 OR 11331875 OR 11331876 OR 11331877 OR 11331878 OR 11331879 OR 11331880 OR 11331881 OR 11331882 OR 11331883 OR 11331884 OR 11381253 OR 11381254 OR 11381255 OR 11381256 OR 11381257 OR 11381258 OR 11381259 OR 11381260 OR 11381261 OR 11381262 OR 11381263 OR 11381264 OR 11381265 OR 11381266 OR 11381267 OR 11381268 OR 11381269 OR 11381270 OR 11385433 OR 11385457 OR 11385458 OR 11385459 OR 11385460 OR 11385461 OR 11385462 OR 11385463 OR 11385464 OR 11385465 OR 11385466 OR 11385467 OR 11385503 OR 11385504 OR 11385505 OR 11385506 OR 11385507 OR 11385508 OR 11385509 OR 11385510 OR 11385511 OR 11385512 OR 11385513 OR 11385514 OR 11389436 OR 11389437 OR 11389438 OR 11389439 OR 11389440 OR 11389441 OR 11389442 OR 11389443 OR 11389444 OR 11389445 OR 11389446 OR 11389447 OR 11389453 OR 11431686 OR 11431687 OR 11431688 OR 11431689 OR 11431690 OR 11431691 OR 11431692 OR 11431693 OR 11431694 OR 11431695 OR 11431696 OR 11431697 OR 11431698 OR 11431699 OR 11431700 OR 11431702 OR 11431703 OR 11431704 OR 11433267 OR 11433273 OR 11433274 OR 11433275 OR 11433276 OR 11433277 OR 11433278 OR 11433279 OR 11433280 OR 11433281 OR 11433282 OR 11433286 OR 11433290 OR 11433291 OR 11433293 OR 11433294 OR 11433295 OR 11433296 OR 11433297 OR 11433298 OR 11433299 OR 11433300 OR 11433301 OR 11433302 OR 11433303 OR 11433306 OR 11433329 OR 11433333 OR 11433339 OR 11433342 OR 11433343 OR 11433344 OR 11433345 OR 11433346 OR 11433347 OR 11433348 OR 11433349 OR 11433350 OR 11433351 OR 11433352 OR 11433353 OR 11433354 OR 11438811 OR 11443298 OR 11443299 OR 11455386 OR 11455387 OR 11455388 OR 11455389 OR 11479539 OR 11479557 OR 11479558 OR 11479566 OR 11479567 OR 11479568 OR 11479569 OR 11479570 OR 11479571 OR 11479572 OR 11479573 OR 11479574 OR 11479590 OR 11479592 OR 11479593 OR 11479594 OR 11479595 OR 11479596 OR 11479597 OR 11479610 OR 11479622 OR 11479623 OR 11479624 OR 11479625 OR 11479626 OR 11479627 OR 11479628 OR 11479629 OR 11479630 OR 11479631 OR 11483953 OR 11483954 OR 11483955 OR 11483956 OR 11483957 OR 11483958 OR 11483959 OR 11483960 OR 11483961 OR 11483962 OR 11483963 OR 11483964 OR 11528383 OR 11528384 OR 11528385 OR 11528386 OR 11528387 OR 11528388 OR 11528389 OR 11528390 OR 11528392 OR 11528393 OR 11528394 OR 11528395 OR 11528396 OR 11528397 OR 11528398 OR 11528400 OR 11528401 OR 11533628 OR 11533629 OR 11533641 OR 11533642 OR 11533643 OR 11533644 OR 11533645 OR 11533646 OR 11533648 OR 11533649 OR 11533655 OR 11533656 OR 11533657 OR 11533658 OR 11533659 OR 11533660 OR 11533661 OR 11533662 OR 11533663 OR 11533664 OR 11533665 OR 11533666 OR 11533667 OR 11533668 OR 11533702 OR 11533703 OR 11533704 OR 11533705 OR 11533706 OR 11533707 OR 11533708 OR 11533709 OR 11533710 OR 11533711 OR 11533712 OR 11544476 OR 11544477 OR 11544478 OR 11544479 OR 11544480 OR 11547334 OR 11548742 OR 11559848 OR 11559849 OR 11581651 OR 11581657 OR 11581660 OR 11581662 OR 11581663 OR 11581664 OR 11581665 OR 11581666 OR 11581668 OR 11584266 OR 11584267 OR 11584268 OR 11584269 OR 11584270 OR 11584271 OR 11584272 OR 11584273 OR 11584274 OR 11584275 OR 11584276 OR 11584277 OR 11584278 OR 11584280 OR 11584282 OR 11586294 OR 11586295 OR 11586296 OR 11586297 OR 11586298 OR 11586299 OR 11586300 OR 11586301 OR 11586302 OR 11586303 OR 11586304 OR 11586305 OR 11586306 OR 11590411 OR 11590414 OR 11590418 OR 11590419 OR 11590420 OR 11590433 OR 11590434 OR 11590435 OR 11590436 OR 11590437 OR 11590438 OR 11590439 OR 11590440 OR 11590441 OR 11590442 OR 11600883 OR 11600884 OR 11645139 OR 11685205 OR 11685207 OR 11685208 OR 11685209 OR 11687794 OR 11687795 OR 11687796 OR 11687797 OR 11687798 OR 11687799 OR 11687800 OR 11687801 OR 11687802 OR 11689850 OR 11689882 OR 11689883 OR 11689884 OR 11689885 OR 11689886 OR 11689887 OR 11689888 OR 11689889 OR 11689890 OR 11689891 OR 11689892 OR 11694875 OR 11694876 OR 11694877 OR 11694878 OR 11694879 OR 11694880 OR 11704758 OR 11704759 OR 11704760 OR 11715014 OR 11715015 OR 11715016 OR 11715017 OR 11715018 OR 11715019 OR 11715020 OR 11715021 OR 11715022 OR 11715023 OR 11715024 OR 11715025 OR 11715026 OR 11726922 OR 11726923 OR 11726924 OR 11726926 OR 11726927 OR 11726928 OR 11726929 OR 11726930 OR 11726931 OR 11726932 OR 11726933 OR 11726968 OR 11726969 OR 11726970 OR 11726971 OR 11726972 OR 11726973 OR 11726974 OR 11726975 OR 11726976 OR 11726977 OR 11726978 OR 11731773 OR 11731774 OR 11731781 OR 11731782 OR 11731783 OR 11731784 OR 11731785 OR 11731786 OR 11731787 OR 11731788 OR 11731789 OR 11740489 OR 11740490 OR 11740491 OR 11740492 OR 11740493 OR 11740494 OR 11740496 OR 11743576 OR 11743578 OR 11743579 OR 11743580 OR 11743581 OR 11743582 OR 11743583 OR 11744922 OR 11744923 OR 11744924)</t>
+  </si>
+  <si>
+    <t>PMID=(11753346 OR 11753354 OR 11753361 OR 11753362 OR 11753363 OR 11753364 OR 11753365 OR 11753366 OR 11753367 OR 11753368 OR 11753375 OR 11753382 OR 11753383 OR 11753385 OR 11753386 OR 11753387 OR 11780126 OR 11780127 OR 11780128 OR 11780129 OR 11780140 OR 11780141 OR 11781564 OR 11781565 OR 11781566 OR 11781567 OR 11781568 OR 11781569 OR 11781570 OR 11781571 OR 11781572 OR 11781573 OR 11781574 OR 11781575 OR 11781576 OR 11786903 OR 11786904 OR 11786905 OR 11786907 OR 11786908 OR 11786910 OR 11786911 OR 11788820 OR 11788821 OR 11788822 OR 11788823 OR 11788824 OR 11788825 OR 11788826 OR 11788827 OR 11788828 OR 11799392 OR 11799394 OR 11799395 OR 11799396 OR 11799397 OR 11802161 OR 11802162 OR 11802163 OR 11802164 OR 11802165 OR 11810106 OR 11810107 OR 11812999 OR 11813000 OR 11813001 OR 11813002 OR 11818961 OR 11818962 OR 11818963 OR 11818964 OR 11821845 OR 11821846 OR 11821852 OR 11821859 OR 11821860 OR 11821861 OR 11821862 OR 11821863 OR 11821864 OR 11821865 OR 11821866 OR 11821895 OR 11821896 OR 11821897 OR 11821898 OR 11821899 OR 11821900 OR 11821901 OR 11821902 OR 11821903 OR 11821904 OR 11835050 OR 11836498 OR 11836499 OR 11836500 OR 11836501 OR 11836502 OR 11836524 OR 11836525 OR 11836526 OR 11850617 OR 11850618 OR 11850619 OR 11850620 OR 11850621 OR 11850622 OR 11850623 OR 11854751 OR 11854752 OR 11854753 OR 11862214 OR 11862215 OR 11862216 OR 11862217 OR 11862218 OR 11865300 OR 11875408 OR 11875409 OR 11875416 OR 11875425 OR 11875426 OR 11875427 OR 11875428 OR 11875429 OR 11875430 OR 11875431 OR 11875432 OR 11875433 OR 11875482 OR 11875492 OR 11875493 OR 11875494 OR 11875495 OR 11875496 OR 11875497 OR 11875498 OR 11875499 OR 11875500 OR 11875501 OR 11887186 OR 11887187 OR 11889465 OR 11889466 OR 11889467 OR 11896389 OR 11896390 OR 11901421 OR 11901422 OR 11901423 OR 11901424 OR 11912490 OR 11912491 OR 11912492 OR 11912493 OR 11912494 OR 11912495 OR 11919560 OR 11919561 OR 11919562 OR 11923826 OR 11923834 OR 11923840 OR 11923841 OR 11923842 OR 11923843 OR 11923845 OR 11923846 OR 11923847 OR 11923848 OR 11923873 OR 11923874 OR 11923875 OR 11925563 OR 11925564 OR 11925565 OR 11925566 OR 11925567 OR 11925568 OR 11925569 OR 11927927 OR 11927939 OR 11927940 OR 11927941 OR 11927942 OR 11927943 OR 11927944 OR 11927945 OR 11927946 OR 11927947 OR 11927948 OR 11927949 OR 11941369 OR 11941371 OR 11941372 OR 11944032 OR 11951092 OR 11951093 OR 11953745 OR 11953746 OR 11967531 OR 11967532 OR 11967533 OR 11967534 OR 11967535 OR 11967536 OR 11967537 OR 11967538 OR 11967539 OR 11981543 OR 11981544 OR 11981557 OR 11981558 OR 11981559 OR 11981560 OR 11981561 OR 11981562 OR 11981563 OR 11981564 OR 11981565 OR 11981566 OR 11981567 OR 11981568 OR 11984562 OR 11984589 OR 11984590 OR 11984591 OR 11984592 OR 11984593 OR 11984594 OR 11984595 OR 11984596 OR 11984597 OR 11984598 OR 11984599 OR 11984600 OR 11988737 OR 11988738 OR 11988739 OR 11988740 OR 11988741 OR 11988742 OR 11988743 OR 11988749 OR 11992112 OR 11992120 OR 11992121 OR 11992122 OR 11992123 OR 11992124 OR 12006977 OR 12006978 OR 12006980 OR 12021767 OR 12021768 OR 12021769 OR 12021770 OR 12021771 OR 12021772 OR 12021773 OR 12021783 OR 12021784 OR 12021785 OR 12021786 OR 12032545 OR 12032546 OR 12032567 OR 12032568 OR 12032569 OR 12032570 OR 12032571 OR 12042776 OR 12042777 OR 12042802 OR 12042807 OR 12042808 OR 12042809 OR 12042810 OR 12042811 OR 12042812 OR 12042813 OR 12042814 OR 12042815 OR 12042816 OR 12042820 OR 12042844 OR 12042845 OR 12042846 OR 12053174 OR 12053175 OR 12053176 OR 12055636 OR 12055637 OR 12055638 OR 12055639 OR 12068287 OR 12068288 OR 12068289 OR 12068290 OR 12068294 OR 12068297 OR 12068298 OR 12068306 OR 12068307 OR 12080345 OR 12080346 OR 12080347 OR 12080348 OR 12080349 OR 12089521 OR 12089522 OR 12089525 OR 12089538 OR 12089545 OR 12089554 OR 12089555 OR 12089556 OR 12089557 OR 12089558 OR 12089559 OR 12089560 OR 12091876 OR 12091877 OR 12091879 OR 12091880 OR 12091883 OR 12091891 OR 12091905 OR 12091906 OR 12091907 OR 12091909 OR 12091910 OR 12091911 OR 12091913 OR 12091914 OR 12091915 OR 12091916 OR 12101400 OR 12101404 OR 12101405 OR 12101408 OR 12101409 OR 12105416 OR 12105417 OR 12105418 OR 12105419 OR 12118241 OR 12118245 OR 12118246 OR 12118247 OR 12118250 OR 12118251 OR 12118252 OR 12118253 OR 12118254 OR 12118255 OR 12134142 OR 12134143 OR 12134144 OR 12134146 OR 12134148 OR 12134149 OR 12134150 OR 12134151 OR 12134156 OR 12134157 OR 12134158 OR 12134159 OR 12134160 OR 12134161 OR 12134162 OR 12134163 OR 12134164 OR 12134165 OR 12134166 OR 12134167 OR 12134168 OR 12134169 OR 12145646 OR 12145647 OR 12145659 OR 12145660 OR 12145662 OR 12147992 OR 12148000 OR 12161747 OR 12161748 OR 12161749 OR 12161750 OR 12161751 OR 12161752 OR 12161753 OR 12172541 OR 12172542 OR 12172543 OR 12172547 OR 12172552 OR 12172553 OR 12172554 OR 12172555 OR 12172556 OR 12172557 OR 12185361 OR 12185362 OR 12185363 OR 12185364 OR 12185365 OR 12185366 OR 12185367 OR 12185368 OR 12195422 OR 12195423 OR 12195424 OR 12195425 OR 12195435 OR 12195436 OR 12198491 OR 12198492 OR 12198493 OR 12198494 OR 12198495 OR 12198496 OR 12198497 OR 12198498 OR 12198499 OR 12198500 OR 12205497 OR 12205498 OR 12205509 OR 12205510 OR 12219076 OR 12219077 OR 12219084 OR 12219085 OR 12219086 OR 12219087 OR 12219088 OR 12219089 OR 12219090 OR 12236228 OR 12244301 OR 12244302 OR 12244303 OR 12244304 OR 12244305 OR 12244306 OR 12244315 OR 12244316 OR 12244318 OR 12244319)</t>
+  </si>
+  <si>
+    <t>PMID=(12244320 OR 12244321 OR 12244325 OR 12244326 OR 12244327 OR 12244328 OR 12244329 OR 12355066 OR 12355067 OR 12355068 OR 12355084 OR 12355085 OR 12355086 OR 12355087 OR 12355088 OR 12355089 OR 12355105 OR 12355109 OR 12355117 OR 12357246 OR 12357247 OR 12357248 OR 12357249 OR 12360284 OR 12360285 OR 12360286 OR 12360287 OR 12360288 OR 12360289 OR 12360290 OR 12360291 OR 12360292 OR 12360293 OR 12360294 OR 12360295 OR 12368811 OR 12368904 OR 12368905 OR 12368906 OR 12368907 OR 12368913 OR 12368914 OR 12368916 OR 12379847 OR 12379848 OR 12379849 OR 12379850 OR 12379853 OR 12379854 OR 12379855 OR 12379856 OR 12379866 OR 12379868 OR 12379870 OR 12389028 OR 12389029 OR 12389032 OR 12389033 OR 12389034 OR 12389040 OR 12402037 OR 12402038 OR 12402042 OR 12402043 OR 12402044 OR 12402045 OR 12402046 OR 12402047 OR 12402048 OR 12410229 OR 12410230 OR 12410231 OR 12410233 OR 12410243 OR 12410244 OR 12411947 OR 12415259 OR 12415260 OR 12415261 OR 12415262 OR 12415270 OR 12415272 OR 12415277 OR 12426559 OR 12426560 OR 12426561 OR 12426562 OR 12426567 OR 12426568 OR 12426569 OR 12426570 OR 12426575 OR 12426576 OR 12434152 OR 12434153 OR 12434154 OR 12434157 OR 12436116 OR 12447356 OR 12447357 OR 12447371 OR 12447372 OR 12447373 OR 12447374 OR 12447382 OR 12447383 OR 12447384 OR 12447385 OR 12447386 OR 12447387 OR 12447388 OR 12447389 OR 12447390 OR 12447391 OR 12447392 OR 12447393 OR 12447394 OR 12447395 OR 12447396 OR 12454661 OR 12454662 OR 12457166 OR 12461523 OR 12461524 OR 12461525 OR 12461526 OR 12469115 OR 12469120 OR 12469121 OR 12469122 OR 12469123 OR 12471376 OR 12483205 OR 12483206 OR 12483207 OR 12483208 OR 12483211 OR 12483212 OR 12483213 OR 12483219 OR 12483220 OR 12496757 OR 12496758 OR 12496759 OR 12496760 OR 12496958 OR 12496959 OR 12496960 OR 12496961 OR 12510191 OR 12510192 OR 12510193 OR 12510194 OR 12510195 OR 12510196 OR 12510197 OR 12511880 OR 12511899 OR 12511900 OR 12511903 OR 12511911 OR 12514720 OR 12514721 OR 12514724 OR 12514739 OR 12514742 OR 12514743 OR 12524533 OR 12524534 OR 12524540 OR 12524542 OR 12524543 OR 12524544 OR 12524548 OR 12539038 OR 12539039 OR 12539040 OR 12539041 OR 12539042 OR 12539044 OR 12539045 OR 12539048 OR 12539049 OR 12539050 OR 12545171 OR 12545172 OR 12545173 OR 12545174 OR 12545175 OR 12545176 OR 12545177 OR 12548286 OR 12548288 OR 12560828 OR 12563276 OR 12563277 OR 12563314 OR 12563315 OR 12563316 OR 12567186 OR 12567187 OR 12567188 OR 12567189 OR 12577057 OR 12577058 OR 12577059 OR 12577064 OR 12577065 OR 12577068 OR 12579195 OR 12579196 OR 12579197 OR 12579198 OR 12589397 OR 12590258 OR 12590260 OR 12590261 OR 12590262 OR 12590264 OR 12592400 OR 12592401 OR 12592402 OR 12592403 OR 12592411 OR 12592413 OR 12598893 OR 12598894 OR 12598897 OR 12598898 OR 12598901 OR 12598902 OR 12598903 OR 12598904 OR 12598906 OR 12598907 OR 12598909 OR 12610558 OR 12610559 OR 12610560 OR 12610561 OR 12610565 OR 12610571 OR 12612546 OR 12612547 OR 12612582 OR 12612583 OR 12612584 OR 12627226 OR 12627227 OR 12627228 OR 12627230 OR 12627231 OR 12627232 OR 12627233 OR 12629547 OR 12629548 OR 12629549 OR 12640448 OR 12640452 OR 12640453 OR 12640454 OR 12640455 OR 12640462 OR 12640463 OR 12640464 OR 12640465 OR 12646867 OR 12646868 OR 12646877 OR 12652293 OR 12652294 OR 12652295 OR 12652298 OR 12652299 OR 12652300 OR 12652301 OR 12652302 OR 12652307 OR 12652310 OR 12652312 OR 12665817 OR 12665818 OR 12669032 OR 12669033 OR 12669034 OR 12669065 OR 12669066 OR 12669068 OR 12679784 OR 12679813 OR 12679814 OR 12679815 OR 12692538 OR 12692539 OR 12692540 OR 12692542 OR 12692543 OR 12692544 OR 12692546 OR 12692551 OR 12692552 OR 12692553 OR 12692554 OR 12692559 OR 12704383 OR 12704384 OR 12704385 OR 12704386 OR 12704387 OR 12704388 OR 12704389 OR 12704390 OR 12717434 OR 12717435 OR 12717436 OR 12717439 OR 12717440 OR 12717441 OR 12717442 OR 12717443 OR 12717444 OR 12717445 OR 12717446 OR 12717447 OR 12717448 OR 12717449 OR 12721560 OR 12721561 OR 12730689 OR 12730690 OR 12730693 OR 12730694 OR 12730696 OR 12730697 OR 12738960 OR 12738961 OR 12740569 OR 12740570 OR 12740571 OR 12740572 OR 12740573 OR 12740577 OR 12740578 OR 12740579 OR 12740585 OR 12754501 OR 12754502 OR 12754503 OR 12754504 OR 12754509 OR 12754510 OR 12754511 OR 12766769 OR 12766770 OR 12766774 OR 12766775 OR 12766776 OR 12766777 OR 12766778 OR 12776139 OR 12776140 OR 12778054 OR 12778137 OR 12778138 OR 12778173 OR 12778174 OR 12792649 OR 12792650 OR 12792651 OR 12794639 OR 12796773 OR 12796774 OR 12796778 OR 12796779 OR 12796780 OR 12796781 OR 12796782 OR 12808447 OR 12808448 OR 12808449 OR 12808450 OR 12808451 OR 12808453 OR 12808454 OR 12808456 OR 12808457 OR 12819778 OR 12819779 OR 12819780 OR 12819781 OR 12819782 OR 12819787 OR 12819788 OR 12819789 OR 12819790 OR 12833064 OR 12833065 OR 12833066 OR 12833070 OR 12833086 OR 12833087 OR 12833088 OR 12833090 OR 12833157 OR 12833158 OR 12833159 OR 12844144 OR 12844145 OR 12844146 OR 12845329 OR 12845330 OR 12847519 OR 12847520 OR 12847521 OR 12847522 OR 12847523 OR 12847524 OR 12847525 OR 12855954 OR 12855955 OR 12855956 OR 12858167 OR 12858168 OR 12858169 OR 12858170 OR 12858174 OR 12858175 OR 12858176 OR 12858181 OR 12872122 OR 12872123 OR 12872130 OR 12872131 OR 12872132 OR 12872133 OR 12872164 OR 12872165 OR 12872166 OR 12872167 OR 12881722 OR 12881723 OR 12881724 OR 12883554 OR 12894167 OR 12894192 OR 12894193 OR 12894194 OR 12897778 OR 12897779 OR 12897782)</t>
+  </si>
+  <si>
+    <t>PMID=(12897783 OR 12897784 OR 12907943 OR 12910262 OR 12910263 OR 12910264 OR 12910269 OR 12910270 OR 12923530 OR 12923531 OR 12923532 OR 12923533 OR 12925844 OR 12925846 OR 12925847 OR 12925848 OR 12925849 OR 12937412 OR 12937413 OR 12937414 OR 12937416 OR 12937417 OR 12937418 OR 12942085 OR 12942086 OR 12942087 OR 12942088 OR 12942089 OR 12949501 OR 12949502 OR 12949534 OR 12949535 OR 12949536 OR 12958597 OR 12958598 OR 12958599 OR 12960961 OR 12960962 OR 12960963 OR 12960964 OR 12960965 OR 12973349 OR 12973350 OR 12973351 OR 12973352 OR 12973357 OR 12973358 OR 12973359 OR 12973360 OR 14502203 OR 14502277 OR 14502278 OR 14502279 OR 14502280 OR 14502281 OR 14502282 OR 14502283 OR 14502284 OR 14502293 OR 14502294 OR 14502295 OR 14515130 OR 14517540 OR 14517541 OR 14517542 OR 14517543 OR 14517553 OR 14517554 OR 14517555 OR 14520401 OR 14523392 OR 14523401 OR 14523402 OR 14528297 OR 14528298 OR 14528299 OR 14528300 OR 14528301 OR 14528305 OR 14528306 OR 14528307 OR 14528311 OR 14528312 OR 14528313 OR 14528314 OR 14528315 OR 14555957 OR 14555959 OR 14556002 OR 14556003 OR 14556007 OR 14556008 OR 14557818 OR 14557819 OR 14562057 OR 14562058 OR 14566333 OR 14566334 OR 14566335 OR 14566338 OR 14566339 OR 14578881 OR 14578882 OR 14578885 OR 14578886 OR 14578891 OR 14578892 OR 14578893 OR 14578894 OR 14578895 OR 14578896 OR 14578897 OR 14578898 OR 14578899 OR 14578900 OR 14578901 OR 14578902 OR 14578903 OR 14578904 OR 14578905 OR 14578908 OR 14578909 OR 14578910 OR 14593407 OR 14593420 OR 14593421 OR 14595335 OR 14595336 OR 14595351 OR 14595352 OR 14595407 OR 14595408 OR 14595431 OR 14595440 OR 14595441 OR 14608358 OR 14608362 OR 14608363 OR 14608364 OR 14608367 OR 14608378 OR 14608379 OR 14625542 OR 14625543 OR 14625544 OR 14625545 OR 14625546 OR 14625550 OR 14625551 OR 14625552 OR 14625559 OR 14625560 OR 14625562 OR 14634645 OR 14634647 OR 14634649 OR 14634662 OR 14634663 OR 14634664 OR 14634665 OR 14634666 OR 14634667 OR 14634668 OR 14647275 OR 14647276 OR 14647292 OR 14647293 OR 14647305 OR 14647306 OR 14647324 OR 14647496 OR 14647497 OR 14647513 OR 14661018 OR 14661021 OR 14661025 OR 14661026 OR 14661027 OR 14661028 OR 14688790 OR 14688791 OR 14688792 OR 14688793 OR 14688794 OR 14702038 OR 14702040 OR 14702041 OR 14702042 OR 14702043 OR 14702044 OR 14702045 OR 14702046 OR 14702631 OR 14702632 OR 14702633 OR 14702634 OR 14702635 OR 14702636 OR 14702637 OR 14702638 OR 14702639 OR 14704667 OR 14704668 OR 14704669 OR 14704683 OR 14704699 OR 14704704 OR 14704706 OR 14704707 OR 14704708 OR 14704709 OR 14704710 OR 14704789 OR 14704790 OR 14704791 OR 14716305 OR 14716306 OR 14716307 OR 14716308 OR 14716314 OR 14716315 OR 14716317 OR 14730301 OR 14730302 OR 14730303 OR 14730304 OR 14730312 OR 14730313 OR 14730314 OR 14730358 OR 14730359 OR 14743216 OR 14743217 OR 14743218 OR 14743219 OR 14743220 OR 14743221 OR 14745442 OR 14745443 OR 14745447 OR 14745448 OR 14745449 OR 14745450 OR 14755272 OR 14755273 OR 14755282 OR 14755292 OR 14755293 OR 14758355 OR 14758356 OR 14758360 OR 14758362 OR 14758363 OR 14767479 OR 14767480 OR 14767481 OR 14770175 OR 14770176 OR 14770177 OR 14770178 OR 14770181 OR 14770182 OR 14770183 OR 14770184 OR 14966518 OR 14966519 OR 14966520 OR 14981511 OR 14981512 OR 14981513 OR 14981514 OR 14981515 OR 14981517 OR 14981518 OR 14981519 OR 14981520 OR 14981521 OR 14990951 OR 14990954 OR 14991035 OR 14991036 OR 14991049 OR 14991050 OR 14991053 OR 14991054 OR 14991055 OR 14991056 OR 15004554 OR 15004558 OR 15004559 OR 15004560 OR 15004566 OR 15024388 OR 15034566 OR 15034567 OR 15034568 OR 15034569 OR 15034570 OR 15034571 OR 15034572 OR 15034573 OR 15034574 OR 15034578 OR 15034579 OR 15034580 OR 15034581 OR 15034582 OR 15039774 OR 15039775 OR 15039776 OR 15039777 OR 15039778 OR 15039779 OR 15039780 OR 15048110 OR 15048123 OR 15048124 OR 15048125 OR 15048126 OR 15048127 OR 15048128 OR 15048129 OR 15048131 OR 15052268 OR 15052269 OR 15052271 OR 15054488 OR 15057220 OR 15057230 OR 15060547 OR 15064762 OR 15064764 OR 15064768 OR 15072075 OR 15077107 OR 15077108 OR 15077113 OR 15077114 OR 15077115 OR 15077116 OR 15077117 OR 15077118 OR 15077119 OR 15085804 OR 15097996 OR 15097997 OR 15098027 OR 15098028 OR 15098029 OR 15098033 OR 15098035 OR 15104092 OR 15107841 OR 15107843 OR 15107844 OR 15107845 OR 15107848 OR 15107849 OR 15107851 OR 15107853 OR 15107854 OR 15107855 OR 15107856 OR 15107860 OR 15107861 OR 15107862 OR 15107863 OR 15122251 OR 15122253 OR 15122254 OR 15122256 OR 15122268 OR 15122269 OR 15122293 OR 15122300 OR 15122302 OR 15133469 OR 15133470 OR 15133471 OR 15133506 OR 15133510 OR 15133511 OR 15133512 OR 15133513 OR 15146177 OR 15146178 OR 15146179 OR 15146183 OR 15146184 OR 15146192 OR 15146193 OR 15146194 OR 15146195 OR 15146196 OR 15146197 OR 15146198 OR 15146199 OR 15152612 OR 15156141 OR 15156142 OR 15156143 OR 15156144 OR 15156151 OR 15156152 OR 15156153 OR 15156154 OR 15156201 OR 15156202 OR 15156203 OR 15156204 OR 15170210 OR 15170213 OR 15170214 OR 15170215 OR 15175673 OR 15175679 OR 15175689 OR 15175691 OR 15175700 OR 15181449 OR 15181450 OR 15184894 OR 15184897 OR 15184898 OR 15184899 OR 15184900 OR 15184904 OR 15184905 OR 15184906 OR 15195085 OR 15195086 OR 15195087 OR 15195088 OR 15195089 OR 15195100 OR 15195101 OR 15195102 OR 15195103 OR 15195104 OR 15208625 OR 15208626 OR 15208627 OR 15208628 OR 15208629 OR 15208636 OR 15208637 OR 15208638 OR 15208639 OR 15208640 OR 15208705)</t>
+  </si>
+  <si>
+    <t>PMID=(15208706 OR 15220914 OR 15220917 OR 15220918 OR 15220919 OR 15220920 OR 15220921 OR 15220930 OR 15220931 OR 15220932 OR 15229554 OR 15229555 OR 15232593 OR 15235602 OR 15235603 OR 15235604 OR 15235609 OR 15235610 OR 15247913 OR 15247916 OR 15247917 OR 15247918 OR 15247921 OR 15247922 OR 15247923 OR 15247924 OR 15258580 OR 15258581 OR 15258582 OR 15258583 OR 15258588 OR 15258589 OR 15258590 OR 15258591 OR 15258592 OR 15258595 OR 15273685 OR 15273686 OR 15273687 OR 15273688 OR 15273689 OR 15273693 OR 15286643 OR 15286768 OR 15286786 OR 15286787 OR 15286788 OR 15286789 OR 15300250 OR 15300251 OR 15300252 OR 15300255 OR 15300260 OR 15303100 OR 15311282 OR 15311283 OR 15311284 OR 15311285 OR 15314640 OR 15314641 OR 15314642 OR 15322542 OR 15322543 OR 15322544 OR 15322545 OR 15322546 OR 15322553 OR 15322554 OR 15322555 OR 15322556 OR 15322557 OR 15338008 OR 15340404 OR 15340423 OR 15340424 OR 15340449 OR 15340450 OR 15340473 OR 15340480 OR 15340481 OR 15361870 OR 15361871 OR 15361872 OR 15361873 OR 15361874 OR 15361875 OR 15378053 OR 15378055 OR 15378056 OR 15378060 OR 15378062 OR 15378063 OR 15448685 OR 15448686 OR 15448691 OR 15448692 OR 15448693 OR 15448695 OR 15448697 OR 15448698 OR 15448699 OR 15448700 OR 15448701 OR 15448702 OR 15448703 OR 15459706 OR 15459721 OR 15459722 OR 15467718 OR 15467720 OR 15467721 OR 15470454 OR 15470455 OR 15470456 OR 15470466 OR 15475946 OR 15475954 OR 15475955 OR 15475956 OR 15489852 OR 15489853 OR 15502816 OR 15502819 OR 15502820 OR 15502821 OR 15502822 OR 15502823 OR 15502824 OR 15502825 OR 15502827 OR 15502829 OR 15502840 OR 15502841 OR 15502844 OR 15507997 OR 15507998 OR 15508000 OR 15508002 OR 15508004 OR 15508005 OR 15510100 OR 15514660 OR 15516922 OR 15516930 OR 15517001 OR 15517002 OR 15517003 OR 15529154 OR 15529155 OR 15529157 OR 15529163 OR 15531880 OR 15543133 OR 15543134 OR 15543135 OR 15543136 OR 15543137 OR 15543138 OR 15543146 OR 15558031 OR 15558032 OR 15558033 OR 15558034 OR 15558048 OR 15568019 OR 15568023 OR 15568024 OR 15568033 OR 15573098 OR 15577931 OR 15577932 OR 15577934 OR 15577935 OR 15580262 OR 15580263 OR 15580264 OR 15580265 OR 15580266 OR 15580267 OR 15580268 OR 15580272 OR 15583654 OR 15583670 OR 15583675 OR 15583680 OR 15592455 OR 15592456 OR 15592457 OR 15592458 OR 15592459 OR 15592460 OR 15592461 OR 15592468 OR 15592469 OR 15592470 OR 15592471 OR 15592573 OR 15608637 OR 15608638 OR 15608639 OR 15608640 OR 15608650 OR 15619618 OR 15619619 OR 15619620 OR 15619621 OR 15619622 OR 15619623 OR 15619625 OR 15619626 OR 15619627 OR 15619628 OR 15619629 OR 15619630 OR 15619631 OR 15619632 OR 15619633 OR 15619634 OR 15637611 OR 15637614 OR 15637622 OR 15637632 OR 15637633 OR 15640798 OR 15640799 OR 15640800 OR 15654325 OR 15654326 OR 15654327 OR 15654330 OR 15654331 OR 15654332 OR 15654333 OR 15654334 OR 15654335 OR 15654336 OR 15654337 OR 15654338 OR 15654339 OR 15665824 OR 15665825 OR 15665826 OR 15665827 OR 15665829 OR 15665830 OR 15665831 OR 15665832 OR 15665833 OR 15665834 OR 15665853 OR 15665854 OR 15665855 OR 15665856 OR 15685168 OR 15685169 OR 15685170 OR 15685171 OR 15685172 OR 15685173 OR 15692577 OR 15696150 OR 15696156 OR 15696159 OR 15696165 OR 15696166 OR 15696167 OR 15702498 OR 15711538 OR 15711544 OR 15711545 OR 15711546 OR 15711547 OR 15711557 OR 15711558 OR 15711559 OR 15711560 OR 15711561 OR 15711562 OR 15723049 OR 15723050 OR 15723051 OR 15723052 OR 15723053 OR 15723054 OR 15723055 OR 15723056 OR 15723057 OR 15723064 OR 15723065 OR 15723066 OR 15723071 OR 15723072 OR 15723073 OR 15723074 OR 15723075 OR 15731757 OR 15731758 OR 15731759 OR 15731760 OR 15735645 OR 15735646 OR 15735647 OR 15735651 OR 15735652 OR 15735653 OR 15738974 OR 15738976 OR 15750586 OR 15750587 OR 15750592 OR 15750593 OR 15750600 OR 15750601 OR 15765074 OR 15765078 OR 15765079 OR 15765081 OR 15765090 OR 15765093 OR 15765097 OR 15765105 OR 15768028 OR 15768029 OR 15768030 OR 15778705 OR 15778706 OR 15778707 OR 15778708 OR 15778720 OR 15778721 OR 15778722 OR 15793564 OR 15793565 OR 15793566 OR 15793567 OR 15793568 OR 15793569 OR 15793570 OR 15793574 OR 15793580 OR 15793581 OR 15793582 OR 15793583 OR 15793586 OR 15793588 OR 15793589 OR 15803127 OR 15803134 OR 15806100 OR 15806101 OR 15806102 OR 15806103 OR 15806104 OR 15812482 OR 15812483 OR 15812485 OR 15812519 OR 15815649 OR 15815657 OR 15815661 OR 15815669 OR 15815671 OR 15815677 OR 15821731 OR 15821732 OR 15821733 OR 15821734 OR 15821735 OR 15821736 OR 15834403 OR 15834405 OR 15834406 OR 15834407 OR 15834408 OR 15838506 OR 15838507 OR 15838508 OR 15838509 OR 15852002 OR 15852003 OR 15852004 OR 15852005 OR 15852006 OR 15864305 OR 15864306 OR 15864307 OR 15864308 OR 15864313 OR 15867911 OR 15877064 OR 15877066 OR 15877067 OR 15877074 OR 15880102 OR 15880103 OR 15880104 OR 15880117 OR 15880118 OR 15880119 OR 15883585 OR 15892196 OR 15895072 OR 15895073 OR 15895074 OR 15895075 OR 15895076 OR 15895077 OR 15895078 OR 15895079 OR 15895080 OR 15895081 OR 15895082 OR 15895083 OR 15908939 OR 15908941 OR 15908942 OR 15908943 OR 15908944 OR 15908945 OR 15908946 OR 15908950 OR 15908951 OR 15908952 OR 15908953 OR 15908955 OR 15908956 OR 15908957 OR 15920518 OR 15920519 OR 15924134 OR 15924139 OR 15924140 OR 15924141 OR 15924142 OR 15924146 OR 15924147 OR 15937477 OR 15937478 OR 15937479 OR 15937480 OR 15937495 OR 15940227 OR 15940241 OR 15951748 OR 15951803 OR 15951805 OR 15951806 OR 15951807 OR 15951820 OR 15951821)</t>
+  </si>
+  <si>
+    <t>PMID=(15951822 OR 15951823 OR 15951824 OR 15965465 OR 15965466 OR 15965467 OR 15965468 OR 15965469 OR 15965474 OR 15965475 OR 15965476 OR 15965477 OR 15965483 OR 15968270 OR 15976807 OR 15980861 OR 15980862 OR 15980864 OR 15980865 OR 15980866 OR 15995705 OR 15995706 OR 16003357 OR 16003358 OR 16003361 OR 16003372 OR 16003375 OR 16007078 OR 16007079 OR 16007086 OR 16007087 OR 16007088 OR 16007089 OR 16025104 OR 16025105 OR 16025112 OR 16025113 OR 16025114 OR 16025115 OR 16025116 OR 16041363 OR 16041367 OR 16041368 OR 16041371 OR 16041372 OR 16041373 OR 16041374 OR 16056225 OR 16056226 OR 16056263 OR 16056264 OR 16082356 OR 16082357 OR 16082367 OR 16086013 OR 16086014 OR 16086015 OR 16086016 OR 16086023 OR 16086024 OR 16094730 OR 16100512 OR 16100513 OR 16113676 OR 16113677 OR 16113678 OR 16113679 OR 16116418 OR 16116419 OR 16116420 OR 16116422 OR 16116423 OR 16116424 OR 16116425 OR 16116427 OR 16116428 OR 16116430 OR 16116431 OR 16116432 OR 16116433 OR 16127434 OR 16127436 OR 16127437 OR 16127450 OR 16127451 OR 16127452 OR 16136186 OR 16136187 OR 16136188 OR 16142231 OR 16142232 OR 16142233 OR 16142234 OR 16142235 OR 16142236 OR 16142243 OR 16151388 OR 16151390 OR 16151391 OR 16151393 OR 16151394 OR 16151395 OR 16151396 OR 16155566 OR 16155567 OR 16155568 OR 16155569 OR 16155570 OR 16155576 OR 16155577 OR 16155578 OR 16155579 OR 16170312 OR 16170314 OR 16170315 OR 16170316 OR 16170317 OR 16170321 OR 16170322 OR 16170323 OR 16184168 OR 16186810 OR 16186811 OR 16186812 OR 16186813 OR 16186814 OR 16186815 OR 16186816 OR 16186817 OR 16186818 OR 16200062 OR 16200064 OR 16200065 OR 16200066 OR 16200071 OR 16200072 OR 16205738 OR 16211059 OR 16211067 OR 16211068 OR 16227967 OR 16227968 OR 16227987 OR 16227989 OR 16227991 OR 16227995 OR 16227996 OR 16227997 OR 16227998 OR 16228000 OR 16228010 OR 16228011 OR 16228012 OR 16228013 OR 16228014 OR 16244652 OR 16244653 OR 16244654 OR 16244656 OR 16244657 OR 16244658 OR 16244659 OR 16244666 OR 16244667 OR 16244668 OR 16244669 OR 16244670 OR 16254560 OR 16258519 OR 16258538 OR 16258540 OR 16258541 OR 16258543 OR 16258544 OR 16258545 OR 16258546 OR 16273061 OR 16273063 OR 16273071 OR 16273072 OR 16273094 OR 16273095 OR 16273096 OR 16273106 OR 16273107 OR 16273108 OR 16273109 OR 16273110 OR 16282974 OR 16282975 OR 16282976 OR 16282977 OR 16282978 OR 16284622 OR 16284623 OR 16284624 OR 16284625 OR 16286925 OR 16299496 OR 16299497 OR 16299498 OR 16299499 OR 16299519 OR 16311586 OR 16311587 OR 16311592 OR 16311594 OR 16311595 OR 16311596 OR 16311597 OR 16311598 OR 16311606 OR 16327780 OR 16327781 OR 16327800 OR 16327801 OR 16327802 OR 16327803 OR 16327808 OR 16327809 OR 16327810 OR 16341205 OR 16341206 OR 16341207 OR 16341208 OR 16341221 OR 16341222 OR 16341223 OR 16341224 OR 16341241 OR 16341242 OR 16341243 OR 16362051 OR 16362052 OR 16362053 OR 16369530 OR 16369531 OR 16369532 OR 16369533 OR 16369534 OR 16369538 OR 16369539 OR 16369540 OR 16369541 OR 16369542 OR 16369543 OR 16370372 OR 16370373 OR 16372404 OR 16378095 OR 16378098 OR 16378099 OR 16378100 OR 16380711 OR 16380712 OR 16380713 OR 16380714 OR 16380715 OR 16380716 OR 16380717 OR 16388305 OR 16397549 OR 16397571 OR 16397572 OR 16397573 OR 16397574 OR 16397575 OR 16404390 OR 16404392 OR 16404397 OR 16404398 OR 16404400 OR 16407988 OR 16407989 OR 16407990 OR 16407991 OR 16407992 OR 16407993 OR 16407994 OR 16408005 OR 16408006 OR 16408007 OR 16408008 OR 16408017 OR 16408018 OR 16408019 OR 16408020 OR 16408021 OR 16408022 OR 16408035 OR 16408036 OR 16408037 OR 16408038 OR 16408039 OR 16408054 OR 16408055 OR 16408056 OR 16408057 OR 16408058 OR 16408059 OR 16408070 OR 16408071 OR 16408072 OR 16408073 OR 16408074 OR 16408080 OR 16408081 OR 16408083 OR 16408084 OR 16408085 OR 16408089 OR 16408091 OR 16408092 OR 16415854 OR 16415855 OR 16415856 OR 16415857 OR 16415858 OR 16415859 OR 16415860 OR 16415861 OR 16415862 OR 16415863 OR 16415877 OR 16415878 OR 16415884 OR 16415885 OR 16415886 OR 16415887 OR 16415888 OR 16415889 OR 16429127 OR 16429128 OR 16429129 OR 16429130 OR 16429131 OR 16429144 OR 16429145 OR 16429146 OR 16429147 OR 16429148 OR 16429149 OR 16429157 OR 16429158 OR 16429159 OR 16429160 OR 16429161 OR 16429162 OR 16432513 OR 16434960 OR 16444255 OR 16444264 OR 16444265 OR 16444266 OR 16444267 OR 16444268 OR 16444269 OR 16444271 OR 16444272 OR 16444274 OR 16446709 OR 16462733 OR 16462742 OR 16462743 OR 16462744 OR 16462745 OR 16462751 OR 16462800 OR 16462801 OR 16462802 OR 16462803 OR 16465155 OR 16465163 OR 16468121 OR 16468122 OR 16474381 OR 16474383 OR 16474384 OR 16474385 OR 16474386 OR 16474387 OR 16474398 OR 16474399 OR 16474401 OR 16474404 OR 16474405 OR 16474406 OR 16474407 OR 16489341 OR 16489342 OR 16489343 OR 16489344 OR 16489345 OR 16491083 OR 16491084 OR 16491085 OR 16491086 OR 16491087 OR 16493421 OR 16493422 OR 16493423 OR 16501565 OR 16501570 OR 16501571 OR 16501573 OR 16501574 OR 16501575 OR 16501576 OR 16505807 OR 16518390 OR 16518391 OR 16518392 OR 16518401 OR 16518402 OR 16518403 OR 16520733 OR 16520776 OR 16520777 OR 16525374 OR 16525381 OR 16531991 OR 16531992 OR 16531993 OR 16531994 OR 16531995 OR 16531996 OR 16532003 OR 16532010 OR 16532011 OR 16532012 OR 16532013 OR 16547473 OR 16547522 OR 16550169 OR 16550170 OR 16550171 OR 16550172 OR 16550173 OR 16550174 OR 16550175 OR 16550187 OR 16550190 OR 16565707 OR 16565708 OR 16565709 OR 16565714 OR 16565715 OR 16565716 OR 16565718 OR 16565723)</t>
+  </si>
+  <si>
+    <t>PMID=(16565727 OR 16565728 OR 16570078 OR 16582907 OR 16582908 OR 16582909 OR 16582910 OR 16601717 OR 16601720 OR 16601721 OR 16601727 OR 16604060 OR 16604061 OR 16604062 OR 16604063 OR 16604064 OR 16604065 OR 16604066 OR 16604071 OR 16604072 OR 16604073 OR 16604074 OR 16604085 OR 16604086 OR 16604087 OR 16604088 OR 16604089 OR 16617336 OR 16617349 OR 16619016 OR 16622416 OR 16622417 OR 16622418 OR 16622419 OR 16622420 OR 16622421 OR 16628213 OR 16633347 OR 16633348 OR 16633349 OR 16633350 OR 16633351 OR 16642016 OR 16642017 OR 16642018 OR 16642019 OR 16642020 OR 16642021 OR 16642023 OR 16642024 OR 16645617 OR 16648841 OR 16648842 OR 16648843 OR 16648844 OR 16648845 OR 16648846 OR 16648851 OR 16648858 OR 16648859 OR 16680137 OR 16680138 OR 16680148 OR 16680149 OR 16680150 OR 16680158 OR 16680159 OR 16680160 OR 16682969 OR 16682970 OR 16682971 OR 16682972 OR 16682973 OR 16699499 OR 16699500 OR 16699501 OR 16699502 OR 16699503 OR 16699504 OR 16699516 OR 16699517 OR 16699518 OR 16699519 OR 16699520 OR 16715074 OR 16715075 OR 16715076 OR 16715077 OR 16715078 OR 16715087 OR 16715088 OR 16715089 OR 16715090 OR 16715091 OR 16715092 OR 16715096 OR 16715097 OR 16715098 OR 16715099 OR 16715549 OR 16732270 OR 16732271 OR 16732272 OR 16732278 OR 16732279 OR 16732281 OR 16732282 OR 16732287 OR 16732288 OR 16732289 OR 16732294 OR 16732295 OR 16733527 OR 16738703 OR 16751762 OR 16751767 OR 16751768 OR 16751769 OR 16751770 OR 16751771 OR 16751773 OR 16763585 OR 16763592 OR 16767078 OR 16767079 OR 16767080 OR 16767081 OR 16767082 OR 16767083 OR 16767084 OR 16767086 OR 16767097 OR 16767098 OR 16767099 OR 16767100 OR 16767101 OR 16767104 OR 16783341 OR 16783362 OR 16783363 OR 16783364 OR 16783371 OR 16783372 OR 16783378 OR 16783379 OR 16783380 OR 16799550 OR 16799551 OR 16799552 OR 16799553 OR 16799554 OR 16799555 OR 16799556 OR 16799557 OR 16804532 OR 16804541 OR 16804542 OR 16804543 OR 16804544 OR 16816845 OR 16819549 OR 16819550 OR 16819551 OR 16819552 OR 16823369 OR 16823370 OR 16823371 OR 16823372 OR 16823373 OR 16823375 OR 16823377 OR 16823379 OR 16823380 OR 16829943 OR 16829944 OR 16829945 OR 16829946 OR 16829947 OR 16829951 OR 16829952 OR 16829954 OR 16832354 OR 16832355 OR 16832356 OR 16832357 OR 16841053 OR 16841054 OR 16841056 OR 16841058 OR 16841068 OR 16841069 OR 16845377 OR 16845378 OR 16845379 OR 16845380 OR 16845381 OR 16845382 OR 16845383 OR 16845397 OR 16845398 OR 16862141 OR 16862142 OR 16862143 OR 16862144 OR 16862145 OR 16862147 OR 16862148 OR 16862159 OR 16862160 OR 16878126 OR 16878127 OR 16878128 OR 16892025 OR 16892036 OR 16892050 OR 16892051 OR 16892052 OR 16892053 OR 16892054 OR 16892055 OR 16892059 OR 16892061 OR 16892062 OR 16892063 OR 16900130 OR 16900145 OR 16906143 OR 16906144 OR 16906145 OR 16906146 OR 16906147 OR 16906148 OR 16906149 OR 16906150 OR 16906151 OR 16906154 OR 16906155 OR 16906156 OR 16906157 OR 16917489 OR 16921363 OR 16921364 OR 16921365 OR 16921366 OR 16921367 OR 16921374 OR 16921377 OR 16936719 OR 16936725 OR 16936734 OR 16951679 OR 16951680 OR 16951681 OR 16951682 OR 16951683 OR 16951684 OR 16951685 OR 16964211 OR 16964212 OR 16964215 OR 16964242 OR 16964244 OR 16964245 OR 16964246 OR 16964247 OR 16964248 OR 16964257 OR 16964263 OR 16964264 OR 16964265 OR 16964266 OR 16969372 OR 16969373 OR 16980957 OR 16980960 OR 16980968 OR 16980969 OR 16980970 OR 16980974 OR 16980975 OR 16980976 OR 16980977 OR 16980978 OR 16980979 OR 16983380 OR 16998472 OR 16998473 OR 16998474 OR 16998475 OR 16998476 OR 16998477 OR 16998478 OR 16998479 OR 16998480 OR 16998483 OR 16998484 OR 16998485 OR 16998489 OR 16998490 OR 16998491 OR 17013374 OR 17013376 OR 17013377 OR 17013378 OR 17013383 OR 17013384 OR 17013385 OR 17013392 OR 17013393 OR 17013394 OR 17013395 OR 17013396 OR 17024207 OR 17024208 OR 17028578 OR 17028579 OR 17028580 OR 17033622 OR 17033623 OR 17033624 OR 17033625 OR 17033656 OR 17033664 OR 17041586 OR 17041587 OR 17041588 OR 17041589 OR 17041596 OR 17041600 OR 17041601 OR 17041602 OR 17041603 OR 17053790 OR 17057702 OR 17057703 OR 17057704 OR 17057709 OR 17057711 OR 17057712 OR 17057718 OR 17057719 OR 17060905 OR 17060906 OR 17060907 OR 17063141 OR 17072302 OR 17072303 OR 17072309 OR 17072310 OR 17072311 OR 17072312 OR 17072316 OR 17086172 OR 17086173 OR 17086174 OR 17086175 OR 17086176 OR 17086182 OR 17086183 OR 17086185 OR 17086189 OR 17086190 OR 17093478 OR 17093488 OR 17099709 OR 17099711 OR 17099712 OR 17099713 OR 17099714 OR 17108984 OR 17108985 OR 17108986 OR 17115026 OR 17115027 OR 17115028 OR 17115029 OR 17115030 OR 17115031 OR 17115032 OR 17115033 OR 17115034 OR 17115046 OR 17115048 OR 17115054 OR 17115055 OR 17115056 OR 17115059 OR 17128262 OR 17128263 OR 17128264 OR 17128265 OR 17128269 OR 17128273 OR 17128274 OR 17128275 OR 17139278 OR 17143267 OR 17143268 OR 17143269 OR 17143270 OR 17143276 OR 17143278 OR 17143284 OR 17143285 OR 17143286 OR 17159980 OR 17159981 OR 17159985 OR 17159986 OR 17159987 OR 17159988 OR 17159996 OR 17159997 OR 17159998 OR 17159999 OR 17160050 OR 17160051 OR 17160052 OR 17160053 OR 17160056 OR 17160057 OR 17160058 OR 17173035 OR 17173036 OR 17173037 OR 17173038 OR 17173039 OR 17173040 OR 17173041 OR 17173042 OR 17173048 OR 17173049 OR 17173050 OR 17173051 OR 17187058 OR 17187059 OR 17187060 OR 17187061 OR 17187062 OR 17187063 OR 17187067 OR 17187068 OR 17187072 OR 17187074 OR 17187079 OR 17195838 OR 17195839 OR 17195840 OR 17195841 OR 17195849)</t>
+  </si>
+  <si>
+    <t>PMID=(17199124 OR 17200668 OR 17200669 OR 17200670 OR 17200671 OR 17200672 OR 17200673 OR 17206138 OR 17206139 OR 17206141 OR 17206143 OR 17206144 OR 17211395 OR 17211397 OR 17211405 OR 17220877 OR 17220878 OR 17220879 OR 17220880 OR 17220881 OR 17220888 OR 17220889 OR 17220890 OR 17220891 OR 17220900 OR 17220901 OR 17237769 OR 17237770 OR 17237771 OR 17237772 OR 17237773 OR 17237781 OR 17237782 OR 17237783 OR 17237784 OR 17237798 OR 17259976 OR 17259978 OR 17259979 OR 17259983 OR 17259984 OR 17259985 OR 17259986 OR 17259996 OR 17268472 OR 17277770 OR 17277771 OR 17277772 OR 17277777 OR 17277778 OR 17277785 OR 17287747 OR 17287758 OR 17293853 OR 17293854 OR 17293855 OR 17293856 OR 17293863 OR 17293864 OR 17293865 OR 17293866 OR 17293875 OR 17310239 OR 17310240 OR 17310241 OR 17310242 OR 17310243 OR 17322870 OR 17322871 OR 17322872 OR 17322873 OR 17322877 OR 17322878 OR 17322879 OR 17322882 OR 17322883 OR 17322884 OR 17322894 OR 17322895 OR 17322896 OR 17322897 OR 17322898 OR 17330329 OR 17334358 OR 17334359 OR 17334363 OR 17334364 OR 17334365 OR 17334366 OR 17334371 OR 17334372 OR 17334373 OR 17334376 OR 17334377 OR 17342145 OR 17342146 OR 17344870 OR 17344878 OR 17344885 OR 17351616 OR 17351617 OR 17351623 OR 17351628 OR 17351639 OR 17351640 OR 17351641 OR 17351642 OR 17353894 OR 17353896 OR 17353897 OR 17369815 OR 17369816 OR 17369817 OR 17369818 OR 17369819 OR 17369820 OR 17369821 OR 17369828 OR 17369829 OR 17369830 OR 17384586 OR 17384638 OR 17384639 OR 17384640 OR 17384649 OR 17401360 OR 17401361 OR 17401362 OR 17401363 OR 17401364 OR 17401366 OR 17401374 OR 17401378 OR 17401379 OR 17417625 OR 17417626 OR 17417627 OR 17417628 OR 17417629 OR 17417630 OR 17417631 OR 17417636 OR 17417637 OR 17417648 OR 17417649 OR 17417650 OR 17417651 OR 17417652 OR 17420745 OR 17435746 OR 17435747 OR 17435749 OR 17435750 OR 17435751 OR 17435759 OR 17435769 OR 17435770 OR 17435771 OR 17435772 OR 17438551 OR 17450129 OR 17450130 OR 17450131 OR 17450132 OR 17450133 OR 17450134 OR 17450142 OR 17450149 OR 17450150 OR 17460691 OR 17468755 OR 17468756 OR 17468766 OR 17468767 OR 17468768 OR 17479102 OR 17483835 OR 17486044 OR 17486045 OR 17486083 OR 17486088 OR 17486089 OR 17486094 OR 17486095 OR 17486112 OR 17486113 OR 17486114 OR 17486115 OR 17486116 OR 17486117 OR 17486118 OR 17486119 OR 17496887 OR 17496888 OR 17496889 OR 17496892 OR 17496893 OR 17496901 OR 17515894 OR 17515895 OR 17515896 OR 17515897 OR 17515908 OR 17515909 OR 17515910 OR 17515930 OR 17515931 OR 17515932 OR 17529971 OR 17529972 OR 17529973 OR 17529975 OR 17529976 OR 17529978 OR 17529981 OR 17546028 OR 17546029 OR 17546030 OR 17546031 OR 17546039 OR 17546040 OR 17554261 OR 17557097 OR 17558392 OR 17558393 OR 17558394 OR 17558395 OR 17558396 OR 17558397 OR 17558398 OR 17558406 OR 17558407 OR 17558408 OR 17558409 OR 17558415 OR 17572666 OR 17572667 OR 17572668 OR 17572669 OR 17572670 OR 17572674 OR 17572676 OR 17572686 OR 17572687 OR 17576410 OR 17576415 OR 17576416 OR 17576418 OR 17589498 OR 17589499 OR 17589508 OR 17589509 OR 17589519 OR 17589520 OR 17589521 OR 17589522 OR 17592474 OR 17592475 OR 17592476 OR 17603475 OR 17603476 OR 17603482 OR 17603483 OR 17603484 OR 17603485 OR 17603492 OR 17603493 OR 17603494 OR 17603495 OR 17603496 OR 17603504 OR 17603539 OR 17603540 OR 17618272 OR 17618273 OR 17618274 OR 17618275 OR 17618282 OR 17618283 OR 17618284 OR 17618285 OR 17618286 OR 17618294 OR 17618314 OR 17621277 OR 17621279 OR 17621280 OR 17621292 OR 17621296 OR 17621303 OR 17632505 OR 17632509 OR 17632510 OR 17632511 OR 17632512 OR 17632513 OR 17632514 OR 17632515 OR 17632524 OR 17632525 OR 17632526 OR 17632527 OR 17632528 OR 17637780 OR 17643101 OR 17643102 OR 17643110 OR 17643111 OR 17643112 OR 17643113 OR 17643114 OR 17643115 OR 17643116 OR 17643117 OR 17643118 OR 17660811 OR 17660816 OR 17660817 OR 17660818 OR 17660819 OR 17660820 OR 17660827 OR 17660828 OR 17660829 OR 17660835 OR 17664939 OR 17664940 OR 17671451 OR 17676037 OR 17676038 OR 17676039 OR 17676040 OR 17676041 OR 17676042 OR 17676050 OR 17676051 OR 17676052 OR 17687359 OR 17694049 OR 17694054 OR 17694055 OR 17694056 OR 17694057 OR 17694058 OR 17694066 OR 17694067 OR 17694068 OR 17704765 OR 17704767 OR 17704768 OR 17704769 OR 17704770 OR 17704771 OR 17704772 OR 17704773 OR 17704776 OR 17704778 OR 17704784 OR 17704785 OR 17704786 OR 17717538 OR 17721510 OR 17721511 OR 17721512 OR 17721513 OR 17721514 OR 17721515 OR 17721534 OR 17721535 OR 17721544 OR 17721545 OR 17721546 OR 17721547 OR 17724450 OR 17728769 OR 17762888 OR 17762889 OR 17762890 OR 17762891 OR 17762892 OR 17767154 OR 17767155 OR 17767156 OR 17767157 OR 17767158 OR 17767159 OR 17767165 OR 17767167 OR 17828247 OR 17828248 OR 17828249 OR 17828250 OR 17828251 OR 17828263 OR 17828264 OR 17828265 OR 17828266 OR 17828272 OR 17828274 OR 17846624 OR 17846626 OR 17846631 OR 17873865 OR 17873866 OR 17873867 OR 17873868 OR 17873875 OR 17873876 OR 17873877 OR 17873880 OR 17873882 OR 17876310 OR 17876311 OR 17891134 OR 17891135 OR 17891136 OR 17891137 OR 17891138 OR 17891139 OR 17891140 OR 17891141 OR 17891145 OR 17891146 OR 17891147 OR 17891152 OR 17891153 OR 17893677 OR 17893678 OR 17898773 OR 17906618 OR 17906623 OR 17906624 OR 17906625 OR 17906626 OR 17906634 OR 17906635 OR 17906636 OR 17906637 OR 17906641 OR 17917664 OR 17921991 OR 17921997 OR 17921999 OR 17922003 OR 17922004 OR 17922005 OR 17922009 OR 17922010 OR 17934451 OR 17934452)</t>
+  </si>
+  <si>
+    <t>PMID=(17934453 OR 17934454 OR 17934460 OR 17934462 OR 17934470 OR 17934471 OR 17934472 OR 17934475 OR 17948010 OR 17952057 OR 17952058 OR 17952059 OR 17952060 OR 17952061 OR 17952063 OR 17952065 OR 17952066 OR 17952071 OR 17952075 OR 17952090 OR 17952091 OR 17965706 OR 17965707 OR 17965708 OR 17965709 OR 17965713 OR 17965714 OR 17965720 OR 17965721 OR 17965722 OR 17982443 OR 17982444 OR 17982445 OR 17982446 OR 17982447 OR 17982448 OR 17982454 OR 17982455 OR 17982456 OR 17982457 OR 17982462 OR 17982463 OR 17982464 OR 17987029 OR 17989688 OR 17994009 OR 17994010 OR 17994011 OR 17994012 OR 17994017 OR 17994018 OR 17994019 OR 17994020 OR 17994021 OR 17994101 OR 17994102 OR 18007642 OR 18026085 OR 18026090 OR 18026091 OR 18026092 OR 18026093 OR 18026094 OR 18026095 OR 18026100 OR 18026101 OR 18026102 OR 18026103 OR 18026104 OR 18026113 OR 18026114 OR 18026115 OR 18037878 OR 18037879 OR 18037880 OR 18037881 OR 18037882 OR 18037885 OR 18037886 OR 18037895 OR 18037896 OR 18059259 OR 18059260 OR 18059261 OR 18059262 OR 18059263 OR 18059266 OR 18059267 OR 18059268 OR 18059269 OR 18059279 OR 18059280 OR 18059281 OR 18059282 OR 18059283 OR 18064037 OR 18066015 OR 18066034 OR 18066037 OR 18066050 OR 18066051 OR 18066052 OR 18066053 OR 18066054 OR 18066055 OR 18066062 OR 18066063 OR 18066064 OR 18066065 OR 18066074 OR 18066075 OR 18066076 OR 18084270 OR 18084271 OR 18084279 OR 18084280 OR 18084281 OR 18084282 OR 18084283 OR 18084284 OR 18084285 OR 18084290 OR 18084291 OR 18084292 OR 18084293 OR 18084301 OR 18084302 OR 18157117 OR 18157118 OR 18157119 OR 18157120 OR 18157121 OR 18157122 OR 18157123 OR 18157124 OR 18157127 OR 18157128 OR 18157129 OR 18157130 OR 18157138 OR 18157139 OR 18157140 OR 18157141 OR 18157142 OR 18157143 OR 18163131 OR 18176555 OR 18176556 OR 18176557 OR 18176558 OR 18176562 OR 18176563 OR 18176565 OR 18183015 OR 18183017 OR 18183018 OR 18183020 OR 18183023 OR 18183025 OR 18193032 OR 18193033 OR 18193034 OR 18193035 OR 18193036 OR 18193037 OR 18193038 OR 18193047 OR 18193048 OR 18193057 OR 18193058 OR 18193059 OR 18204439 OR 18204440 OR 18204446 OR 18204449 OR 18204460 OR 18204461 OR 18204462 OR 18223641 OR 18223642 OR 18223643 OR 18223644 OR 18223645 OR 18223646 OR 18223650 OR 18223651 OR 18223654 OR 18223655 OR 18223656 OR 18227874 OR 18246061 OR 18246062 OR 18246063 OR 18246066 OR 18246067 OR 18246068 OR 18246077 OR 18246078 OR 18246079 OR 18246080 OR 18259169 OR 18259177 OR 18259178 OR 18264089 OR 18264090 OR 18264091 OR 18264092 OR 18264093 OR 18264096 OR 18264097 OR 18264099 OR 18264100 OR 18264108 OR 18264109 OR 18264110 OR 18277968 OR 18277969 OR 18277970 OR 18278033 OR 18278034 OR 18278035 OR 18278036 OR 18278037 OR 18278038 OR 18278045 OR 18278052 OR 18278053 OR 18278054 OR 18288110 OR 18297056 OR 18297058 OR 18297059 OR 18297060 OR 18297061 OR 18297062 OR 18297063 OR 18297064 OR 18297071 OR 18297083 OR 18297084 OR 18297085 OR 18311130 OR 18311131 OR 18311132 OR 18311137 OR 18311138 OR 18311139 OR 18311140 OR 18311141 OR 18311147 OR 18311148 OR 18311149 OR 18311150 OR 18327226 OR 18327249 OR 18327251 OR 18327252 OR 18327255 OR 18327258 OR 18327267 OR 18344984 OR 18344985 OR 18344986 OR 18344987 OR 18344988 OR 18344989 OR 18344999 OR 18345000 OR 18345009 OR 18345010 OR 18345011 OR 18345012 OR 18345013 OR 18347585 OR 18362881 OR 18362883 OR 18362884 OR 18362885 OR 18364697 OR 18364698 OR 18364699 OR 18364700 OR 18364701 OR 18364702 OR 18368128 OR 18372901 OR 18372902 OR 18372905 OR 18376396 OR 18376398 OR 18376399 OR 18376404 OR 18376405 OR 18376406 OR 18376407 OR 18376408 OR 18376409 OR 18379596 OR 18379599 OR 18385676 OR 18391929 OR 18391940 OR 18391941 OR 18391947 OR 18391948 OR 18391949 OR 18391951 OR 18391952 OR 18391953 OR 18391961 OR 18391962 OR 18391963 OR 18392026 OR 18392027 OR 18408713 OR 18408714 OR 18408718 OR 18408719 OR 18408720 OR 18408721 OR 18408733 OR 18408734 OR 18425112 OR 18425113 OR 18425114 OR 18425115 OR 18425116 OR 18425117 OR 18425118 OR 18425119 OR 18425120 OR 18425125 OR 18425126 OR 18425127 OR 18425128 OR 18425129 OR 18437154 OR 18438400 OR 18438401 OR 18438403 OR 18438404 OR 18438408 OR 18443585 OR 18443589 OR 18443590 OR 18443592 OR 18443593 OR 18443594 OR 18454138 OR 18454139 OR 18454140 OR 18454141 OR 18454142 OR 18454143 OR 18454147 OR 18454149 OR 18464786 OR 18469805 OR 18469806 OR 18469807 OR 18469808 OR 18469809 OR 18469815 OR 18469825 OR 18469826 OR 18488004 OR 18488014 OR 18488018 OR 18488019 OR 18488020 OR 18488021 OR 18488026 OR 18488027 OR 18488028 OR 18488029 OR 18488036 OR 18488037 OR 18488038 OR 18500334 OR 18500335 OR 18500336 OR 18500337 OR 18500339 OR 18500340 OR 18500350 OR 18511946 OR 18511947 OR 18511948 OR 18516048 OR 18516049 OR 18516050 OR 18516051 OR 18516052 OR 18516053 OR 18516054 OR 18516090 OR 18516091 OR 18535579 OR 18536680 OR 18536681 OR 18536688 OR 18536689 OR 18536713 OR 18536714 OR 18536715 OR 18536716 OR 18536717 OR 18542049 OR 18542050 OR 18542051 OR 18542052 OR 18552832 OR 18552833 OR 18552834 OR 18552835 OR 18552836 OR 18552846 OR 18552847 OR 18552856 OR 18552857 OR 18560432 OR 18568017 OR 18568018 OR 18568019 OR 18568033 OR 18568034 OR 18568035 OR 18587384 OR 18587385 OR 18587386 OR 18587387 OR 18587388 OR 18587395 OR 18587396 OR 18587397 OR 18587406 OR 18587407 OR 18587408 OR 18591969 OR 18594521 OR 18604195 OR 18604196 OR 18604197 OR 18604198 OR 18604199 OR 18604200 OR 18604201 OR 18604202 OR 18604206 OR 18604207)</t>
+  </si>
+  <si>
+    <t>PMID=(18604208 OR 18607349 OR 18607371 OR 18607372 OR 18612301 OR 18612302 OR 18622388 OR 18622389 OR 18622393 OR 18622394 OR 18622395 OR 18622403 OR 18641617 OR 18641626 OR 18641634 OR 18641635 OR 18641636 OR 18641637 OR 18641638 OR 18641639 OR 18641640 OR 18641641 OR 18641651 OR 18641652 OR 18641659 OR 18660804 OR 18660805 OR 18660809 OR 18660810 OR 18660815 OR 18660816 OR 18660818 OR 18677305 OR 18677313 OR 18685595 OR 18688245 OR 18688246 OR 18690216 OR 18690217 OR 18690244 OR 18711339 OR 18711340 OR 18711341 OR 18711365 OR 18711366 OR 18711367 OR 18711368 OR 18711374 OR 18724363 OR 18724364 OR 18724368 OR 18758441 OR 18758446 OR 18758448 OR 18758449 OR 18758450 OR 18758451 OR 18758452 OR 18758461 OR 18758462 OR 18758463 OR 18758491 OR 18776883 OR 18776884 OR 18776889 OR 18776891 OR 18776898 OR 18776899 OR 18776900 OR 18776908 OR 18776910 OR 18776911 OR 18779806 OR 18779808 OR 18794846 OR 18794847 OR 18794855 OR 18794864 OR 18800042 OR 18806782 OR 18806783 OR 18806787 OR 18806788 OR 18806789 OR 18806795 OR 18806801 OR 18806802 OR 18806803 OR 18820647 OR 18820684 OR 18820685 OR 18820686 OR 18820689 OR 18820696 OR 18820697 OR 18820698 OR 18820699 OR 18830217 OR 18836436 OR 18836437 OR 18836438 OR 18836439 OR 18836444 OR 18836445 OR 18836446 OR 18836447 OR 18836448 OR 18836458 OR 18836459 OR 18836460 OR 18836461 OR 18841138 OR 18841139 OR 18841140 OR 18841144 OR 18841146 OR 18841147 OR 18846070 OR 18846072 OR 18846076 OR 18846077 OR 18846084 OR 18846085 OR 18846089 OR 18849972 OR 18849979 OR 18849980 OR 18849981 OR 18849982 OR 18849991 OR 18849992 OR 18849993 OR 18849994 OR 18849997 OR 18931660 OR 18931661 OR 18931662 OR 18931663 OR 18931681 OR 18931682 OR 18931683 OR 18931684 OR 18936742 OR 18936743 OR 18953339 OR 18953340 OR 18953341 OR 18953350 OR 18953351 OR 18953352 OR 18953354 OR 18953355 OR 18953356 OR 18953357 OR 18953358 OR 18978782 OR 18978783 OR 18978788 OR 18978789 OR 18978790 OR 18978791 OR 18978796 OR 18978797 OR 18989280 OR 18989281 OR 18989308 OR 18989309 OR 18997759 OR 18997760 OR 18997777 OR 18997783 OR 18997784 OR 18997785 OR 18997786 OR 18997787 OR 18997788 OR 18997795 OR 19011619 OR 19011620 OR 19011621 OR 19011622 OR 19011623 OR 19011629 OR 19011630 OR 19011632 OR 19011637 OR 19011638 OR 19011639 OR 19029898 OR 19029899 OR 19029900 OR 19029901 OR 19029908 OR 19029909 OR 19029911 OR 19029912 OR 19029913 OR 19029915 OR 19029916 OR 19029917 OR 19029980 OR 19029981 OR 19029982 OR 19029983 OR 19029984 OR 19029985 OR 19029986 OR 19029987 OR 19031531 OR 19043406 OR 19043407 OR 19043408 OR 19043416 OR 19043417 OR 19043429 OR 19057555 OR 19057556 OR 19057557 OR 19060861 OR 19060862 OR 19060868 OR 19060871 OR 19060872 OR 19060879 OR 19060891 OR 19060892 OR 19060893 OR 19060894 OR 19060905 OR 19060906 OR 19060907 OR 19060908 OR 19060909 OR 19060910 OR 19060911 OR 19060912 OR 19079241 OR 19079244 OR 19079245 OR 19079246 OR 19079247 OR 19079257 OR 19079258 OR 19079259 OR 19079260 OR 19079261 OR 19079262 OR 19079268 OR 19088708 OR 19098898 OR 19098899 OR 19098900 OR 19098901 OR 19098902 OR 19098903 OR 19098908 OR 19098909 OR 19098910 OR 19098911 OR 19098912 OR 19098913 OR 19098914 OR 19109594 OR 19109595 OR 19122596 OR 19122652 OR 19122657 OR 19122659 OR 19122662 OR 19122664 OR 19125156 OR 19125157 OR 19129779 OR 19131992 OR 19136949 OR 19136950 OR 19136951 OR 19136953 OR 19136954 OR 19136963 OR 19136964 OR 19136965 OR 19136966 OR 19136967 OR 19136968 OR 19136975 OR 19136976 OR 19148167 OR 19148176 OR 19151699 OR 19151700 OR 19151705 OR 19151706 OR 19151707 OR 19151708 OR 19151713 OR 19151714 OR 19151715 OR 19151727 OR 19151728 OR 19151729 OR 19151730 OR 19151731 OR 19151732 OR 19160483 OR 19160484 OR 19160485 OR 19160486 OR 19160487 OR 19160488 OR 19160489 OR 19160490 OR 19160491 OR 19160492 OR 19160493 OR 19165918 OR 19165919 OR 19165920 OR 19165921 OR 19165923 OR 19165924 OR 19165925 OR 19165926 OR 19165927 OR 19165928 OR 19169245 OR 19169253 OR 19169254 OR 19169256 OR 19169263 OR 19169264 OR 19172146 OR 19182782 OR 19182783 OR 19182784 OR 19182785 OR 19182786 OR 19182789 OR 19182790 OR 19182791 OR 19182792 OR 19182797 OR 19182798 OR 19182803 OR 19182806 OR 19197288 OR 19197289 OR 19198597 OR 19198598 OR 19198599 OR 19198600 OR 19198601 OR 19198602 OR 19198608 OR 19198609 OR 19198610 OR 19198611 OR 19198612 OR 19198613 OR 19198614 OR 19198615 OR 19202543 OR 19204689 OR 19204690 OR 19219011 OR 19219023 OR 19219024 OR 19219028 OR 19219034 OR 19219035 OR 19219036 OR 19219041 OR 19219042 OR 19219044 OR 19219049 OR 19234448 OR 19234449 OR 19234452 OR 19234453 OR 19234454 OR 19234460 OR 19234461 OR 19234462 OR 19234463 OR 19234471 OR 19252483 OR 19252484 OR 19252486 OR 19252487 OR 19252488 OR 19252489 OR 19252499 OR 19252500 OR 19252501 OR 19252502 OR 19252503 OR 19265825 OR 19265826 OR 19265827 OR 19270663 OR 19270669 OR 19270676 OR 19270684 OR 19270694 OR 19270695 OR 19270696 OR 19270704 OR 19270705 OR 19270706 OR 19270707 OR 19270708 OR 19270709 OR 19270710 OR 19282848 OR 19287379 OR 19287380 OR 19287381 OR 19287382 OR 19287383 OR 19287384 OR 19287385 OR 19287391 OR 19287392 OR 19287398 OR 19305408 OR 19305409 OR 19305410 OR 19305411 OR 19305412 OR 19305413 OR 19305414 OR 19329994 OR 19329998 OR 19329999 OR 19330000 OR 19330007 OR 19330008 OR 19330009 OR 19330010 OR 19330011 OR 19330012 OR 19330013 OR 19330027 OR 19330028 OR 19330029 OR 19330030 OR 19349968 OR 19349972 OR 19349973 OR 19349982)</t>
+  </si>
+  <si>
+    <t>PMID=(19349983 OR 19349984 OR 19349985 OR 19350007 OR 19350008 OR 19350009 OR 19350016 OR 19350017 OR 19352362 OR 19352366 OR 19352367 OR 19352374 OR 19363475 OR 19363478 OR 19363479 OR 19363485 OR 19363486 OR 19363487 OR 19363488 OR 19363496 OR 19377447 OR 19377455 OR 19377462 OR 19377466 OR 19377467 OR 19377468 OR 19377469 OR 19377474 OR 19377475 OR 19377476 OR 19377477 OR 19377478 OR 19377487 OR 19396160 OR 19396161 OR 19396163 OR 19396164 OR 19396168 OR 19396169 OR 19396173 OR 19396174 OR 19396175 OR 19396176 OR 19396177 OR 19396178 OR 19396179 OR 19398967 OR 19412172 OR 19412173 OR 19412174 OR 19412175 OR 19412176 OR 19412177 OR 19412178 OR 19412179 OR 19412185 OR 19424209 OR 19424210 OR 19430443 OR 19430453 OR 19430466 OR 19430467 OR 19430468 OR 19430479 OR 19430480 OR 19430481 OR 19430482 OR 19430483 OR 19430484 OR 19430485 OR 19430486 OR 19430487 OR 19430488 OR 19430489 OR 19448600 OR 19448619 OR 19448620 OR 19448621 OR 19448622 OR 19448623 OR 19448624 OR 19448625 OR 19448626 OR 19448627 OR 19448630 OR 19448634 OR 19448635 OR 19448636 OR 19448637 OR 19448638 OR 19448639 OR 19465909 OR 19465910 OR 19465911 OR 19465912 OR 19465920 OR 19465921 OR 19465922 OR 19465923 OR 19465924 OR 19465925 OR 19465926 OR 19465927 OR 19465928 OR 19465929 OR 19465931 OR 19465932 OR 19465933 OR 19483680 OR 19483681 OR 19483682 OR 19483683 OR 19483684 OR 19483685 OR 19483693 OR 19483694 OR 19483695 OR 19483696 OR 19483697 OR 19483698 OR 19491843 OR 19498374 OR 19498375 OR 19503064 OR 19503072 OR 19503073 OR 19503074 OR 19503075 OR 19503088 OR 19503089 OR 19503090 OR 19503091 OR 19513052 OR 19513055 OR 19525934 OR 19525935 OR 19525936 OR 19525937 OR 19525938 OR 19525939 OR 19525940 OR 19525953 OR 19525954 OR 19525955 OR 19525956 OR 19525961 OR 19525962 OR 19525963 OR 19525966 OR 19525967 OR 19525968 OR 19536100 OR 19536101 OR 19543267 OR 19543268 OR 19543269 OR 19543270 OR 19543271 OR 19543272 OR 19543273 OR 19543274 OR 19543282 OR 19543284 OR 19561594 OR 19561595 OR 19561596 OR 19561604 OR 19561605 OR 19561606 OR 19561607 OR 19561616 OR 19561617 OR 19561618 OR 19561619 OR 19561620 OR 19561621 OR 19578332 OR 19578333 OR 19578363 OR 19578364 OR 19578366 OR 19578367 OR 19578370 OR 19578371 OR 19578372 OR 19578373 OR 19581875 OR 19581876 OR 19584862 OR 19584863 OR 19584865 OR 19584866 OR 19584867 OR 19587662 OR 19587663 OR 19587667 OR 19587669 OR 19590502 OR 19597484 OR 19597485 OR 19597486 OR 19597487 OR 19597488 OR 19597489 OR 19597490 OR 19597491 OR 19597492 OR 19597493 OR 19597504 OR 19597505 OR 19597506 OR 19597507 OR 19597508 OR 19620967 OR 19620968 OR 19620969 OR 19620970 OR 19620979 OR 19620980 OR 19620981 OR 19620983 OR 19620986 OR 19620987 OR 19620988 OR 19620995 OR 19620996 OR 19633654 OR 19633655 OR 19633656 OR 19633658 OR 19633659 OR 19633662 OR 19633671 OR 19633672 OR 19648908 OR 19648909 OR 19648910 OR 19648919 OR 19648921 OR 19648927 OR 19648928 OR 19648929 OR 19648931 OR 19648932 OR 19648933 OR 19648934 OR 19661988 OR 19661989 OR 19661990 OR 19661992 OR 19668176 OR 19668192 OR 19668193 OR 19668194 OR 19668195 OR 19668196 OR 19668197 OR 19668214 OR 19668215 OR 19668216 OR 19668217 OR 19668243 OR 19680244 OR 19684574 OR 19684576 OR 19684578 OR 19684579 OR 19684580 OR 19684581 OR 19684582 OR 19684594 OR 19684603 OR 19684604 OR 19684605 OR 19690530 OR 19690534 OR 19690535 OR 19701185 OR 19701186 OR 19701187 OR 19701190 OR 19701191 OR 19701192 OR 19701194 OR 19701195 OR 19701196 OR 19701202 OR 19701203 OR 19701204 OR 19701205 OR 19701206 OR 19718024 OR 19718025 OR 19718027 OR 19718028 OR 19718037 OR 19718038 OR 19718039 OR 19718040 OR 19718041 OR 19718042 OR 19718043 OR 19731416 OR 19734873 OR 19734874 OR 19734887 OR 19734888 OR 19734889 OR 19734890 OR 19734900 OR 19734901 OR 19734902 OR 19734903 OR 19734908 OR 19734909 OR 19734910 OR 19734911 OR 19734912 OR 19741643 OR 19749743 OR 19749744 OR 19749745 OR 19749746 OR 19749757 OR 19749758 OR 19749759 OR 19749760 OR 19749770 OR 19749771 OR 19749772 OR 19763097 OR 19767731 OR 19767732 OR 19767733 OR 19767734 OR 19767735 OR 19767736 OR 19767740 OR 19767741 OR 19767742 OR 19767743 OR 19767744 OR 19767745 OR 19767752 OR 19767753 OR 19767754 OR 19767755 OR 19783983 OR 19783987 OR 19783991 OR 19783995 OR 19783996 OR 19801972 OR 19801973 OR 19801974 OR 19801975 OR 19801976 OR 19801977 OR 19801978 OR 19801979 OR 19801980 OR 19801981 OR 19801990 OR 19801993 OR 19801994 OR 19812570 OR 19812571 OR 19816443 OR 19816451 OR 19820698 OR 19820699 OR 19820702 OR 19820703 OR 19820715 OR 19820716 OR 19820717 OR 19826408 OR 19838171 OR 19838172 OR 19838173 OR 19838174 OR 19838175 OR 19838192 OR 19838193 OR 19838194 OR 19838195 OR 19838196 OR 19838197 OR 19838201 OR 19838202 OR 19838203 OR 19838204 OR 19841622 OR 19841623 OR 19855386 OR 19855387 OR 19855388 OR 19855393 OR 19855396 OR 19855397 OR 19855398 OR 19855399 OR 19855400 OR 19862010 OR 19881492 OR 19881493 OR 19881495 OR 19881496 OR 19881501 OR 19881527 OR 19881528 OR 19893542 OR 19893548 OR 19893556 OR 19893557 OR 19898447 OR 19898449 OR 19898463 OR 19898464 OR 19898465 OR 19898466 OR 19898479 OR 19898480 OR 19898481 OR 19898482 OR 19898483 OR 19898488 OR 19898489 OR 19915526 OR 19915535 OR 19915536 OR 19915537 OR 19915538 OR 19915539 OR 19915540 OR 19915541 OR 19915542 OR 19915550 OR 19915551 OR 19915552 OR 19915556 OR 19915557 OR 19915558 OR 19915572 OR 19915573 OR 19915574 OR 19915575 OR 19915576 OR 19915593 OR 19915594)</t>
+  </si>
+  <si>
+    <t>PMID=(19935649 OR 19935650 OR 19935651 OR 19935652 OR 19935656 OR 19935658 OR 19935659 OR 19935660 OR 19935661 OR 19935662 OR 19935663 OR 19935664 OR 19946270 OR 19946271 OR 19946274 OR 19946275 OR 19966773 OR 19966776 OR 19966777 OR 19966778 OR 19966779 OR 19966780 OR 19966781 OR 19966783 OR 19966784 OR 19966785 OR 19966788 OR 19966789 OR 19966802 OR 19966804 OR 19966805 OR 19966810 OR 19966811 OR 19966812 OR 19966813 OR 19997067 OR 20010582 OR 20010583 OR 20010584 OR 20010585 OR 20010586 OR 20010587 OR 20010588 OR 20010596 OR 20010597 OR 20010810 OR 20010811 OR 20010812 OR 20010813 OR 20010814 OR 20010815 OR 20010816 OR 20010817 OR 20010834 OR 20010835 OR 20010836 OR 20016493 OR 20016495 OR 20023634 OR 20023635 OR 20023636 OR 20023637 OR 20023648 OR 20023649 OR 20023657 OR 20023658 OR 20023659 OR 20023660 OR 20027196 OR 20037580 OR 20037581 OR 20037582 OR 20037583 OR 20037586 OR 20037587 OR 20037588 OR 20037593 OR 20037594 OR 20037595 OR 20062036 OR 20062060 OR 20062061 OR 20062062 OR 20062063 OR 20062064 OR 20072130 OR 20081815 OR 20081823 OR 20081824 OR 20081825 OR 20081826 OR 20081827 OR 20081828 OR 20081829 OR 20081837 OR 20081838 OR 20081839 OR 20081840 OR 20081841 OR 20081842 OR 20081843 OR 20081857 OR 20081858 OR 20081859 OR 20081860 OR 20081861 OR 20081863 OR 20081864 OR 20081865 OR 20081866 OR 20081867 OR 20098415 OR 20098416 OR 20098417 OR 20098429 OR 20098430 OR 20098431 OR 20098432 OR 20101240 OR 20101242 OR 20101243 OR 20101244 OR 20111039 OR 20118917 OR 20118918 OR 20118921 OR 20118922 OR 20118923 OR 20118932 OR 20118933 OR 20118996 OR 20118997 OR 20134471 OR 20134472 OR 20134473 OR 20139947 OR 20139971 OR 20139972 OR 20139977 OR 20139978 OR 20139979 OR 20139980 OR 20139989 OR 20139991 OR 20139992 OR 20154674 OR 20154675 OR 20154679 OR 20154680 OR 20154681 OR 20154695 OR 20154696 OR 20154697 OR 20160716 OR 20160717 OR 20173740 OR 20173741 OR 20173742 OR 20173748 OR 20173751 OR 20173752 OR 20173753 OR 20173754 OR 20190737 OR 20190739 OR 20190740 OR 20190741 OR 20190752 OR 20190753 OR 20190762 OR 20190763 OR 20190764 OR 20190765 OR 20190766 OR 20190767 OR 20190827 OR 20208513 OR 20208514 OR 20208515 OR 20208520 OR 20208521 OR 20208522 OR 20208530 OR 20208534 OR 20208537 OR 20208540 OR 20208541 OR 20212481 OR 20212490 OR 20228793 OR 20228794 OR 20228795 OR 20228798 OR 20228799 OR 20228800 OR 20228808 OR 20228809 OR 20228810 OR 20228811 OR 20228816 OR 20305649 OR 20305650 OR 20305651 OR 20305657 OR 20305658 OR 20305660 OR 20305661 OR 20305662 OR 20305663 OR 20305664 OR 20348921 OR 20348922 OR 20348923 OR 20348924 OR 20348925 OR 20348926 OR 20348956 OR 20348957 OR 20348958 OR 20351689 OR 20351690 OR 20364125 OR 20364126 OR 20364127 OR 20364128 OR 20364129 OR 20364136 OR 20364137 OR 20364138 OR 20364141 OR 20364142 OR 20376020 OR 20376021 OR 20376022 OR 20376024 OR 20376025 OR 20376027 OR 20376028 OR 20376030 OR 20376032 OR 20376033 OR 20376034 OR 20376036 OR 20376045 OR 20376046 OR 20376050 OR 20376051 OR 20376052 OR 20376053 OR 20379167 OR 20379173 OR 20379176 OR 20379177 OR 20379178 OR 20379180 OR 20383139 OR 20383140 OR 20383141 OR 20383145 OR 20383146 OR 20383147 OR 20383151 OR 20383152 OR 20383153 OR 20383154 OR 20383155 OR 20400957 OR 20400958 OR 20400961 OR 20400962 OR 20400964 OR 20400965 OR 20418869 OR 20418870 OR 20418871 OR 20418872 OR 20418877 OR 20418878 OR 20418879 OR 20418884 OR 20418885 OR 20418886 OR 20418887 OR 20418888 OR 20436460 OR 20436461 OR 20436462 OR 20436463 OR 20436464 OR 20436468 OR 20436469 OR 20436470 OR 20436471 OR 20436477 OR 20436483 OR 20436484 OR 20436485 OR 20436486 OR 20436487 OR 20436488 OR 20448576 OR 20448577 OR 20448578 OR 20453838 OR 20453839 OR 20453840 OR 20453841 OR 20453847 OR 20453848 OR 20453849 OR 20453862 OR 20453863 OR 20458311 OR 20458312 OR 20458314 OR 20458315 OR 20458316 OR 20458317 OR 20458319 OR 20473289 OR 20473294 OR 20473295 OR 20473296 OR 20473297 OR 20473298 OR 20473303 OR 20473304 OR 20473305 OR 20473307 OR 20473308 OR 20473309 OR 20473310 OR 20473311 OR 20473312 OR 20479744 OR 20495549 OR 20495550 OR 20495554 OR 20495555 OR 20495564 OR 20495565 OR 20495566 OR 20495567 OR 20495569 OR 20495570 OR 20495571 OR 20495572 OR 20512120 OR 20512121 OR 20512122 OR 20512123 OR 20512126 OR 20512127 OR 20512138 OR 20512139 OR 20512140 OR 20512145 OR 20512146 OR 20512147 OR 20526296 OR 20526309 OR 20526310 OR 20526311 OR 20526317 OR 20526318 OR 20526319 OR 20526328 OR 20526329 OR 20526330 OR 20526338 OR 20526339 OR 20526341 OR 20526342 OR 20526348 OR 20526349 OR 20531331 OR 20543832 OR 20543839 OR 20543840 OR 20543847 OR 20543848 OR 20543849 OR 20543850 OR 20543851 OR 20559309 OR 20559310 OR 20562862 OR 20562863 OR 20562864 OR 20562865 OR 20562874 OR 20562875 OR 20562876 OR 20562877 OR 20581821 OR 20581822 OR 20581827 OR 20581838 OR 20581839 OR 20581844 OR 20581845 OR 20581846 OR 20596043 OR 20601939 OR 20601941 OR 20601951 OR 20601953 OR 20601954 OR 20601955 OR 20601956 OR 20601957 OR 20613753 OR 20613754 OR 20613755 OR 20616797 OR 20622832 OR 20622834 OR 20622843 OR 20622857 OR 20622858 OR 20622859 OR 20622868 OR 20622869 OR 20622870 OR 20622878 OR 20622880 OR 20622881 OR 20622885 OR 20639865 OR 20639866 OR 20639870 OR 20639871 OR 20639872 OR 20639878 OR 20639879 OR 20639880 OR 20639881 OR 20639889 OR 20644536 OR 20657581 OR 20657582 OR 20657583 OR 20657584 OR 20657593 OR 20657594 OR 20657595 OR 20657596 OR 20676084 OR 20676085 OR 20676096)</t>
+  </si>
+  <si>
+    <t>PMID=(20676097 OR 20676098 OR 20676102 OR 20676106 OR 20676107 OR 20689550 OR 20689551 OR 20693991 OR 20693992 OR 20693993 OR 20694000 OR 20694011 OR 20694012 OR 20694013 OR 20694014 OR 20697400 OR 20711173 OR 20711174 OR 20711175 OR 20711176 OR 20711181 OR 20711182 OR 20711196 OR 20711197 OR 20711198 OR 20722095 OR 20729833 OR 20729836 OR 20729837 OR 20729838 OR 20729852 OR 20729853 OR 20729854 OR 20729855 OR 20729856 OR 20729864 OR 20729865 OR 20729866 OR 20802477 OR 20802478 OR 20802480 OR 20802491 OR 20802492 OR 20802495 OR 20802496 OR 20802497 OR 20802498 OR 20802499 OR 20802500 OR 20811355 OR 20811356 OR 20811357 OR 20818376 OR 20818382 OR 20818387 OR 20818388 OR 20818389 OR 20818397 OR 20823862 OR 20823864 OR 20823880 OR 20823881 OR 20823883 OR 20829823 OR 20829825 OR 20829827 OR 20829833 OR 20835228 OR 20835243 OR 20835244 OR 20835248 OR 20852602 OR 20852621 OR 20852622 OR 20852627 OR 20852628 OR 20852629 OR 20852630 OR 20852636 OR 20852637 OR 20871598 OR 20871599 OR 20871600 OR 20871601 OR 20871609 OR 20871610 OR 20871611 OR 20871612 OR 20885417 OR 20890276 OR 20890277 OR 20890278 OR 20890279 OR 20890282 OR 20890283 OR 20890287 OR 20890288 OR 20890291 OR 20890292 OR 20890297 OR 20924370 OR 20930747 OR 20930748 OR 20930749 OR 20935628 OR 20935629 OR 20935630 OR 20935635 OR 20935636 OR 20935637 OR 20935638 OR 20935639 OR 20944590 OR 20944593 OR 20944594 OR 20944596 OR 20944601 OR 20948530 OR 20948532 OR 20948533 OR 20948534 OR 20948535 OR 20953186 OR 20953187 OR 20953188 OR 20953189 OR 20953190 OR 20953191 OR 20953192 OR 20953198 OR 20953199 OR 20953200 OR 20967028 OR 20972421 OR 20972422 OR 20972423 OR 20972424 OR 20972425 OR 20972427 OR 20972431 OR 20972433 OR 20972434 OR 20972438 OR 20972439 OR 20972440 OR 20972441 OR 20972442 OR 21037565 OR 21037568 OR 21037569 OR 21037570 OR 21037571 OR 21037586 OR 21037587 OR 21037588 OR 21037591 OR 21052068 OR 21052069 OR 21052070 OR 21052073 OR 21052074 OR 21052075 OR 21052076 OR 21052077 OR 21052078 OR 21052079 OR 21057481 OR 21057483 OR 21057494 OR 21057497 OR 21057498 OR 21057500 OR 21057501 OR 21057502 OR 21057503 OR 21057504 OR 21057505 OR 21076393 OR 21076394 OR 21076395 OR 21076398 OR 21076406 OR 21076407 OR 21076408 OR 21076410 OR 21076411 OR 21076412 OR 21076413 OR 21076414 OR 21079588 OR 21079589 OR 21079590 OR 21079591 OR 21079592 OR 21079593 OR 21079594 OR 21079596 OR 21079601 OR 21079602 OR 21102437 OR 21102438 OR 21102439 OR 21102440 OR 21102441 OR 21102442 OR 21102455 OR 21102456 OR 21102457 OR 21102458 OR 21102459 OR 21102460 OR 21102461 OR 21102464 OR 21102469 OR 21102470 OR 21113153 OR 21113154 OR 21113155 OR 21113156 OR 21113165 OR 21113166 OR 21113169 OR 21113170 OR 21131957 OR 21131958 OR 21131959 OR 21131960 OR 21131971 OR 21131972 OR 21131973 OR 21131974 OR 21131975 OR 21131976 OR 21135848 OR 21135849 OR 21135850 OR 21135852 OR 21139606 OR 21139607 OR 21139608 OR 21139609 OR 21151122 OR 21151126 OR 21151127 OR 21151128 OR 21151129 OR 21151130 OR 21151131 OR 21151132 OR 21151134 OR 21151137 OR 21151138 OR 21151139 OR 21151140 OR 21170021 OR 21170030 OR 21170031 OR 21170032 OR 21170033 OR 21170034 OR 21170035 OR 21170036 OR 21170044 OR 21170045 OR 21170046 OR 21170047 OR 21170048 OR 21173799 OR 21179091 OR 21186346 OR 21186347 OR 21186348 OR 21186349 OR 21186350 OR 21186351 OR 21186352 OR 21186353 OR 21186354 OR 21186368 OR 21186369 OR 21196935 OR 21196936 OR 21217682 OR 21217683 OR 21217684 OR 21217689 OR 21217695 OR 21217696 OR 21217752 OR 21217753 OR 21217754 OR 21217755 OR 21217756 OR 21217757 OR 21240261 OR 21240262 OR 21240263 OR 21240264 OR 21240266 OR 21240267 OR 21240275 OR 21240276 OR 21240277 OR 21240286 OR 21248753 OR 21258329 OR 21258330 OR 21258336 OR 21258337 OR 21258338 OR 21258340 OR 21258341 OR 21258342 OR 21258343 OR 21258344 OR 21258366 OR 21258367 OR 21258368 OR 21258369 OR 21258370 OR 21258371 OR 21258372 OR 21278734 OR 21278739 OR 21278740 OR 21278745 OR 21278748 OR 21293464 OR 21297610 OR 21297611 OR 21297612 OR 21297616 OR 21297617 OR 21297632 OR 21297640 OR 21297641 OR 21301436 OR 21317883 OR 21317884 OR 21317885 OR 21317886 OR 21317887 OR 21317888 OR 21317889 OR 21317904 OR 21317907 OR 21336280 OR 21336281 OR 21336282 OR 21336283 OR 21336284 OR 21336285 OR 21336301 OR 21336303 OR 21336304 OR 21336305 OR 21336306 OR 21336307 OR 21336308 OR 21336309 OR 21336310 OR 21336311 OR 21336312 OR 21350492 OR 21358627 OR 21358633 OR 21358635 OR 21358636 OR 21358637 OR 21378968 OR 21378981 OR 21378982 OR 21378983 OR 21378984 OR 21378985 OR 21378989 OR 21383718 OR 21383719 OR 21383734 OR 21383735 OR 21383743 OR 21383744 OR 21386834 OR 21390009 OR 21390011 OR 21390012 OR 21390014 OR 21390015 OR 21390032 OR 21390033 OR 21390036 OR 21390037 OR 21394080 OR 21394081 OR 21394082 OR 21394083 OR 21394084 OR 21394085 OR 21394086 OR 21399633 OR 21399634 OR 21399645 OR 21399646 OR 21399647 OR 21423159 OR 21423160 OR 21423161 OR 21423162 OR 21423169 OR 21423170 OR 21423171 OR 21423175 OR 21423176 OR 21423177 OR 21423178 OR 21423179 OR 21423180 OR 21423181 OR 21423182 OR 21423183 OR 21423189 OR 21441916 OR 21441917 OR 21441918 OR 21441926 OR 21441927 OR 21441928 OR 21441929 OR 21441930 OR 21441931 OR 21441932 OR 21445056 OR 21445057 OR 21445058 OR 21460829 OR 21460830 OR 21460842 OR 21460848 OR 21460849 OR 21475236 OR 21475237 OR 21478839 OR 21478855 OR 21478856 OR 21478857 OR 21478858 OR 21478859 OR 21478860 OR 21478876 OR 21478877)</t>
+  </si>
+  <si>
+    <t>PMID=(21478878 OR 21483405 OR 21490602 OR 21490603 OR 21499246 OR 21499247 OR 21499248 OR 21499250 OR 21499256 OR 21499257 OR 21499258 OR 21499259 OR 21499265 OR 21499266 OR 21499267 OR 21499268 OR 21499269 OR 21499270 OR 21516081 OR 21516082 OR 21516083 OR 21516084 OR 21516085 OR 21516086 OR 21516087 OR 21516088 OR 21516108 OR 21516109 OR 21516113 OR 21516114 OR 21525873 OR 21532570 OR 21532571 OR 21532572 OR 21532573 OR 21532574 OR 21532585 OR 21532586 OR 21532595 OR 21532596 OR 21532597 OR 21532598 OR 21532599 OR 21540847 OR 21540848 OR 21540856 OR 21546972 OR 21552244 OR 21552263 OR 21552264 OR 21552265 OR 21552266 OR 21552268 OR 21552271 OR 21572413 OR 21572414 OR 21572415 OR 21572417 OR 21572418 OR 21572419 OR 21572420 OR 21572421 OR 21572423 OR 21572424 OR 21572425 OR 21572426 OR 21572427 OR 21572428 OR 21572440 OR 21572441 OR 21587249 OR 21602791 OR 21602792 OR 21602794 OR 21602795 OR 21602796 OR 21602797 OR 21602798 OR 21602800 OR 21602801 OR 21602802 OR 21602803 OR 21602804 OR 21602805 OR 21602806 OR 21602811 OR 21602812 OR 21614091 OR 21623354 OR 21623355 OR 21623356 OR 21623357 OR 21623372 OR 21623373 OR 21623374 OR 21623381 OR 21623382 OR 21633356 OR 21642977 OR 21642978 OR 21642979 OR 21642980 OR 21642981 OR 21642982 OR 21642985 OR 21642989 OR 21642990 OR 21642991 OR 21642992 OR 21647146 OR 21654666 OR 21666682 OR 21666688 OR 21666693 OR 21666694 OR 21666695 OR 21685880 OR 21685889 OR 21685890 OR 21685892 OR 21685893 OR 21685894 OR 21685895 OR 21685896 OR 21685897 OR 21685898 OR 21685913 OR 21685914 OR 21685915 OR 21706000 OR 21706002 OR 21706003 OR 21706004 OR 21706015 OR 21706016 OR 21706022 OR 21706023 OR 21706028 OR 21706029 OR 21706030 OR 21706033 OR 21706034 OR 21725296 OR 21725297 OR 21725302 OR 21725303 OR 21725307 OR 21725316 OR 21725317 OR 21725319 OR 21738127 OR 21738147 OR 21738157 OR 21738158 OR 21738159 OR 21743452 OR 21743453 OR 21743462 OR 21743463 OR 21743464 OR 21743465 OR 21743466 OR 21743468 OR 21743469 OR 21747382 OR 21747388 OR 21765402 OR 21765403 OR 21765404 OR 21765405 OR 21765406 OR 21765407 OR 21765411 OR 21765412 OR 21765413 OR 21765420 OR 21769088 OR 21769089 OR 21769090 OR 21769091 OR 21769093 OR 21769094 OR 21769095 OR 21769096 OR 21769097 OR 21775991 OR 21785420 OR 21785421 OR 21785422 OR 21785423 OR 21785424 OR 21785425 OR 21785426 OR 21785427 OR 21785430 OR 21785431 OR 21785432 OR 21785433 OR 21804534 OR 21804535 OR 21804539 OR 21804540 OR 21804542 OR 21804543 OR 21804544 OR 21804545 OR 21804546 OR 21804547 OR 21804548 OR 21804550 OR 21804560 OR 21804561 OR 21804562 OR 21804563 OR 21818090 OR 21818091 OR 21818092 OR 21822244 OR 21822245 OR 21822254 OR 21822255 OR 21822264 OR 21822265 OR 21822266 OR 21822267 OR 21822268 OR 21822274 OR 21822275 OR 21822276 OR 21822277 OR 21822278 OR 21822279 OR 21822286 OR 21822287 OR 21832997 OR 21841778 OR 21841779 OR 21841780 OR 21841781 OR 21841782 OR 21841784 OR 21841790 OR 21841791 OR 21841792 OR 21841793 OR 21841796 OR 21841797 OR 21841799 OR 21857651 OR 21857652 OR 21857653 OR 21857654 OR 21857660 OR 21857661 OR 21857662 OR 21857667 OR 21857668 OR 21857669 OR 21857670 OR 21857671 OR 21857679 OR 21873987 OR 21873994 OR 21873995 OR 21873996 OR 21873999 OR 21874000 OR 21874001 OR 21874002 OR 21874003 OR 21874008 OR 21874009 OR 21892139 OR 21892158 OR 21892159 OR 21892160 OR 21892161 OR 21892162 OR 21892180 OR 21892181 OR 21892182 OR 21892183 OR 21892184 OR 21892185 OR 21900921 OR 21900922 OR 21900923 OR 21900936 OR 21904321 OR 21909082 OR 21909097 OR 21909098 OR 21909099 OR 21909103 OR 21909104 OR 21909105 OR 21909106 OR 21926972 OR 21926973 OR 21926974 OR 21926975 OR 21926976 OR 21926977 OR 21926978 OR 21926987 OR 21926988 OR 21926990 OR 21926994 OR 21926995 OR 21926996 OR 21926997 OR 21931303 OR 21946274 OR 21946275 OR 21946276 OR 21946277 OR 21946351 OR 21946352 OR 21946353 OR 21946354 OR 21946536 OR 21946537 OR 21946538 OR 21946539 OR 21947029 OR 21947079 OR 21947080 OR 21947081 OR 21947082 OR 21963514 OR 21963515 OR 21964413 OR 21964415 OR 21964439 OR 21964459 OR 21964572 OR 21964573 OR 21964574 OR 21964575 OR 21968997 OR 21983520 OR 21983521 OR 21983562 OR 21983565 OR 21983566 OR 21983600 OR 21983601 OR 21983602 OR 21983783 OR 21983784 OR 21983785 OR 21983786 OR 21983787 OR 21983856 OR 21983857 OR 21988995 OR 21988996 OR 21988997 OR 21989010 OR 21989011 OR 21989012 OR 22001755 OR 22001756 OR 22001757 OR 22001906 OR 22001907 OR 22001908 OR 22002719 OR 22002720 OR 22002721 OR 22019778 OR 22019779 OR 22019780 OR 22019781 OR 22019782 OR 22019783 OR 22019885 OR 22019886 OR 22019888 OR 22020385 OR 22020386 OR 22020387 OR 22020437 OR 22020438 OR 22020439 OR 22020440 OR 22020552 OR 22020553 OR 22037376 OR 22037377 OR 22037378 OR 22037414 OR 22037469 OR 22037470 OR 22037471 OR 22037551 OR 22037552 OR 22037553 OR 22037554 OR 22037555 OR 22037645 OR 22037646 OR 22053353 OR 22057053 OR 22057054 OR 22057101 OR 22057126 OR 22057127 OR 22057234 OR 22057235 OR 22057236 OR 22057237 OR 22057345 OR 22057346 OR 22057347 OR 22057348 OR 22064403 OR 22064411 OR 22064412 OR 22064413 OR 22068525 OR 22068529 OR 22068540 OR 22081019 OR 22081020 OR 22081021 OR 22081022 OR 22081023 OR 22081024 OR 22081025 OR 22081092 OR 22081094 OR 22081227 OR 22081228 OR 22081229 OR 22082910 OR 22082911 OR 22101486 OR 22101487 OR 22101602 OR 22101603 OR 22101604 OR 22101605 OR 22101681 OR 22101682 OR 22101765 OR 22101766 OR 22101767 OR 22101768 OR 22101769)</t>
+  </si>
+  <si>
+    <t>PMID=(22119740 OR 22119741 OR 22119784 OR 22119785 OR 22119860 OR 22119861 OR 22120008 OR 22120009 OR 22120177 OR 22120178 OR 22127134 OR 22138575 OR 22138576 OR 22138577 OR 22138621 OR 22138689 OR 22138690 OR 22138691 OR 22138692 OR 22138693 OR 22138694 OR 22138751 OR 22138752 OR 22138753 OR 22138754 OR 22146460 OR 22146461 OR 22146462 OR 22157678 OR 22157679 OR 22157680 OR 22158310 OR 22158370 OR 22158416 OR 22158538 OR 22158539 OR 22158540 OR 22158541 OR 22158542 OR 22173342 OR 22173343 OR 22173344 OR 22173345 OR 22173357 OR 22175076 OR 22178993 OR 22178994 OR 22179043 OR 22179044 OR 22179045 OR 22179046 OR 22179047 OR 22179065 OR 22179066 OR 22179067 OR 22179133 OR 22179134 OR 22179135 OR 22179316 OR 22179317 OR 22179318 OR 22179319 OR 22197929 OR 22197930 OR 22197931 OR 22197933 OR 22197934 OR 22198277 OR 22198278 OR 22198700 OR 22198730 OR 22198731 OR 22198732 OR 22198733 OR 22200771 OR 22200772 OR 22200773 OR 22227663 OR 22227664 OR 22227665 OR 22227670 OR 22227671 OR 22227672 OR 22227673 OR 22227674 OR 22227675 OR 22231084 OR 22231094 OR 22231104 OR 22231168 OR 22231169 OR 22231271 OR 22231272 OR 22231273 OR 22231481 OR 22231482 OR 22231483 OR 22231484 OR 22231485 OR 22231556 OR 22231557 OR 22231558 OR 22237151 OR 22245779 OR 22245780 OR 22245781 OR 22245782 OR 22246346 OR 22246400 OR 22246401 OR 22246502 OR 22246503 OR 22246504 OR 22246505 OR 22246506 OR 22246507 OR 22246508 OR 22252507 OR 22252508 OR 22252509 OR 22267009 OR 22267010 OR 22267011 OR 22267085 OR 22267086 OR 22267118 OR 22267119 OR 22267120 OR 22267198 OR 22267199 OR 22267200 OR 22270721 OR 22270722 OR 22270723 OR 22270724 OR 22281773 OR 22281806 OR 22286099 OR 22286100 OR 22286128 OR 22286129 OR 22286130 OR 22286214 OR 22286215 OR 22286216 OR 22286217 OR 22286218 OR 22286305 OR 22286306 OR 22286307 OR 22286308 OR 22298037 OR 22298038 OR 22306579 OR 22306580 OR 22306651 OR 22306652 OR 22306653 OR 22306654 OR 22306732 OR 22306733 OR 22307330 OR 22310686 OR 22310688 OR 22310693 OR 22327324 OR 22327364 OR 22327365 OR 22327366 OR 22327401 OR 22327402 OR 22327403 OR 22327514 OR 22327515 OR 22327622 OR 22327623 OR 22327624 OR 22343925 OR 22344029 OR 22344030 OR 22344032 OR 22344033 OR 22344035 OR 22344175 OR 22344176 OR 22344177 OR 22344220 OR 22344221 OR 22344222 OR 22344294 OR 22344295 OR 22344296 OR 22344297 OR 22344298 OR 22344299 OR 22366686 OR 22366687 OR 22366688 OR 22366720 OR 22366721 OR 22366722 OR 22366723 OR 22366783 OR 22366785 OR 22366786 OR 22366787 OR 22366948 OR 22366949 OR 22366950 OR 22366951 OR 22366952 OR 22371081 OR 22371082 OR 22371083 OR 22371084 OR 22373868 OR 22387996 OR 22387997 OR 22387999 OR 22388000 OR 22388088 OR 22388089 OR 22388090 OR 22388091 OR 22388888 OR 22388889 OR 22388890 OR 22388891 OR 22388892 OR 22388927 OR 22395701 OR 22398607 OR 22398608 OR 22398616 OR 22398617 OR 22406518 OR 22406519 OR 22406640 OR 22406641 OR 22406642 OR 22406643 OR 22406644 OR 22406745 OR 22406746 OR 22406747 OR 22407351 OR 22407364 OR 22407365 OR 22407366 OR 22426030 OR 22426077 OR 22426112 OR 22426113 OR 22426114 OR 22426308 OR 22426309 OR 22426310 OR 22426419 OR 22426420 OR 22426422 OR 22446692 OR 22446693 OR 22446695 OR 22446736 OR 22446737 OR 22446738 OR 22446835 OR 22446836 OR 22446837 OR 22446838 OR 22446960 OR 22446964 OR 22447074 OR 22447076 OR 22466366 OR 22466420 OR 22466421 OR 22466610 OR 22466611 OR 22466612 OR 22466613 OR 22466703 OR 22466704 OR 22466705 OR 22469825 OR 22481410 OR 22481411 OR 22484455 OR 22484485 OR 22484486 OR 22484487 OR 22484541 OR 22484626 OR 22484808 OR 22484809 OR 22491279 OR 22504274 OR 22504275 OR 22504299 OR 22504300 OR 22504417 OR 22504419 OR 22504421 OR 22504483 OR 22504484 OR 22504485 OR 22522171 OR 22522172 OR 22522173 OR 22522319 OR 22522320 OR 22522420 OR 22522421 OR 22522561 OR 22522562 OR 22522563 OR 22543263 OR 22544021 OR 22544022 OR 22544065 OR 22544066 OR 22544264 OR 22544364 OR 22544365 OR 22561345 OR 22561346 OR 22561347 OR 22561348 OR 22561410 OR 22561515 OR 22561516 OR 22561517 OR 22561519 OR 22561520 OR 22561685 OR 22561686 OR 22561687 OR 22561688 OR 22561818 OR 22561823 OR 22561824 OR 22565954 OR 22565972 OR 22580950 OR 22580951 OR 22581054 OR 22581055 OR 22581121 OR 22581229 OR 22581230 OR 22581231 OR 22581285 OR 22581286 OR 22581287 OR 22596190 OR 22609971 OR 22609986 OR 22610035 OR 22610116 OR 22610118 OR 22610119 OR 22610277 OR 22610278 OR 22610279 OR 22610280 OR 22634563 OR 22634564 OR 22634595 OR 22634634 OR 22634635 OR 22634636 OR 22634637 OR 22634751 OR 22634752 OR 22634753 OR 22634754 OR 22634756 OR 22635005 OR 22635006 OR 22635007 OR 22641210 OR 22641211 OR 22643873 OR 22653117 OR 22660413 OR 22660414 OR 22660415 OR 22660438 OR 22660439 OR 22660545 OR 22660546 OR 22660547 OR 22660548 OR 22660634 OR 22660635 OR 22660636 OR 22673996 OR 22673997 OR 22673998 OR 22678384 OR 22683610 OR 22683611 OR 22683710 OR 22683711 OR 22683712 OR 22683713 OR 22683778 OR 22683779 OR 22683780 OR 22684254 OR 22684255 OR 22684256 OR 22706160 OR 22706199 OR 22706200 OR 22706312 OR 22706313 OR 22706385 OR 22706386 OR 22710296 OR 22710308 OR 22729030 OR 22729031 OR 22729083 OR 22729084 OR 22729085 OR 22729086 OR 22729148 OR 22729149 OR 22729222 OR 22729223 OR 22729224 OR 22729225 OR 22729283 OR 22729284 OR 22729285 OR 22729286 OR 22750882 OR 22750883 OR 22750884 OR 22750943 OR 22750944 OR 22750945 OR 22750946 OR 22751096 OR 22751098 OR 22751100 OR 22772081 OR 22772152 OR 22772153)</t>
+  </si>
+  <si>
+    <t>PMID=(22772154 OR 22772155 OR 22772368 OR 22772369 OR 22772370 OR 22772371 OR 22772463 OR 22772464 OR 22772533 OR 22772546 OR 22772554 OR 22772555 OR 22772556 OR 22772566 OR 22781677 OR 22781678 OR 22781679 OR 22781680 OR 22781681 OR 22781691 OR 22781692 OR 22797597 OR 22797665 OR 22797666 OR 22797725 OR 22797726 OR 22797809 OR 22797810 OR 22797811 OR 22810761 OR 22810762 OR 22820316 OR 22820317 OR 22820318 OR 22820375 OR 22820376 OR 22820377 OR 22820378 OR 22820418 OR 22820419 OR 22820420 OR 22820512 OR 22820642 OR 22820643 OR 22820644 OR 22820645 OR 22836096 OR 22842228 OR 22842229 OR 22842230 OR 22842475 OR 22842476 OR 22842477 OR 22842922 OR 22842973 OR 22854809 OR 22863731 OR 22863732 OR 22863735 OR 22863785 OR 22863786 OR 22863787 OR 22864477 OR 22864544 OR 22869183 OR 22869188 OR 22869189 OR 22885723 OR 22885770 OR 22885771 OR 22885787 OR 22885923 OR 22885925 OR 22885997 OR 22902532 OR 22902598 OR 22902614 OR 22902615 OR 22902786 OR 22902787 OR 22902875 OR 22902876 OR 22907080 OR 22907081 OR 22907082 OR 22907083 OR 22907084 OR 22907085 OR 22907086 OR 22907087 OR 22907088 OR 22907089 OR 22907090 OR 22922409 OR 22922410 OR 22922411 OR 22922412 OR 22922672 OR 22922673 OR 22922674 OR 22922712 OR 22922713 OR 22922757 OR 22922758 OR 22922871 OR 22922872 OR 22922873 OR 22922874 OR 22922876 OR 22940906 OR 22940907 OR 22941045 OR 22941046 OR 22941047 OR 22941188 OR 22941189 OR 22941191 OR 22941275 OR 22941276 OR 22941277 OR 22960999 OR 22961000 OR 22961001 OR 22961002 OR 22961106 OR 22961107 OR 22961108 OR 22961109 OR 22961163 OR 22961164 OR 22961165 OR 22965046 OR 22965050 OR 22965061 OR 22972397 OR 22983089 OR 22983090 OR 22983091 OR 22983114 OR 22983115 OR 22983156 OR 22983157 OR 22983302 OR 22983395 OR 22983396 OR 22983397 OR 23000932 OR 23000933 OR 23000962 OR 23000963 OR 23000964 OR 23000965 OR 23000966 OR 23001032 OR 23001033 OR 23001122 OR 23001123 OR 23001124 OR 23001125 OR 23001126 OR 23001181 OR 23001182 OR 23001183 OR 23023224 OR 23023225 OR 23023260 OR 23023261 OR 23023262 OR 23023329 OR 23023330 OR 23023331 OR 23023332 OR 23023333 OR 23023498 OR 23023499 OR 23023500 OR 23034349 OR 23041974 OR 23042035 OR 23042036 OR 23042113 OR 23042114 OR 23042115 OR 23042116 OR 23042117 OR 23042236 OR 23042237 OR 23042348 OR 23042349 OR 23042350 OR 23064238 OR 23064263 OR 23064264 OR 23064265 OR 23064266 OR 23064317 OR 23064318 OR 23064413 OR 23064414 OR 23064415 OR 23064416 OR 23064463 OR 23064464 OR 23086202 OR 23086203 OR 23086237 OR 23086238 OR 23086239 OR 23086297 OR 23086298 OR 23086396 OR 23086397 OR 23086475 OR 23086476 OR 23086477 OR 23086478 OR 23103910 OR 23103911 OR 23103912 OR 23103939 OR 23103940 OR 23103942 OR 23103943 OR 23103944 OR 23104005 OR 23104007 OR 23104008 OR 23104009 OR 23104131 OR 23104132 OR 23131919 OR 23131920 OR 23135514 OR 23135515 OR 23135516 OR 23135524 OR 23138224 OR 23138225 OR 23138297 OR 23138306 OR 23138307 OR 23142818 OR 23142819 OR 23142820 OR 23142821 OR 23142822 OR 23143395 OR 23143396 OR 23143397 OR 23143398 OR 23143399 OR 23143413 OR 23143414 OR 23143415 OR 23143416 OR 23143595 OR 23143596 OR 23143597 OR 23143598 OR 23143599 OR 23143600 OR 23143601 OR 23143602 OR 23143603 OR 23159879 OR 23159880 OR 23159881 OR 23159882 OR 23159929 OR 23160002 OR 23160098 OR 23160099 OR 23160236 OR 23160237 OR 23160238 OR 23160239 OR 23178246 OR 23178247 OR 23178880 OR 23178881 OR 23178882 OR 23178883 OR 23178934 OR 23178935 OR 23179022 OR 23179023 OR 23192178 OR 23192179 OR 23196840 OR 23201782 OR 23201899 OR 23202124 OR 23202125 OR 23202126 OR 23202127 OR 23202128 OR 23202129 OR 23202293 OR 23202294 OR 23202295 OR 23202296 OR 23222703 OR 23222780 OR 23222781 OR 23222782 OR 23222783 OR 23222784 OR 23222840 OR 23222841 OR 23222885 OR 23222886 OR 23222956 OR 23222958 OR 23222959 OR 23222960 OR 23223004 OR 23223005 OR 23223062 OR 23223063 OR 23223064 OR 23238671 OR 23242161 OR 23242162 OR 23242163 OR 23242164 OR 23242214 OR 23242215 OR 23242216 OR 23242217 OR 23242255 OR 23242256 OR 23242367 OR 23242368 OR 23242369 OR 23242472 OR 23242473 OR 23263233 OR 23263278 OR 23263279 OR 23263281 OR 23263282 OR 23263283 OR 23263488 OR 23263489 OR 23263490 OR 23263491 OR 23263626 OR 23291585 OR 23291588 OR 23291629 OR 23291630 OR 23291631 OR 23292608 OR 23292609 OR 23292650 OR 23292651 OR 23292652 OR 23292653 OR 23296005 OR 23296014 OR 23296015 OR 23302933 OR 23313952 OR 23313953 OR 23313954 OR 23313955 OR 23313956 OR 23314056 OR 23314057 OR 23314058 OR 23314863 OR 23314913 OR 23314914 OR 23334449 OR 23334450 OR 23334451 OR 23334497 OR 23334498 OR 23334499 OR 23334666 OR 23334667 OR 23334668 OR 23334669 OR 23334847 OR 23340338 OR 23340339 OR 23353556 OR 23354102 OR 23354103 OR 23354166 OR 23354167 OR 23354168 OR 23354287 OR 23354436 OR 23354437 OR 23354438 OR 23354439 OR 23360964 OR 23360965 OR 23360966 OR 23376966 OR 23376973 OR 23376974 OR 23377025 OR 23377039 OR 23377040 OR 23377180 OR 23377181 OR 23377182 OR 23377183 OR 23377280 OR 23377281 OR 23380860 OR 23389607 OR 23389608 OR 23389609 OR 23389615 OR 23392506 OR 23396013 OR 23396014 OR 23396077 OR 23396078 OR 23396133 OR 23396135 OR 23396136 OR 23396137 OR 23396207 OR 23396208 OR 23396209 OR 23396210 OR 23396211 OR 23416331 OR 23416332 OR 23416519 OR 23416702 OR 23416703 OR 23417094 OR 23417095 OR 23417121 OR 23417122 OR 23434823 OR 23434824 OR 23434825 OR 23434852 OR 23434853 OR 23435085 OR 23435086 OR 23435087 OR 23435088 OR 23435089)</t>
+  </si>
+  <si>
+    <t>PMID=(23435170 OR 23435171 OR 23438595 OR 23455438 OR 23455439 OR 23455478 OR 23455479 OR 23455543 OR 23455544 OR 23455636 OR 23455637 OR 23455638 OR 23455711 OR 23455712 OR 23455713 OR 23455714 OR 23467236 OR 23467237 OR 23467238 OR 23467247 OR 23471071 OR 23475072 OR 23475073 OR 23475201 OR 23475202 OR 23475203 OR 23502314 OR 23502315 OR 23502316 OR 23502424 OR 23502425 OR 23502780 OR 23502782 OR 23502960 OR 23502961 OR 23502962 OR 23503679 OR 23503680 OR 23508172 OR 23508173 OR 23508174 OR 23508175 OR 23508188 OR 23524342 OR 23524343 OR 23524344 OR 23524951 OR 23524952 OR 23524953 OR 23524983 OR 23524984 OR 23525074 OR 23525075 OR 23525076 OR 23525077 OR 23535729 OR 23535730 OR 23535731 OR 23535732 OR 23535733 OR 23535734 OR 23542643 OR 23542644 OR 23542698 OR 23542699 OR 23542700 OR 23542701 OR 23542786 OR 23542787 OR 23542788 OR 23548925 OR 23548926 OR 23558628 OR 23558629 OR 23558630 OR 23563318 OR 23563424 OR 23563425 OR 23563490 OR 23563491 OR 23563525 OR 23563526 OR 23563606 OR 23563608 OR 23563705 OR 23563706 OR 23583977 OR 23583981 OR 23584088 OR 23584089 OR 23584090 OR 23584091 OR 23584610 OR 23584611 OR 23584676 OR 23584677 OR 23594772 OR 23603658 OR 23603659 OR 23603761 OR 23603762 OR 23603813 OR 23603814 OR 23603816 OR 23604282 OR 23604283 OR 23604284 OR 23604316 OR 23604317 OR 23604318 OR 23604319 OR 23604320 OR 23604321 OR 23609047 OR 23624402 OR 23624403 OR 23624404 OR 23624405 OR 23624406 OR 23624438 OR 23624439 OR 23624525 OR 23624526 OR 23624527 OR 23624599 OR 23624600 OR 23629142 OR 23644466 OR 23644467 OR 23644468 OR 23644469 OR 23644470 OR 23644478 OR 23644479 OR 23644491 OR 23644492 OR 23644493 OR 23644514 OR 23644515 OR 23644516 OR 23652098 OR 23652106 OR 23657389 OR 23657395 OR 23657396 OR 23666011 OR 23666012 OR 23666084 OR 23666085 OR 23666116 OR 23666117 OR 23685480 OR 23685481 OR 23685627 OR 23685628 OR 23685671 OR 23685672 OR 23685747 OR 23685748 OR 23685749 OR 23685839 OR 23685840 OR 23685841 OR 23685842 OR 23685843 OR 23707974 OR 23708000 OR 23708001 OR 23708002 OR 23708003 OR 23708076 OR 23708187 OR 23708188 OR 23708189 OR 23708191 OR 23708290 OR 23708291 OR 23708292 OR 23727860 OR 23727861 OR 23727862 OR 23727931 OR 23727932 OR 23728362 OR 23728423 OR 23728424 OR 23728425 OR 23728494 OR 23728495 OR 23744149 OR 23748502 OR 23748611 OR 23748672 OR 23748673 OR 23749186 OR 23749187 OR 23749189 OR 23749190 OR 23749191 OR 23749230 OR 23749231 OR 23749232 OR 23752422 OR 23770606 OR 23770607 OR 23770609 OR 23770639 OR 23770676 OR 23770677 OR 23770678 OR 23770679 OR 23770691 OR 23770692 OR 23770708 OR 23792628 OR 23792629 OR 23792630 OR 23792689 OR 23792690 OR 23792691 OR 23792734 OR 23793026 OR 23793027 OR 23793028 OR 23793029 OR 23793030 OR 23793098 OR 23793099 OR 23797736 OR 23811600 OR 23811685 OR 23811686 OR 23811687 OR 23811688 OR 23817021 OR 23817022 OR 23817023 OR 23817568 OR 23817570 OR 23817572 OR 23831709 OR 23831726 OR 23831727 OR 23831757 OR 23831758 OR 23831759 OR 23831760 OR 23832011 OR 23832012 OR 23832089 OR 23832090 OR 23836223 OR 23839143 OR 23851447 OR 23851448 OR 23851486 OR 23851487 OR 23851488 OR 23851489 OR 23851573 OR 23851574 OR 23852167 OR 23852168 OR 23852169 OR 23852170 OR 23852171 OR 23852339 OR 23852340 OR 23852341 OR 23872634 OR 23872635 OR 23872636 OR 23872715 OR 23873081 OR 23873082 OR 23873083 OR 23873084 OR 23873085 OR 23873086 OR 23873148 OR 23873149 OR 23873150 OR 23873212 OR 23873214 OR 23892605 OR 23892606 OR 23892607 OR 23892608 OR 23892893 OR 23892894 OR 23907171 OR 23907197 OR 23912125 OR 23912165 OR 23912167 OR 23913001 OR 23913002 OR 23913003 OR 23913004 OR 23913123 OR 23913124 OR 23913125 OR 23917401 OR 23921736 OR 23921743 OR 23921744 OR 23921745 OR 23929344 OR 23933818 OR 23933819 OR 23933820 OR 23933821 OR 23933981 OR 23933982 OR 23933983 OR 23933984 OR 23934176 OR 23934177 OR 23934178 OR 23934214 OR 23934215 OR 23934216 OR 23934245 OR 23934246 OR 23955274 OR 23955275 OR 23955301 OR 23955302 OR 23955303 OR 23955365 OR 23955366 OR 23955596 OR 23955598 OR 23955599 OR 23955711 OR 23955712 OR 23955714 OR 23959130 OR 23974038 OR 23974039 OR 23974040 OR 23974041 OR 23974115 OR 23974116 OR 23974117 OR 23974869 OR 23974870 OR 23974871 OR 23974872 OR 23975025 OR 23975026 OR 23975157 OR 23995134 OR 23995135 OR 23995136 OR 23995137 OR 23995138 OR 23995282 OR 23995283 OR 23995731 OR 23995732 OR 23995768 OR 23995769 OR 24013197 OR 24013198 OR 24013217 OR 24013278 OR 24013279 OR 24013638 OR 24013639 OR 24013640 OR 24013700 OR 24013701 OR 24013747 OR 24013748 OR 24013749 OR 24013756 OR 24022153 OR 24036476 OR 24036477 OR 24036508 OR 24036509 OR 24036510 OR 24036948 OR 24036949 OR 24036950 OR 24036951 OR 24036952 OR 24037091 OR 24037092 OR 24037093 OR 24037094 OR 24037425 OR 24045798 OR 24056301 OR 24056302 OR 24056303 OR 24056399 OR 24056400 OR 24056715 OR 24056716 OR 24056717 OR 24056718 OR 24056770 OR 24056771 OR 24056772 OR 24056773 OR 24056948 OR 24071849 OR 24071850 OR 24071851 OR 24071852 OR 24076600 OR 24076601 OR 24076602 OR 24076603 OR 24076604 OR 24076664 OR 24076665 OR 24077178 OR 24077179 OR 24077180 OR 24084859 OR 24096242 OR 24096243 OR 24096302 OR 24096303 OR 24096304 OR 24097064 OR 24097065 OR 24097066 OR 24097067 OR 24097068 OR 24097188 OR 24097189 OR 24097413 OR 24100981 OR 24100982 OR 24100983 OR 24100992 OR 24100993 OR 24100994 OR 24104751 OR 24108091 OR 24108092 OR 24121526 OR 24121552 OR 24121553 OR 24121554 OR 24121789)</t>
+  </si>
+  <si>
+    <t>PMID=(24121790 OR 24121791 OR 24121792 OR 24141192 OR 24141193 OR 24141362 OR 24141363 OR 24141364 OR 24141421 OR 24141422 OR 24141423 OR 24142049 OR 24142050 OR 24142103 OR 24142104 OR 24161929 OR 24161930 OR 24161931 OR 24161932 OR 24161933 OR 24161934 OR 24161946 OR 24162736 OR 24162738 OR 24162739 OR 24162740 OR 24162813 OR 24162814 OR 24162815 OR 24185094 OR 24185095 OR 24185096 OR 24185178 OR 24185215 OR 24185509 OR 24185510 OR 24185511 OR 24185512 OR 24185513 OR 24185692 OR 24185693 OR 24202379 OR 24212090 OR 24212091 OR 24212092 OR 24212093 OR 24212134 OR 24212135 OR 24212136 OR 24212882 OR 24212883 OR 24212884 OR 24213699 OR 24216752 OR 24216753 OR 24231606 OR 24231619 OR 24240184 OR 24240185 OR 24240475 OR 24240476 OR 24240477 OR 24240506 OR 24240507 OR 24240508 OR 24241535 OR 24241536 OR 24241537 OR 24270358 OR 24270359 OR 24270360 OR 24270544 OR 24270545 OR 24270546 OR 24270849 OR 24270850 OR 24270888 OR 24270889 OR 24270890 OR 24270891 OR 24291815 OR 24292013 OR 24292014 OR 24292068 OR 24292069 OR 24292070 OR 24292071 OR 24292273 OR 24292392 OR 24309656 OR 24309657 OR 24316580 OR 24316644 OR 24316671 OR 24316672 OR 24316673 OR 24316715 OR 24316735 OR 24316736 OR 24316737 OR 24316738 OR 24316739 OR 24316979 OR 24316980 OR 24316981 OR 24316982 OR 24317117 OR 24317118 OR 24317119 OR 24335649 OR 24335650 OR 24335651 OR 24336167 OR 24336168 OR 24336169 OR 24336247 OR 24336248 OR 24336249 OR 24336317 OR 24336318 OR 24362628 OR 24362629 OR 24362703 OR 24362704 OR 24362705 OR 24362816 OR 24362817 OR 24362818 OR 24362933 OR 24362934 OR 24362935 OR 24390282 OR 24390283 OR 24390308 OR 24390427 OR 24390428 OR 24394384 OR 24398953 OR 24398961 OR 24398962 OR 24406925 OR 24406926 OR 24406927 OR 24412922 OR 24412923 OR 24412924 OR 24412925 OR 24412926 OR 24413433 OR 24413434 OR 24413461 OR 24413462 OR 24413732 OR 24413733 OR 24413734 OR 24413735 OR 24413736 OR 24413737 OR 24441470 OR 24441471 OR 24441527 OR 24441586 OR 24441587 OR 24441736 OR 24441737 OR 24441827 OR 24441828 OR 24441829 OR 24463572 OR 24463573 OR 24463574 OR 24463605 OR 24463606 OR 24463698 OR 24464101 OR 24464186 OR 24464187 OR 24487275 OR 24487276 OR 24487277 OR 24487278 OR 24487433 OR 24487434 OR 24487692 OR 24487693 OR 24487694 OR 24504399 OR 24509481 OR 24509526 OR 24509527 OR 24509748 OR 24509793 OR 24509820 OR 24509821 OR 24531061 OR 24531327 OR 24531328 OR 24531329 OR 24531377 OR 24531378 OR 24531379 OR 24531797 OR 24531798 OR 24531841 OR 24531842 OR 24535568 OR 24561554 OR 24561555 OR 24561618 OR 24561619 OR 24561620 OR 24561621 OR 24561622 OR 24561623 OR 24561661 OR 24561662 OR 24562187 OR 24562381 OR 24562383 OR 24584070 OR 24584071 OR 24584072 OR 24584101 OR 24584102 OR 24584117 OR 24584118 OR 24584119 OR 24603796 OR 24603797 OR 24609268 OR 24609269 OR 24609358 OR 24609359 OR 24609361 OR 24614070 OR 24614071 OR 24614072 OR 24633157 OR 24633158 OR 24633159 OR 24633240 OR 24633241 OR 24633242 OR 24633243 OR 24633304 OR 24633305 OR 24633326 OR 24633327 OR 24633353 OR 24633354 OR 24657929 OR 24657930 OR 24658000 OR 24658001 OR 24658002 OR 24658003 OR 24658004 OR 24658075 OR 24658076 OR 24658077 OR 24658078 OR 24658644 OR 24658645 OR 24658685 OR 24658686 OR 24658687 OR 24681508 OR 24681535 OR 24681536 OR 24681537 OR 24681597 OR 24681598 OR 24686846 OR 24686847 OR 24686848 OR 24686849 OR 24686850 OR 24705250 OR 24705251 OR 24705252 OR 24705253 OR 24705254 OR 24705333 OR 24705334 OR 24705551 OR 24705552 OR 24705553 OR 24705590 OR 24705591 OR 24705592 OR 24710370 OR 24710372 OR 24710373 OR 24710374 OR 24710375 OR 24710376 OR 24710377 OR 24710378 OR 24714478 OR 24714479 OR 24714483 OR 24727714 OR 24727715 OR 24727899 OR 24727900 OR 24727901 OR 24728294 OR 24728410 OR 24728411 OR 24743256 OR 24743257 OR 24743305 OR 24747438 OR 24747439 OR 24747440 OR 24747441 OR 24747528 OR 24747639 OR 24747640 OR 24747641 OR 24747642 OR 24747643 OR 24747744 OR 24747745 OR 24747746 OR 24747747 OR 24752077 OR 24752078 OR 24752079 OR 24752080 OR 24752081 OR 24770324 OR 24770325 OR 24776885 OR 24776928 OR 24776929 OR 24776930 OR 24777449 OR 24777450 OR 24777451 OR 24777452 OR 24784230 OR 24784231 OR 24784232 OR 24792952 OR 24793134 OR 24793135 OR 24793136 OR 24793237 OR 24793238 OR 24793239 OR 24804756 OR 24804757 OR 24811513 OR 24811519 OR 24811520 OR 24813249 OR 24813250 OR 24813251 OR 24813252 OR 24814514 OR 24814672 OR 24814673 OR 24816253 OR 24816254 OR 24816255 OR 24836287 OR 24836575 OR 24836576 OR 24836577 OR 24837660 OR 24837661 OR 24837662 OR 24837663 OR 24838010 OR 24838012 OR 24845231 OR 24859004 OR 24859006 OR 24859116 OR 24859337 OR 24859338 OR 24859340 OR 24859528 OR 24859529 OR 24859530 OR 24859531 OR 24880339 OR 24880340 OR 24880341 OR 24880342 OR 24880487 OR 24880488 OR 24880614 OR 24880615 OR 24880616 OR 24880617 OR 24880666 OR 24880667 OR 24880859 OR 24880860 OR 24901562 OR 24901567 OR 24901568 OR 24907900 OR 24907901 OR 24908249 OR 24908250 OR 24908251 OR 24908277 OR 24908571 OR 24911488 OR 24911489 OR 24929359 OR 24929360 OR 24929361 OR 24929528 OR 24929529 OR 24929828 OR 24929829 OR 24929830 OR 24929950 OR 24929951 OR 24929976 OR 24937068 OR 24952462 OR 24952463 OR 24952464 OR 24952596 OR 24952597 OR 24952646 OR 24952647 OR 24952648 OR 24952744 OR 24952746 OR 24952747 OR 24952901 OR 24952902 OR 24952903 OR 24964173 OR 24965726 OR 24973918 OR 24973919 OR 24973920 OR 24974229 OR 24974230 OR 24974231 OR 24974848 OR 24974849 OR 24976383)</t>
+  </si>
+  <si>
+    <t>PMID=(24976384 OR 24997520 OR 24997521 OR 24997602 OR 24997604 OR 24997605 OR 24997606 OR 24997607 OR 24997608 OR 24997609 OR 24997786 OR 24997788 OR 24997986 OR 24997987 OR 24997988 OR 24999941 OR 24999942 OR 25004226 OR 25016959 OR 25017102 OR 25017103 OR 25017104 OR 25017105 OR 25038750 OR 25038751 OR 25038752 OR 25038753 OR 25038754 OR 25038773 OR 25038785 OR 25038786 OR 25038787 OR 25038788 OR 25038790 OR 25038791 OR 25038826 OR 25038827 OR 25038828 OR 25064006 OR 25064008 OR 25064126 OR 25064127 OR 25064128 OR 25064736 OR 25064737 OR 25064832 OR 25064833 OR 25086507 OR 25086508 OR 25086509 OR 25086649 OR 25086664 OR 25086666 OR 25086746 OR 25086747 OR 25086906 OR 25093878 OR 25093880 OR 25093881 OR 25093882 OR 25093884 OR 25093888 OR 25093890 OR 25101720 OR 25101721 OR 25101725 OR 25101726 OR 25101728 OR 25101729 OR 25101745 OR 25101747 OR 25108383 OR 25108384 OR 25108385 OR 25108386 OR 25108525 OR 25108526 OR 25108527 OR 25108820 OR 25108821 OR 25129028 OR 25129029 OR 25129030 OR 25129143 OR 25129144 OR 25129145 OR 25129146 OR 25129147 OR 25129479 OR 25129480 OR 25129481 OR 25129690 OR 25150496 OR 25150497 OR 25150498 OR 25150835 OR 25150839 OR 25150978 OR 25150979 OR 25150980 OR 25150981 OR 25151135 OR 25151136 OR 25151354 OR 25151355 OR 25151356 OR 25151357 OR 25151358 OR 25173104 OR 25173106 OR 25173107 OR 25173427 OR 25173428 OR 25173975 OR 25173976 OR 25173977 OR 25173978 OR 25173999 OR 25174000 OR 25184501 OR 25194279 OR 25194280 OR 25194568 OR 25194569 OR 25194570 OR 25194571 OR 25194572 OR 25194818 OR 25194926 OR 25195011 OR 25195012 OR 25198041 OR 25203040 OR 25211370 OR 25216635 OR 25216636 OR 25216637 OR 25216638 OR 25216639 OR 25217958 OR 25218519 OR 25218520 OR 25218637 OR 25218638 OR 25218639 OR 25218740 OR 25218742 OR 25218743 OR 25229448 OR 25240281 OR 25240282 OR 25240283 OR 25240927 OR 25240928 OR 25241035 OR 25241036 OR 25241037 OR 25242415 OR 25242550 OR 25242551 OR 25242552 OR 25242553 OR 25261935 OR 25261994 OR 25261995 OR 25262299 OR 25262415 OR 25262416 OR 25266422 OR 25266423 OR 25271345 OR 25282101 OR 25282102 OR 25282355 OR 25282357 OR 25282358 OR 25282359 OR 25282504 OR 25282505 OR 25283993 OR 25283994 OR 25295940 OR 25299917 OR 25299921 OR 25305755 OR 25306233 OR 25306244 OR 25306246 OR 25306441 OR 25306442 OR 25306443 OR 25325686 OR 25325698 OR 25325699 OR 25326665 OR 25326666 OR 25326701 OR 25326702 OR 25326703 OR 25326798 OR 25326799 OR 25326800 OR 25326801 OR 25326802 OR 25326803 OR 25326804 OR 25326897 OR 25327288 OR 25329329 OR 25344690 OR 25344691 OR 25344692 OR 25344728 OR 25344739 OR 25344740 OR 25344753 OR 25344754 OR 25344755 OR 25344756 OR 25344811 OR 25344812 OR 25344813 OR 25344815 OR 25352098 OR 25357182 OR 25362243 OR 25362244 OR 25362245 OR 25362254 OR 25362351 OR 25362352 OR 25362358 OR 25362359 OR 25362360 OR 25362482 OR 25362483 OR 25362484 OR 25362485 OR 25362486 OR 25380442 OR 25380446 OR 25380447 OR 25383599 OR 25383660 OR 25383757 OR 25383758 OR 25383759 OR 25383968 OR 25383969 OR 25383970 OR 25383972 OR 25384085 OR 25384086 OR 25384087 OR 25401299 OR 25401300 OR 25401691 OR 25401692 OR 25401693 OR 25402613 OR 25402614 OR 25402615 OR 25402616 OR 25402682 OR 25402683 OR 25402684 OR 25402766 OR 25402767 OR 25402768 OR 25402769 OR 25402770 OR 25402771 OR 25402772 OR 25419705 OR 25419707 OR 25419708 OR 25419709 OR 25419739 OR 25419740 OR 25419741 OR 25419847 OR 25419848 OR 25419849 OR 25419850 OR 25419851 OR 25436518 OR 25436519 OR 25438054 OR 25438055 OR 25473919 OR 25485616 OR 25485617 OR 25485618 OR 25485619 OR 25485686 OR 25485687 OR 25485836 OR 25485837 OR 25485908 OR 25485909 OR 25485910 OR 25485911 OR 25485912 OR 25487280 OR 25489830 OR 25489834 OR 25489838 OR 25501392 OR 25501393 OR 25501905 OR 25501906 OR 25501907 OR 25501908 OR 25503382 OR 25503383 OR 25503384 OR 25503564 OR 25503565 OR 25503927 OR 25503928 OR 25513782 OR 25531751 OR 25531777 OR 25531778 OR 25531779 OR 25531890 OR 25531891 OR 25531942 OR 25547603 OR 25558867 OR 25558972 OR 25558973 OR 25559195 OR 25559196 OR 25559343 OR 25559344 OR 25569540 OR 25569542 OR 25569543 OR 25569544 OR 25569545 OR 25569546 OR 25574633 OR 25574634 OR 25580597 OR 25580598 OR 25580734 OR 25580853 OR 25580854 OR 25581428 OR 25581429 OR 25581430 OR 25581432 OR 25581517 OR 25581518 OR 25581519 OR 25599132 OR 25599133 OR 25599175 OR 25599176 OR 25599177 OR 25599178 OR 25599179 OR 25599390 OR 25599400 OR 25599402 OR 25599532 OR 25599533 OR 25621458 OR 25621459 OR 25621460 OR 25621949 OR 25621950 OR 25621951 OR 25621952 OR 25621953 OR 25622090 OR 25622091 OR 25642630 OR 25642631 OR 25642632 OR 25642633 OR 25642938 OR 25643054 OR 25643055 OR 25643171 OR 25643172 OR 25643173 OR 25654601 OR 25654602 OR 25658256 OR 25658260 OR 25658265 OR 25658267 OR 25658280 OR 25664528 OR 25664616 OR 25664691 OR 25664692 OR 25665005 OR 25665006 OR 25665007 OR 25665008 OR 25665179 OR 25665180 OR 25679028 OR 25685889 OR 25685890 OR 25685891 OR 25686104 OR 25686105 OR 25686106 OR 25686248 OR 25686249 OR 25686250 OR 25686251 OR 25686372 OR 25686373 OR 25689334 OR 25689335 OR 25690850 OR 25690852 OR 25690853 OR 25690854 OR 25706233 OR 25706234 OR 25706235 OR 25706236 OR 25706237 OR 25706338 OR 25706339 OR 25706625 OR 25706626 OR 25706627 OR 25706628 OR 25706873 OR 25706874 OR 25706875 OR 25720963 OR 25720964 OR 25730264 OR 25730471 OR 25730472 OR 25730548 OR 25730549 OR 25730763 OR 25730764 OR 25730765 OR 25730766 OR 25742454)</t>
+  </si>
+  <si>
+    <t>PMID=(25742456 OR 25742457 OR 25748907 OR 25748918 OR 25751057 OR 25751058 OR 25751138 OR 25751139 OR 25751140 OR 25751141 OR 25751279 OR 25751624 OR 25751625 OR 25751626 OR 25751815 OR 25751816 OR 25751817 OR 25774636 OR 25774637 OR 25774713 OR 25774714 OR 25774831 OR 25774833 OR 25774834 OR 25774835 OR 25774848 OR 25774849 OR 25774850 OR 25774941 OR 25798935 OR 25798937 OR 25798938 OR 25798939 OR 25799059 OR 25799060 OR 25799062 OR 25799144 OR 25799226 OR 25799227 OR 25799228 OR 25803306 OR 25807280 OR 25807282 OR 25807284 OR 25807285 OR 25807286 OR 25812520 OR 25812521 OR 25812522 OR 25814306 OR 25822087 OR 25822088 OR 25822089 OR 25822366 OR 25822367 OR 25822590 OR 25822913 OR 25822914 OR 25822915 OR 25848748 OR 25848749 OR 25848750 OR 25848751 OR 25848752 OR 25848753 OR 25848754 OR 25848930 OR 25848931 OR 25849130 OR 25849131 OR 25849132 OR 25849133 OR 25849134 OR 25849135 OR 25849900 OR 25850048 OR 25866923 OR 25867044 OR 25867045 OR 25867922 OR 25867923 OR 25893780 OR 25893781 OR 25893782 OR 25893917 OR 25894083 OR 25894085 OR 25894500 OR 25894501 OR 25894502 OR 25894825 OR 25894826 OR 25894827 OR 25894828 OR 25894829 OR 25915123 OR 25915124 OR 25915125 OR 25915126 OR 25915128 OR 25915199 OR 25915200 OR 25915596 OR 25915597 OR 25915598 OR 25915599 OR 25915600 OR 25915831 OR 25915832 OR 25938814 OR 25938815 OR 25938942 OR 25938943 OR 25938944 OR 25938945 OR 25938946 OR 25939061 OR 25939062 OR 25939063 OR 25939064 OR 25951523 OR 25951530 OR 25961408 OR 25961409 OR 25961502 OR 25961503 OR 25961504 OR 25961505 OR 25961671 OR 25961939 OR 25961940 OR 25961941 OR 25961942 OR 25961943 OR 25962120 OR 25962121 OR 25962122 OR 25962123 OR 25965752 OR 25965754 OR 25965755 OR 25965757 OR 25965758 OR 25978986 OR 25978996 OR 25984720 OR 25985138 OR 25985139 OR 25985140 OR 25985263 OR 25985364 OR 25985365 OR 25985393 OR 25985394 OR 26005834 OR 26005835 OR 26005854 OR 26005855 OR 26005865 OR 26005866 OR 26005867 OR 26005868 OR 26005869 OR 26006006 OR 26006007 OR 26006009 OR 26006010 OR 26006011 OR 26006012 OR 26018892 OR 26018893 OR 26018894 OR 26029868 OR 26029869 OR 26029870 OR 26029871 OR 26029872 OR 26030178 OR 26030179 OR 26030728 OR 26030729 OR 26030730 OR 26046571 OR 26053220 OR 26053221 OR 26053297 OR 26053298 OR 26053494 OR 26053495 OR 26053496 OR 26053497 OR 26053498 OR 26053624 OR 26053625 OR 26057975 OR 26057977 OR 26057978 OR 26057979 OR 26075355 OR 26075356 OR 26075357 OR 26075521 OR 26075522 OR 26075523 OR 26075790 OR 26075791 OR 26075792 OR 26076035 OR 26076036 OR 26076037 OR 26076038 OR 26076429 OR 26076430 OR 26076431 OR 26083060 OR 26083061 OR 26083070 OR 26098447 OR 26098448 OR 26098449 OR 26098450 OR 26098451 OR 26098572 OR 26098573 OR 26098574 OR 26098575 OR 26098576 OR 26098679 OR 26098680 OR 26098866 OR 26098867 OR 26098868 OR 26098870 OR 26099045 OR 26099046 OR 26099047 OR 26107252 OR 26111510 OR 26120796 OR 26121085 OR 26121086 OR 26121087 OR 26121088 OR 26121414 OR 26121415 OR 26147250 OR 26147354 OR 26147356 OR 26147619 OR 26147620 OR 26147760 OR 26147761 OR 26151324 OR 26167629 OR 26167630 OR 26167768 OR 26167872 OR 26167873 OR 26168012 OR 26168013 OR 26168014 OR 26168291 OR 26168292 OR 26168293 OR 26168294 OR 26168295 OR 26192317 OR 26192318 OR 26192319 OR 26192320 OR 26192437 OR 26192438 OR 26192439 OR 26192440 OR 26192599 OR 26192600 OR 26192915 OR 26192916 OR 26192918 OR 26193341 OR 26193342 OR 26193344 OR 26196764 OR 26196765 OR 26196773 OR 26213851 OR 26214132 OR 26214133 OR 26214255 OR 26214256 OR 26214589 OR 26214590 OR 26214592 OR 26214836 OR 26214837 OR 26220132 OR 26236936 OR 26236937 OR 26236989 OR 26236990 OR 26236991 OR 26236992 OR 26237429 OR 26237430 OR 26237515 OR 26237516 OR 26237517 OR 26237645 OR 26237646 OR 26237647 OR 26248267 OR 26252117 OR 26252118 OR 26252119 OR 26252120 OR 26252121 OR 26252122 OR 26252124 OR 26252125 OR 26252133 OR 26252137 OR 26252140 OR 26252142 OR 26258538 OR 26258631 OR 26258632 OR 26258633 OR 26258762 OR 26258763 OR 26258845 OR 26258846 OR 26258847 OR 26258849 OR 26259032 OR 26259033 OR 26280119 OR 26280120 OR 26280121 OR 26280122 OR 26280411 OR 26280412 OR 26280413 OR 26280535 OR 26280536 OR 26280537 OR 26280538 OR 26280656 OR 26280900 OR 26280901 OR 26284660 OR 26284661 OR 26284668 OR 26284671 OR 26284672 OR 26301494 OR 26301495 OR 26301496 OR 26301497 OR 26301689 OR 26301690 OR 26301691 OR 26302406 OR 26302407 OR 26302408 OR 26302479 OR 26302480 OR 26322579 OR 26322580 OR 26322678 OR 26322679 OR 26322680 OR 26322824 OR 26322825 OR 26322826 OR 26323058 OR 26323059 OR 26323060 OR 26343384 OR 26343385 OR 26343386 OR 26343388 OR 26343800 OR 26343801 OR 26344404 OR 26344566 OR 26344567 OR 26344695 OR 26344696 OR 26348940 OR 26348942 OR 26348945 OR 26348946 OR 26348949 OR 26348950 OR 26348951 OR 26348953 OR 26348954 OR 26348961 OR 26348965 OR 26352647 OR 26366551 OR 26366552 OR 26366553 OR 26366554 OR 26366712 OR 26368048 OR 26368049 OR 26368050 OR 26368311 OR 26368589 OR 26368590 OR 26372948 OR 26379012 OR 26379013 OR 26389575 OR 26389576 OR 26389662 OR 26389663 OR 26389664 OR 26389665 OR 26389736 OR 26389737 OR 26390057 OR 26390058 OR 26390241 OR 26390242 OR 26390243 OR 26390244 OR 26398868 OR 26413780 OR 26413781 OR 26414350 OR 26414351 OR 26414402 OR 26414403 OR 26414404 OR 26414444 OR 26414446 OR 26414676 OR 26414677 OR 26414678 OR 26436575 OR 26436690 OR 26436839 OR 26436840 OR 26437028 OR 26437030 OR 26437031 OR 26437032 OR 26437033)</t>
+  </si>
+  <si>
+    <t>PMID=(26437365 OR 26437366 OR 26444624 OR 26448084 OR 26448088 OR 26457372 OR 26457646 OR 26457647 OR 26457648 OR 26457756 OR 26457757 OR 26457758 OR 26457759 OR 26458175 OR 26458176 OR 26458246 OR 26458247 OR 26473199 OR 26479191 OR 26479317 OR 26479319 OR 26479320 OR 26479438 OR 26479439 OR 26479441 OR 26479442 OR 26479921 OR 26479922 OR 26479923 OR 26479924 OR 26479925 OR 26482878 OR 26482879 OR 26482881 OR 26485069 OR 26485070 OR 26501191 OR 26501192 OR 26501951 OR 26501952 OR 26501954 OR 26501955 OR 26502054 OR 26502055 OR 26502056 OR 26502057 OR 26502155 OR 26502156 OR 26502337 OR 26502339 OR 26506900 OR 26523364 OR 26523365 OR 26523774 OR 26523775 OR 26523776 OR 26523777 OR 26523969 OR 26523970 OR 26523971 OR 26523972 OR 26540383 OR 26540384 OR 26540385 OR 26540386 OR 26544135 OR 26544141 OR 26551273 OR 26551274 OR 26551395 OR 26551396 OR 26551669 OR 26551671 OR 26552008 OR 26552009 OR 26565989 OR 26569123 OR 26569124 OR 26569125 OR 26569126 OR 26569380 OR 26569381 OR 26569382 OR 26571101 OR 26571211 OR 26571212 OR 26571351 OR 26571352 OR 26575226 OR 26575227 OR 26575238 OR 26575239 OR 26594843 OR 26594844 OR 26595381 OR 26595382 OR 26595383 OR 26595384 OR 26595461 OR 26595462 OR 26595768 OR 26595769 OR 26595770 OR 26618343 OR 26618344 OR 26618722 OR 26618723 OR 26619011 OR 26619012 OR 26619147 OR 26619148 OR 26619149 OR 26619249 OR 26619250 OR 26620112 OR 26641531 OR 26641532 OR 26641715 OR 26641717 OR 26641718 OR 26641932 OR 26641933 OR 26641934 OR 26642240 OR 26642241 OR 26642242 OR 26642437 OR 26642438 OR 26655495 OR 26655496 OR 26655498 OR 26655833 OR 26655834 OR 26655835 OR 26656088 OR 26656089 OR 26656090 OR 26656091 OR 26656844 OR 26656845 OR 26656846 OR 26656847 OR 26657141 OR 26657142 OR 26657143 OR 26678610 OR 26689543 OR 26689544 OR 26689676 OR 26689788 OR 26689789 OR 26691984 OR 26691985 OR 26691986 OR 26691987 OR 26691988 OR 26692333 OR 26692334 OR 26726877 OR 26726878 OR 26727239 OR 26727240 OR 26727659 OR 26727660 OR 26735408 OR 26744975 OR 26744976 OR 26744980 OR 26751173 OR 26751287 OR 26751515 OR 26751516 OR 26752266 OR 26752267 OR 26752517 OR 26752518 OR 26752519 OR 26779811 OR 26779812 OR 26779813 OR 26779814 OR 26779815 OR 26780180 OR 26780296 OR 26780297 OR 26780298 OR 26780405 OR 26780406 OR 26780407 OR 26780607 OR 26780608 OR 26780609 OR 26780610 OR 26784844 OR 26784846 OR 26789497 OR 26807527 OR 26807528 OR 26807646 OR 26807714 OR 26807715 OR 26807716 OR 26808112 OR 26808113 OR 26808346 OR 26808347 OR 26808348 OR 26813761 OR 26828195 OR 26828196 OR 26829317 OR 26829318 OR 26829319 OR 26829320 OR 26829388 OR 26829389 OR 26829472 OR 26829473 OR 26829474 OR 26829750 OR 26829752 OR 26829753 OR 26829754 OR 26849512 OR 26849518 OR 26849519 OR 26849520 OR 26854476 OR 26854477 OR 26854565 OR 26854666 OR 26854667 OR 26854668 OR 26854916 OR 26854917 OR 26854918 OR 26855148 OR 26855149 OR 26855150 OR 26863410 OR 26878232 OR 26878233 OR 26878396 OR 26878550 OR 26878552 OR 26878723 OR 26878725 OR 26900662 OR 26900663 OR 26900664 OR 26900751 OR 26900752 OR 26900865 OR 26900866 OR 26900867 OR 26901066 OR 26901067 OR 26901068 OR 26901407 OR 26928226 OR 26928463 OR 26928464 OR 26928769 OR 26928868 OR 26928935 OR 26928936 OR 26928937 OR 26937615 OR 26937617 OR 26937618 OR 26950093 OR 26950094 OR 26950095 OR 26950360 OR 26950361 OR 26950362 OR 26950748 OR 26950749 OR 26950892 OR 26963544 OR 26963555 OR 26974007 OR 26974008 OR 26974308 OR 26974309 OR 26974310 OR 26974511 OR 26974660 OR 26974661 OR 26974662 OR 26974813 OR 26974814 OR 26998690 OR 26998691 OR 26998692 OR 26998834 OR 26998835 OR 26999735 OR 26999736 OR 26999737 OR 26999738 OR 26999780 OR 26999781 OR 26999782 OR 27018799 OR 27018887 OR 27018888 OR 27018889 OR 27019110 OR 27019111 OR 27019112 OR 27019327 OR 27019328 OR 27019329 OR 27043002 OR 27043084 OR 27043085 OR 27043189 OR 27043190 OR 27043494 OR 27043495 OR 27054988 OR 27054989 OR 27064252 OR 27064253 OR 27064254 OR 27064255 OR 27064257 OR 27064447 OR 27064448 OR 27064449 OR 27065010 OR 27065097 OR 27065098 OR 27065232 OR 27065233 OR 27065234 OR 27065235 OR 27088721 OR 27088722 OR 27088723 OR 27088724 OR 27088854 OR 27088855 OR 27088856 OR 27088857 OR 27088858 OR 27089028 OR 27089029 OR 27089030 OR 27089177 OR 27089178 OR 27089179 OR 27089180 OR 27089181 OR 27089513 OR 27089514 OR 27089515 OR 27110679 OR 27110680 OR 27110681 OR 27111034 OR 27111035 OR 27111280 OR 27111282 OR 27111721 OR 27111722 OR 27111723 OR 27111841 OR 27111842 OR 27111843 OR 27135400 OR 27135738 OR 27135739 OR 27135740 OR 27135741 OR 27136076 OR 27136077 OR 27136266 OR 27136267 OR 27144686 OR 27149211 OR 27149212 OR 27149213 OR 27149215 OR 27149219 OR 27149220 OR 27153258 OR 27153263 OR 27153267 OR 27153270 OR 27153271 OR 27153272 OR 27153274 OR 27153277 OR 27153279 OR 27158779 OR 27158780 OR 27158781 OR 27158904 OR 27158905 OR 27158906 OR 27159499 OR 27159577 OR 27159578 OR 27159579 OR 27159580 OR 27159581 OR 27182662 OR 27182663 OR 27182664 OR 27182965 OR 27182966 OR 27182967 OR 27182968 OR 27182969 OR 27183216 OR 27183217 OR 27183469 OR 27183470 OR 27183471 OR 27213288 OR 27213289 OR 27213815 OR 27213816 OR 27213817 OR 27214279 OR 27214280 OR 27214281 OR 27214401 OR 27214402 OR 27214403 OR 27239760 OR 27239761 OR 27239787 OR 27239788 OR 27239789 OR 27240091 OR 27240195 OR 27240196 OR 27240197 OR 27240320 OR 27270105 OR 27270106 OR 27270107 OR 27270108 OR 27270109 OR 27270587 OR 27270588 OR 27270589)</t>
+  </si>
+  <si>
+    <t>PMID=(27272383 OR 27272384 OR 27272386 OR 27272564 OR 27272565 OR 27281396 OR 27281407 OR 27281416 OR 27281418 OR 27281424 OR 27294321 OR 27294322 OR 27294323 OR 27294618 OR 27294619 OR 27294874 OR 27294875 OR 27294876 OR 27295553 OR 27295554 OR 27295555 OR 27315534 OR 27322067 OR 27322068 OR 27322069 OR 27322544 OR 27322545 OR 27322546 OR 27322743 OR 27322744 OR 27323327 OR 27323328 OR 27323329 OR 27347753 OR 27347754 OR 27347757 OR 27347849 OR 27348090 OR 27348091 OR 27348092 OR 27348297 OR 27348298 OR 27348299 OR 27376235 OR 27376236 OR 27376237 OR 27376238 OR 27376239 OR 27376574 OR 27376575 OR 27376576 OR 27376577 OR 27376578 OR 27376579 OR 27376584 OR 27376585 OR 27376689 OR 27376690 OR 27376691 OR 27380321 OR 27387881 OR 27398790 OR 27398791 OR 27398792 OR 27398909 OR 27398910 OR 27398911 OR 27398998 OR 27398999 OR 27399000 OR 27399968 OR 27399969 OR 27400264 OR 27400265 OR 27428308 OR 27428510 OR 27428511 OR 27428512 OR 27428513 OR 27428747 OR 27428748 OR 27428749 OR 27428750 OR 27428751 OR 27428899 OR 27428900 OR 27428901 OR 27454737 OR 27454738 OR 27454739 OR 27454740 OR 27454819 OR 27454820 OR 27454931 OR 27454932 OR 27454933 OR 27455346 OR 27455349 OR 27455350 OR 27455510 OR 27455511 OR 27479084 OR 27479085 OR 27479497 OR 27479498 OR 27479603 OR 27479743 OR 27479744 OR 27479906 OR 27479908 OR 27500523 OR 27500524 OR 27500525 OR 27500724 OR 27500725 OR 27500726 OR 27501329 OR 27501395 OR 27501396 OR 27501397 OR 27504772 OR 27504778 OR 27525523 OR 27525524 OR 27525720 OR 27526028 OR 27526029 OR 27526030 OR 27526031 OR 27526320 OR 27526321 OR 27526322 OR 27526323 OR 27526324 OR 27533299 OR 27547919 OR 27547920 OR 27547921 OR 27547922 OR 27547923 OR 27548313 OR 27548314 OR 27548315 OR 27548575 OR 27548576 OR 27548913 OR 27548914 OR 27548915 OR 27548916 OR 27571260 OR 27571261 OR 27571262 OR 27571263 OR 27571347 OR 27571348 OR 27571349 OR 27571369 OR 27571370 OR 27571477 OR 27571478 OR 27571479 OR 27595237 OR 27595321 OR 27595322 OR 27595323 OR 27595324 OR 27595325 OR 27595327 OR 27595328 OR 27595329 OR 27595330 OR 27595331 OR 27595476 OR 27595477 OR 27598229 OR 27617738 OR 27617929 OR 27617930 OR 27617931 OR 27617932 OR 27618187 OR 27618188 OR 27618189 OR 27618190 OR 27618450 OR 27618451 OR 27618649 OR 27618650 OR 27618651 OR 27618652 OR 27642787 OR 27642862 OR 27642863 OR 27642864 OR 27642865 OR 27643537 OR 27643538 OR 27643539 OR 27643540 OR 27643638 OR 27668655 OR 27668656 OR 27668657 OR 27668658 OR 27668659 OR 27668660 OR 27668935 OR 27668937 OR 27668938 OR 27669165 OR 27669166 OR 27669167 OR 27669417 OR 27669419 OR 27694799 OR 27694800 OR 27694801 OR 27694802 OR 27694803 OR 27694890 OR 27694931 OR 27694932 OR 27694933 OR 27694934 OR 27694958 OR 27694959 OR 27694960 OR 27694961 OR 27701403 OR 27723717 OR 27723719 OR 27723720 OR 27723721 OR 27723722 OR 27723723 OR 27723727 OR 27723747 OR 27723748 OR 27723749 OR 27723750 OR 27723751 OR 27723756 OR 27723760 OR 27727216 OR 27727218 OR 27748747 OR 27748748 OR 27748749 OR 27748750 OR 27748751 OR 27748752 OR 27748753 OR 27748754 OR 27748755 OR 27749820 OR 27749821 OR 27749822 OR 27749823 OR 27749824 OR 27749841 OR 27749842 OR 27749843 OR 27775702 OR 27775703 OR 27775704 OR 27775705 OR 27775706 OR 27775713 OR 27775714 OR 27775715 OR 27775716 OR 27776114 OR 27776115 OR 27776116 OR 27776117 OR 27776118 OR 27783064 OR 27783065 OR 27783066 OR 27783067 OR 27783068 OR 27787508 OR 27787509 OR 27787511 OR 27798562 OR 27798563 OR 27798564 OR 27798604 OR 27798613 OR 27798614 OR 27798615 OR 27798624 OR 27798625 OR 27798627 OR 27798628 OR 27819664 OR 27819665 OR 27819666 OR 27820599 OR 27820600 OR 27820601 OR 27820603 OR 27820604 OR 27820605 OR 27820795 OR 27820796 OR 27820797 OR 27820798 OR 27820799 OR 27820800 OR 27820801 OR 27820802 OR 27820803 OR 27820805 OR 27824828 OR 27824831 OR 27824833 OR 27824836 OR 27824838 OR 27824840 OR 27824842 OR 27824844 OR 27824855 OR 27841873 OR 27841874 OR 27841875 OR 27841876 OR 27841878 OR 27841879 OR 27841880 OR 27841881 OR 27841882 OR 27842057 OR 27842058 OR 27842061 OR 27842066 OR 27842068 OR 27842069 OR 27842070 OR 27869802 OR 27869803 OR 27869804 OR 27869805 OR 27869826 OR 27869828 OR 27869830 OR 27870828 OR 27870829 OR 27870830 OR 27870831 OR 27870835 OR 27870836 OR 27870837 OR 27870838 OR 27892953 OR 27893703 OR 27893704 OR 27893705 OR 27893733 OR 27893734 OR 27897157 OR 27897158 OR 27897161 OR 27918533 OR 27918535 OR 27918536 OR 27918537 OR 27918538 OR 27918546 OR 27918547 OR 27918548 OR 27918549 OR 27918550 OR 27918558 OR 27918559 OR 27918560 OR 27918561 OR 27918562 OR 27918563 OR 27918564 OR 27923030 OR 27926704 OR 27926715 OR 27926716 OR 27926718 OR 27926724 OR 27926725 OR 27941758 OR 27941759 OR 27941760 OR 27941791 OR 27941792 OR 27941793 OR 27941795 OR 27941796 OR 27941797 OR 27941798 OR 27941801 OR 27941802 OR 27941803 OR 27991917 OR 27991918 OR 27991919 OR 27992405 OR 27992406 OR 27992407 OR 27992413 OR 27992414 OR 27992415 OR 27992416 OR 27992417 OR 27992879 OR 27992880 OR 27992881 OR 28008179 OR 28008180 OR 28008181 OR 28024083 OR 28024084 OR 28024146 OR 28024147 OR 28024150 OR 28024151 OR 28024154 OR 28024155 OR 28067899 OR 28067900 OR 28067909 OR 28067910 OR 28067911 OR 28067912 OR 28067913 OR 28068309 OR 28068310 OR 28068311 OR 28068312 OR 28072773 OR 28072774 OR 28072775 OR 28072776 OR 28072777 OR 28072785 OR 28072788 OR 28072791 OR 28092358 OR 28092359 OR 28092360 OR 28092361 OR 28092655 OR 28092656)</t>
+  </si>
+  <si>
+    <t>PMID=(28092657 OR 28092658 OR 28092664 OR 28092666 OR 28092681 OR 28092682 OR 28092684 OR 28092685 OR 28092686 OR 28106876 OR 28112734 OR 28112735 OR 28112736 OR 28112737 OR 28112738 OR 28112739 OR 28112740 OR 28112759 OR 28114269 OR 28114270 OR 28114271 OR 28114272 OR 28114273 OR 28114274 OR 28114276 OR 28134926 OR 28134928 OR 28135235 OR 28135236 OR 28135237 OR 28135244 OR 28135245 OR 28135246 OR 28135247 OR 28135248 OR 28138148 OR 28138149 OR 28138150 OR 28138153 OR 28165475 OR 28165476 OR 28165478 OR 28165479 OR 28165480 OR 28165481 OR 28166192 OR 28166207 OR 28166208 OR 28166209 OR 28166210 OR 28166211 OR 28166212 OR 28166213 OR 28166214 OR 28166215 OR 28191885 OR 28191886 OR 28191887 OR 28191888 OR 28191889 OR 28191890 OR 28191891 OR 28191901 OR 28191902 OR 28191903 OR 28192410 OR 28192411 OR 28192412 OR 28192413 OR 28192414 OR 28192421 OR 28192422 OR 28199297 OR 28218758 OR 28218759 OR 28218906 OR 28218907 OR 28218908 OR 28218909 OR 28218910 OR 28218911 OR 28218912 OR 28218913 OR 28218918 OR 28218919 OR 28232728 OR 28232729 OR 28232730 OR 28244986 OR 28244987 OR 28244988 OR 28244989 OR 28244991 OR 28244994 OR 28244995 OR 28250419 OR 28250454 OR 28250455 OR 28250456 OR 28250457 OR 28250458 OR 28263295 OR 28263296 OR 28263307 OR 28263308 OR 28263309 OR 28263310 OR 28263311 OR 28263312 OR 28263313 OR 28263315 OR 28263316 OR 28263317 OR 28263318 OR 28263319 OR 28263956 OR 28263957 OR 28263958 OR 28263963 OR 28263964 OR 28263965 OR 28267723 OR 28267725 OR 28288097 OR 28288102 OR 28288103 OR 28288105 OR 28288106 OR 28288107 OR 28288108 OR 28288109 OR 28288110 OR 28288111 OR 28288112 OR 28288113 OR 28288114 OR 28288115 OR 28288129 OR 28288130 OR 28319085 OR 28319088 OR 28319089 OR 28319090 OR 28319091 OR 28319092 OR 28319093 OR 28319094 OR 28319099 OR 28319100 OR 28319101 OR 28328918 OR 28346401 OR 28346402 OR 28346403 OR 28346404 OR 28346405 OR 28346406 OR 28346407 OR 28346412 OR 28346437 OR 28346438 OR 28346439 OR 28346440 OR 28346441 OR 28346442 OR 28346443 OR 28346444 OR 28346445 OR 28358125 OR 28358130 OR 28358132 OR 28358133 OR 28368372 OR 28368383 OR 28369033 OR 28369034 OR 28369035 OR 28369036 OR 28369037 OR 28369038 OR 28369039 OR 28369040 OR 28369041 OR 28394328 OR 28394329 OR 28394330 OR 28394331 OR 28394332 OR 28394333 OR 28394349 OR 28394350 OR 28394351 OR 28394352 OR 28394353 OR 28394884 OR 28394885 OR 28398306 OR 28398313 OR 28398320 OR 28398323 OR 28398333 OR 28398344 OR 28398345 OR 28414312 OR 28414315 OR 28414328 OR 28414329 OR 28414330 OR 28414710 OR 28414711 OR 28416819 OR 28416820 OR 28416821 OR 28416822 OR 28422952 OR 28436957 OR 28436958 OR 28436966 OR 28436983 OR 28436984 OR 28436985 OR 28437394 OR 28437395 OR 28446813 OR 28446815 OR 28446816 OR 28446818 OR 28459437 OR 28459438 OR 28459439 OR 28459440 OR 28459448 OR 28459449 OR 28459450 OR 28459451 OR 28459452 OR 28459453 OR 28459454 OR 28459455 OR 28459456 OR 28459457 OR 28475571 OR 28481328 OR 28481340 OR 28481341 OR 28481342 OR 28481346 OR 28481347 OR 28481357 OR 28481358 OR 28481359 OR 28481360 OR 28504667 OR 28504668 OR 28504676 OR 28504677 OR 28504678 OR 28504700 OR 28504701 OR 28504702 OR 28504703 OR 28504708 OR 28504723 OR 28504724 OR 28504725 OR 28514418 OR 28514421 OR 28514428 OR 28530657 OR 28530676 OR 28530677 OR 28530678 OR 28530708 OR 28530709 OR 28530710 OR 28530711 OR 28546569 OR 28546575 OR 28546576 OR 28553932 OR 28553933 OR 28553937 OR 28553938 OR 28553939 OR 28553941 OR 28553945 OR 28553946 OR 28553947 OR 28553948 OR 28553949 OR 28553958 OR 28553959 OR 28561051 OR 28561053 OR 28561054 OR 28561058 OR 28561059 OR 28562594 OR 28581477 OR 28581482 OR 28581483 OR 28581484 OR 28581485 OR 28581492 OR 28581499 OR 28581500 OR 28586335 OR 28591125 OR 28604659 OR 28604660 OR 28604661 OR 28604676 OR 28604677 OR 28604692 OR 28604693 OR 28604694 OR 28604695 OR 28604696 OR 28604697 OR 28604701 OR 28604702 OR 28604703 OR 28604704 OR 28604729 OR 28604731 OR 28628081 OR 28628083 OR 28628085 OR 28628093 OR 28628094 OR 28628095 OR 28628096 OR 28628097 OR 28628105 OR 28628107 OR 28628108 OR 28628109 OR 28628110 OR 28628111 OR 28628112 OR 28628130 OR 28650456 OR 28650457 OR 28650460 OR 28650461 OR 28650462 OR 28650479 OR 28650483 OR 28650484 OR 28650485 OR 28656981 OR 28656983 OR 28656984 OR 28659637 OR 28659638 OR 28659641 OR 28659642 OR 28671662 OR 28671678 OR 28671679 OR 28671680 OR 28671681 OR 28671682 OR 28671683 OR 28671684 OR 28671685 OR 28671686 OR 28671687 OR 28671688 OR 28692063 OR 28692064 OR 28692066 OR 28692067 OR 28692068 OR 28692069 OR 28700541 OR 28700545 OR 28700548 OR 28700549 OR 28700550 OR 28700551 OR 28700552 OR 28700554 OR 28700556 OR 28714965 OR 28714968 OR 28714971 OR 28714974 OR 28714975 OR 28714976 OR 28714977 OR 28714988 OR 28714990 OR 28714991 OR 28719588 OR 28719589 OR 28737768 OR 28737769 OR 28737770 OR 28737771 OR 28740262 OR 28740263 OR 28740264 OR 28747750 OR 28747751 OR 28747755 OR 28752848 OR 28752851 OR 28752852 OR 28752853 OR 28752854 OR 28759004 OR 28759014 OR 28759015 OR 28759016 OR 28759017 OR 28759018 OR 28759019 OR 28759020 OR 28759028 OR 28759051 OR 28759052 OR 28759053 OR 28777784 OR 28777786 OR 28777794 OR 28783162 OR 28783163 OR 28783164 OR 28783165 OR 28787403 OR 28787405 OR 28787408 OR 28787411 OR 28787424 OR 28805800 OR 28805801 OR 28805802 OR 28805803 OR 28805804 OR 28805820 OR 28805821 OR 28805822 OR 28805828 OR 28805829 OR 28812580 OR 28812581 OR 28812582 OR 28820879 OR 28825697)</t>
+  </si>
+  <si>
+    <t>PMID=(28825698 OR 28825700 OR 28825710 OR 28825711 OR 28825715 OR 28825716 OR 28825717 OR 28825726 OR 28825727 OR 28825728 OR 28825729 OR 28829437 OR 28829438 OR 28829439 OR 28846093 OR 28846094 OR 28846095 OR 28846096 OR 28846097 OR 28846098 OR 28846099 OR 28846100 OR 28846101 OR 28846667 OR 28846668 OR 28854175 OR 28854176 OR 28855729 OR 28855730 OR 28855731 OR 28855732 OR 28855734 OR 28869592 OR 28869594 OR 28869595 OR 28869610 OR 28869611 OR 28886000 OR 28886003 OR 28886004 OR 28892060 OR 28892063 OR 28892064 OR 28892074 OR 28892075 OR 28892076 OR 28892077 OR 28892078 OR 28892079 OR 28892081 OR 28892090 OR 28892091 OR 28898209 OR 28898210 OR 28898212 OR 28898214 OR 28898215 OR 28898216 OR 28898219 OR 28898221 OR 28898225 OR 28898228 OR 28920930 OR 28920931 OR 28920952 OR 28920953 OR 28920954 OR 28920955 OR 28920956 OR 28920957 OR 28920958 OR 28920959 OR 28920960 OR 28920961 OR 28922346 OR 28922347 OR 28926552 OR 28926558 OR 28945232 OR 28945233 OR 28945234 OR 28945250 OR 28945251 OR 28945252 OR 28945253 OR 28951621 OR 28951627 OR 28951628 OR 28960200 OR 28960202 OR 28960203 OR 28960204 OR 28967885 OR 28967886 OR 28967887 OR 28967912 OR 28967919 OR 28967920 OR 28967921 OR 28967922 OR 28967923 OR 28991221 OR 28991238 OR 28991239 OR 28991240 OR 28991254 OR 28991255 OR 28991256 OR 28991257 OR 28991268 OR 28991269 OR 29019975 OR 29019990 OR 29019992 OR 29019995 OR 29019999 OR 29020000 OR 29020002 OR 29020004 OR 29020005 OR 29020007 OR 29035359 OR 29035360 OR 29035361 OR 29035362 OR 29035363 OR 29035364 OR 29035365 OR 29035366 OR 29035367 OR 29035368 OR 29035369 OR 29035370 OR 29035371 OR 29035373 OR 29035374 OR 29038595 OR 29038596 OR 29045379 OR 29045383 OR 29058714 OR 29058715 OR 29058716 OR 29058717 OR 29058718 OR 29058719 OR 29058721 OR 29058723 OR 29058724 OR 29058725 OR 29074944 OR 29074945 OR 29074950 OR 29083404 OR 29083405 OR 29083408 OR 29083409 OR 29083417 OR 29083418 OR 29083419 OR 29084197 OR 29084198 OR 29084199 OR 29087384 OR 29087385 OR 29087386 OR 29106396 OR 29106397 OR 29106398 OR 29106399 OR 29106400 OR 29106401 OR 29106402 OR 29106406 OR 29106407 OR 29106408 OR 29106410 OR 29106415 OR 29106416 OR 29106417 OR 29106418 OR 29121010 OR 29121012 OR 29121013 OR 29121014 OR 29121016 OR 29121019 OR 29121024 OR 29121027 OR 29121028 OR 29121029 OR 29131140 OR 29131143 OR 29131144 OR 29131145 OR 29131146 OR 29131147 OR 29131148 OR 29131149 OR 29131158 OR 29131159 OR 29131160 OR 29155428 OR 29155429 OR 29155430 OR 29176613 OR 29176614 OR 29176671 OR 29176672 OR 29176737 OR 29180699 OR 29180822 OR 29184172 OR 29184179 OR 29184180 OR 29200204 OR 29200205 OR 29200206 OR 29200207 OR 29203883 OR 29203884 OR 29203909 OR 29203910 OR 29220017 OR 29220018 OR 29220019 OR 29220024 OR 29220026 OR 29220027 OR 29220031 OR 29220033 OR 29227468 OR 29227469 OR 29227470 OR 29227471 OR 29227472 OR 29227473 OR 29227474 OR 29227475 OR 29227476 OR 29227477 OR 29229983 OR 29229984 OR 29230015 OR 29230016 OR 29230017 OR 29230018 OR 29251718 OR 29251719 OR 29251720 OR 29251726 OR 29251727 OR 29251728 OR 29251729 OR 29255170 OR 29255171 OR 29255172 OR 29255173 OR 29255257 OR 29255258 OR 29255259 OR 29255260 OR 29255261 OR 29255262 OR 29255263 OR 29255264 OR 29273807 OR 29291348 OR 29291349 OR 29291350 OR 29291351 OR 29291352 OR 29309053 OR 29309054 OR 29309055 OR 29309056 OR 29309057 OR 29309058 OR 29309060 OR 29311636 OR 29311656 OR 29319682 OR 29319687 OR 29319691 OR 29319693 OR 29319694 OR 29319697 OR 29319699 OR 29334369 OR 29334370 OR 29334371 OR 29334372 OR 29334374 OR 29334375 OR 29334376 OR 29334380 OR 29334381 OR 29334382 OR 29335527 OR 29335528 OR 29335529 OR 29335530 OR 29335542 OR 29335544 OR 29335545 OR 29335546 OR 29335547 OR 29335548 OR 29337969 OR 29355849 OR 29355850 OR 29358649 OR 29358650 OR 29358651 OR 29358652 OR 29358653 OR 29358654 OR 29358703 OR 29358704 OR 29358706 OR 29371703 OR 29371705 OR 29371706 OR 29371707 OR 29374253 OR 29377001 OR 29377002 OR 29377003 OR 29377004 OR 29379199 OR 29379200 OR 29400709 OR 29400710 OR 29400711 OR 29400712 OR 29400713 OR 29400714 OR 29403010 OR 29403037 OR 29406493 OR 29406494 OR 29406499 OR 29406500 OR 29406509 OR 29406511 OR 29414929 OR 29414930 OR 29414934 OR 29431737 OR 29431738 OR 29431739 OR 29431740 OR 29431741 OR 29431742 OR 29431743 OR 29431744 OR 29431745 OR 29434374 OR 29440735 OR 29443972 OR 29443974 OR 29443976 OR 29443978 OR 29457794 OR 29457795 OR 29457796 OR 29459677 OR 29459678 OR 29459680 OR 29459681 OR 29459682 OR 29459780 OR 29459781 OR 29476152 OR 29480894 OR 29480895 OR 29483640 OR 29483642 OR 29483643 OR 29483655 OR 29505028 OR 29505030 OR 29505031 OR 29505032 OR 29505033 OR 29505034 OR 29507388 OR 29507389 OR 29507390 OR 29507391 OR 29507422 OR 29507423 OR 29507424 OR 29507425 OR 29509727 OR 29509730 OR 29509733 OR 29509734 OR 29509740 OR 29509742 OR 29509744 OR 29509745 OR 29509750 OR 29509751 OR 29509755 OR 29529015 OR 29529016 OR 29531310 OR 29531360 OR 29553573 OR 29553574 OR 29553575 OR 29553576 OR 29556077 OR 29556099 OR 29556104 OR 29556105 OR 29578538 OR 29578539 OR 29581582 OR 29581584 OR 29581585 OR 29581593 OR 29593326 OR 29593330 OR 29593331 OR 29608178 OR 29608179 OR 29610475 OR 29610476 OR 29610478 OR 29610479 OR 29610480 OR 29610481 OR 29610484 OR 29610485 OR 29610486 OR 29621210 OR 29621214 OR 29621215 OR 29621216 OR 29621217 OR 29621218 OR 29621220 OR 29621221 OR 29621222 OR 29621223 OR 29621226 OR 29632371 OR 29632376)</t>
+  </si>
+  <si>
+    <t>PMID=(29632379 OR 29632383 OR 29632410 OR 29632411 OR 29632412 OR 29632413 OR 29632414 OR 29634691 OR 29634693 OR 29634694 OR 29644996 OR 29644997 OR 29644998 OR 29658943 OR 29658944 OR 29662163 OR 29662164 OR 29662165 OR 29662166 OR 29662167 OR 29662175 OR 29662176 OR 29662178 OR 29662186 OR 29662187 OR 29662199 OR 29662200 OR 29662201 OR 29662202 OR 29662203 OR 29662209 OR 29662210 OR 29686265 OR 29686356 OR 29686357 OR 29686358 OR 29686359 OR 29686387 OR 29686388 OR 29686423 OR 29686424 OR 29686426 OR 29695786 OR 29695787 OR 29700467 OR 29700471 OR 29700472 OR 29700473 OR 29700474 OR 29702637 OR 29713014 OR 29713018 OR 29713061 OR 29713085 OR 29734294 OR 29734296 OR 29734297 OR 29734298 OR 29734307 OR 29734309 OR 29734310 OR 29734314 OR 29736013 OR 29736014 OR 29736015 OR 29736016 OR 29736022 OR 29736024 OR 29736026 OR 29736027 OR 29736028 OR 29736039 OR 29760445 OR 29769734 OR 29769736 OR 29769738 OR 29769739 OR 29769740 OR 29784910 OR 29784917 OR 29784918 OR 29785011 OR 29785012 OR 29785013 OR 29785014 OR 29785015 OR 29785023 OR 29785024 OR 29785025 OR 29785026 OR 29785027 OR 29785028 OR 29785056 OR 29785057 OR 29786094 OR 29786095 OR 29786096 OR 29802403 OR 29802408 OR 29807982 OR 29808005 OR 29808006 OR 29808007 OR 29808008 OR 29808009 OR 29808010 OR 29808028 OR 29808029 OR 29808030 OR 29808031 OR 29813047 OR 29863724 OR 29863725 OR 29867141 OR 29867142 OR 29867143 OR 29867144 OR 29867221 OR 29867222 OR 29867223 OR 29867228 OR 29867232 OR 29867235 OR 29874203 OR 29874204 OR 29874209 OR 29874211 OR 29874214 OR 29874215 OR 29875462 OR 29875463 OR 29889212 OR 29889213 OR 29889214 OR 29892012 OR 29892014 OR 29892016 OR 29892060 OR 29892061 OR 29892062 OR 29892063 OR 29892064 OR 29892065 OR 29892066 OR 29892067 OR 29892068 OR 29892069 OR 29892070 OR 29892081 OR 29892082 OR 29892083 OR 29912208 OR 29912209 OR 29915233 OR 29915234 OR 29915235 OR 29915236 OR 29915238 OR 29915259 OR 29915357 OR 29915358 OR 29915378 OR 29915379 OR 29915428 OR 29915429 OR 29915430 OR 29941930 OR 29941931 OR 29941933 OR 29942076 OR 29942078 OR 29942079 OR 29942080 OR 29942081 OR 29942082 OR 29942083 OR 29942084 OR 29942088 OR 29942089 OR 29942091 OR 29942092 OR 29942093 OR 29942094 OR 29942096 OR 29955178 OR 29967348 OR 29967349 OR 29967351 OR 29967352 OR 29967444 OR 29969439 OR 29969440 OR 29979646 OR 29979648 OR 29979650 OR 29979659 OR 29979661 OR 29979662 OR 29979663 OR 29979665 OR 29979668 OR 29985477 OR 29985478 OR 29985479 OR 29988067 OR 29988068 OR 29988121 OR 29988122 OR 29988123 OR 29988124 OR 29988126 OR 29988127 OR 29988128 OR 29988129 OR 29988130 OR 30010676 OR 30013061 OR 30013063 OR 30013107 OR 30013178 OR 30013179 OR 30013180 OR 30013181 OR 30013182 OR 30013183 OR 30013198 OR 30013199 OR 30018420 OR 30022119 OR 30038216 OR 30038217 OR 30038218 OR 30038219 OR 30038220 OR 30038221 OR 30038395 OR 30038397 OR 30054594 OR 30054595 OR 30054598 OR 30059493 OR 30061679 OR 30061696 OR 30061716 OR 30061717 OR 30061718 OR 30061719 OR 30061735 OR 30061736 OR 30061737 OR 30080209 OR 30080824 OR 30082786 OR 30082787 OR 30082858 OR 30082860 OR 30082863 OR 30082870 OR 30082871 OR 30102294 OR 30102295 OR 30102296 OR 30104724 OR 30104759 OR 30104760 OR 30104762 OR 30104763 OR 30104764 OR 30104766 OR 30104767 OR 30104768 OR 30114007 OR 30120358 OR 30120359 OR 30120360 OR 30120361 OR 30125267 OR 30125268 OR 30125269 OR 30127386 OR 30127387 OR 30127391 OR 30127392 OR 30127393 OR 30127394 OR 30127527 OR 30127528 OR 30148503 OR 30150660 OR 30150681 OR 30150682 OR 30150716 OR 30150717 OR 30150718 OR 30150719 OR 30154548 OR 30154549 OR 30154550 OR 30154561 OR 30154562 OR 30158686 OR 30177776 OR 30177821 OR 30177848 OR 30177849 OR 30177850 OR 30177862 OR 30177863 OR 30188519 OR 30188521 OR 30188524 OR 30188529 OR 30188534 OR 30188539 OR 30188543 OR 30188548 OR 30190590 OR 30194408 OR 30199076 OR 30202049 OR 30202050 OR 30202051 OR 30202056 OR 30222169 OR 30224643 OR 30224644 OR 30224647 OR 30224650 OR 30224694 OR 30224695 OR 30224756 OR 30224757 OR 30224758 OR 30224759 OR 30224760 OR 30247487 OR 30247488 OR 30247489 OR 30247490 OR 30250060 OR 30250061 OR 30250062 OR 30250064 OR 30250126 OR 30250128 OR 30250140 OR 30250141 OR 30250142 OR 30250143 OR 30262816 OR 30262818 OR 30275529 OR 30275530 OR 30275531 OR 30275566 OR 30275569 OR 30275570 OR 30297875 OR 30297895 OR 30297898 OR 30297899 OR 30297903 OR 30297904 OR 30297908 OR 30297910 OR 30297912 OR 30297966 OR 30297968 OR 30297969 OR 30297971 OR 30307928 OR 30323177 OR 30323187 OR 30323188 OR 30323216 OR 30323217 OR 30323219 OR 30323331 OR 30327557 OR 30327558 OR 30327559 OR 30327560 OR 30327561 OR 30349085 OR 30349086 OR 30349087 OR 30349114 OR 30349115 OR 30349116 OR 30349117 OR 30349118 OR 30349119 OR 30361695 OR 30361697 OR 30361699 OR 30361701 OR 30374053 OR 30374068 OR 30374074 OR 30374165 OR 30374166 OR 30374167 OR 30374196 OR 30374197 OR 30374198 OR 30374200 OR 30397314 OR 30397315 OR 30397328 OR 30397333 OR 30397336 OR 30397354 OR 30397356 OR 30397357 OR 30397358 OR 30401869 OR 30412205 OR 30420647 OR 30420649 OR 30420661 OR 30420662 OR 30420664 OR 30420692 OR 30420693 OR 30420694 OR 30420752 OR 30420753 OR 30420754 OR 30420755 OR 30429602 OR 30429604 OR 30429605 OR 30455414 OR 30455415 OR 30455436 OR 30455462 OR 30455466 OR 30478421 OR 30478422 OR 30478424 OR 30478436 OR 30478441 OR 30478443 OR 30478458 OR 30510156 OR 30510189 OR 30510190 OR 30510192 OR 30510193 OR 30510194)</t>
+  </si>
+  <si>
+    <t>PMID=(30510236 OR 30510237 OR 30510238 OR 30510239 OR 30510240 OR 30510250 OR 30510251 OR 30510255 OR 30510256 OR 30510257 OR 30520866 OR 30523313 OR 30523326 OR 30523328 OR 30531870 OR 30531871 OR 30531872 OR 30531905 OR 30531907 OR 30531909 OR 30531910 OR 30531922 OR 30531966 OR 30531984 OR 30532068 OR 30556814 OR 30559419 OR 30559421 OR 30559422 OR 30559425 OR 30559426 OR 30559427 OR 30559456 OR 30559488 OR 30559490 OR 30578417 OR 30578418 OR 30598530 OR 30598531 OR 30598543 OR 30598544 OR 30598545 OR 30598549 OR 30605149 OR 30607034 OR 30610223 OR 30617255 OR 30617292 OR 30617317 OR 30617318 OR 30617320 OR 30617323 OR 30617325 OR 30617332 OR 30617337 OR 30643248 OR 30643249 OR 30643250 OR 30643252 OR 30643253 OR 30643254 OR 30643255 OR 30643257 OR 30643280 OR 30643281 OR 30643282 OR 30643283 OR 30643284 OR 30643285 OR 30643286 OR 30643287 OR 30643288 OR 30643289 OR 30643290 OR 30664685 OR 30664686 OR 30664745 OR 30664779 OR 30664780 OR 30664782 OR 30664783 OR 30664784 OR 30664785 OR 30664786 OR 30664789 OR 30664790 OR 30664791 OR 30664792 OR 30692625 OR 30692626 OR 30692680 OR 30692681 OR 30692682 OR 30692683 OR 30692684 OR 30692685 OR 30692693 OR 30692694 OR 30692695 OR 30692697 OR 30710150 OR 30718813 OR 30718814 OR 30718815 OR 30718816 OR 30718857 OR 30718868 OR 30718869 OR 30718880 OR 30718881 OR 30718882 OR 30718927 OR 30728533 OR 30728540 OR 30742093 OR 30742094 OR 30742112 OR 30742113 OR 30742119 OR 30742121 OR 30742123 OR 30742124 OR 30742125 OR 30742126 OR 30742127 OR 30770909 OR 30770915 OR 30778202 OR 30778204 OR 30778219 OR 30778220 OR 30778222 OR 30778223 OR 30778224 OR 30778225 OR 30778230 OR 30778232 OR 30778233 OR 30778238 OR 30778239 OR 30778240 OR 30804502 OR 30804503 OR 30804504 OR 30804505 OR 30804506 OR 30804514 OR 30804532 OR 30804533 OR 30804537 OR 30804557 OR 30804558 OR 30804559 OR 30804561 OR 30804562 OR 30804563 OR 30804566 OR 30833658 OR 30833748 OR 30833749 OR 30833750 OR 30833751 OR 30833752 OR 30833762 OR 30833775 OR 30833776 OR 30833778 OR 30833795 OR 30833796 OR 30842675 OR 30842678 OR 30858580 OR 30858581 OR 30858596 OR 30858613 OR 30858614 OR 30858616 OR 30858617 OR 30886344 OR 30886345 OR 30886346 OR 30886409 OR 30886424 OR 30886426 OR 30886433 OR 30886434 OR 30886436 OR 30886437 OR 30886438 OR 30899105 OR 30911133 OR 30911134 OR 30911135 OR 30911136 OR 30911161 OR 30911177 OR 30911178 OR 30911179 OR 30926969 OR 30926970 OR 30926971 OR 30926972 OR 30936472 OR 30936473 OR 30936474 OR 30936475 OR 30936500 OR 30936501 OR 30936502 OR 30936544 OR 30936545 OR 30936548 OR 30936549 OR 30936559 OR 30936560 OR 30936561 OR 30936562 OR 30936563 OR 30936564 OR 30936566 OR 30936567 OR 30940940 OR 30962542 OR 30962574 OR 30962575 OR 30962619 OR 30962626 OR 30962627 OR 30988422 OR 30988423 OR 30988424 OR 30988504 OR 30988505 OR 30988512 OR 30988513 OR 30988514 OR 30992561 OR 30992562 OR 30992567 OR 30992568 OR 31011167 OR 31011178 OR 31011202 OR 31011203 OR 31011204 OR 31011212 OR 31011214 OR 31036879 OR 31036922 OR 31036923 OR 31036929 OR 31036930 OR 31036937 OR 31036938 OR 31036939 OR 31036963 OR 31036964 OR 31040401 OR 31043753 OR 31043755 OR 31043757 OR 31043759 OR 31043760 OR 31048767 OR 31061465 OR 31061466 OR 31061481 OR 31061482 OR 31061483 OR 31061498 OR 31061538 OR 31061540 OR 31068703 OR 31068711 OR 31086261 OR 31086327 OR 31086329 OR 31086330 OR 31086331 OR 31086348 OR 31086351 OR 31101915 OR 31101916 OR 31101917 OR 31101918 OR 31101919 OR 31110287 OR 31110288 OR 31110305 OR 31110306 OR 31110348 OR 31110349 OR 31110351 OR 31110352 OR 31110355 OR 31133692 OR 31133694 OR 31133742 OR 31133745 OR 31133746 OR 31133748 OR 31133749 OR 31133750 OR 31133756 OR 31142849 OR 31142850 OR 31152161 OR 31152164 OR 31160708 OR 31160709 OR 31160710 OR 31160711 OR 31160712 OR 31160815 OR 31160820 OR 31164740 OR 31171880 OR 31178587 OR 31182809 OR 31182810 OR 31197230 OR 31209294 OR 31209295 OR 31209334 OR 31209335 OR 31209336 OR 31209347 OR 31209348 OR 31209349 OR 31209351 OR 31209353 OR 31209373 OR 31209392 OR 31209393 OR 31209394 OR 31209395 OR 31209396 OR 31222192 OR 31235917 OR 31235919 OR 31235920 OR 31235934 OR 31235935 OR 31235936 OR 31235962 OR 31235963 OR 31235964 OR 31253976 OR 31253977 OR 31253978 OR 31253979 OR 31253980 OR 31253982 OR 31263264 OR 31263265 OR 31263268 OR 31263269 OR 31263281 OR 31263282 OR 31263285 OR 31263286 OR 31263287 OR 31267097 OR 31267104 OR 31267105 OR 31267113 OR 31270502 OR 31270503 OR 31270504 OR 31273328 OR 31273329 OR 31285594 OR 31285595 OR 31285596 OR 31285597 OR 31285631 OR 31285632 OR 31285633 OR 31308506 OR 31308507 OR 31308531 OR 31308532 OR 31308533 OR 31308540 OR 31308545 OR 31308546 OR 31320752 OR 31320757 OR 31320758 OR 31332308 OR 31332324 OR 31332325 OR 31332326 OR 31332347 OR 31332348 OR 31332380 OR 31332381 OR 31332389 OR 31332390 OR 31332391 OR 31332392 OR 31332393 OR 31332394 OR 31358965 OR 31358968 OR 31358969 OR 31358971 OR 31358993 OR 31358994 OR 31358995 OR 31359000 OR 31359001 OR 31359002 OR 31359004 OR 31359005 OR 31359006 OR 31359007 OR 31367015 OR 31367016 OR 31371821 OR 31371824 OR 31371825 OR 31371827 OR 31371828 OR 31375793 OR 31375799 OR 31375807 OR 31375808 OR 31375809 OR 31375810 OR 31375811 OR 31375812 OR 31375813 OR 31383972 OR 31383973 OR 31383974 OR 31383975 OR 31384041 OR 31388180 OR 31406327 OR 31406346 OR 31406347 OR 31406348 OR 31406350 OR 31406351 OR 31406370 OR 31406371 OR 31406373 OR 31406374 OR 31406375)</t>
+  </si>
+  <si>
+    <t>PMID=(31406376 OR 31427789 OR 31427791 OR 31427792 OR 31427815 OR 31427816 OR 31427817 OR 31427818 OR 31427819 OR 31427820 OR 31431731 OR 31451733 OR 31451759 OR 31451760 OR 31451761 OR 31451762 OR 31451768 OR 31451770 OR 31451782 OR 31451783 OR 31477907 OR 31477916 OR 31477922 OR 31477923 OR 31477924 OR 31477927 OR 31477929 OR 31477930 OR 31477931 OR 31477933 OR 31477934 OR 31481789 OR 31481790 OR 31481791 OR 31481792 OR 31481795 OR 31481796 OR 31481798 OR 31485047 OR 31501517 OR 31501557 OR 31501558 OR 31501559 OR 31501560 OR 31501561 OR 31501562 OR 31501589 OR 31501590 OR 31501600 OR 31501601 OR 31501607 OR 31501608 OR 31501609 OR 31501610 OR 31501611 OR 31501613 OR 31501614 OR 31527836 OR 31527837 OR 31541226 OR 31548606 OR 31548607 OR 31548608 OR 31548609 OR 31548610 OR 31548691 OR 31548692 OR 31548693 OR 31548716 OR 31548717 OR 31548720 OR 31548722 OR 31548727 OR 31548728 OR 31548729 OR 31551578 OR 31570822 OR 31570833 OR 31570834 OR 31570835 OR 31570888 OR 31570889 OR 31570891 OR 31570892 OR 31570894 OR 31570895 OR 31570896 OR 31570897 OR 31570898 OR 31570899 OR 31570900 OR 31576057 OR 31576058 OR 31576059 OR 31576060 OR 31578504 OR 31578511 OR 31578528 OR 31591551 OR 31591562 OR 31591563 OR 31591564 OR 31591565 OR 31591566 OR 31591588 OR 31591589 OR 31591592 OR 31591594 OR 31591595 OR 31591596 OR 31591597 OR 31591598 OR 31591600 OR 31591602 OR 31591603 OR 31591604 OR 31591606 OR 31611695 OR 31611696 OR 31611697 OR 31611703 OR 31611704 OR 31636429 OR 31636430 OR 31636431 OR 31636432 OR 31636434 OR 31636435 OR 31636437 OR 31636452 OR 31636453 OR 31636454 OR 31659274 OR 31659275 OR 31659317 OR 31659318 OR 31659323 OR 31659324 OR 31659325 OR 31659337 OR 31659338 OR 31676859 OR 31676860 OR 31676863 OR 31676864 OR 31676865 OR 31676866 OR 31676867 OR 31676868 OR 31685958 OR 31685959 OR 31685984 OR 31685986 OR 31685987 OR 31685988 OR 31685990 OR 31685991 OR 31685992 OR 31685994 OR 31685995 OR 31685996 OR 31685997 OR 31686030 OR 31686031 OR 31686032 OR 31686033 OR 31686035 OR 31686037 OR 31690884 OR 31700170 OR 31700171 OR 31700172 OR 31700174 OR 31700175 OR 31700181 OR 31700183 OR 31700184 OR 31700186 OR 31700187 OR 31700188 OR 31700189 OR 31700190 OR 31712773 OR 31712774 OR 31740807 OR 31740824 OR 31740825 OR 31740826 OR 31740831 OR 31740832 OR 31740833 OR 31740835 OR 31740836 OR 31740837 OR 31740838 OR 31740839 OR 31740840 OR 31768032 OR 31768033 OR 31768034 OR 31768035 OR 31768044 OR 31768046 OR 31768047 OR 31768048 OR 31768049 OR 31768064 OR 31768065 OR 31768068 OR 31768070 OR 31768071 OR 31768072 OR 31784727 OR 31784728 OR 31784729 OR 31784732 OR 31792378 OR 31792379 OR 31792380 OR 31792381 OR 31792382 OR 31792383 OR 31792407 OR 31792408 OR 31792410 OR 31792411 OR 31792442 OR 31792443 OR 31792444 OR 31792445 OR 31792454 OR 31792455 OR 31792456 OR 31792457 OR 31792458 OR 31792459 OR 31792460 OR 31792461 OR 31792462 OR 31806903 OR 31806904 OR 31806906 OR 31819258 OR 31819259 OR 31819260 OR 31819261 OR 31819269 OR 31819270 OR 31819272 OR 31819273 OR 31819274 OR 31819276 OR 31844290 OR 31844291 OR 31844292 OR 31844293 OR 31844294 OR 31844301 OR 31844302 OR 31844304 OR 31844321 OR 31844322 OR 31844323 OR 31844324 OR 31853050 OR 31871317 OR 31871319 OR 31871320 OR 31871321 OR 31873213 OR 31873215 OR 31873216 OR 31873217 OR 31873221 OR 31873223 OR 31873224 OR 31873296 OR 31873297 OR 31873298 OR 31873299 OR 31873309 OR 31873310 OR 31873312 OR 31907373 OR 31907374 OR 31907405 OR 31907410 OR 31907411 OR 31907413 OR 31907414 OR 31907458 OR 31907459 OR 31907460 OR 31907488 OR 31907489 OR 31911676 OR 31911677 OR 31913353 OR 31915373 OR 31915374 OR 31919445 OR 31925403 OR 31932695 OR 31932696 OR 31932717 OR 31932718 OR 31932719 OR 31932720 OR 31932721 OR 31932723 OR 31932726 OR 31932727 OR 31932728 OR 31932729 OR 31932730 OR 31932738 OR 31932739 OR 31932779 OR 31932785 OR 31932788 OR 31932796 OR 31932797 OR 31932798 OR 31932800 OR 31932801 OR 31932802 OR 31932804 OR 31932806 OR 31932807 OR 31959954 OR 31959955 OR 31959964 OR 31959965 OR 31959966 OR 31959988 OR 31959993 OR 31959994 OR 31988382 OR 31988461 OR 31988462 OR 31988464 OR 31992876 OR 32015434 OR 32015435 OR 32015436 OR 32015438 OR 32015439 OR 32015521 OR 32015526 OR 32015527 OR 32015548 OR 32015549 OR 32015559 OR 32024987 OR 32024997 OR 32024998 OR 32024999 OR 32025000 OR 32025001 OR 32025003 OR 32029894 OR 32029896 OR 32029897 OR 32034383 OR 32042165 OR 32042166 OR 32042167 OR 32042168 OR 32042169 OR 32042170 OR 32042179 OR 32042191 OR 32042192 OR 32042193 OR 32042194 OR 32042195 OR 32042196 OR 32042197 OR 32042198 OR 32042199 OR 32042200 OR 32047317 OR 32060489 OR 32066905 OR 32066906 OR 32066907 OR 32066938 OR 32066956 OR 32066966 OR 32066967 OR 32066968 OR 32066969 OR 32066974 OR 32066975 OR 32066977 OR 32080622 OR 32080624 OR 32080625 OR 32080630 OR 32094658 OR 32094659 OR 32094691 OR 32094692 OR 32094910 OR 32094911 OR 32094912 OR 32094922 OR 32094923 OR 32094924 OR 32094926 OR 32094927 OR 32108160 OR 32123335 OR 32123336 OR 32123383 OR 32123385 OR 32123386 OR 32123387 OR 32139906 OR 32139907 OR 32144411 OR 32152538 OR 32152539 OR 32152540 OR 32152541 OR 32152542 OR 32152543 OR 32152544 OR 32152546 OR 32152581 OR 32152582 OR 32152583 OR 32152585 OR 32152597 OR 32152598 OR 32161403 OR 32161411 OR 32161412 OR 32161413 OR 32198492 OR 32198493 OR 32203411 OR 32203412 OR 32203413 OR 32203414 OR 32203415 OR 32203416 OR 32203417 OR 32203418 OR 32203420)</t>
+  </si>
+  <si>
+    <t>PMID=(32203421 OR 32203462 OR 32203463 OR 32203464 OR 32203465 OR 32203466 OR 32203468 OR 32203469 OR 32203470 OR 32231276 OR 32231277 OR 32231305 OR 32231306 OR 32231307 OR 32231309 OR 32231310 OR 32231311 OR 32231334 OR 32231335 OR 32231336 OR 32231341 OR 32231343 OR 32249828 OR 32251373 OR 32251398 OR 32251399 OR 32251405 OR 32251406 OR 32251407 OR 32251409 OR 32251410 OR 32251411 OR 32265561 OR 32265562 OR 32269357 OR 32273606 OR 32273607 OR 32273609 OR 32273610 OR 32284542 OR 32284578 OR 32284579 OR 32284585 OR 32284586 OR 32284588 OR 32284589 OR 32284590 OR 32284601 OR 32284602 OR 32284603 OR 32284611 OR 32284617 OR 32284618 OR 32284619 OR 32296168 OR 32300245 OR 32313104 OR 32313247 OR 32313248 OR 32313249 OR 32317764 OR 32322102 OR 32327757 OR 32341502 OR 32341503 OR 32341525 OR 32341526 OR 32341547 OR 32341548 OR 32341549 OR 32341550 OR 32341562 OR 32341563 OR 32341564 OR 32341565 OR 32341579 OR 32341581 OR 32350461 OR 32350462 OR 32361713 OR 32367017 OR 32367018 OR 32367019 OR 32367046 OR 32367047 OR 32367048 OR 32367049 OR 32367060 OR 32371934 OR 32382151 OR 32382154 OR 32393799 OR 32393800 OR 32393803 OR 32393804 OR 32393821 OR 32393822 OR 32393859 OR 32393884 OR 32393886 OR 32393887 OR 32393888 OR 32393889 OR 32393898 OR 32393899 OR 32393900 OR 32393901 OR 32393904 OR 32393905 OR 32398875 OR 32405028 OR 32405055 OR 32405057 OR 32405062 OR 32405063 OR 32424211 OR 32424212 OR 32424275 OR 32424303 OR 32424304 OR 32424305 OR 32424349 OR 32424350 OR 32424351 OR 32424352 OR 32424355 OR 32427924 OR 32433547 OR 32440005 OR 32451439 OR 32451440 OR 32451441 OR 32451458 OR 32451459 OR 32451496 OR 32451497 OR 32451498 OR 32451499 OR 32451505 OR 32451506 OR 32451507 OR 32451508 OR 32451509 OR 32457443 OR 32457444 OR 32457445 OR 32461697 OR 32461698 OR 32472114 OR 32483290 OR 32483291 OR 32483358 OR 32483360 OR 32483361 OR 32483363 OR 32483364 OR 32483365 OR 32483376 OR 32483377 OR 32483378 OR 32483379 OR 32483380 OR 32483386 OR 32483387 OR 32483388 OR 32488218 OR 32504052 OR 32514071 OR 32514122 OR 32514123 OR 32514124 OR 32514125 OR 32514169 OR 32514171 OR 32514172 OR 32514174 OR 32514183 OR 32514184 OR 32518401 OR 32518404 OR 32528151 OR 32528153 OR 32528154 OR 32528155 OR 32541877 OR 32541878 OR 32541879 OR 32541924 OR 32541955 OR 32541956 OR 32541957 OR 32541958 OR 32541965 OR 32541966 OR 32546823 OR 32546824 OR 32555424 OR 32555514 OR 32572169 OR 32572210 OR 32572264 OR 32572265 OR 32572266 OR 32572267 OR 32572268 OR 32572275 OR 32572277 OR 32572278 OR 32581323 OR 32591762 OR 32601335 OR 32601336 OR 32601338 OR 32601371 OR 32601372 OR 32601373 OR 32601430 OR 32601431 OR 32601432 OR 32601433 OR 32601434 OR 32601472 OR 32601473 OR 32601477 OR 32601478 OR 32601484 OR 32601485 OR 32601486 OR 32606475 OR 32632193 OR 32632194 OR 32632293 OR 32632294 OR 32632300 OR 32632301 OR 32632302 OR 32632303 OR 32632335 OR 32632336 OR 32641783 OR 32641843 OR 32641851 OR 32647358 OR 32651581 OR 32661339 OR 32661378 OR 32661379 OR 32661390 OR 32661391 OR 32661393 OR 32661401 OR 32661438 OR 32661439 OR 32661440 OR 32665655 OR 32665660 OR 32678356 OR 32686750 OR 32690888 OR 32690941 OR 32690942 OR 32690943 OR 32690944 OR 32690945 OR 32690947 OR 32690948 OR 32690970 OR 32690971 OR 32690972 OR 32690973 OR 32704169 OR 32719478 OR 32719479 OR 32719484 OR 32719486 OR 32719489 OR 32719515 OR 32719516 OR 32719517 OR 32719551 OR 32719553 OR 32719554 OR 32719555 OR 32719556 OR 32719557 OR 32719558 OR 32733074 OR 32733075 OR 32733106 OR 32747759 OR 32747809 OR 32747811 OR 32747812 OR 32747822 OR 32747824 OR 32747825 OR 32747826 OR 32747827 OR 32747828 OR 32747829 OR 32753669 OR 32753671 OR 32753672 OR 32760020 OR 32770166 OR 32770167 OR 32770169 OR 32778823 OR 32778825 OR 32778826 OR 32778828 OR 32778840 OR 32778841 OR 32778842 OR 32778843 OR 32778844 OR 32778845 OR 32778846 OR 32788668 OR 32807901 OR 32807902 OR 32807903 OR 32807930 OR 32807933 OR 32807934 OR 32807937 OR 32807964 OR 32807965 OR 32807966 OR 32807967 OR 32807968 OR 32807969 OR 32807987 OR 32807988 OR 32812012 OR 32839548 OR 32839549 OR 32839551 OR 32839564 OR 32839604 OR 32839605 OR 32839606 OR 32839619 OR 32839620 OR 32839623 OR 32839624 OR 32868878 OR 32868895 OR 32868900 OR 32868902 OR 32868903 OR 32868907 OR 32868908 OR 32868913 OR 32868914 OR 32879467 OR 32879509 OR 32884147 OR 32884153 OR 32895492 OR 32895497 OR 32895498 OR 32895548 OR 32895550 OR 32895551 OR 32895570 OR 32895572 OR 32908256 OR 32908257 OR 32908258 OR 32908273 OR 32908274 OR 32908275 OR 32908280 OR 32929201 OR 32929202 OR 32929263 OR 32929264 OR 32929266 OR 32929268 OR 32929277 OR 32929278 OR 32929279 OR 32929285 OR 32929287 OR 32929288 OR 32934372 OR 32943787 OR 32948856 OR 32958856 OR 32958857 OR 32958950 OR 32958952 OR 32958953 OR 32958957 OR 32958958 OR 32989246 OR 32989247 OR 32989249 OR 32989250 OR 32989251 OR 32989297 OR 32989298 OR 32989299 OR 32989300 OR 32989301 OR 32989314 OR 32989320 OR 32989321 OR 32989322 OR 32989324 OR 32989325 OR 32989326 OR 33005030 OR 33020597 OR 33020604 OR 33020626 OR 33020633 OR 33020650 OR 33020651 OR 33020664 OR 33020665 OR 33020667 OR 33046851 OR 33046855 OR 33046875 OR 33046882 OR 33046884 OR 33057181 OR 33077910 OR 33077911 OR 33077913 OR 33077915 OR 33077916 OR 33077954 OR 33077955 OR 33077960 OR 33077961 OR 33077962 OR 33077978 OR 33082574 OR 33082575 OR 33093683 OR 33093684 OR 33097835 OR 33106631 OR 33106633 OR 33106634 OR 33106660 OR 33106661)</t>
+  </si>
+  <si>
+    <t>PMID=(33106662 OR 33106663 OR 33106664 OR 33106666 OR 33106681 OR 33106685 OR 33122860 OR 33128048 OR 33139939 OR 33139948 OR 33139949 OR 33139950 OR 33139952 OR 33139953 OR 33144720 OR 33168978 OR 33169016 OR 33169017 OR 33169020 OR 33169034 OR 33169035 OR 33169036 OR 33184509 OR 33188278 OR 33199844 OR 33199845 OR 33199875 OR 33199876 OR 33199912 OR 33199913 OR 33199914 OR 33199915 OR 33199916 OR 33199917 OR 33230292 OR 33230293 OR 33230297 OR 33230298 OR 33230299 OR 33230302 OR 33230303 OR 33257806 OR 33257808 OR 33257861 OR 33257862 OR 33257863 OR 33257864 OR 33257873 OR 33257893 OR 33257898 OR 33273733 OR 33273741 OR 33288888 OR 33288904 OR 33288905 OR 33288906 OR 33288918 OR 33288938 OR 33288941 OR 33288943 OR 33288946 OR 33288957 OR 33311702 OR 33318652 OR 33318687 OR 33328655 OR 33340033 OR 33349699 OR 33349701 OR 33349707 OR 33361824 OR 33398151 OR 33398152 OR 33398153 OR 33398154 OR 33398159 OR 33398160 OR 33398161 OR 33398162 OR 33398163 OR 33398167 OR 33398168 OR 33398170 OR 33398177 OR 33398178 OR 33398196 OR 33398197 OR 33414545 OR 33414548 OR 33414552 OR 33414553 OR 33420488 OR 33420489 OR 33420490 OR 33420491 OR 33420492 OR 33432170 OR 33432171 OR 33432172 OR 33432173 OR 33432184 OR 33432197 OR 33432198 OR 33432199 OR 33432215 OR 33432236 OR 33432237 OR 33432238 OR 33442007 OR 33442014 OR 33442016 OR 33462394 OR 33462395 OR 33462444 OR 33462447 OR 33462448 OR 33462482 OR 33462483 OR 33462484 OR 33462485 OR 33462493 OR 33462494 OR 33462496 OR 33462497 OR 33462507 OR 33462508 OR 33462509 OR 33479500 OR 33479501 OR 33495597 OR 33495598 OR 33495603 OR 33495604 OR 33495632 OR 33495633 OR 33495646 OR 33495647 OR 33495648 OR 33510451 OR 33510452 OR 33510477 OR 33526892 OR 33526893 OR 33526902 OR 33526923 OR 33526924 OR 33526925 OR 33526928 OR 33531709 OR 33536629 OR 33542532 OR 33542533 OR 33542534 OR 33558697 OR 33558698 OR 33558722 OR 33558724 OR 33558728 OR 33558729 OR 33558757 OR 33558758 OR 33558760 OR 33574608 OR 33574609 OR 33574610 OR 33574615 OR 33589825 OR 33603203 OR 33603233 OR 33603234 OR 33603240 OR 33603247 OR 33619369 OR 33619371 OR 33619384 OR 33619394 OR 33623157 OR 33633365 OR 33633378 OR 33633408 OR 33649477 OR 33649496 OR 33649568 OR 33649592 OR 33649593 OR 33649594 OR 33649598 OR 33649601 OR 33654292 OR 33664492 OR 33664494 OR 33664495 OR 33664496 OR 33664506 OR 33664507 OR 33664520 OR 33664521 OR 33686253 OR 33686261 OR 33686287 OR 33686288 OR 33686291 OR 33686292 OR 33686294 OR 33692505 OR 33692530 OR 33692568 OR 33707772 OR 33707773 OR 33707775 OR 33707777 OR 33707782 OR 33707784 OR 33723431 OR 33723432 OR 33723455 OR 33731941 OR 33737749 OR 33737750 OR 33737751 OR 33737754 OR 33737755 OR 33737758 OR 33753926 OR 33753927 OR 33753928 OR 33753930 OR 33767387 OR 33767388 OR 33767395 OR 33767397 OR 33767405 OR 33767450 OR 33772244 OR 33782603 OR 33782605 OR 33782610 OR 33782612 OR 33782619 OR 33795864 OR 33795866 OR 33795867 OR 33795870 OR 33795871 OR 33795873 OR 33795874 OR 33795875 OR 33795886 OR 33820972 OR 33820973 OR 33820990 OR 33820993 OR 33820994 OR 33820995 OR 33820998 OR 33821002 OR 33821003 OR 33821005 OR 33821006 OR 33833428 OR 33833429 OR 33833453 OR 33833454 OR 33833456 OR 33837285 OR 33837287 OR 33837289 OR 33837377 OR 33846610 OR 33846619 OR 33846634 OR 33846635 OR 33846636 OR 33846645 OR 33846646 OR 33846649 OR 33859400 OR 33859401 OR 33859402 OR 33859403 OR 33859413 OR 33859415 OR 33859416 OR 33859417 OR 33859435 OR 33864052 OR 33875864 OR 33875866 OR 33875889 OR 33875890 OR 33879890 OR 33888907 OR 33888908 OR 33903769 OR 33927397 OR 33927398 OR 33927399 OR 33927411 OR 33927414 OR 33927415 OR 33927416 OR 33927418 OR 33941892 OR 33941922 OR 33941924 OR 33941928 OR 33941932 OR 33941934 OR 33953384 OR 33958758 OR 33958760 OR 33958779 OR 33958780 OR 33958783 OR 33958785 OR 33958791 OR 33958792 OR 33958793 OR 33958794 OR 33958797 OR 33972728 OR 33972729 OR 33972730 OR 33972731 OR 33972733 OR 33972734 OR 33972779 OR 33972780 OR 33972781 OR 33972793 OR 33972794 OR 33972797 OR 33972799 OR 33981074 OR 33986536 OR 33986537 OR 33986538 OR 33986546 OR 33990806 OR 34002089 OR 34002094 OR 34002095 OR 34002098 OR 34007071 OR 34012094 OR 34017132 OR 34017133 OR 34017135 OR 34017136 OR 34017141 OR 34031602 OR 34031604 OR 34031605 OR 34035521 OR 34035522 OR 34035535 OR 34040262 OR 34045736 OR 34045745 OR 34045764 OR 34059824 OR 34059833 OR 34083785 OR 34083788 OR 34083789 OR 34083791 OR 34083793 OR 34083810 OR 34083811 OR 34083812 OR 34089038 OR 34099916 OR 34099924 OR 34099928 OR 34108656 OR 34108657 OR 34108659 OR 34108662 OR 34108663 OR 34108714 OR 34108716 OR 34113015 OR 34127854 OR 34127860 OR 34140680 OR 34140681 OR 34140682 OR 34140684 OR 34140685 OR 34140702 OR 34140703 OR 34140705 OR 34155378 OR 34155402 OR 34155404 OR 34155407 OR 34155414 OR 34163090 OR 34168334 OR 34168346 OR 34168367 OR 34168368 OR 34183834 OR 34183835 OR 34183837 OR 34183853 OR 34183860 OR 34183861 OR 34188222 OR 34188224 OR 34211162 OR 34211177 OR 34211178 OR 34211179 OR 34211183 OR 34226698 OR 34226706 OR 34226710 OR 34226734 OR 34226736 OR 34239060 OR 34239062 OR 34239063 OR 34239064 OR 34239087 OR 34239088 OR 34239127 OR 34239132 OR 34239134 OR 34239136 OR 34239137 OR 34244681 OR 34244682 OR 34253896 OR 34253897 OR 34253898 OR 34253909 OR 34253910 OR 34253920 OR 34257406 OR 34257454 OR 34262158 OR 34267370 OR 34267371 OR 34267373 OR 34272499 OR 34282324 OR 34282336 OR 34282338 OR 34294896)</t>
+  </si>
+  <si>
+    <t>PMID=(34294911 OR 34294912 OR 34294917 OR 34312500 OR 34312540 OR 34312563 OR 34326481 OR 34326538 OR 34326544 OR 34326545 OR 34326547 OR 34326548 OR 34326549 OR 34326550 OR 34326551 OR 34341532 OR 34341533 OR 34341557 OR 34341563 OR 34341587 OR 34341589 OR 34354233 OR 34354236 OR 34354237 OR 34354262 OR 34373642 OR 34373653 OR 34376839 OR 34385683 OR 34385691 OR 34385710 OR 34385711 OR 34413516 OR 34413517 OR 34413525 OR 34426703 OR 34426704 OR 34426706 OR 34446931 OR 34462587 OR 34462588 OR 34462589 OR 34462590 OR 34462605 OR 34475532 OR 34475533 OR 34475534 OR 34475560 OR 34475564 OR 34475565 OR 34475573 OR 34480125 OR 34480127 OR 34489571 OR 34489572 OR 34489573 OR 34489574 OR 34489600 OR 34489601 OR 34489607 OR 34489608 OR 34493866 OR 34493867 OR 34493868 OR 34493869 OR 34493870 OR 34493871 OR 34493872 OR 34497368 OR 34497372 OR 34497373 OR 34504322 OR 34504346 OR 34504347 OR 34518678 OR 34518685 OR 34522051 OR 34526699 OR 34531539 OR 34556857 OR 34556858 OR 34556859 OR 34556860 OR 34556862 OR 34556863 OR 34588689 OR 34594037 OR 34594038 OR 34594039 OR 34594040 OR 34594041 OR 34594042 OR 34608293 OR 34608325 OR 34608326 OR 34608327 OR 34608330 OR 34608331 OR 34611362 OR 34611363 OR 34611364 OR 34616019 OR 34616022 OR 34616024 OR 34616026 OR 34621053 OR 34635836 OR 34635838 OR 34635842 OR 34635846 OR 34635852 OR 34642488 OR 34642490 OR 34650237 OR 34650248 OR 34650268 OR 34650269 OR 34650270 OR 34663920 OR 34663921 OR 34663923 OR 34663924 OR 34663942 OR 34663986 OR 34663988 OR 34675383 OR 34675390 OR 34675413 OR 34675414 OR 34675415 OR 34675420 OR 34675423 OR 34675424 OR 34697476 OR 34697502 OR 34707318 OR 34711974 OR 34711980 OR 34711981 OR 34711982 OR 34711989 OR 34711990 OR 34725502 OR 34725503 OR 34725509 OR 34725510 OR 34725511 OR 34728830 OR 34728831 OR 34737425 OR 34737426 OR 34737427 OR 34737428 OR 34737442 OR 34737445 OR 34741162 OR 34741163 OR 34750581 OR 34754101 OR 34764473 OR 34764489 OR 34764491 OR 34764492 OR 34782739 OR 34782740 OR 34782741 OR 34782742 OR 34782743 OR 34782763 OR 34782764 OR 34782790 OR 34795433 OR 34799735 OR 34811483 OR 34811516 OR 34824459 OR 34837083 OR 34845373 OR 34845389 OR 34857912 OR 34857927 OR 34857952 OR 34857953 OR 34857954 OR 34857958 OR 34873283 OR 34873326 OR 34873345 OR 34876684 OR 34876685 OR 34876687 OR 34876692 OR 34887515 OR 34887556 OR 34887573 OR 34887575 OR 34887578 OR 34887587 OR 34893771 OR 34893775 OR 34893776 OR 34903851 OR 34903892 OR 34907383 OR 34907389 OR 34907391 OR 34907393 OR 34916619 OR 34916620 OR 34921308 OR 34931062 OR 34931064 OR 34931065 OR 34931066 OR 34931067 OR 34931076 OR 34934187 OR 34934192 OR 34937906 OR 34937907 OR 34937909 OR 34937911 OR 34937912 OR 34937913 OR 34949778 OR 34949835 OR 34949836 OR 34949837 OR 34949838 OR 34949839 OR 34961794 OR 34969962 OR 34969970 OR 34969972 OR 34969973 OR 34980910 OR 34980911 OR 34980912 OR 34980913 OR 34980915 OR 34980917 OR 34980919 OR 34992245 OR 34992246 OR 34992247 OR 34992267 OR 35013556 OR 35013558 OR 35013600 OR 35013613 OR 35022575 OR 35022603 OR 35027729 OR 35027730 OR 35027731 OR 35027733 OR 35027734 OR 35027735 OR 35027740 OR 35027744 OR 35027753 OR 35027754 OR 35027755 OR 35027756 OR 35027757 OR 35027758 OR 35031790 OR 35039640 OR 35039641 OR 35039656 OR 35039657 OR 35039677 OR 35042228 OR 35043019 OR 35045566 OR 35046572 OR 35046573 OR 35046611 OR 35051989 OR 35051990 OR 35058622 OR 35058645 OR 35075232 OR 35075289 OR 35075293 OR 35090165 OR 35102292 OR 35102336 OR 35102337 OR 35115686 OR 35115689 OR 35115690 OR 35115705 OR 35115707 OR 35115708 OR 35130561 OR 35132260 OR 35132263 OR 35132265 OR 35140406 OR 35145221 OR 35145222 OR 35145224 OR 35145225 OR 35145274 OR 35145300 OR 35145301 OR 35145304 OR 35145305 OR 35145312 OR 35145313 OR 35165384 OR 35165413 OR 35165416 OR 35165418 OR 35165443 OR 35165445 OR 35165453 OR 35169305 OR 35177821 OR 35177822 OR 35177836 OR 35177837 OR 35177839 OR 35177841 OR 35177855 OR 35177857 OR 35177858 OR 35177859 OR 35177860 OR 35177862 OR 35189624 OR 35190685 OR 35190686 OR 35190688 OR 35190689 OR 35190690 OR 35190725 OR 35190726 OR 35190730 OR 35194207 OR 35210567 OR 35210568 OR 35210596 OR 35210597 OR 35210612 OR 35210618 OR 35210619 OR 35210620 OR 35228706 OR 35228707 OR 35228751 OR 35241824 OR 35241825 OR 35241826 OR 35241836 OR 35241837 OR 35241838 OR 35241839 OR 35241840 OR 35241842 OR 35241843 OR 35246667 OR 35256774 OR 35256775 OR 35256776 OR 35256804 OR 35256805 OR 35256806 OR 35256815 OR 35256816 OR 35260848 OR 35273398 OR 35273399 OR 35288656 OR 35288668 OR 35288694 OR 35288696 OR 35288697 OR 35288709 OR 35288711 OR 35288712 OR 35289327 OR 35289328 OR 35292781 OR 35292783 OR 35292784 OR 35296820 OR 35301437 OR 35301479 OR 35301481 OR 35301482 OR 35301496 OR 35314812 OR 35314813 OR 35314814 OR 35314816 OR 35314822 OR 35314841 OR 35314845 OR 35322239 OR 35332263 OR 35332264 OR 35332318 OR 35332331 OR 35332332 OR 35332338 OR 35332339 OR 35332340 OR 35332341 OR 35347280 OR 35347282 OR 35347305 OR 35347329 OR 35361970 OR 35361990 OR 35361996 OR 35379961 OR 35379962 OR 35379963 OR 35379992 OR 35379993 OR 35383308 OR 35383313 OR 35393535 OR 35393539 OR 35393561 OR 35393574 OR 35393575 OR 35393594 OR 35393595 OR 35393596 OR 35393597 OR 35395151 OR 35410377 OR 35410378 OR 35410381 OR 35410383 OR 35410384 OR 35411075 OR 35411077 OR 35411078 OR 35411079 OR 35411081 OR 35411083 OR 35411085 OR 35411086 OR 35411088 OR 35411116 OR 35414015)</t>
+  </si>
+  <si>
+    <t>PMID=(35414019 OR 35414020 OR 35418624 OR 35418641 OR 35422459 OR 35437329 OR 35437332 OR 35440715 OR 35440718 OR 35440725 OR 35449414 OR 35449415 OR 35449456 OR 35468276 OR 35468950 OR 35468954 OR 35468955 OR 35468964 OR 35469017 OR 35469018 OR 35469069 OR 35484246 OR 35484247 OR 35484249 OR 35484250 OR 35484257 OR 35484262 OR 35484264 OR 35484265 OR 35484301 OR 35484405 OR 35484434 OR 35484435 OR 35501370 OR 35501392 OR 35501419 OR 35501486 OR 35513511 OR 35513512 OR 35513526 OR 35513709 OR 35513710 OR 35513711 OR 35513721 OR 35513723 OR 35513724 OR 35513725 OR 35513726 OR 35534559 OR 35534561 OR 35534562 OR 35534563 OR 35534565 OR 35534572 OR 35534577 OR 35537471 OR 35538258 OR 35538260 OR 35550611 OR 35550612 OR 35550614 OR 35550615 OR 35551261 OR 35551305 OR 35551306 OR 35551308 OR 35551309 OR 35551310 OR 35562483 OR 35562484 OR 35562485 OR 35577941 OR 35578032 OR 35585331 OR 35590003 OR 35590073 OR 35590074 OR 35590106 OR 35590109 OR 35605637 OR 35606422 OR 35606490 OR 35606552 OR 35606556 OR 35606558 OR 35614233 OR 35618746 OR 35618837 OR 35618838 OR 35618845 OR 35618846 OR 35618847 OR 35618928 OR 35618932 OR 35637336 OR 35637337 OR 35637349 OR 35637350 OR 35637351 OR 35637384 OR 35637385 OR 35637408 OR 35637409 OR 35637418 OR 35637419 OR 35641827 OR 35654839 OR 35654840 OR 35654841 OR 35654845 OR 35654846 OR 35654847 OR 35654906 OR 35654907 OR 35654973 OR 35654975 OR 35654976 OR 35654977 OR 35654978 OR 35654979 OR 35668135 OR 35668177 OR 35668191 OR 35668298 OR 35668300 OR 35668323 OR 35668324 OR 35668325 OR 35675841 OR 35676500 OR 35676539 OR 35681008 OR 35681009 OR 35681011 OR 35681029 OR 35681030 OR 35681052 OR 35681053 OR 35681054 OR 35681055 OR 35681059 OR 35697781 OR 35697783 OR 35697785 OR 35697798 OR 35697804 OR 35697806 OR 35697807 OR 35697808 OR 35697842 OR 35697843 OR 35697866 OR 35697867 OR 35705705 OR 35705707 OR 35710616 OR 35710617 OR 35710619 OR 35710981 OR 35710987 OR 35710995 OR 35711061 OR 35715589 OR 35725768 OR 35725769 OR 35725921 OR 35725941 OR 35726067 OR 35726091 OR 35726092 OR 35726093 OR 35739268 OR 35739270 OR 35739317 OR 35739318 OR 35739319 OR 35739357 OR 35739388 OR 35750157 OR 35760080 OR 35760859 OR 35760861 OR 35760913 OR 35760914 OR 35760916 OR 35761075 OR 35761077 OR 35761078 OR 35773341 OR 35773407 OR 35773432 OR 35773542 OR 35787683 OR 35787684 OR 35788175 OR 35788180 OR 35788181 OR 35788565 OR 35788566 OR 35788567 OR 35788568 OR 35789323 OR 35798842 OR 35798843 OR 35798900 OR 35799063 OR 35799064 OR 35804153 OR 35817959 OR 35817960 OR 35817961 OR 35817967 OR 35817968 OR 35817971 OR 35817972 OR 35817974 OR 35817975 OR 35817976 OR 35817977 OR 35817979 OR 35817981 OR 35817982 OR 35817983 OR 35817985 OR 35817986 OR 35821080 OR 35831517 OR 35831656 OR 35831660 OR 35835912 OR 35835913 OR 35835915 OR 35836017 OR 35836018 OR 35836020 OR 35851189 OR 35851190 OR 35851191 OR 35851376 OR 35851616 OR 35851877 OR 35864170 OR 35864171 OR 35864190 OR 35864192 OR 35864193 OR 35864251 OR 35864252 OR 35864256 OR 35864257 OR 35864314 OR 35864332 OR 35864333 OR 35864335 OR 35869308 OR 35879362 OR 35879364 OR 35879412 OR 35879414 OR 35879545 OR 35879546 OR 35879547 OR 35879551 OR 35879615 OR 35879616 OR 35902743 OR 35902744 OR 35902769 OR 35915156 OR 35915159 OR 35915259 OR 35927450 OR 35927451 OR 35927489 OR 35927581 OR 35927585 OR 35931863 OR 35931864 OR 35941187 OR 35941237 OR 35941365 OR 35941367 OR 35941368 OR 35941369 OR 35941376 OR 35945440 OR 35945445 OR 35945446 OR 35945447 OR 35948628 OR 35953547 OR 35953549 OR 35953550 OR 35953586 OR 35953587 OR 35953717 OR 35953718 OR 35953722 OR 35961373 OR 35962207 OR 35970919 OR 35970921 OR 35970996 OR 35970997 OR 35982161 OR 35982226 OR 35982227 OR 35982307 OR 35995863 OR 35995947 OR 35995948 OR 35995954 OR 35995955 OR 35996000 OR 35996001 OR 35996002 OR 35996003 OR 36008487 OR 36008711 OR 36008723 OR 36038628 OR 36038629 OR 36038634 OR 36042293 OR 36050469 OR 36050470 OR 36050493 OR 36050548 OR 36050549 OR 36064600 OR 36064796 OR 36064797 OR 36064968 OR 36065018 OR 36068437 OR 36071171 OR 36071173 OR 36075972 OR 36075974 OR 36075975 OR 36075976 OR 36076082 OR 36076085 OR 36076086 OR 36085501 OR 36085503 OR 36085510 OR 36085511 OR 36085512 OR 36097071 OR 36097072 OR 36097217 OR 36097219 OR 36097220 OR 36097221 OR 36097223 OR 36097295 OR 36097297 OR 36100738 OR 36104595 OR 36109636 OR 36109638 OR 36109639 OR 36109643 OR 36109649 OR 36109670 OR 36109671 OR 36123406 OR 36127419 OR 36131148 OR 36131151 OR 36138139 OR 36138150 OR 36138151 OR 36138152 OR 36138153 OR 36138154 OR 36138229 OR 36138232 OR 36151323 OR 36163278 OR 36163279 OR 36163280 OR 36163297 OR 36163298 OR 36163383 OR 36163386 OR 36175678 OR 36175679 OR 36175680 OR 36175792 OR 36192556 OR 36192632 OR 36192636 OR 36195755 OR 36195757 OR 36195758 OR 36202971 OR 36202972 OR 36202973 OR 36202974 OR 36202975 OR 36202976 OR 36203002 OR 36203011 OR 36207523 OR 36207587 OR 36216931 OR 36216932 OR 36216934 OR 36216935 OR 36216936 OR 36216942 OR 36229666 OR 36229673 OR 36229674 OR 36229681 OR 36229685 OR 36241719 OR 36253535 OR 36253572 OR 36266359 OR 36266488 OR 36266489 OR 36266505 OR 36266506 OR 36266507 OR 36280732 OR 36280733 OR 36302894 OR 36302967 OR 36302969 OR 36302970 OR 36302971 OR 36303074 OR 36307580 OR 36319855 OR 36333402 OR 36333500 OR 36333502 OR 36333503 OR 36333504 OR 36333505 OR 36333506 OR 36333509 OR 36344775 OR 36347944 OR 36347984 OR 36347987 OR 36347988)</t>
+  </si>
+  <si>
+    <t>PMID=(36347989 OR 36347990 OR 36347991 OR 36352264 OR 36357619 OR 36357675 OR 36357676 OR 36357677 OR 36357678 OR 36357680 OR 36369288 OR 36376475 OR 36396707 OR 36396708 OR 36396954 OR 36400993 OR 36400994 OR 36400997 OR 36400998 OR 36401088 OR 36411363 OR 36411364 OR 36443426 OR 36443443 OR 36446885 OR 36456828 OR 36456880 OR 36456881 OR 36456882 OR 36471067 OR 36471068 OR 36471070 OR 36471071 OR 36471073 OR 36471076 OR 36471080 OR 36471082 OR 36471127 OR 36471135 OR 36474046 OR 36474047 OR 36474070 OR 36474072 OR 36477501 OR 36477510 OR 36477511)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -105,6 +213,294 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>